--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:01+09:00</t>
+          <t>2026-02-22T15:51:13+09:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:01+09:00</t>
+          <t>2026-02-22T15:51:13+09:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:01+09:00</t>
+          <t>2026-02-22T15:51:13+09:00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:01+09:00</t>
+          <t>2026-02-22T15:51:13+09:00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:06+09:00</t>
+          <t>2026-02-22T15:51:17+09:00</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:08+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:09+09:00</t>
+          <t>2026-02-22T15:51:19+09:00</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:10+09:00</t>
+          <t>2026-02-22T15:51:21+09:00</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:12+09:00</t>
+          <t>2026-02-22T15:51:23+09:00</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:13+09:00</t>
+          <t>2026-02-22T15:51:24+09:00</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:13+09:00</t>
+          <t>2026-02-22T15:51:24+09:00</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:13+09:00</t>
+          <t>2026-02-22T15:51:24+09:00</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:15+09:00</t>
+          <t>2026-02-22T15:51:26+09:00</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:15+09:00</t>
+          <t>2026-02-22T15:51:26+09:00</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:15+09:00</t>
+          <t>2026-02-22T15:51:26+09:00</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:15+09:00</t>
+          <t>2026-02-22T15:51:26+09:00</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:17+09:00</t>
+          <t>2026-02-22T15:51:27+09:00</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:17+09:00</t>
+          <t>2026-02-22T15:51:27+09:00</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:17+09:00</t>
+          <t>2026-02-22T15:51:27+09:00</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:17+09:00</t>
+          <t>2026-02-22T15:51:27+09:00</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:18+09:00</t>
+          <t>2026-02-22T15:51:28+09:00</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:19+09:00</t>
+          <t>2026-02-22T15:51:29+09:00</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:19+09:00</t>
+          <t>2026-02-22T15:51:29+09:00</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:19+09:00</t>
+          <t>2026-02-22T15:51:29+09:00</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:19+09:00</t>
+          <t>2026-02-22T15:51:29+09:00</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:19+09:00</t>
+          <t>2026-02-22T15:51:29+09:00</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:19+09:00</t>
+          <t>2026-02-22T15:51:29+09:00</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:19+09:00</t>
+          <t>2026-02-22T15:51:29+09:00</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:19+09:00</t>
+          <t>2026-02-22T15:51:29+09:00</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:19+09:00</t>
+          <t>2026-02-22T15:51:29+09:00</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:21+09:00</t>
+          <t>2026-02-22T15:51:31+09:00</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:21+09:00</t>
+          <t>2026-02-22T15:51:31+09:00</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:21+09:00</t>
+          <t>2026-02-22T15:51:31+09:00</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:21+09:00</t>
+          <t>2026-02-22T15:51:31+09:00</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:22+09:00</t>
+          <t>2026-02-22T15:51:32+09:00</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:24+09:00</t>
+          <t>2026-02-22T15:51:34+09:00</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6808,7 +6808,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:24+09:00</t>
+          <t>2026-02-22T15:51:34+09:00</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:24+09:00</t>
+          <t>2026-02-22T15:51:34+09:00</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:24+09:00</t>
+          <t>2026-02-22T15:51:34+09:00</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:24+09:00</t>
+          <t>2026-02-22T15:51:34+09:00</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7072,7 +7072,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:24+09:00</t>
+          <t>2026-02-22T15:51:34+09:00</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:24+09:00</t>
+          <t>2026-02-22T15:51:34+09:00</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:24+09:00</t>
+          <t>2026-02-22T15:51:34+09:00</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:25+09:00</t>
+          <t>2026-02-22T15:51:36+09:00</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:25+09:00</t>
+          <t>2026-02-22T15:51:36+09:00</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7399,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:25+09:00</t>
+          <t>2026-02-22T15:51:36+09:00</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:26+09:00</t>
+          <t>2026-02-22T15:51:36+09:00</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:26+09:00</t>
+          <t>2026-02-22T15:51:36+09:00</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:28+09:00</t>
+          <t>2026-02-22T15:51:38+09:00</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:28+09:00</t>
+          <t>2026-02-22T15:51:38+09:00</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:28+09:00</t>
+          <t>2026-02-22T15:51:38+09:00</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:30+09:00</t>
+          <t>2026-02-22T15:51:40+09:00</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7868,7 +7868,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:30+09:00</t>
+          <t>2026-02-22T15:51:40+09:00</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:30+09:00</t>
+          <t>2026-02-22T15:51:40+09:00</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:30+09:00</t>
+          <t>2026-02-22T15:51:40+09:00</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -8012,7 +8012,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:30+09:00</t>
+          <t>2026-02-22T15:51:40+09:00</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:30+09:00</t>
+          <t>2026-02-22T15:51:40+09:00</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:30+09:00</t>
+          <t>2026-02-22T15:51:40+09:00</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8213,7 +8213,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:30+09:00</t>
+          <t>2026-02-22T15:51:40+09:00</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8337,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:31+09:00</t>
+          <t>2026-02-22T15:51:41+09:00</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9007,7 +9007,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9409,7 +9409,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -9419,7 +9419,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9610,7 +9610,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9673,7 +9673,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:32+09:00</t>
+          <t>2026-02-22T15:51:42+09:00</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -9750,7 +9750,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9874,7 +9874,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10018,7 +10018,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10085,7 +10085,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10142,7 +10142,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10410,7 +10410,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10477,7 +10477,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -10487,7 +10487,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10678,7 +10678,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10812,7 +10812,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:34+09:00</t>
+          <t>2026-02-22T15:51:43+09:00</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11080,7 +11080,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:35+09:00</t>
+          <t>2026-02-22T15:51:44+09:00</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:35+09:00</t>
+          <t>2026-02-22T15:51:44+09:00</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:35+09:00</t>
+          <t>2026-02-22T15:51:44+09:00</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:35+09:00</t>
+          <t>2026-02-22T15:51:44+09:00</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:35+09:00</t>
+          <t>2026-02-22T15:51:44+09:00</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -11358,7 +11358,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:35+09:00</t>
+          <t>2026-02-22T15:51:44+09:00</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -11425,7 +11425,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11482,7 +11482,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:35+09:00</t>
+          <t>2026-02-22T15:51:44+09:00</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:35+09:00</t>
+          <t>2026-02-22T15:51:44+09:00</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11616,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:35+09:00</t>
+          <t>2026-02-22T15:51:44+09:00</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:35+09:00</t>
+          <t>2026-02-22T15:51:44+09:00</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11750,7 +11750,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:35+09:00</t>
+          <t>2026-02-22T15:51:44+09:00</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -11760,7 +11760,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:36+09:00</t>
+          <t>2026-02-22T15:51:45+09:00</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -11827,7 +11827,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:36+09:00</t>
+          <t>2026-02-22T15:51:45+09:00</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -11894,7 +11894,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:36+09:00</t>
+          <t>2026-02-22T15:51:45+09:00</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12018,7 +12018,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:36+09:00</t>
+          <t>2026-02-22T15:51:45+09:00</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:36+09:00</t>
+          <t>2026-02-22T15:51:45+09:00</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12152,7 +12152,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:38+09:00</t>
+          <t>2026-02-22T15:51:46+09:00</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12286,7 +12286,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -12296,7 +12296,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12420,7 +12420,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12487,7 +12487,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -12497,7 +12497,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12554,7 +12554,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13023,7 +13023,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -13033,7 +13033,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -13100,7 +13100,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13224,7 +13224,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13291,7 +13291,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13358,7 +13358,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -13435,7 +13435,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13488,7 +13488,7 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -13498,7 +13498,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13622,7 +13622,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -13632,7 +13632,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -13699,7 +13699,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13756,7 +13756,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13823,7 +13823,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -13833,7 +13833,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:39+09:00</t>
+          <t>2026-02-22T15:51:47+09:00</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -13957,7 +13957,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:41+09:00</t>
+          <t>2026-02-22T15:51:49+09:00</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -13967,7 +13967,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14020,7 +14020,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:42+09:00</t>
+          <t>2026-02-22T15:51:50+09:00</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -14030,7 +14030,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:42+09:00</t>
+          <t>2026-02-22T15:51:50+09:00</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -14164,7 +14164,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14221,7 +14221,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14556,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -14566,7 +14566,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -14700,7 +14700,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14757,7 +14757,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -14767,7 +14767,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14824,7 +14824,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -14834,7 +14834,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14891,7 +14891,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -14958,7 +14958,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15025,7 +15025,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15092,7 +15092,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -15102,7 +15102,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -15303,7 +15303,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -15370,7 +15370,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -15437,7 +15437,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15494,7 +15494,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -15504,7 +15504,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15557,7 +15557,7 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -15567,7 +15567,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15624,7 +15624,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -15634,7 +15634,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15691,7 +15691,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -15701,7 +15701,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15758,7 +15758,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -15768,7 +15768,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -15835,7 +15835,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15888,7 +15888,7 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -15965,7 +15965,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -16032,7 +16032,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16156,7 +16156,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16290,7 +16290,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -16300,7 +16300,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16353,7 +16353,7 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:44+09:00</t>
+          <t>2026-02-22T15:51:51+09:00</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -16363,7 +16363,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16420,7 +16420,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:45+09:00</t>
+          <t>2026-02-22T15:51:52+09:00</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16487,7 +16487,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:45+09:00</t>
+          <t>2026-02-22T15:51:52+09:00</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -16497,7 +16497,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16554,7 +16554,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:46+09:00</t>
+          <t>2026-02-22T15:51:53+09:00</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -16564,7 +16564,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:46+09:00</t>
+          <t>2026-02-22T15:51:53+09:00</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:46+09:00</t>
+          <t>2026-02-22T15:51:53+09:00</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -16698,7 +16698,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16751,7 +16751,7 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:46+09:00</t>
+          <t>2026-02-22T15:51:53+09:00</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16814,7 +16814,7 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:46+09:00</t>
+          <t>2026-02-22T15:51:53+09:00</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16881,7 +16881,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -16948,7 +16948,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -16958,7 +16958,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -17025,7 +17025,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17082,7 +17082,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -17092,7 +17092,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17149,7 +17149,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17216,7 +17216,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -17293,7 +17293,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17350,7 +17350,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -17494,7 +17494,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17551,7 +17551,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -17561,7 +17561,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17618,7 +17618,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -17628,7 +17628,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -17695,7 +17695,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17752,7 +17752,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:47+09:00</t>
+          <t>2026-02-22T15:51:54+09:00</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -17762,7 +17762,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17819,7 +17819,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:48+09:00</t>
+          <t>2026-02-22T15:51:55+09:00</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -17829,7 +17829,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17886,7 +17886,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:48+09:00</t>
+          <t>2026-02-22T15:51:55+09:00</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -17953,7 +17953,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:48+09:00</t>
+          <t>2026-02-22T15:51:55+09:00</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -17963,7 +17963,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18020,7 +18020,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:50+09:00</t>
+          <t>2026-02-22T15:51:57+09:00</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -18030,7 +18030,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18087,7 +18087,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:51+09:00</t>
+          <t>2026-02-22T15:51:58+09:00</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -18097,7 +18097,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18154,7 +18154,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:51+09:00</t>
+          <t>2026-02-22T15:51:58+09:00</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18221,7 +18221,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -18231,7 +18231,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -18298,7 +18298,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -18365,7 +18365,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18422,7 +18422,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -18432,7 +18432,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18489,7 +18489,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -18499,7 +18499,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18623,7 +18623,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -18633,7 +18633,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -18700,7 +18700,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18757,7 +18757,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -18767,7 +18767,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18824,7 +18824,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -18834,7 +18834,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18891,7 +18891,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -18901,7 +18901,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -18958,7 +18958,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -18968,7 +18968,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -19025,7 +19025,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -19092,7 +19092,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -19102,7 +19102,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -19159,7 +19159,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -19169,7 +19169,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -19226,7 +19226,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -19293,7 +19293,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -19303,7 +19303,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -19360,7 +19360,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>2026-02-22T15:05:53+09:00</t>
+          <t>2026-02-22T15:51:59+09:00</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -19370,7 +19370,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -19427,7 +19427,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>2026-02-22T15:06:03+09:00</t>
+          <t>2026-02-22T15:52:09+09:00</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -19437,7 +19437,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -19494,7 +19494,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>2026-02-22T15:06:31+09:00</t>
+          <t>2026-02-22T15:52:34+09:00</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -19504,7 +19504,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
     </row>
@@ -19519,7 +19519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19609,12 +19609,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/20(金)</t>
+          <t>2/17(火)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>定休日</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -19634,7 +19634,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>本日は定休日でお休みでした！</t>
+          <t>本日はお客様揃わずお休みでした！</t>
         </is>
       </c>
     </row>
@@ -19646,32 +19646,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2/19(木)</t>
+          <t>2/16(月)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>臨時休業</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>0～3本</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大106cm</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖45m前後</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>本日は都合によりお休みとさせて頂きました！</t>
+          <t>終日、横浜沖周辺45m前後を狙い、広範囲に反応は有るものの、まとまった反応が少なく･･･終始、拾い釣りで100cm前後主体に型見れましたが、活性低くアタリが出ても難易度高く掛け損じ目立ち思いのほか数伸び悩み苦戦でした！魚の気配は有るけど活性上がらず･･･　お客様全員にアタリは出ましたが残念ながらバラシに終わったお客様お一人が型見れず･･･惜しかったです！リベンジお待ちしています！　その他の方は数こそ伸び悩みましたが、2～3本と平均に釣れました！　寒さの中、最後まで頑張ってくれました！お疲れ様＆リベンジお待ちしています！</t>
         </is>
       </c>
     </row>
@@ -19683,7 +19683,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2/18(水)</t>
+          <t>2/15(日)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -19693,22 +19693,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>型程度</t>
+          <t>0～5本</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>最大114cm</t>
+          <t>最大109cm</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>航路内～横浜沖40～80m前後</t>
+          <t>横浜沖40～45m前後</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>朝一、航路内80mラインを一流し！アタリ遠く早々大きく移動！　その後は沖上がりまで横浜沖周辺40m前後を狙いました！終始、所々で反応に乗り大流し＆拾い釣り！魚の機嫌が悪いのか？アタリの出は今ひとつ！間が空きながらもアタリは出ましたが、数伸び悩み型程度に終わり先日に続き、お客様お一人が残念ながら型見れず･･･ごめんなさい！魚は居るけど、厳しい一日になりました！皆さんお疲れ様＆リベンジお待ちしています！</t>
+          <t>終日、凪を見せ、横浜沖周辺40～45m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！　前半は所々でアタリが出て単発ながらも、中・良型中心にメーター超級交え型見れましたが･･･後半は魚の機嫌が悪いのか？アタリの出は今ひとつ！数伸び悩み苦戦でした！　･･･皆さん健闘し、トップ5本が3人。　残念ながらオデコの方お一人出てしまい、その他の方は1～4本GET!(4本の方お二人)。　本日最大109cmGET!は木更津市の宮田様。　皆さん最後まで頑張ってくれました！</t>
         </is>
       </c>
     </row>
@@ -19720,32 +19720,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2/17(火)</t>
+          <t>2/14(土)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>休船</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>2～11本</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大110cm</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖40m前後</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>本日はお客様揃わずお休みでした！</t>
+          <t>終日、凪を見せ、横浜沖40m前後を狙い、広範囲に反応が有り！手強いタチウオ！終始、反応に乗り大流し＆拾い釣り！適当にアタリは出ていましたが、難易度高くハリス切れ数回・掛け損じ・バラシ目立ち、思いのほか数こそ伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･ハマった方は居ませんでしたが皆さん健闘し、トップ11本は市原市の不破様。　他、スソの方お二人・その他の方は3～10本GET!(10本は牛久市の張替様)。　昨日に続き本日最大110cmの方が数人いらっしゃいました！　6本以上の方目立つ！　厳しい寒さの中、最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
         </is>
       </c>
     </row>
@@ -19757,7 +19757,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2/16(月)</t>
+          <t>2/13(金)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -19767,34 +19767,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0～3本</t>
+          <t>2～13本</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>最大106cm</t>
+          <t>最大110cm</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>横浜沖45m前後</t>
+          <t>横浜沖40m前後</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺45m前後を狙い、広範囲に反応は有るものの、まとまった反応が少なく･･･終始、拾い釣りで100cm前後主体に型見れましたが、活性低くアタリが出ても難易度高く掛け損じ目立ち思いのほか数伸び悩み苦戦でした！魚の気配は有るけど活性上がらず･･･　お客様全員にアタリは出ましたが残念ながらバラシに終わったお客様お一人が型見れず･･･惜しかったです！リベンジお待ちしています！　その他の方は数こそ伸び悩みましたが、2～3本と平均に釣れました！　寒さの中、最後まで頑張ってくれました！お疲れ様＆リベンジお待ちしています！</t>
+          <t>終日、横浜沖40m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、難易度高くアタリを出せる方とそうでない方・打率の良い方・そうでない方で釣果に差が出ましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ13本は本日最大110cmGET!で木更津市の永橋様。　他、スソの方お一人・その他の方は3～12本GET!(12本は千葉市の元井様)。　本日最大110cmGET!の方が数人いらっしゃいました！　7本以上の方目立つ！　厳しい寒さの中、皆さん最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2/15(日)</t>
+          <t>2/22(日)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -19804,34 +19804,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0～5本</t>
+          <t>2～8本</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>最大109cm</t>
+          <t>最大121cm</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>横浜沖40～45m前後</t>
+          <t>横浜沖40～45m</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>終日、凪を見せ、横浜沖周辺40～45m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！　前半は所々でアタリが出て単発ながらも、中・良型中心にメーター超級交え型見れましたが･･･後半は魚の機嫌が悪いのか？アタリの出は今ひとつ！数伸び悩み苦戦でした！　･･･皆さん健闘し、トップ5本が3人。　残念ながらオデコの方お一人出てしまい、その他の方は1～4本GET!(4本の方お二人)。　本日最大109cmGET!は木更津市の宮田様。　皆さん最後まで頑張ってくれました！</t>
+          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！ ･･･明日2/23(月)は予報悪くお休みとさせて頂きます！ ･･･明後日2/24(火)はタチウオを狙い出船します！　＊お客様揃い次第出船確定とさせて頂きます！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ･･･2/20(金)は定休日。 ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2/14(土)</t>
+          <t>2/21(土)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -19841,59 +19841,133 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2～11本</t>
+          <t>2～7本</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>最大110cm</t>
+          <t>最大113cm</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>横浜沖40m前後</t>
+          <t>横浜沖40～45m</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>終日、凪を見せ、横浜沖40m前後を狙い、広範囲に反応が有り！手強いタチウオ！終始、反応に乗り大流し＆拾い釣り！適当にアタリは出ていましたが、難易度高くハリス切れ数回・掛け損じ・バラシ目立ち、思いのほか数こそ伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･ハマった方は居ませんでしたが皆さん健闘し、トップ11本は市原市の不破様。　他、スソの方お二人・その他の方は3～10本GET!(10本は牛久市の張替様)。　昨日に続き本日最大110cmの方が数人いらっしゃいました！　6本以上の方目立つ！　厳しい寒さの中、最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
+          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-22 15:53:13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2/13(金)</t>
+          <t>2/20(金)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>定休日</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>・</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>・</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>・</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>本日は定休日でお休みでした！</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-02-22 15:53:13</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2/19(木)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>臨時休業</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>・</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>・</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>・</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>本日は都合によりお休みとさせて頂きました！</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-02-22 15:53:13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2/18(水)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>タチウオ</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2～13本</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>最大110cm</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>横浜沖40m前後</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>終日、横浜沖40m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、難易度高くアタリを出せる方とそうでない方・打率の良い方・そうでない方で釣果に差が出ましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ13本は本日最大110cmGET!で木更津市の永橋様。　他、スソの方お一人・その他の方は3～12本GET!(12本は千葉市の元井様)。　本日最大110cmGET!の方が数人いらっしゃいました！　7本以上の方目立つ！　厳しい寒さの中、皆さん最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>型程度</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>最大114cm</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>航路内～横浜沖40～80m前後</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>朝一、航路内80mラインを一流し！アタリ遠く早々大きく移動！　その後は沖上がりまで横浜沖周辺40m前後を狙いました！終始、所々で反応に乗り大流し＆拾い釣り！魚の機嫌が悪いのか？アタリの出は今ひとつ！間が空きながらもアタリは出ましたが、数伸び悩み型程度に終わり先日に続き、お客様お一人が残念ながら型見れず･･･ごめんなさい！魚は居るけど、厳しい一日になりました！皆さんお疲れ様＆リベンジお待ちしています！</t>
         </is>
       </c>
     </row>

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M286"/>
+  <dimension ref="A1:M385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19505,6 +19505,6619 @@
       <c r="M286" t="inlineStr">
         <is>
           <t>2026-02-22 15:53:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>aori</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>アオリイカ</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>きよし丸</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>0-2 杯</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>0.20-0.60kg</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>3.3/3.3/3.0</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:47+09:00</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 平和島</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>船宿 まる八船(13ｔ)</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>10-30 尾</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>18-28cm</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>4.8/4.1/4.7</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:49+09:00</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>横浜 / 新山下</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>粂丸</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>18-50 尾</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>14-27cm</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:49+09:00</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢漁港</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>仁丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>1X-4X 尾</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>3.2/3.6/3.9</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:49+09:00</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>三浦半島 / 新安浦</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>こうゆう丸船(19ﾄﾝ,16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>10-55 尾</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>23-38cm</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>久里浜沖80m</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>2.0/2.7/2.7</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:49+09:00</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>三浦半島 / 大津</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>小川丸船(19.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>10-55 尾</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>24-42cm</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>3.9/4.2/3.9</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:49+09:00</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>三浦半島 / 走水</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>海福丸船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>0-39 尾</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>20-40cm</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>3.3/3.1/3.7</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:49+09:00</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>三浦半島 / 走水</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>健洋丸船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>1X-3X 尾</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>2.7/3.0/3.2</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:49+09:00</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>島きち丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>1X-3X 尾</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>3.6/3.7/3.7</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:49+09:00</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>まごうの丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>22-42 尾</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>20-38cm</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>水深140m</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.5</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:49+09:00</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>4-1X 尾</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:49+09:00</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>駿河湾 / 田子の浦</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>隆眞丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>8-14 尾</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>25-38cm</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>4.6/4.2/4.6</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:49+09:00</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>南房 / 千倉</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>千鯛丸船(7.3ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>3X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>3.7/2.7/3.4</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:50+09:00</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>利八丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>X-6 尾</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>2X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>2.5/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:50+09:00</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井新宿</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>孝漁丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>1 尾</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>3Xcm</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:50+09:00</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>飯岡丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>23-46cm</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>4.1/3.5/4.3</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:50+09:00</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>島きち丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>X-1 尾</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>3.6/3.7/3.7</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:50+09:00</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>ゆうせい丸船(13.8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>20-36cm</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>2.9/2.9/2.9</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:50+09:00</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>2X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:50+09:00</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>庄三郎丸</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2-10 尾</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>22-45cm</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>2.8/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:50+09:00</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>ara</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>アラ</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>三次郎丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>1.00-7.90kg</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>2.7/3.4/3.2</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:51+09:00</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=ara</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>inada</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>イナダ</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>池田丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>0-2X 尾</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>4X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>1.9/2.4/2.4</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:55+09:00</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>onikasago</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>オニカサゴ</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>庄三郎丸</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>25-36cm</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>2.8/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:56+09:00</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>onikasago</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>オニカサゴ</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>駿河湾 / 御前崎</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>増福丸船(7.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:56+09:00</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>南房 / 洲崎</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>早川丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>2.6/3.7/3.1</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:58+09:00</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>島きち丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>2X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>3.6/3.7/3.7</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:11:58+09:00</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>kinme</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>キンメ</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>南伊豆 / 下田須崎</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>龍正丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>10-29 尾</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>0.6-2.2kg</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>4.0/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:00+09:00</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎間口</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>孫武丸船(9.7ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>1X-2X 尾</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.5</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:02+09:00</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>秀吉丸</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>3-21 尾</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>22-36cm</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>4.0/3.8/4.1</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:02+09:00</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>ゆうせい丸船(13.8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>4-16 尾</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>26-38cm</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>2.9/2.9/2.9</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:02+09:00</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>まごうの丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>6-15 尾</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>28-38cm</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>水深140m</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.5</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:02+09:00</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>かりゆし丸船(6.6ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>2X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>4.6/3.4/4.0</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:02+09:00</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>seabuss</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>シーバス</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 行徳</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>林遊船船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>6X-8Xcm</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>4.2/3.4/4.1</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:04+09:00</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>fugu</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>ショウサイフグ</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>不動丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>1 尾</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>4Xcm</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>3.0/3.3/2.2</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:05+09:00</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>南房 / 白間津</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>甚四郎丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>1-1X 杯</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>4.6/4.0/4.8</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:09+09:00</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>南房 / 洲崎</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>早川丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2-3X 杯</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>2.6/3.7/3.1</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:09+09:00</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2-23 杯</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>27-42cm</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>4.3/4.2/4.3</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:09+09:00</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>はら丸</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2-10 杯</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>28-40cm</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>3.7/2.6/3.8</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:09+09:00</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井漆山</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>春盛丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>0-1X 杯</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>3.8/3.5/3.9</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:09+09:00</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井漆山</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>光三丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>0-1X 杯</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>2.8/3.7/3.6</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:09+09:00</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>長三朗丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2-17 杯</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>20-45cm</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>3.5/3.3/3.6</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:09+09:00</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>飯岡丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>0-7 杯</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>28-36cm</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>4.1/3.5/4.3</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:09+09:00</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>島きち丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2-1X 杯</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>3X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>3.6/3.7/3.7</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:09+09:00</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>内房 / 富津</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>ひらの丸</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>0-8 本</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>75-105cm</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>4.3/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:10+09:00</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>三浦半島 / 新安浦</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>こうゆう丸船(19ﾄﾝ,16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>0-10 本</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>80-118cm</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>久里浜沖80m八景沖45m</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>2.0/2.7/2.7</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:10+09:00</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>0.4-1.2kg</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>4.3/4.2/4.3</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:11+09:00</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>内房 / 富津</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>ひらの丸</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>0-1 尾</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>0.5-0.8kg</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>4.3/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:11+09:00</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>hanadai</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>ハナダイ</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>外房 / 片貝</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>新亀丸船(16ｔ)</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>1X-5X 尾</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>1X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>2.3/3.1/2.9</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:12+09:00</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hanadai</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>茨城 / 大洗</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>きよ丸船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>5 枚</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>0.4-2.5kg</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>大洗沖</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>入れ食い</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>4.2/2.4/3.0</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>茨城 / 大洗</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>大洗丸</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>3 枚</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>0.5-2.kg</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>入れ食い</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>2.0/1.8/1.5</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島新</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>宗和丸船(14ﾄﾝ,4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>X-4 枚</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>0.5X-4.3Xkg</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>3.9/3.6/4.3</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>植田丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>1 枚</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>2.2Xkg</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>2.7/3.0/3.7</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>幸栄丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>0-6 枚</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>0.30-3.00kg</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>2.5/3.8/2.2</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>不動丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>1 枚</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>2.0Xkg</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>3.0/3.3/2.2</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>利喜丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>X-3 枚</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>0.5X-3.5Xkg</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>2.4/3.0/3.0</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>外房 / 外川</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>光佑丸船(4.99ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>X-5 枚</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>0.8-1.8kg</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>水深18m</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>1.3/1.8/1.6</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>1-8 枚</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>0.3-2.8kg</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>水深150m</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.4</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>隆正丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>0-10 枚</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>0.3-5.2kg</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>3.2/3.5/3.6</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>優光丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>0-7 枚</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>0.5-3.3kg</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>3.8/3.3/3.1</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>龍鳳丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>X-7 枚</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>0.5X-2.5Xkg</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>3.8/2.8/3.2</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>三次郎丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>1-5 枚</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>0.30-1.50kg</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>2.7/3.4/3.2</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:14+09:00</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>houbou</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>ホウボウ</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>庄三郎丸</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>0-8 尾</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>25-40cm</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>2.8/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:15+09:00</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=houbou</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>北茨城 / 会瀬</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>ことぶき丸船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>X-1 尾</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>0.3X-0.5Xkg</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>2.3/1.7/2.0</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>北茨城 / 久慈</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>日正丸船(17ﾄﾝ,16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>0.4-1.6kg</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>3.2/3.3/3.5</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>茨城 / 大洗</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>藤富丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>2.0/2.0/1.8</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>幸栄丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>0.30-1.80kg</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>2.5/3.8/2.2</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>0-5 尾</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>0.3-2.4kg</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>水深150m45m</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.4</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>梅花丸船(19ﾄﾝ,17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>0-6 尾</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>0.30-2.10kg</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>4.1/4.4/4.3</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>優光丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>0-7 尾</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>0.4-1.8kg</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>3.8/3.3/3.1</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>村本海事船(15m)</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>X-2 尾</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>0.4X-1.0Xkg</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>せどおと丸船(7.9ﾄﾝ,7.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>0.4X-1.0Xkg</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>4.4/3.6/4.0</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>伝五郎丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>X-6 尾</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>0.5X-1.3Xkg</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>3.4/3.5/2.7</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>成銀丸船(19.9ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>0.5X-1.8Xkg</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>2.9/3.9/2.6</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>はじめ丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>X-1 尾</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>0.8X-1.2Xkg</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>秀吉丸</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>0.4-1.0kg</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>4.0/3.8/4.1</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>ゆうせい丸船(13.8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>0-1 尾</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>0.5-0.8kg</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>2.9/2.9/2.9</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>相模湾 / 福浦</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>よしひさ丸</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>0-5 尾</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>0.8-2.5kg</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>3.7/3.4/3.7</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>東伊豆 / 宇佐美</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>富八丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>X-1 尾</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>1.5X-1.5Xkg</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>5.0/4.0/4.7</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>madako</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>マダコ</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>茨城 / 那珂湊</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>つれたか丸</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>X-3 杯</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>0.7X-4.0Xkg</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>1.9/1.7/2.0</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:18+09:00</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madako</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>mahata</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>マハタ</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>幸栄丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>0.70-1.30kg</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>2.5/3.8/2.2</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:19+09:00</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>mahata</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>マハタ</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>春栄丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>0-5 尾</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>0.40-2.30kg</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>太東・大原沖</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>2.7/3.3/2.8</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:19+09:00</t>
+        </is>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山芝崎</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>五エム丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>1-9 杯</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>17-27cm</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>3.5/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:20+09:00</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>まごうの丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>0-22 杯</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>16-28cm</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>水深140m</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.5</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:20+09:00</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>1-2X 杯</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>2X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:20+09:00</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>駿河湾 / 沼津静浦</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>勘栄丸</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>1-75 杯</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>15-25cm</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>3.1/3.6/3.4</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:20+09:00</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>medai</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>メダイ</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>東伊豆 / 宇佐美</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>嘉丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>0 尾</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>入れ食い</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>4.2/3.7/3.8</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:21+09:00</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=medai</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>medai</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>メダイ</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>東伊豆 / 伊東</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>加納丸</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>0-8 尾</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>2.0-3.5kg</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>4.1/3.6/4.1</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:21+09:00</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=medai</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>medai</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>メダイ</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>南伊豆 / 下田須崎</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>久寿丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>1X-2X 尾</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>2.0X-5.5Xkg</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>4.8/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:21+09:00</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=medai</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>mongou</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>モンゴウイカ</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>内房 / 金谷</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>さえむ丸</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>X-7 杯</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>X-2kg</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>4.1/2.4/4.3</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:22+09:00</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mongou</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島新</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>宗和丸船(14ﾄﾝ,4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>X-9 杯</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>3.9/3.6/4.3</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:23+09:00</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>大春丸船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>X-4 杯</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>4.3/3.0/4.2</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:23+09:00</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>長岡丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>X-8 杯</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>2X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>3.5/3.5/3.7</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:23+09:00</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>豊丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>0-4 杯</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>15-45cm</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>鹿島沖</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>2.8/3.9/2.8</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:23+09:00</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>幸栄丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>0-7 杯</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>15-45cm</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>2.5/3.8/2.2</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:23+09:00</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>不動丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>1 杯</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>4Xcm</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>3.0/3.3/2.2</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:23+09:00</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>利喜丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>X-6 杯</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>1X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>2.4/3.0/3.0</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:23+09:00</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>山千丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>X-5 杯</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>2.8/1.6/2.6</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:23+09:00</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>1-1X 杯</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>2X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>水深150m45m150m</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.4</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:23+09:00</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>清勝丸船(19ﾄﾝ,19ﾄﾝ,5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>X-6 杯</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>2X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>3.1/2.9/3.0</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>2026-02-22T16:12:23+09:00</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>2026-02-22 16:13:30</t>
         </is>
       </c>
     </row>
@@ -19789,7 +26402,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-22 15:53:13</t>
+          <t>2026-02-22 16:13:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -19826,7 +26439,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-22 15:53:13</t>
+          <t>2026-02-22 16:13:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -19863,7 +26476,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-22 15:53:13</t>
+          <t>2026-02-22 16:13:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -19900,7 +26513,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-22 15:53:13</t>
+          <t>2026-02-22 16:13:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -19937,7 +26550,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-22 15:53:13</t>
+          <t>2026-02-22 16:13:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -19561,7 +19561,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:47+09:00</t>
+          <t>2026-02-22T16:59:36+09:00</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -19628,7 +19628,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:49+09:00</t>
+          <t>2026-02-22T16:59:39+09:00</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -19638,7 +19638,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -19691,7 +19691,7 @@
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:49+09:00</t>
+          <t>2026-02-22T16:59:39+09:00</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -19701,7 +19701,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -19758,7 +19758,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:49+09:00</t>
+          <t>2026-02-22T16:59:39+09:00</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -19825,7 +19825,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:49+09:00</t>
+          <t>2026-02-22T16:59:39+09:00</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -19835,7 +19835,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -19892,7 +19892,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:49+09:00</t>
+          <t>2026-02-22T16:59:39+09:00</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -19902,7 +19902,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -19959,7 +19959,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:49+09:00</t>
+          <t>2026-02-22T16:59:39+09:00</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -19969,7 +19969,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20026,7 +20026,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:49+09:00</t>
+          <t>2026-02-22T16:59:39+09:00</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -20036,7 +20036,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20093,7 +20093,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:49+09:00</t>
+          <t>2026-02-22T16:59:39+09:00</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20160,7 +20160,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:49+09:00</t>
+          <t>2026-02-22T16:59:39+09:00</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20227,7 +20227,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:49+09:00</t>
+          <t>2026-02-22T16:59:39+09:00</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -20237,7 +20237,7 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20294,7 +20294,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:49+09:00</t>
+          <t>2026-02-22T16:59:39+09:00</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -20304,7 +20304,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20361,7 +20361,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:50+09:00</t>
+          <t>2026-02-22T16:59:41+09:00</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -20371,7 +20371,7 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20428,7 +20428,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:50+09:00</t>
+          <t>2026-02-22T16:59:41+09:00</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -20438,7 +20438,7 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20491,7 +20491,7 @@
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:50+09:00</t>
+          <t>2026-02-22T16:59:41+09:00</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20558,7 +20558,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:50+09:00</t>
+          <t>2026-02-22T16:59:41+09:00</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20625,7 +20625,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:50+09:00</t>
+          <t>2026-02-22T16:59:41+09:00</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -20635,7 +20635,7 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20692,7 +20692,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:50+09:00</t>
+          <t>2026-02-22T16:59:41+09:00</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -20702,7 +20702,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20759,7 +20759,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:50+09:00</t>
+          <t>2026-02-22T16:59:41+09:00</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -20769,7 +20769,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20826,7 +20826,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:50+09:00</t>
+          <t>2026-02-22T16:59:41+09:00</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -20836,7 +20836,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20893,7 +20893,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:51+09:00</t>
+          <t>2026-02-22T16:59:42+09:00</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:55+09:00</t>
+          <t>2026-02-22T16:59:45+09:00</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21027,7 +21027,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:56+09:00</t>
+          <t>2026-02-22T16:59:46+09:00</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:56+09:00</t>
+          <t>2026-02-22T16:59:46+09:00</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21157,7 +21157,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:58+09:00</t>
+          <t>2026-02-22T16:59:49+09:00</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21224,7 +21224,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>2026-02-22T16:11:58+09:00</t>
+          <t>2026-02-22T16:59:49+09:00</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -21234,7 +21234,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21291,7 +21291,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:00+09:00</t>
+          <t>2026-02-22T16:59:50+09:00</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -21301,7 +21301,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21358,7 +21358,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:02+09:00</t>
+          <t>2026-02-22T16:59:52+09:00</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -21368,7 +21368,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21425,7 +21425,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:02+09:00</t>
+          <t>2026-02-22T16:59:52+09:00</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -21435,7 +21435,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21492,7 +21492,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:02+09:00</t>
+          <t>2026-02-22T16:59:52+09:00</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -21502,7 +21502,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21559,7 +21559,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:02+09:00</t>
+          <t>2026-02-22T16:59:52+09:00</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -21569,7 +21569,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21626,7 +21626,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:02+09:00</t>
+          <t>2026-02-22T16:59:52+09:00</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -21636,7 +21636,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21693,7 +21693,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:04+09:00</t>
+          <t>2026-02-22T16:59:54+09:00</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21760,7 +21760,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:05+09:00</t>
+          <t>2026-02-22T16:59:56+09:00</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -21770,7 +21770,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21827,7 +21827,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:09+09:00</t>
+          <t>2026-02-22T16:59:59+09:00</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -21837,7 +21837,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21894,7 +21894,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:09+09:00</t>
+          <t>2026-02-22T16:59:59+09:00</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -21961,7 +21961,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:09+09:00</t>
+          <t>2026-02-22T16:59:59+09:00</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -21971,7 +21971,7 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22028,7 +22028,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:09+09:00</t>
+          <t>2026-02-22T16:59:59+09:00</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -22038,7 +22038,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22095,7 +22095,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:09+09:00</t>
+          <t>2026-02-22T16:59:59+09:00</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22162,7 +22162,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:09+09:00</t>
+          <t>2026-02-22T16:59:59+09:00</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -22172,7 +22172,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22229,7 +22229,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:09+09:00</t>
+          <t>2026-02-22T16:59:59+09:00</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -22239,7 +22239,7 @@
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22296,7 +22296,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:09+09:00</t>
+          <t>2026-02-22T16:59:59+09:00</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -22306,7 +22306,7 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22363,7 +22363,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:09+09:00</t>
+          <t>2026-02-22T16:59:59+09:00</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -22373,7 +22373,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22430,7 +22430,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:10+09:00</t>
+          <t>2026-02-22T17:00:00+09:00</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22497,7 +22497,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:10+09:00</t>
+          <t>2026-02-22T17:00:00+09:00</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -22507,7 +22507,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22564,7 +22564,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:11+09:00</t>
+          <t>2026-02-22T17:00:01+09:00</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22631,7 +22631,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:11+09:00</t>
+          <t>2026-02-22T17:00:01+09:00</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -22641,7 +22641,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22698,7 +22698,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:12+09:00</t>
+          <t>2026-02-22T17:00:02+09:00</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -22775,7 +22775,7 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22832,7 +22832,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -22842,7 +22842,7 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22899,7 +22899,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -22909,7 +22909,7 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23033,7 +23033,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -23043,7 +23043,7 @@
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -23110,7 +23110,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23167,7 +23167,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -23177,7 +23177,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23234,7 +23234,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -23244,7 +23244,7 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23301,7 +23301,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -23311,7 +23311,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23368,7 +23368,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -23378,7 +23378,7 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23435,7 +23435,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -23445,7 +23445,7 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23502,7 +23502,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23569,7 +23569,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:14+09:00</t>
+          <t>2026-02-22T17:00:04+09:00</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -23579,7 +23579,7 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23636,7 +23636,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:15+09:00</t>
+          <t>2026-02-22T17:00:05+09:00</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -23646,7 +23646,7 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23703,7 +23703,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -23713,7 +23713,7 @@
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23770,7 +23770,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -23780,7 +23780,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -23847,7 +23847,7 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23904,7 +23904,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -23914,7 +23914,7 @@
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24038,7 +24038,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -24048,7 +24048,7 @@
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24105,7 +24105,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24168,7 +24168,7 @@
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -24178,7 +24178,7 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24235,7 +24235,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -24245,7 +24245,7 @@
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24302,7 +24302,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -24312,7 +24312,7 @@
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24432,7 +24432,7 @@
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -24442,7 +24442,7 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24499,7 +24499,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -24509,7 +24509,7 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24566,7 +24566,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -24576,7 +24576,7 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24633,7 +24633,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -24643,7 +24643,7 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24700,7 +24700,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:07+09:00</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -24710,7 +24710,7 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24767,7 +24767,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:18+09:00</t>
+          <t>2026-02-22T17:00:08+09:00</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -24777,7 +24777,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24834,7 +24834,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:19+09:00</t>
+          <t>2026-02-22T17:00:09+09:00</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -24844,7 +24844,7 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24901,7 +24901,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:19+09:00</t>
+          <t>2026-02-22T17:00:09+09:00</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -24911,7 +24911,7 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -24968,7 +24968,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:20+09:00</t>
+          <t>2026-02-22T17:00:10+09:00</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -24978,7 +24978,7 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25035,7 +25035,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:20+09:00</t>
+          <t>2026-02-22T17:00:10+09:00</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -25045,7 +25045,7 @@
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25102,7 +25102,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:20+09:00</t>
+          <t>2026-02-22T17:00:10+09:00</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -25112,7 +25112,7 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25169,7 +25169,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:20+09:00</t>
+          <t>2026-02-22T17:00:10+09:00</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25236,7 +25236,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:21+09:00</t>
+          <t>2026-02-22T17:00:11+09:00</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -25246,7 +25246,7 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25303,7 +25303,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:21+09:00</t>
+          <t>2026-02-22T17:00:11+09:00</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25370,7 +25370,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:21+09:00</t>
+          <t>2026-02-22T17:00:11+09:00</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -25380,7 +25380,7 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25437,7 +25437,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:22+09:00</t>
+          <t>2026-02-22T17:00:12+09:00</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -25447,7 +25447,7 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25504,7 +25504,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:23+09:00</t>
+          <t>2026-02-22T17:00:13+09:00</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -25514,7 +25514,7 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25571,7 +25571,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:23+09:00</t>
+          <t>2026-02-22T17:00:13+09:00</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -25581,7 +25581,7 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25638,7 +25638,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:23+09:00</t>
+          <t>2026-02-22T17:00:13+09:00</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -25648,7 +25648,7 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25705,7 +25705,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:23+09:00</t>
+          <t>2026-02-22T17:00:13+09:00</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -25715,7 +25715,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25772,7 +25772,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:23+09:00</t>
+          <t>2026-02-22T17:00:13+09:00</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -25782,7 +25782,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25839,7 +25839,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:23+09:00</t>
+          <t>2026-02-22T17:00:13+09:00</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -25849,7 +25849,7 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25906,7 +25906,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:23+09:00</t>
+          <t>2026-02-22T17:00:13+09:00</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -25973,7 +25973,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:23+09:00</t>
+          <t>2026-02-22T17:00:13+09:00</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -25983,7 +25983,7 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -26040,7 +26040,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:23+09:00</t>
+          <t>2026-02-22T17:00:13+09:00</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -26050,7 +26050,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -26107,7 +26107,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>2026-02-22T16:12:23+09:00</t>
+          <t>2026-02-22T17:00:13+09:00</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -26117,7 +26117,7 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
     </row>
@@ -26402,7 +26402,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -26439,7 +26439,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -26476,7 +26476,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -26513,7 +26513,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -26550,7 +26550,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-22 16:13:30</t>
+          <t>2026-02-22 17:01:21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M643"/>
+  <dimension ref="A1:M649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43356,6 +43356,404 @@
       <c r="M643" t="inlineStr">
         <is>
           <t>2026-02-23 14:45:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>横浜 / 川崎</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>中山丸</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>25-76 尾</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>17-25cm</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>4.7/4.5/4.8</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>2026-02-23T17:14:32+09:00</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M644" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:16:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>横浜 / 新山下</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>粂丸</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>30-118 尾</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>14-26cm</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>2026-02-23T17:14:32+09:00</t>
+        </is>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M645" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:16:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>春栄丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>0-3 枚</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>0.40-3.53kg</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>2.7/3.3/2.8</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>2026-02-23T17:14:56+09:00</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:16:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>相模湾 / 福浦</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>よしひさ丸</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>0.6-1.8kg</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>3.7/3.4/3.7</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>2026-02-23T17:15:00+09:00</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:16:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>駿河湾 / 沼津静浦</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>勘栄丸</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>1-65 杯</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>15-25cm</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>3.1/3.6/3.4</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>2026-02-23T17:15:03+09:00</t>
+        </is>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:16:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>駿河湾 / 沼津静浦</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>清時丸</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>1X-1X 杯</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>マリネス</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>2.4/2.1/1.9</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>2026-02-23T17:15:06+09:00</t>
+        </is>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:16:19</t>
         </is>
       </c>
     </row>
@@ -43370,7 +43768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,49 +44149,49 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-23 14:45:38</t>
+          <t>2026-02-23 17:16:19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2/22(日)</t>
+          <t>2/23(月)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2～8本</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>最大121cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>横浜沖40～45m</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
+          <t>本日は予報悪くお休みとさせて頂きました！ ･･･明日2/24(火)・明後日2/25(水)はタチウオを狙い出船します！　＊15時20分現在、明日のご予約者は4名・出船確定です！空席多数！　明後日は雨予報ですが出船確定です！  ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-23 14:45:38</t>
+          <t>2026-02-23 17:16:19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2/21(土)</t>
+          <t>2/22(日)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -43803,12 +44201,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2～7本</t>
+          <t>2～8本</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>最大113cm</t>
+          <t>最大121cm</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -43818,79 +44216,116 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
+          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-23 14:45:38</t>
+          <t>2026-02-23 17:16:19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2/20(金)</t>
+          <t>2/21(土)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>定休日</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>2～7本</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大113cm</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖40～45m</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>本日は定休日でお休みでした！</t>
+          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-23 14:45:38</t>
+          <t>2026-02-23 17:16:19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2/20(金)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>定休日</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>・</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>・</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>・</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>本日は定休日でお休みでした！</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:16:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>2/19(木)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>臨時休業</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>・</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>・</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>・</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>本日は都合によりお休みとさせて頂きました！</t>
         </is>

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M649"/>
+  <dimension ref="A1:M653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43367,32 +43367,32 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>madai</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>マダイ</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>横浜 / 川崎</t>
+          <t>相模湾 / 福浦</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>中山丸</t>
+          <t>よしひさ丸</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>25-76 尾</t>
+          <t>0-2 尾</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>17-25cm</t>
+          <t>0.6-1.8kg</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
@@ -43407,17 +43407,17 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>4.7/4.5/4.8</t>
+          <t>3.7/3.4/3.7</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>2026-02-23T17:14:32+09:00</t>
+          <t>2026-02-23T17:15:00+09:00</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
         </is>
       </c>
       <c r="M644" t="inlineStr">
@@ -43434,32 +43434,32 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>maruika</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>マルイカ</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>横浜 / 新山下</t>
+          <t>駿河湾 / 沼津静浦</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>粂丸</t>
+          <t>勘栄丸</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>30-118 尾</t>
+          <t>1-65 杯</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>14-26cm</t>
+          <t>15-25cm</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
@@ -43472,15 +43472,19 @@
           <t>－</t>
         </is>
       </c>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>3.1/3.6/3.4</t>
+        </is>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>2026-02-23T17:14:32+09:00</t>
+          <t>2026-02-23T17:15:03+09:00</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
         </is>
       </c>
       <c r="M645" t="inlineStr">
@@ -43497,32 +43501,32 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>hirame</t>
+          <t>yariika</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>ヒラメ</t>
+          <t>ヤリイカ</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>外房 / 大原</t>
+          <t>駿河湾 / 沼津静浦</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>春栄丸船(19ﾄﾝ)</t>
+          <t>清時丸</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>0-3 枚</t>
+          <t>1X-1X 杯</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>0.40-3.53kg</t>
+          <t>1X-3Xcm</t>
         </is>
       </c>
       <c r="H646" t="inlineStr">
@@ -43532,22 +43536,22 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>マリネス</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>2.7/3.3/2.8</t>
+          <t>2.4/2.1/1.9</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>2026-02-23T17:14:56+09:00</t>
+          <t>2026-02-23T17:15:06+09:00</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
         </is>
       </c>
       <c r="M646" t="inlineStr">
@@ -43564,32 +43568,32 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>相模湾 / 福浦</t>
+          <t>横浜 / 川崎</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>よしひさ丸</t>
+          <t>中山丸</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>0-2 尾</t>
+          <t>25-76 尾</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>0.6-1.8kg</t>
+          <t>17-25cm</t>
         </is>
       </c>
       <c r="H647" t="inlineStr">
@@ -43604,22 +43608,22 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>3.7/3.4/3.7</t>
+          <t>4.7/4.5/4.8</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>2026-02-23T17:15:00+09:00</t>
+          <t>2026-02-23T17:32:13+09:00</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M647" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 17:33:52</t>
         </is>
       </c>
     </row>
@@ -43631,32 +43635,32 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>maruika</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>マルイカ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>駿河湾 / 沼津静浦</t>
+          <t>横浜 / 新山下</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>勘栄丸</t>
+          <t>粂丸</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>1-65 杯</t>
+          <t>30-118 尾</t>
         </is>
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>15-25cm</t>
+          <t>14-26cm</t>
         </is>
       </c>
       <c r="H648" t="inlineStr">
@@ -43669,24 +43673,20 @@
           <t>－</t>
         </is>
       </c>
-      <c r="J648" t="inlineStr">
-        <is>
-          <t>3.1/3.6/3.4</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
-          <t>2026-02-23T17:15:03+09:00</t>
+          <t>2026-02-23T17:32:13+09:00</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M648" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 17:33:52</t>
         </is>
       </c>
     </row>
@@ -43698,32 +43698,32 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>yariika</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>ヤリイカ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>駿河湾 / 沼津静浦</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>清時丸</t>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>1X-1X 杯</t>
+          <t>0-35 尾</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>1X-3Xcm</t>
+          <t>16-25cm</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
@@ -43733,27 +43733,295 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>マリネス</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>2.4/2.1/1.9</t>
+          <t>2.8/3.2/3.1</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>2026-02-23T17:15:06+09:00</t>
+          <t>2026-02-23T17:32:13+09:00</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M649" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 17:33:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>kinme</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>キンメ</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>平安丸</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>4.3/3.8/3.8</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>2026-02-23T17:32:23+09:00</t>
+        </is>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+        </is>
+      </c>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:33:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>春栄丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>0-3 枚</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>0.40-3.53kg</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>2.7/3.3/2.8</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>2026-02-23T17:32:35+09:00</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:33:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>magoti</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>マゴチ</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>1-1X 尾</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>3X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>2026-02-23T17:32:37+09:00</t>
+        </is>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=magoti</t>
+        </is>
+      </c>
+      <c r="M652" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:33:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>平安丸</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>X-1 尾</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>0.7-1.3kg</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>4.3/3.8/3.8</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>2026-02-23T17:32:38+09:00</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>2026-02-23 17:33:52</t>
         </is>
       </c>
     </row>
@@ -44149,7 +44417,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 17:33:52</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -44186,7 +44454,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 17:33:52</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -44223,7 +44491,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 17:33:52</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -44260,7 +44528,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 17:33:52</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -44297,7 +44565,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 17:33:52</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M653"/>
+  <dimension ref="A1:M661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43367,32 +43367,32 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>相模湾 / 福浦</t>
+          <t>横浜 / 川崎</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>よしひさ丸</t>
+          <t>中山丸</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>0-2 尾</t>
+          <t>25-76 尾</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>0.6-1.8kg</t>
+          <t>17-25cm</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
@@ -43407,22 +43407,22 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>3.7/3.4/3.7</t>
+          <t>4.7/4.5/4.8</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>2026-02-23T17:15:00+09:00</t>
+          <t>2026-02-23T21:05:12+09:00</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M644" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
     </row>
@@ -43434,32 +43434,32 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>maruika</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>マルイカ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>駿河湾 / 沼津静浦</t>
+          <t>横浜 / 新山下</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>勘栄丸</t>
+          <t>粂丸</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>1-65 杯</t>
+          <t>30-118 尾</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>15-25cm</t>
+          <t>14-26cm</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
@@ -43472,24 +43472,20 @@
           <t>－</t>
         </is>
       </c>
-      <c r="J645" t="inlineStr">
-        <is>
-          <t>3.1/3.6/3.4</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
-          <t>2026-02-23T17:15:03+09:00</t>
+          <t>2026-02-23T21:05:12+09:00</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M645" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
     </row>
@@ -43501,32 +43497,32 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>yariika</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>ヤリイカ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>駿河湾 / 沼津静浦</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>清時丸</t>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>1X-1X 杯</t>
+          <t>0-35 尾</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>1X-3Xcm</t>
+          <t>16-25cm</t>
         </is>
       </c>
       <c r="H646" t="inlineStr">
@@ -43536,27 +43532,27 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>マリネス</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>2.4/2.1/1.9</t>
+          <t>2.8/3.2/3.1</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>2026-02-23T17:15:06+09:00</t>
+          <t>2026-02-23T21:05:12+09:00</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M646" t="inlineStr">
         <is>
-          <t>2026-02-23 17:16:19</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
     </row>
@@ -43568,62 +43564,62 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>横浜 / 川崎</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>中山丸</t>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>25-76 尾</t>
+          <t>X-8 尾</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>17-25cm</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深100-200m</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>4.7/4.5/4.8</t>
+          <t>3.4/4.3/4.2</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>2026-02-23T17:32:13+09:00</t>
+          <t>2026-02-23T21:05:14+09:00</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M647" t="inlineStr">
         <is>
-          <t>2026-02-23 17:33:52</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
     </row>
@@ -43635,32 +43631,32 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>横浜 / 新山下</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>粂丸</t>
+          <t>平安丸</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>30-118 尾</t>
+          <t>X-7 尾</t>
         </is>
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>14-26cm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H648" t="inlineStr">
@@ -43673,20 +43669,24 @@
           <t>－</t>
         </is>
       </c>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>4.3/3.8/3.8</t>
+        </is>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>2026-02-23T17:32:13+09:00</t>
+          <t>2026-02-23T21:05:26+09:00</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M648" t="inlineStr">
         <is>
-          <t>2026-02-23 17:33:52</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
     </row>
@@ -43698,37 +43698,37 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>fugu</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>ショウサイフグ</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>外房 / 大原</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>一之瀬丸船(13ﾄﾝ)</t>
+          <t>敷嶋丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>0-35 尾</t>
+          <t>1X-2X 尾</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>16-25cm</t>
+          <t>1X-3Xcm</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深5m</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -43738,22 +43738,22 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>2.8/3.2/3.1</t>
+          <t>3.9/3.6/4.1</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>2026-02-23T17:32:13+09:00</t>
+          <t>2026-02-23T21:05:32+09:00</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
         </is>
       </c>
       <c r="M649" t="inlineStr">
         <is>
-          <t>2026-02-23 17:33:52</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
     </row>
@@ -43765,32 +43765,32 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>kinme</t>
+          <t>tatiuo</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>キンメ</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>平安丸</t>
+          <t>弁天屋船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>X-7 尾</t>
+          <t>X-3 本</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>85-10Xcm</t>
         </is>
       </c>
       <c r="H650" t="inlineStr">
@@ -43800,27 +43800,27 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>4.3/3.8/3.8</t>
+          <t>4.0/4.0/4.3</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>2026-02-23T17:32:23+09:00</t>
+          <t>2026-02-23T21:05:37+09:00</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
         </is>
       </c>
       <c r="M650" t="inlineStr">
         <is>
-          <t>2026-02-23 17:33:52</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
     </row>
@@ -43847,37 +43847,37 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>春栄丸船(19ﾄﾝ)</t>
+          <t>長福丸船(19ｔ)</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>0-3 枚</t>
+          <t>X-2 枚</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>0.40-3.53kg</t>
+          <t>0.5-2.5kg</t>
         </is>
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深5-15m</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>2.7/3.3/2.8</t>
+          <t>4.2/4.3/4.2</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>2026-02-23T17:32:35+09:00</t>
+          <t>2026-02-23T21:05:41+09:00</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -43887,7 +43887,7 @@
       </c>
       <c r="M651" t="inlineStr">
         <is>
-          <t>2026-02-23 17:33:52</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
     </row>
@@ -43899,32 +43899,32 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>magoti</t>
+          <t>hirame</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>マゴチ</t>
+          <t>ヒラメ</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>外房 / 大原</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>一之瀬丸船(13ﾄﾝ)</t>
+          <t>第三松栄丸船(14ﾄﾝ)</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>1-1X 尾</t>
+          <t>X-2 枚</t>
         </is>
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>3X-5Xcm</t>
+          <t>0.5-3.6kg</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
@@ -43934,27 +43934,27 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>ぎょさん</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>2.8/3.2/3.1</t>
+          <t>3.7/3.4/3.6</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>2026-02-23T17:32:37+09:00</t>
+          <t>2026-02-23T21:05:41+09:00</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=magoti</t>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
         </is>
       </c>
       <c r="M652" t="inlineStr">
         <is>
-          <t>2026-02-23 17:33:52</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
     </row>
@@ -43966,62 +43966,594 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>春栄丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>0-3 枚</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>0.40-3.53kg</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>2.7/3.3/2.8</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>2026-02-23T21:05:41+09:00</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>三浦半島 / 金田</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>邦丸船(7ﾄﾝ,4.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>1 枚</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>1.5Xkg</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>2026-02-23T21:05:41+09:00</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M654" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>magoti</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>マゴチ</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>1-1X 尾</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>3X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>2026-02-23T21:05:44+09:00</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=magoti</t>
+        </is>
+      </c>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
           <t>madai</t>
         </is>
       </c>
-      <c r="C653" t="inlineStr">
+      <c r="C656" t="inlineStr">
         <is>
           <t>マダイ</t>
         </is>
       </c>
-      <c r="D653" t="inlineStr">
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>新幸丸</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>0.3-0.5kg</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>4.4/3.9/4.5</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>2026-02-23T21:05:46+09:00</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
         <is>
           <t>相模湾 / 小田原</t>
         </is>
       </c>
-      <c r="E653" t="inlineStr">
+      <c r="E657" t="inlineStr">
         <is>
           <t>平安丸</t>
         </is>
       </c>
-      <c r="F653" t="inlineStr">
+      <c r="F657" t="inlineStr">
         <is>
           <t>X-1 尾</t>
         </is>
       </c>
-      <c r="G653" t="inlineStr">
+      <c r="G657" t="inlineStr">
         <is>
           <t>0.7-1.3kg</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="I653" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="J653" t="inlineStr">
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
         <is>
           <t>4.3/3.8/3.8</t>
         </is>
       </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>2026-02-23T17:32:38+09:00</t>
-        </is>
-      </c>
-      <c r="L653" t="inlineStr">
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>2026-02-23T21:05:46+09:00</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
         <is>
           <t>https://funaduri.jp/fish.cgi?fish=madai</t>
         </is>
       </c>
-      <c r="M653" t="inlineStr">
-        <is>
-          <t>2026-02-23 17:33:52</t>
+      <c r="M657" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>相模湾 / 福浦</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>よしひさ丸</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>0.6-1.8kg</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>3.7/3.4/3.7</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>2026-02-23T21:05:46+09:00</t>
+        </is>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M658" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>駿河湾 / 沼津静浦</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>勘栄丸</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>1-65 杯</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>15-25cm</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>3.1/3.6/3.4</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>2026-02-23T21:05:49+09:00</t>
+        </is>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M659" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>X-5 杯</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>水深100-200m100-200m</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>3.4/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>2026-02-23T21:05:53+09:00</t>
+        </is>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M660" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>駿河湾 / 沼津静浦</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>清時丸</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>1X-1X 杯</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>マリネス</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>2.4/2.1/1.9</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>2026-02-23T21:05:53+09:00</t>
+        </is>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M661" t="inlineStr">
+        <is>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
     </row>
@@ -44417,7 +44949,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-23 17:33:52</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -44454,7 +44986,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-23 17:33:52</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -44491,7 +45023,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-23 17:33:52</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -44528,7 +45060,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-23 17:33:52</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -44565,7 +45097,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-23 17:33:52</t>
+          <t>2026-02-23 21:07:20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M661"/>
+  <dimension ref="A1:M663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43367,32 +43367,32 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>madai</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>マダイ</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>横浜 / 川崎</t>
+          <t>外房 / 大原</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>中山丸</t>
+          <t>新幸丸</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>25-76 尾</t>
+          <t>X-4 尾</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>17-25cm</t>
+          <t>0.3-0.5kg</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
@@ -43407,17 +43407,17 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>4.7/4.5/4.8</t>
+          <t>4.4/3.9/4.5</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:12+09:00</t>
+          <t>2026-02-23T21:05:46+09:00</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
         </is>
       </c>
       <c r="M644" t="inlineStr">
@@ -43434,32 +43434,32 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>akame</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>アカメフグ</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>横浜 / 新山下</t>
+          <t>外房 / 大原</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>粂丸</t>
+          <t>利永丸船(10ﾄﾝ)</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>30-118 尾</t>
+          <t>X-9 尾</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>14-26cm</t>
+          <t>0.7X-2.0Xkg</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
@@ -43469,23 +43469,27 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="J645" t="inlineStr"/>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>2.3/2.0/2.6</t>
+        </is>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:12+09:00</t>
+          <t>2026-02-24T08:09:34+09:00</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=akame</t>
         </is>
       </c>
       <c r="M645" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -43507,22 +43511,22 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>横浜 / 川崎</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>一之瀬丸船(13ﾄﾝ)</t>
+          <t>中山丸</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>0-35 尾</t>
+          <t>25-76 尾</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>16-25cm</t>
+          <t>17-25cm</t>
         </is>
       </c>
       <c r="H646" t="inlineStr">
@@ -43537,12 +43541,12 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>2.8/3.2/3.1</t>
+          <t>4.7/4.5/4.8</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:12+09:00</t>
+          <t>2026-02-24T08:09:36+09:00</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -43552,7 +43556,7 @@
       </c>
       <c r="M646" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -43564,62 +43568,58 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>横浜 / 新山下</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+          <t>粂丸</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>X-8 尾</t>
+          <t>30-118 尾</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>14-26cm</t>
         </is>
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>水深100-200m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>SANSPO</t>
-        </is>
-      </c>
-      <c r="J647" t="inlineStr">
-        <is>
-          <t>3.4/4.3/4.2</t>
-        </is>
-      </c>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:14+09:00</t>
+          <t>2026-02-24T08:09:36+09:00</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M647" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -43631,32 +43631,32 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>kinme</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>キンメ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>平安丸</t>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>X-7 尾</t>
+          <t>0-35 尾</t>
         </is>
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>16-25cm</t>
         </is>
       </c>
       <c r="H648" t="inlineStr">
@@ -43671,22 +43671,22 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>4.3/3.8/3.8</t>
+          <t>2.8/3.2/3.1</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:26+09:00</t>
+          <t>2026-02-24T08:09:36+09:00</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M648" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -43698,62 +43698,62 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>fugu</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>ショウサイフグ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>外房 / 大原</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>敷嶋丸船(17ﾄﾝ)</t>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>1X-2X 尾</t>
+          <t>X-8 尾</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>1X-3Xcm</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>水深5m</t>
+          <t>水深100-200m</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>3.9/3.6/4.1</t>
+          <t>3.4/4.3/4.2</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:32+09:00</t>
+          <t>2026-02-24T08:09:38+09:00</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M649" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -43765,32 +43765,32 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>tatiuo</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>弁天屋船(17ﾄﾝ)</t>
+          <t>平安丸</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>X-3 本</t>
+          <t>X-7 尾</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>85-10Xcm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H650" t="inlineStr">
@@ -43800,27 +43800,27 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>4.0/4.0/4.3</t>
+          <t>4.3/3.8/3.8</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:37+09:00</t>
+          <t>2026-02-24T08:09:49+09:00</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M650" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -43832,12 +43832,12 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>hirame</t>
+          <t>fugu</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>ヒラメ</t>
+          <t>ショウサイフグ</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -43847,47 +43847,47 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>長福丸船(19ｔ)</t>
+          <t>敷嶋丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>X-2 枚</t>
+          <t>1X-2X 尾</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>0.5-2.5kg</t>
+          <t>1X-3Xcm</t>
         </is>
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>水深5-15m</t>
+          <t>水深5m</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>SANSPO</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>4.2/4.3/4.2</t>
+          <t>3.9/3.6/4.1</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:41+09:00</t>
+          <t>2026-02-24T08:09:54+09:00</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
         </is>
       </c>
       <c r="M651" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -43899,32 +43899,32 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>hirame</t>
+          <t>tatiuo</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>ヒラメ</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>外房 / 大原</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>第三松栄丸船(14ﾄﾝ)</t>
+          <t>弁天屋船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>X-2 枚</t>
+          <t>X-3 本</t>
         </is>
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>0.5-3.6kg</t>
+          <t>85-10Xcm</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
@@ -43934,27 +43934,27 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>3.7/3.4/3.6</t>
+          <t>4.0/4.0/4.3</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:41+09:00</t>
+          <t>2026-02-24T08:09:59+09:00</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
         </is>
       </c>
       <c r="M652" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -43981,37 +43981,37 @@
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>春栄丸船(19ﾄﾝ)</t>
+          <t>長福丸船(19ｔ)</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>0-3 枚</t>
+          <t>X-2 枚</t>
         </is>
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>0.40-3.53kg</t>
+          <t>0.5-2.5kg</t>
         </is>
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深5-15m</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>2.7/3.3/2.8</t>
+          <t>4.2/4.3/4.2</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:41+09:00</t>
+          <t>2026-02-24T08:10:03+09:00</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -44021,7 +44021,7 @@
       </c>
       <c r="M653" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -44043,22 +44043,22 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>三浦半島 / 金田</t>
+          <t>外房 / 大原</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>邦丸船(7ﾄﾝ,4.5ﾄﾝ)</t>
+          <t>第三松栄丸船(14ﾄﾝ)</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>1 枚</t>
+          <t>X-2 枚</t>
         </is>
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>1.5Xkg</t>
+          <t>0.5-3.6kg</t>
         </is>
       </c>
       <c r="H654" t="inlineStr">
@@ -44068,13 +44068,17 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>釣割</t>
-        </is>
-      </c>
-      <c r="J654" t="inlineStr"/>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>3.7/3.4/3.6</t>
+        </is>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:41+09:00</t>
+          <t>2026-02-24T08:10:03+09:00</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
@@ -44084,7 +44088,7 @@
       </c>
       <c r="M654" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -44096,32 +44100,32 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>magoti</t>
+          <t>hirame</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>マゴチ</t>
+          <t>ヒラメ</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>外房 / 大原</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>一之瀬丸船(13ﾄﾝ)</t>
+          <t>春栄丸船(19ﾄﾝ)</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>1-1X 尾</t>
+          <t>0-3 枚</t>
         </is>
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>3X-5Xcm</t>
+          <t>0.40-3.53kg</t>
         </is>
       </c>
       <c r="H655" t="inlineStr">
@@ -44131,27 +44135,27 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>ぎょさん</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>2.8/3.2/3.1</t>
+          <t>2.7/3.3/2.8</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:44+09:00</t>
+          <t>2026-02-24T08:10:03+09:00</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=magoti</t>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
         </is>
       </c>
       <c r="M655" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -44163,32 +44167,32 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>hirame</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>ヒラメ</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>外房 / 大原</t>
+          <t>三浦半島 / 金田</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>新幸丸</t>
+          <t>邦丸船(7ﾄﾝ,4.5ﾄﾝ)</t>
         </is>
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>X-4 尾</t>
+          <t>1 枚</t>
         </is>
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>0.3-0.5kg</t>
+          <t>1.5Xkg</t>
         </is>
       </c>
       <c r="H656" t="inlineStr">
@@ -44198,27 +44202,23 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="J656" t="inlineStr">
-        <is>
-          <t>4.4/3.9/4.5</t>
-        </is>
-      </c>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:46+09:00</t>
+          <t>2026-02-24T08:10:03+09:00</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
         </is>
       </c>
       <c r="M656" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -44230,32 +44230,32 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>magoti</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>マゴチ</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>平安丸</t>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>X-1 尾</t>
+          <t>1-1X 尾</t>
         </is>
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>0.7-1.3kg</t>
+          <t>3X-5Xcm</t>
         </is>
       </c>
       <c r="H657" t="inlineStr">
@@ -44265,27 +44265,27 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>ぎょさん</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>4.3/3.8/3.8</t>
+          <t>2.8/3.2/3.1</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:46+09:00</t>
+          <t>2026-02-24T08:10:06+09:00</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=magoti</t>
         </is>
       </c>
       <c r="M657" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -44307,27 +44307,27 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>相模湾 / 福浦</t>
+          <t>外房 / 大原</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>よしひさ丸</t>
+          <t>新幸丸</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>0-2 尾</t>
+          <t>0-4 尾</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>0.6-1.8kg</t>
+          <t>0.30-0.50kg</t>
         </is>
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>大原沖</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -44337,12 +44337,12 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>3.7/3.4/3.7</t>
+          <t>4.4/3.9/4.5</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:46+09:00</t>
+          <t>2026-02-24T08:10:08+09:00</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -44352,7 +44352,7 @@
       </c>
       <c r="M658" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -44364,32 +44364,32 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>maruika</t>
+          <t>madai</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>マルイカ</t>
+          <t>マダイ</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>駿河湾 / 沼津静浦</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>勘栄丸</t>
+          <t>平安丸</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>1-65 杯</t>
+          <t>X-1 尾</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>15-25cm</t>
+          <t>0.7-1.3kg</t>
         </is>
       </c>
       <c r="H659" t="inlineStr">
@@ -44404,22 +44404,22 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>3.1/3.6/3.4</t>
+          <t>4.3/3.8/3.8</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:49+09:00</t>
+          <t>2026-02-24T08:10:08+09:00</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
         </is>
       </c>
       <c r="M659" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -44431,62 +44431,62 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>yariika</t>
+          <t>madai</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>ヤリイカ</t>
+          <t>マダイ</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>相模湾 / 福浦</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+          <t>よしひさ丸</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>X-5 杯</t>
+          <t>0-2 尾</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>0.6-1.8kg</t>
         </is>
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>水深100-200m100-200m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>SANSPO</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>3.4/4.3/4.2</t>
+          <t>3.7/3.4/3.7</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>2026-02-23T21:05:53+09:00</t>
+          <t>2026-02-24T08:10:08+09:00</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
         </is>
       </c>
       <c r="M660" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -44498,62 +44498,196 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>駿河湾 / 沼津静浦</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>勘栄丸</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>1-65 杯</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>15-25cm</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>3.1/3.6/3.4</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>2026-02-24T08:10:11+09:00</t>
+        </is>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M661" t="inlineStr">
+        <is>
+          <t>2026-02-24 08:11:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
           <t>yariika</t>
         </is>
       </c>
-      <c r="C661" t="inlineStr">
+      <c r="C662" t="inlineStr">
         <is>
           <t>ヤリイカ</t>
         </is>
       </c>
-      <c r="D661" t="inlineStr">
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>X-5 杯</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>水深100-200m100-200m</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>3.4/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>2026-02-24T08:10:15+09:00</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>2026-02-24 08:11:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
         <is>
           <t>駿河湾 / 沼津静浦</t>
         </is>
       </c>
-      <c r="E661" t="inlineStr">
+      <c r="E663" t="inlineStr">
         <is>
           <t>清時丸</t>
         </is>
       </c>
-      <c r="F661" t="inlineStr">
+      <c r="F663" t="inlineStr">
         <is>
           <t>1X-1X 杯</t>
         </is>
       </c>
-      <c r="G661" t="inlineStr">
+      <c r="G663" t="inlineStr">
         <is>
           <t>1X-3Xcm</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="I661" t="inlineStr">
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
         <is>
           <t>マリネス</t>
         </is>
       </c>
-      <c r="J661" t="inlineStr">
+      <c r="J663" t="inlineStr">
         <is>
           <t>2.4/2.1/1.9</t>
         </is>
       </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>2026-02-23T21:05:53+09:00</t>
-        </is>
-      </c>
-      <c r="L661" t="inlineStr">
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>2026-02-24T08:10:15+09:00</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
         <is>
           <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
         </is>
       </c>
-      <c r="M661" t="inlineStr">
-        <is>
-          <t>2026-02-23 21:07:20</t>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
     </row>
@@ -44949,7 +45083,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -44986,7 +45120,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -45023,7 +45157,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -45060,7 +45194,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -45097,7 +45231,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-23 21:07:20</t>
+          <t>2026-02-24 08:11:37</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M663"/>
+  <dimension ref="A1:M666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43434,12 +43434,12 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>akame</t>
+          <t>hirame</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>アカメフグ</t>
+          <t>ヒラメ</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -43449,17 +43449,17 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>利永丸船(10ﾄﾝ)</t>
+          <t>第三松栄丸船(14ﾄﾝ)</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>X-9 尾</t>
+          <t>X-2 枚</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>0.7X-2.0Xkg</t>
+          <t>0.5-3.6kg</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
@@ -43469,22 +43469,22 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>2.3/2.0/2.6</t>
+          <t>3.7/3.4/3.6</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>2026-02-24T08:09:34+09:00</t>
+          <t>2026-02-24T08:10:03+09:00</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=akame</t>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
         </is>
       </c>
       <c r="M645" t="inlineStr">
@@ -43501,32 +43501,32 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>madai</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>マダイ</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>横浜 / 川崎</t>
+          <t>相模湾 / 福浦</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>中山丸</t>
+          <t>よしひさ丸</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>25-76 尾</t>
+          <t>0-2 尾</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>17-25cm</t>
+          <t>0.6-1.8kg</t>
         </is>
       </c>
       <c r="H646" t="inlineStr">
@@ -43541,17 +43541,17 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>4.7/4.5/4.8</t>
+          <t>3.7/3.4/3.7</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>2026-02-24T08:09:36+09:00</t>
+          <t>2026-02-24T08:10:08+09:00</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
         </is>
       </c>
       <c r="M646" t="inlineStr">
@@ -43568,32 +43568,32 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>maruika</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>マルイカ</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>横浜 / 新山下</t>
+          <t>駿河湾 / 沼津静浦</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>粂丸</t>
+          <t>勘栄丸</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>30-118 尾</t>
+          <t>1-65 杯</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>14-26cm</t>
+          <t>15-25cm</t>
         </is>
       </c>
       <c r="H647" t="inlineStr">
@@ -43606,15 +43606,19 @@
           <t>－</t>
         </is>
       </c>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>3.1/3.6/3.4</t>
+        </is>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>2026-02-24T08:09:36+09:00</t>
+          <t>2026-02-24T08:10:11+09:00</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
         </is>
       </c>
       <c r="M647" t="inlineStr">
@@ -43631,32 +43635,32 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>akame</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>アカメフグ</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>外房 / 大原</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>一之瀬丸船(13ﾄﾝ)</t>
+          <t>利永丸船(10ﾄﾝ)</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>0-35 尾</t>
+          <t>X-9 尾</t>
         </is>
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>16-25cm</t>
+          <t>0.7X-2.0Xkg</t>
         </is>
       </c>
       <c r="H648" t="inlineStr">
@@ -43666,27 +43670,27 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>2.8/3.2/3.1</t>
+          <t>2.3/2.0/2.6</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>2026-02-24T08:09:36+09:00</t>
+          <t>2026-02-24T14:15:31+09:00</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=akame</t>
         </is>
       </c>
       <c r="M648" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -43698,62 +43702,62 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>横浜 / 川崎</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+          <t>中山丸</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>X-8 尾</t>
+          <t>25-76 尾</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>17-25cm</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>水深100-200m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>SANSPO</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>3.4/4.3/4.2</t>
+          <t>4.7/4.5/4.8</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>2026-02-24T08:09:38+09:00</t>
+          <t>2026-02-24T14:15:33+09:00</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M649" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -43765,32 +43769,32 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>kinme</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>キンメ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>横浜 / 新山下</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>平安丸</t>
+          <t>黒川本家船(18ﾄﾝ,18ﾄﾝ,17ｔ)</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>X-7 尾</t>
+          <t>1X-7X 尾</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>1X-3Xcm</t>
         </is>
       </c>
       <c r="H650" t="inlineStr">
@@ -43800,27 +43804,27 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>4.3/3.8/3.8</t>
+          <t>2.0/2.2/2.6</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>2026-02-24T08:09:49+09:00</t>
+          <t>2026-02-24T14:15:33+09:00</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M650" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -43832,37 +43836,37 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>fugu</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>ショウサイフグ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>外房 / 大原</t>
+          <t>横浜 / 新山下</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>敷嶋丸船(17ﾄﾝ)</t>
+          <t>粂丸</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>1X-2X 尾</t>
+          <t>30-118 尾</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>1X-3Xcm</t>
+          <t>14-26cm</t>
         </is>
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>水深5m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -43870,24 +43874,20 @@
           <t>－</t>
         </is>
       </c>
-      <c r="J651" t="inlineStr">
-        <is>
-          <t>3.9/3.6/4.1</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
-          <t>2026-02-24T08:09:54+09:00</t>
+          <t>2026-02-24T14:15:33+09:00</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M651" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -43899,12 +43899,12 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>tatiuo</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -43914,17 +43914,17 @@
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>弁天屋船(17ﾄﾝ)</t>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>X-3 本</t>
+          <t>0-35 尾</t>
         </is>
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>85-10Xcm</t>
+          <t>16-25cm</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
@@ -43934,27 +43934,27 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>4.0/4.0/4.3</t>
+          <t>2.8/3.2/3.1</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>2026-02-24T08:09:59+09:00</t>
+          <t>2026-02-24T14:15:33+09:00</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M652" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -43966,37 +43966,37 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>hirame</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>ヒラメ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>外房 / 大原</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>長福丸船(19ｔ)</t>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>X-2 枚</t>
+          <t>X-8 尾</t>
         </is>
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>0.5-2.5kg</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>水深5-15m</t>
+          <t>水深100-200m</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -44006,22 +44006,22 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>4.2/4.3/4.2</t>
+          <t>3.4/4.3/4.2</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>2026-02-24T08:10:03+09:00</t>
+          <t>2026-02-24T14:15:34+09:00</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M653" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -44033,32 +44033,32 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>hirame</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>ヒラメ</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>外房 / 大原</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>第三松栄丸船(14ﾄﾝ)</t>
+          <t>平安丸</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>X-2 枚</t>
+          <t>X-7 尾</t>
         </is>
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>0.5-3.6kg</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H654" t="inlineStr">
@@ -44073,22 +44073,22 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>3.7/3.4/3.6</t>
+          <t>4.3/3.8/3.8</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>2026-02-24T08:10:03+09:00</t>
+          <t>2026-02-24T14:15:42+09:00</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M654" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -44100,12 +44100,12 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>hirame</t>
+          <t>fugu</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>ヒラメ</t>
+          <t>ショウサイフグ</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -44115,22 +44115,22 @@
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>春栄丸船(19ﾄﾝ)</t>
+          <t>敷嶋丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>0-3 枚</t>
+          <t>1X-2X 尾</t>
         </is>
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>0.40-3.53kg</t>
+          <t>1X-3Xcm</t>
         </is>
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深5m</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -44140,22 +44140,22 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>2.7/3.3/2.8</t>
+          <t>3.9/3.6/4.1</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>2026-02-24T08:10:03+09:00</t>
+          <t>2026-02-24T14:15:48+09:00</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
         </is>
       </c>
       <c r="M655" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -44167,32 +44167,32 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>hirame</t>
+          <t>tatiuo</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>ヒラメ</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>三浦半島 / 金田</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>邦丸船(7ﾄﾝ,4.5ﾄﾝ)</t>
+          <t>弁天屋船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>1 枚</t>
+          <t>X-3 本</t>
         </is>
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>1.5Xkg</t>
+          <t>85-10Xcm</t>
         </is>
       </c>
       <c r="H656" t="inlineStr">
@@ -44205,20 +44205,24 @@
           <t>釣割</t>
         </is>
       </c>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>4.0/4.0/4.3</t>
+        </is>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>2026-02-24T08:10:03+09:00</t>
+          <t>2026-02-24T14:15:52+09:00</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
         </is>
       </c>
       <c r="M656" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -44230,62 +44234,62 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>magoti</t>
+          <t>hirame</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>マゴチ</t>
+          <t>ヒラメ</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>外房 / 大原</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>一之瀬丸船(13ﾄﾝ)</t>
+          <t>長福丸船(19ｔ)</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>1-1X 尾</t>
+          <t>X-2 枚</t>
         </is>
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>3X-5Xcm</t>
+          <t>0.5-2.5kg</t>
         </is>
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深5-15m</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>ぎょさん</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>2.8/3.2/3.1</t>
+          <t>4.2/4.3/4.2</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>2026-02-24T08:10:06+09:00</t>
+          <t>2026-02-24T14:15:55+09:00</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=magoti</t>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
         </is>
       </c>
       <c r="M657" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -44297,12 +44301,12 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>hirame</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>ヒラメ</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -44312,22 +44316,22 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>新幸丸</t>
+          <t>第三松栄丸船(14ﾄﾝ)</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>0-4 尾</t>
+          <t>0-2 枚</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>0.30-0.50kg</t>
+          <t>0.50-3.60kg</t>
         </is>
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>大原沖</t>
+          <t>太東沖</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -44337,22 +44341,22 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>4.4/3.9/4.5</t>
+          <t>3.7/3.4/3.6</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>2026-02-24T08:10:08+09:00</t>
+          <t>2026-02-24T14:15:55+09:00</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
         </is>
       </c>
       <c r="M658" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -44364,32 +44368,32 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>hirame</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>ヒラメ</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>外房 / 大原</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>平安丸</t>
+          <t>春栄丸船(19ﾄﾝ)</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>X-1 尾</t>
+          <t>0-3 枚</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>0.7-1.3kg</t>
+          <t>0.40-3.53kg</t>
         </is>
       </c>
       <c r="H659" t="inlineStr">
@@ -44404,22 +44408,22 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>4.3/3.8/3.8</t>
+          <t>2.7/3.3/2.8</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>2026-02-24T08:10:08+09:00</t>
+          <t>2026-02-24T14:15:55+09:00</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
         </is>
       </c>
       <c r="M659" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -44431,32 +44435,32 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>hirame</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>ヒラメ</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>相模湾 / 福浦</t>
+          <t>三浦半島 / 金田</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>よしひさ丸</t>
+          <t>邦丸船(7ﾄﾝ,4.5ﾄﾝ)</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>0-2 尾</t>
+          <t>1 枚</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>0.6-1.8kg</t>
+          <t>1.5Xkg</t>
         </is>
       </c>
       <c r="H660" t="inlineStr">
@@ -44466,27 +44470,23 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="J660" t="inlineStr">
-        <is>
-          <t>3.7/3.4/3.7</t>
-        </is>
-      </c>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
-          <t>2026-02-24T08:10:08+09:00</t>
+          <t>2026-02-24T14:15:55+09:00</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
         </is>
       </c>
       <c r="M660" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -44498,32 +44498,32 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>maruika</t>
+          <t>magoti</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>マルイカ</t>
+          <t>マゴチ</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>駿河湾 / 沼津静浦</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>勘栄丸</t>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>1-65 杯</t>
+          <t>1-1X 尾</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>15-25cm</t>
+          <t>3X-5Xcm</t>
         </is>
       </c>
       <c r="H661" t="inlineStr">
@@ -44533,27 +44533,27 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>ぎょさん</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>3.1/3.6/3.4</t>
+          <t>2.8/3.2/3.1</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>2026-02-24T08:10:11+09:00</t>
+          <t>2026-02-24T14:15:57+09:00</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=magoti</t>
         </is>
       </c>
       <c r="M661" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -44565,62 +44565,62 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>yariika</t>
+          <t>madai</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>ヤリイカ</t>
+          <t>マダイ</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>外房 / 大原</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+          <t>新幸丸</t>
         </is>
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>X-5 杯</t>
+          <t>0-4 尾</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>0.30-0.50kg</t>
         </is>
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>水深100-200m100-200m</t>
+          <t>大原沖</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>SANSPO</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>3.4/4.3/4.2</t>
+          <t>4.4/3.9/4.5</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>2026-02-24T08:10:15+09:00</t>
+          <t>2026-02-24T14:15:58+09:00</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
         </is>
       </c>
       <c r="M662" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -44632,62 +44632,263 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>平安丸</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>X-1 尾</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>0.7-1.3kg</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>4.3/3.8/3.8</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>2026-02-24T14:15:58+09:00</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>2026-02-24 14:17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>駿河湾 / 田子の浦</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>海渡丸</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>1-6X 杯</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>3.2/3.2/3.2</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>2026-02-24T14:16:01+09:00</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M664" t="inlineStr">
+        <is>
+          <t>2026-02-24 14:17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
           <t>yariika</t>
         </is>
       </c>
-      <c r="C663" t="inlineStr">
+      <c r="C665" t="inlineStr">
         <is>
           <t>ヤリイカ</t>
         </is>
       </c>
-      <c r="D663" t="inlineStr">
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>X-5 杯</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>水深100-200m100-200m</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>3.4/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>2026-02-24T14:16:04+09:00</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M665" t="inlineStr">
+        <is>
+          <t>2026-02-24 14:17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
         <is>
           <t>駿河湾 / 沼津静浦</t>
         </is>
       </c>
-      <c r="E663" t="inlineStr">
+      <c r="E666" t="inlineStr">
         <is>
           <t>清時丸</t>
         </is>
       </c>
-      <c r="F663" t="inlineStr">
+      <c r="F666" t="inlineStr">
         <is>
           <t>1X-1X 杯</t>
         </is>
       </c>
-      <c r="G663" t="inlineStr">
+      <c r="G666" t="inlineStr">
         <is>
           <t>1X-3Xcm</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="I663" t="inlineStr">
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
         <is>
           <t>マリネス</t>
         </is>
       </c>
-      <c r="J663" t="inlineStr">
+      <c r="J666" t="inlineStr">
         <is>
           <t>2.4/2.1/1.9</t>
         </is>
       </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>2026-02-24T08:10:15+09:00</t>
-        </is>
-      </c>
-      <c r="L663" t="inlineStr">
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>2026-02-24T14:16:04+09:00</t>
+        </is>
+      </c>
+      <c r="L666" t="inlineStr">
         <is>
           <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
         </is>
       </c>
-      <c r="M663" t="inlineStr">
-        <is>
-          <t>2026-02-24 08:11:37</t>
+      <c r="M666" t="inlineStr">
+        <is>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
     </row>
@@ -45083,7 +45284,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -45120,7 +45321,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -45157,7 +45358,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -45194,7 +45395,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -45231,7 +45432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-24 08:11:37</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M666"/>
+  <dimension ref="A1:M787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44889,6 +44889,8089 @@
       <c r="M666" t="inlineStr">
         <is>
           <t>2026-02-24 14:17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>aori</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>アオリイカ</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>南房 / 洲崎</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>赤沼丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>X-6 杯</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>0.5X-2.5Xkg</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>3.8/3.5/4.5</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:25+09:00</t>
+        </is>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+        </is>
+      </c>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>aori</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>アオリイカ</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>きよし丸</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>0-0 杯</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>0.00-0.00kg</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>3.3/3.3/3.0</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:25+09:00</t>
+        </is>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+        </is>
+      </c>
+      <c r="M668" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>aori</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>アオリイカ</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井新宿</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>辰丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>X-7 杯</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>0.4X-1.5Xkg</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>3.6/2.6/3.1</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:25+09:00</t>
+        </is>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+        </is>
+      </c>
+      <c r="M669" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>akou</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>アコウ</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>相模湾 / 真鶴</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>緑龍丸船(4.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>-1 尾</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>4kg</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:28+09:00</t>
+        </is>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=akou</t>
+        </is>
+      </c>
+      <c r="M670" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>内房 / 金谷</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>勘次郎丸船(8.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>2X-4X 尾</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>2.8/2.7/2.7</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M671" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>横浜 / 本牧</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>長崎屋船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>33-111 尾</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>17-30cm</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>4.4/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M672" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢漁港</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>青田丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>0-4X 尾</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>4.2/4.8/4.5</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M673" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>黒川丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>2X-3X 尾</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>4.0/3.6/3.9</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M674" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>荒川屋船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>30-40 尾</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>19-21cm</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>富岡沖20m</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.9</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M675" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>1X-3X 尾</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>水深30m</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M676" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>五郎丸船(13ﾄﾝ,13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>15-61 尾</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>24-36cm</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>4.8/4.2/4.5</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M677" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>房丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>1X-4X 尾</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>4.3/3.8/4.2</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M678" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>おかだ丸</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>3X-8X 尾</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>久里浜沖</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>マリネス</t>
+        </is>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>2.3/2.3/3.4</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M679" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>巳之助丸</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>28-50 尾</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>22-36cm</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>久里浜沖</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>3.0/3.3/3.2</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M680" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久里浜</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>鈴福丸船(17ﾄﾝ,10ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>18-49 尾</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>23-35cm</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>4.3/4.7/5.0</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M681" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久里浜</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>黒川丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>1X-4X 尾</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>水深90m</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>2.9/3.4/3.5</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M682" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>愛正丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>2X-7X 尾</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>4.2/3.5/4.1</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M683" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>湘南 海成丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>22-46 尾</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>23-40cm</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>2.3/2.5/2.4</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M684" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>平安丸</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>1X-3X 尾</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>4.3/3.8/3.8</t>
+        </is>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:30+09:00</t>
+        </is>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M685" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>茨城 / 波崎</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>信栄丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>水深90m</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>3.1/4.1/3.7</t>
+        </is>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M686" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>外房 / 外川</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>政勝丸船(8.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>3X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>2.9/2.2/2.9</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M687" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>内房 / 上総湊</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>フィッシュオン大勝船(4.4ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>3.8/2.1/2.9</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M688" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>2-5 尾</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>20-43cm</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>岩井・剣崎沖70-90m</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M689" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>山天丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>25-35.5cm</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>剣崎沖</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>3.5/3.7/3.9</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M690" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>あまさけや丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>1-5 尾</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>25-38cm</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>4.1/3.2/4.1</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M691" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山芝崎</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>五エム丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>0-5 尾</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>20-45cm</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>3.5/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M692" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>愛正丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>4.2/3.5/4.1</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M693" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>たいぞう丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>3.1/3.2/3.5</t>
+        </is>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M694" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>三浦半島 / 小坪</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>椿丸船(4.8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>X-8 尾</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>4.9/4.5/4.0</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M695" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>孝太郎丸船(8.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>1-4 尾</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>26-38cm</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>2.8/2.4/3.5</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M696" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>かりゆし丸船(6.6ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>X-9 尾</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>4.6/3.4/4.0</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M697" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>0-1X 尾</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>水深60-110m</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>3.4/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:31+09:00</t>
+        </is>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M698" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>ika</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>イカ</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>1-3 杯</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>0.2-0.6kg</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>岩井・剣崎沖70-90m下浦沖40m</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:34+09:00</t>
+        </is>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=ika</t>
+        </is>
+      </c>
+      <c r="M699" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>isaki</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>イサキ</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>東伊豆 / 伊東</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>村正丸船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>-4 尾</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>3.4/3.1/3.8</t>
+        </is>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:34+09:00</t>
+        </is>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=isaki</t>
+        </is>
+      </c>
+      <c r="M700" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>isimoti</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>イシモチ</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>小柴丸</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>14-20 尾</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>20-28cm</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>本牧沖20m</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>4.1/3.6/4.8</t>
+        </is>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:36+09:00</t>
+        </is>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=isimoti</t>
+        </is>
+      </c>
+      <c r="M701" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>inada</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>イナダ</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>喜久丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>X-8 尾</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>4X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>2.6/2.1/2.3</t>
+        </is>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:37+09:00</t>
+        </is>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
+        </is>
+      </c>
+      <c r="M702" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>inada</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>イナダ</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>池田丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>3-20 尾</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>43-55cm</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>水深60m</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>1.9/2.4/2.4</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:37+09:00</t>
+        </is>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
+        </is>
+      </c>
+      <c r="M703" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>onikasago</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>オニカサゴ</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>0-9 尾</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>0.4-1.4kg</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>4.3/4.2/4.3</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:38+09:00</t>
+        </is>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
+        </is>
+      </c>
+      <c r="M704" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>onikasago</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>オニカサゴ</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>0.3-1.1kg</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>水深60-110m60-110m</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>3.4/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:38+09:00</t>
+        </is>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
+        </is>
+      </c>
+      <c r="M705" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>kasago</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>カサゴ</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>新修丸</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>2X-3X 尾</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>4.7/3.7/4.6</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:39+09:00</t>
+        </is>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kasago</t>
+        </is>
+      </c>
+      <c r="M706" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>南房 / 洲崎</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>早川丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>6-12 尾</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>18-26cm</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>水深145-185m</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>2.6/3.7/3.1</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:41+09:00</t>
+        </is>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M707" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>1-13 尾</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>17-28cm</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>岩井・剣崎沖70-90m下浦沖40m下浦・久里浜沖20-30m</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:41+09:00</t>
+        </is>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M708" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>巳之助丸</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>0-11 尾</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>18-29cm</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>久里浜沖剣崎・竹岡沖</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>3.0/3.3/3.2</t>
+        </is>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:41+09:00</t>
+        </is>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M709" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>儀兵衛丸船(14ﾄﾝ,9.1ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>X-2 尾</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>1X-2X.5cm</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>4.6/3.8/4.4</t>
+        </is>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:41+09:00</t>
+        </is>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M710" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>kinme</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>キンメ</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>東伊豆 / 稲取</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>晃山丸船(14ﾄﾝ,12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>X-9 尾</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>水深300-500m</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>4.1/4.0/4.2</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:42+09:00</t>
+        </is>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+        </is>
+      </c>
+      <c r="M711" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>kurodai</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>クロダイ</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 千葉寒川</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>守山丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>3X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>4.7/4.2/4.7</t>
+        </is>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:43+09:00</t>
+        </is>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kurodai</t>
+        </is>
+      </c>
+      <c r="M712" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>南房 / 鴨川</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>第三新生合同丸船(17ｔ)</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>水深90-120m</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>4.6/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:45+09:00</t>
+        </is>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M713" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>東伊豆 / 宇佐美</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>嘉丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>4 尾</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>2X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>入れ食い</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>4.2/3.7/3.8</t>
+        </is>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:45+09:00</t>
+        </is>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M714" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>seabuss</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>シーバス</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 千葉寒川</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>守山丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>4X-7Xcm</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>4.7/4.2/4.7</t>
+        </is>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:47+09:00</t>
+        </is>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
+        </is>
+      </c>
+      <c r="M715" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>seabuss</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>シーバス</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 行徳</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>林遊船船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>5X-7Xcm</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>4.2/3.4/4.1</t>
+        </is>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:47+09:00</t>
+        </is>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
+        </is>
+      </c>
+      <c r="M716" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>seabuss</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>シーバス</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>横浜 / 本牧</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>長崎屋船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>13-53 尾</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>35-78cm</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>木更津沖</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>4.4/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:47+09:00</t>
+        </is>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
+        </is>
+      </c>
+      <c r="M717" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>fugu</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>ショウサイフグ</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>不動丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>1 尾</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>4Xcm</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>3.0/3.3/2.2</t>
+        </is>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:48+09:00</t>
+        </is>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+        </is>
+      </c>
+      <c r="M718" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>fugu</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>ショウサイフグ</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>長福丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>水深5-26m</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J719" t="inlineStr">
+        <is>
+          <t>4.2/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:48+09:00</t>
+        </is>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+        </is>
+      </c>
+      <c r="M719" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>fugu</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>ショウサイフグ</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>敷嶋丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>6-1X 尾</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>3.9/3.6/4.1</t>
+        </is>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:48+09:00</t>
+        </is>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+        </is>
+      </c>
+      <c r="M720" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>fugu</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>ショウサイフグ</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>利永丸船(10ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>6-2X 尾</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J721" t="inlineStr">
+        <is>
+          <t>2.3/2.0/2.6</t>
+        </is>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:48+09:00</t>
+        </is>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+        </is>
+      </c>
+      <c r="M721" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>fugu</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>ショウサイフグ</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>野毛屋釣船店船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>0-10 尾</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>22-42cm</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>3.5/3.9/4.0</t>
+        </is>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:48+09:00</t>
+        </is>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+        </is>
+      </c>
+      <c r="M722" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>kisu</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>シロギス</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>横浜 / 本牧</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>長崎屋船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>10-157 尾</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>14-24cm</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>木更津沖</t>
+        </is>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J723" t="inlineStr">
+        <is>
+          <t>4.4/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:50+09:00</t>
+        </is>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+        </is>
+      </c>
+      <c r="M723" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>kisu</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>シロギス</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢漁港</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>進丸船(15ﾄﾝ,12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>2X-9X 尾</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J724" t="inlineStr">
+        <is>
+          <t>4.9/4.3/4.8</t>
+        </is>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:50+09:00</t>
+        </is>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+        </is>
+      </c>
+      <c r="M724" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>kisu</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>シロギス</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>荒川屋船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>21-55 尾</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>15-22cm</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>富岡沖20m中ノ瀬沖18m</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J725" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.9</t>
+        </is>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:50+09:00</t>
+        </is>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+        </is>
+      </c>
+      <c r="M725" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>sumiika</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>スミイカ</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>1-3 杯</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>0.20-0.60kg</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>岩井・剣崎沖70-90m下浦沖40m下浦・久里浜沖20-30m40m</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:51+09:00</t>
+        </is>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=sumiika</t>
+        </is>
+      </c>
+      <c r="M726" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>南房 / 白間津</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>甚四郎丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>0-32 杯</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>25-40cm</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>水深160-190m</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J727" t="inlineStr">
+        <is>
+          <t>4.6/4.0/4.8</t>
+        </is>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:52+09:00</t>
+        </is>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M727" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>南房 / 乙浜</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>しまや丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>5-33 杯</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>25-40cm</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J728" t="inlineStr">
+        <is>
+          <t>3.7/3.6/3.8</t>
+        </is>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:52+09:00</t>
+        </is>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M728" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>南房 / 洲崎</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>早川丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>1X-4X 杯</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>水深145-185m</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J729" t="inlineStr">
+        <is>
+          <t>2.6/3.7/3.1</t>
+        </is>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:52+09:00</t>
+        </is>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M729" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>4-36 杯</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>25-40cm</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>4.3/4.2/4.3</t>
+        </is>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:52+09:00</t>
+        </is>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M730" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>儀兵衛丸船(14ﾄﾝ,9.1ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>6-2X 杯</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>4.6/3.8/4.4</t>
+        </is>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:52+09:00</t>
+        </is>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M731" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>はら丸</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>17-29 杯</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>25-40cm</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>長井沖</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J732" t="inlineStr">
+        <is>
+          <t>3.7/2.6/3.8</t>
+        </is>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:52+09:00</t>
+        </is>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M732" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井漆山</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>春盛丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>0-1X 杯</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J733" t="inlineStr">
+        <is>
+          <t>3.8/3.5/3.9</t>
+        </is>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:52+09:00</t>
+        </is>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M733" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井漆山</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>光三丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>5-3X 杯</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J734" t="inlineStr">
+        <is>
+          <t>2.8/3.7/3.6</t>
+        </is>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:52+09:00</t>
+        </is>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M734" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>長三朗丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>3-24 杯</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>20-45cm</t>
+        </is>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J735" t="inlineStr">
+        <is>
+          <t>3.5/3.3/3.6</t>
+        </is>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:52+09:00</t>
+        </is>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M735" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>太田屋船(12ﾄﾝ,12ﾄﾝ,12ﾄﾝ,11ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>5-2X 本</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>74-11Xcm</t>
+        </is>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>海釣り情報</t>
+        </is>
+      </c>
+      <c r="J736" t="inlineStr">
+        <is>
+          <t>4.3/3.9/4.4</t>
+        </is>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:53+09:00</t>
+        </is>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M736" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>米元釣船店船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>1-10 本</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>70-100cm</t>
+        </is>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>水深40m</t>
+        </is>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J737" t="inlineStr">
+        <is>
+          <t>4.6/3.5/4.4</t>
+        </is>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:53+09:00</t>
+        </is>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M737" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>荒川屋船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>3-8 本</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>75-111cm</t>
+        </is>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>富岡沖20m中ノ瀬沖18m本牧沖40m</t>
+        </is>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J738" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.9</t>
+        </is>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:53+09:00</t>
+        </is>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M738" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>X-5 本</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>75-12Xcm</t>
+        </is>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>水深30m</t>
+        </is>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J739" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:53+09:00</t>
+        </is>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M739" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>三浦半島 / 新安浦</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>こうゆう丸船(19ﾄﾝ,16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>0-5 本</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>80-109cm</t>
+        </is>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>本牧沖40m</t>
+        </is>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J740" t="inlineStr">
+        <is>
+          <t>2.0/2.7/2.7</t>
+        </is>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:53+09:00</t>
+        </is>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M740" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>五郎丸船(13ﾄﾝ,13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>2-6 本</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>70-110cm</t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J741" t="inlineStr">
+        <is>
+          <t>4.8/4.2/4.5</t>
+        </is>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:53+09:00</t>
+        </is>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M741" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>石川丸</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>0-1 本</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>70-90cm</t>
+        </is>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J742" t="inlineStr">
+        <is>
+          <t>3.1/3.3/3.4</t>
+        </is>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:53+09:00</t>
+        </is>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M742" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>横浜 / 川崎</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>つり幸船(19ﾄﾝ,17ﾄﾝ,17ﾄﾝ,15ﾄﾝ,12ﾄﾝ,12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>X-1 尾</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>0.3-0.8kg</t>
+        </is>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J743" t="inlineStr">
+        <is>
+          <t>2.9/3.4/3.1</t>
+        </is>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:54+09:00</t>
+        </is>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M743" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>不動丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>X-9 枚</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>0.5X-4.7Xkg</t>
+        </is>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J744" t="inlineStr">
+        <is>
+          <t>3.0/3.3/2.2</t>
+        </is>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:57+09:00</t>
+        </is>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M744" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>X-8 枚</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>0.4-2.7kg</t>
+        </is>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>水深10m</t>
+        </is>
+      </c>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J745" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.4</t>
+        </is>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:57+09:00</t>
+        </is>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M745" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>太幸丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>X-5 枚</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>0.5X-1.0Xkg</t>
+        </is>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J746" t="inlineStr">
+        <is>
+          <t>3.8/3.6/3.8</t>
+        </is>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:57+09:00</t>
+        </is>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M746" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>優光丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>X-4 枚</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>0.4-2.5kg</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>水深25m</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J747" t="inlineStr">
+        <is>
+          <t>3.8/3.3/3.1</t>
+        </is>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:57+09:00</t>
+        </is>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M747" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>長福丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>X-3 枚</t>
+        </is>
+      </c>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>0.8-3.1kg</t>
+        </is>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>水深5-26m5-26m</t>
+        </is>
+      </c>
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J748" t="inlineStr">
+        <is>
+          <t>4.2/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:57+09:00</t>
+        </is>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M748" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>第三松栄丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>X-6 枚</t>
+        </is>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>1.2-7.0Xkg</t>
+        </is>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J749" t="inlineStr">
+        <is>
+          <t>3.7/3.4/3.6</t>
+        </is>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:57+09:00</t>
+        </is>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M749" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山芝崎</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>五エム丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>0-3 枚</t>
+        </is>
+      </c>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>0.5-1.6kg</t>
+        </is>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I750" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J750" t="inlineStr">
+        <is>
+          <t>3.5/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:57+09:00</t>
+        </is>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M750" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>秀吉丸</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>0-2 枚</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>0.7-1.8kg</t>
+        </is>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J751" t="inlineStr">
+        <is>
+          <t>4.0/3.8/4.1</t>
+        </is>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:35:57+09:00</t>
+        </is>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M751" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>0-7 尾</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>0.5-3.8kg</t>
+        </is>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>水深10m</t>
+        </is>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J752" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.4</t>
+        </is>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M752" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>梅花丸船(19ﾄﾝ,17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>0.30-4.70kg</t>
+        </is>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J753" t="inlineStr">
+        <is>
+          <t>4.1/4.4/4.3</t>
+        </is>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M753" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>庄幸丸船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>0.5X-1.6Xkg</t>
+        </is>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I754" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J754" t="inlineStr">
+        <is>
+          <t>2.9/3.6/3.2</t>
+        </is>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M754" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>内房 / 保田</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>東丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>0.40-3.00kg</t>
+        </is>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>水深50m</t>
+        </is>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J755" t="inlineStr">
+        <is>
+          <t>3.1/3.8/3.5</t>
+        </is>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M755" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>0.4-1.2kg</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>水深30m</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J756" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M756" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>村本海事船(15m)</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>0.4X-2.2Xkg</t>
+        </is>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M757" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎間口</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>丸又丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>X-2 尾</t>
+        </is>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>0.5-1.4kg</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>水深40-80m</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M758" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎間口</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>千良丸</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>3-6 尾</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>0.7-1.4kg</t>
+        </is>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I759" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M759" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>あまさけや丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>X-2kg</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>4.1/3.2/4.1</t>
+        </is>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M760" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>伝五郎丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>X-6 尾</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>0.6X-1.2Xkg</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>3.4/3.5/2.7</t>
+        </is>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M761" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>成銀丸船(19.9ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>0.5X-3.0Xkg</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>2.9/3.9/2.6</t>
+        </is>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M762" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>正海丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>X-8 尾</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>0.7X-2.2Xkg</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M763" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>孝太郎丸船(8.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>1-2 尾</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>0.9-1.4kg</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I764" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J764" t="inlineStr">
+        <is>
+          <t>2.8/2.4/3.5</t>
+        </is>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M764" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>平安丸</t>
+        </is>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>0.7-1.3kg</t>
+        </is>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I765" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J765" t="inlineStr">
+        <is>
+          <t>4.3/3.8/3.8</t>
+        </is>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M765" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>相模湾 / 福浦</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>よしひさ丸</t>
+        </is>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>0.6-2.5kg</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J766" t="inlineStr">
+        <is>
+          <t>3.7/3.4/3.7</t>
+        </is>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:02+09:00</t>
+        </is>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M766" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>mahata</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>マハタ</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>つる丸</t>
+        </is>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>0.5-2kg</t>
+        </is>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>水深30-60m</t>
+        </is>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J767" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.2</t>
+        </is>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:04+09:00</t>
+        </is>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+        </is>
+      </c>
+      <c r="M767" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>mahata</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>マハタ</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>外房 / 勝浦松部</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>信照丸船(18.5x3.7m)</t>
+        </is>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>0-5 尾</t>
+        </is>
+      </c>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>0.8-2.19kg</t>
+        </is>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I768" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J768" t="inlineStr">
+        <is>
+          <t>2.2/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:04+09:00</t>
+        </is>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+        </is>
+      </c>
+      <c r="M768" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>mahata</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>マハタ</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>はじめ丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>X-1 尾</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>1.2X-6.7Xkg</t>
+        </is>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:04+09:00</t>
+        </is>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+        </is>
+      </c>
+      <c r="M769" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>南房 / 天津小湊</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>寿々木丸船(9.7ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>4-2X 杯</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I770" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J770" t="inlineStr">
+        <is>
+          <t>3.9/3.9/4.0</t>
+        </is>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:05+09:00</t>
+        </is>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M770" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>山天丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>0-18 杯</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>15-30cm</t>
+        </is>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>剣崎沖</t>
+        </is>
+      </c>
+      <c r="I771" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J771" t="inlineStr">
+        <is>
+          <t>3.5/3.7/3.9</t>
+        </is>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:05+09:00</t>
+        </is>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M771" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>三浦半島 / 小網代</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>大和丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>1X-2X 杯</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J772" t="inlineStr">
+        <is>
+          <t>4.9/4.5/4.8</t>
+        </is>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:05+09:00</t>
+        </is>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M772" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>はら丸</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>1-2 杯</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>14-30cm</t>
+        </is>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>長井沖城ヶ島沖</t>
+        </is>
+      </c>
+      <c r="I773" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J773" t="inlineStr">
+        <is>
+          <t>3.7/2.6/3.8</t>
+        </is>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:05+09:00</t>
+        </is>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M773" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山芝崎</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>五エム丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>8-36 杯</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>15-27cm</t>
+        </is>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I774" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J774" t="inlineStr">
+        <is>
+          <t>3.5/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:05+09:00</t>
+        </is>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M774" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>秀吉丸</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>25-25 杯</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>18-30cm</t>
+        </is>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I775" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J775" t="inlineStr">
+        <is>
+          <t>4.0/3.8/4.1</t>
+        </is>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:05+09:00</t>
+        </is>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M775" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>たいぞう丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>2-30 杯</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>15-28cm</t>
+        </is>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>江ノ島沖</t>
+        </is>
+      </c>
+      <c r="I776" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J776" t="inlineStr">
+        <is>
+          <t>3.1/3.2/3.5</t>
+        </is>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:05+09:00</t>
+        </is>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M776" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>多希志丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>1X-2X 杯</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J777" t="inlineStr">
+        <is>
+          <t>3.6/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:05+09:00</t>
+        </is>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M777" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>medai</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>メダイ</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>南伊豆 / 下田須崎</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>久寿丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>4-1X 尾</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>2.0X-5.8Xkg</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J778" t="inlineStr">
+        <is>
+          <t>4.8/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:06+09:00</t>
+        </is>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=medai</t>
+        </is>
+      </c>
+      <c r="M778" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>medai</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>メダイ</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>南伊豆 / 下田須崎</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>爪木丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>X-8 尾</t>
+        </is>
+      </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>X-4kg</t>
+        </is>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J779" t="inlineStr">
+        <is>
+          <t>3.8/4.0/3.6</t>
+        </is>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:06+09:00</t>
+        </is>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=medai</t>
+        </is>
+      </c>
+      <c r="M779" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>茨城 / 波崎</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>信栄丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>X-6 杯</t>
+        </is>
+      </c>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>水深90m130m</t>
+        </is>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>3.1/4.1/3.7</t>
+        </is>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:09+09:00</t>
+        </is>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M780" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>外房 / 川津</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>不動丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>0-25 杯</t>
+        </is>
+      </c>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>25-40cm</t>
+        </is>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>勝浦沖</t>
+        </is>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J781" t="inlineStr">
+        <is>
+          <t>3.6/3.7/3.4</t>
+        </is>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:09+09:00</t>
+        </is>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M781" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>外房 / 勝浦</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>勝丸船(10ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>6-1X 杯</t>
+        </is>
+      </c>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>4.0/3.3/4.1</t>
+        </is>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:09+09:00</t>
+        </is>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M782" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>南房 / 天津小湊</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>大栄丸船(9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>1X-3X 杯</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>4.5/3.0/4.5</t>
+        </is>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:09+09:00</t>
+        </is>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M783" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>南房 / 鴨川</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>第三新生合同丸船(17ｔ)</t>
+        </is>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>5-2X 杯</t>
+        </is>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>水深90-120m90-120m</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J784" t="inlineStr">
+        <is>
+          <t>4.6/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:09+09:00</t>
+        </is>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M784" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>南房 / 洲崎</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>早川丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>1X-4X 杯</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>水深145-185m145-185m</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J785" t="inlineStr">
+        <is>
+          <t>2.6/3.7/3.1</t>
+        </is>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:09+09:00</t>
+        </is>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M785" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>成銀丸船(19.9ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>0-3X 杯</t>
+        </is>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J786" t="inlineStr">
+        <is>
+          <t>2.9/3.9/2.6</t>
+        </is>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:09+09:00</t>
+        </is>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M786" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>平安丸</t>
+        </is>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>X-5 杯</t>
+        </is>
+      </c>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J787" t="inlineStr">
+        <is>
+          <t>4.3/3.8/3.8</t>
+        </is>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>2026-02-24T23:36:09+09:00</t>
+        </is>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M787" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
         </is>
       </c>
     </row>
@@ -44903,7 +52986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45326,44 +53409,44 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2/22(日)</t>
+          <t>2/19(木)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>臨時休業</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2～8本</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>最大121cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>横浜沖40～45m</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
+          <t>本日は都合によりお休みとさせて頂きました！</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-24 14:17:12</t>
+          <t>2026-02-24 23:37:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2/21(土)</t>
+          <t>2/24(火)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -45373,39 +53456,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2～7本</t>
+          <t>1～8本</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>最大113cm</t>
+          <t>最大109cm</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>横浜沖40～45m</t>
+          <t>横浜沖40m前後</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
+          <t>終日、横浜沖周辺40m前後を狙い、強風後でしたが所々で反応を確認出来ました！終始、相変わらずの手強さですが、所々でアタリ出て難易度高く針掛かりまでは難しかったが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は一宮町の佐藤様。　他、スソの方お一人(1本ながらも108cmGET!)・その他の方は2～6本GET!(6本は本日最大109cmGET!で鴻巣市の室田様)。　ハマった方は居ませんでしたが皆さん健闘し、お土産確保！お疲れ様でした！ ･･･明日2/25(水)・明後日2/26(木)はタチウオを狙い出船します！　＊明日・明後日は雨予報ですが、出船確定です！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-24 14:17:12</t>
+          <t>2026-02-24 23:37:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2/20(金)</t>
+          <t>2/23(月)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>定休日</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -45425,44 +53508,118 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>本日は定休日でお休みでした！</t>
+          <t>本日は予報悪くお休みとさせて頂きました！</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-24 14:17:12</t>
+          <t>2026-02-24 23:37:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/19(木)</t>
+          <t>2/22(日)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>臨時休業</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>2～8本</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>最大121cm</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>横浜沖40～45m</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2/21(土)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2～7本</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>最大113cm</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>横浜沖40～45m</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-02-24 23:37:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2/20(金)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>定休日</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>・</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>・</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>・</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>本日は都合によりお休みとさせて頂きました！</t>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>本日は定休日でお休みでした！</t>
         </is>
       </c>
     </row>

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -44945,7 +44945,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:25+09:00</t>
+          <t>2026-02-25T07:04:04+09:00</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -44955,7 +44955,7 @@
       </c>
       <c r="M667" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45012,7 +45012,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:25+09:00</t>
+          <t>2026-02-25T07:04:04+09:00</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -45022,7 +45022,7 @@
       </c>
       <c r="M668" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45079,7 +45079,7 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:25+09:00</t>
+          <t>2026-02-25T07:04:04+09:00</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
@@ -45089,7 +45089,7 @@
       </c>
       <c r="M669" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45142,7 +45142,7 @@
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:28+09:00</t>
+          <t>2026-02-25T07:04:06+09:00</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -45152,7 +45152,7 @@
       </c>
       <c r="M670" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45209,7 +45209,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -45219,7 +45219,7 @@
       </c>
       <c r="M671" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -45286,7 +45286,7 @@
       </c>
       <c r="M672" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45343,7 +45343,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -45353,7 +45353,7 @@
       </c>
       <c r="M673" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45410,7 +45410,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -45420,7 +45420,7 @@
       </c>
       <c r="M674" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45477,7 +45477,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -45487,7 +45487,7 @@
       </c>
       <c r="M675" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45544,7 +45544,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -45554,7 +45554,7 @@
       </c>
       <c r="M676" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45611,7 +45611,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -45621,7 +45621,7 @@
       </c>
       <c r="M677" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45678,7 +45678,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -45688,7 +45688,7 @@
       </c>
       <c r="M678" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45745,7 +45745,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
@@ -45755,7 +45755,7 @@
       </c>
       <c r="M679" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45812,7 +45812,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
@@ -45822,7 +45822,7 @@
       </c>
       <c r="M680" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45879,7 +45879,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -45889,7 +45889,7 @@
       </c>
       <c r="M681" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -45946,7 +45946,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -45956,7 +45956,7 @@
       </c>
       <c r="M682" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46013,7 +46013,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -46023,7 +46023,7 @@
       </c>
       <c r="M683" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46080,7 +46080,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
@@ -46090,7 +46090,7 @@
       </c>
       <c r="M684" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46147,7 +46147,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:30+09:00</t>
+          <t>2026-02-25T07:04:08+09:00</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
@@ -46157,7 +46157,7 @@
       </c>
       <c r="M685" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46214,7 +46214,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
@@ -46224,7 +46224,7 @@
       </c>
       <c r="M686" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46281,7 +46281,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
@@ -46291,7 +46291,7 @@
       </c>
       <c r="M687" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46348,7 +46348,7 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
@@ -46358,7 +46358,7 @@
       </c>
       <c r="M688" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46415,7 +46415,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
@@ -46425,7 +46425,7 @@
       </c>
       <c r="M689" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46482,7 +46482,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
@@ -46492,7 +46492,7 @@
       </c>
       <c r="M690" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46549,7 +46549,7 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
@@ -46559,7 +46559,7 @@
       </c>
       <c r="M691" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46616,7 +46616,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
@@ -46626,7 +46626,7 @@
       </c>
       <c r="M692" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46683,7 +46683,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
@@ -46693,7 +46693,7 @@
       </c>
       <c r="M693" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46750,7 +46750,7 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
@@ -46760,7 +46760,7 @@
       </c>
       <c r="M694" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46817,7 +46817,7 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
@@ -46827,7 +46827,7 @@
       </c>
       <c r="M695" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46884,7 +46884,7 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
@@ -46894,7 +46894,7 @@
       </c>
       <c r="M696" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -46951,7 +46951,7 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
@@ -46961,7 +46961,7 @@
       </c>
       <c r="M697" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47018,7 +47018,7 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:31+09:00</t>
+          <t>2026-02-25T07:04:09+09:00</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
@@ -47028,7 +47028,7 @@
       </c>
       <c r="M698" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47085,7 +47085,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:34+09:00</t>
+          <t>2026-02-25T07:04:11+09:00</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
@@ -47095,7 +47095,7 @@
       </c>
       <c r="M699" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47152,7 +47152,7 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:34+09:00</t>
+          <t>2026-02-25T07:04:12+09:00</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
@@ -47162,7 +47162,7 @@
       </c>
       <c r="M700" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47219,7 +47219,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:36+09:00</t>
+          <t>2026-02-25T07:04:13+09:00</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
@@ -47229,7 +47229,7 @@
       </c>
       <c r="M701" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47286,7 +47286,7 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:37+09:00</t>
+          <t>2026-02-25T07:04:14+09:00</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
@@ -47296,7 +47296,7 @@
       </c>
       <c r="M702" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47353,7 +47353,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:37+09:00</t>
+          <t>2026-02-25T07:04:14+09:00</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
@@ -47363,7 +47363,7 @@
       </c>
       <c r="M703" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47420,7 +47420,7 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:38+09:00</t>
+          <t>2026-02-25T07:04:15+09:00</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
@@ -47430,7 +47430,7 @@
       </c>
       <c r="M704" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47487,7 +47487,7 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:38+09:00</t>
+          <t>2026-02-25T07:04:15+09:00</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
@@ -47497,7 +47497,7 @@
       </c>
       <c r="M705" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47554,7 +47554,7 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:39+09:00</t>
+          <t>2026-02-25T07:04:16+09:00</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
@@ -47564,7 +47564,7 @@
       </c>
       <c r="M706" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47621,7 +47621,7 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:41+09:00</t>
+          <t>2026-02-25T07:04:19+09:00</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
@@ -47631,7 +47631,7 @@
       </c>
       <c r="M707" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47688,7 +47688,7 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:41+09:00</t>
+          <t>2026-02-25T07:04:19+09:00</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
@@ -47698,7 +47698,7 @@
       </c>
       <c r="M708" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47755,7 +47755,7 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:41+09:00</t>
+          <t>2026-02-25T07:04:19+09:00</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
@@ -47765,7 +47765,7 @@
       </c>
       <c r="M709" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47822,7 +47822,7 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:41+09:00</t>
+          <t>2026-02-25T07:04:19+09:00</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
@@ -47832,7 +47832,7 @@
       </c>
       <c r="M710" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47889,7 +47889,7 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:42+09:00</t>
+          <t>2026-02-25T07:04:20+09:00</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
@@ -47899,7 +47899,7 @@
       </c>
       <c r="M711" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -47956,7 +47956,7 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:43+09:00</t>
+          <t>2026-02-25T07:04:21+09:00</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
@@ -47966,7 +47966,7 @@
       </c>
       <c r="M712" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48023,7 +48023,7 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:45+09:00</t>
+          <t>2026-02-25T07:04:22+09:00</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
@@ -48033,7 +48033,7 @@
       </c>
       <c r="M713" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48090,7 +48090,7 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:45+09:00</t>
+          <t>2026-02-25T07:04:22+09:00</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
@@ -48100,7 +48100,7 @@
       </c>
       <c r="M714" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48157,7 +48157,7 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:47+09:00</t>
+          <t>2026-02-25T07:04:25+09:00</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
@@ -48167,7 +48167,7 @@
       </c>
       <c r="M715" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48224,7 +48224,7 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:47+09:00</t>
+          <t>2026-02-25T07:04:25+09:00</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
@@ -48234,7 +48234,7 @@
       </c>
       <c r="M716" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48291,7 +48291,7 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:47+09:00</t>
+          <t>2026-02-25T07:04:25+09:00</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
@@ -48301,7 +48301,7 @@
       </c>
       <c r="M717" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48358,7 +48358,7 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:48+09:00</t>
+          <t>2026-02-25T07:04:26+09:00</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
@@ -48368,7 +48368,7 @@
       </c>
       <c r="M718" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48425,7 +48425,7 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:48+09:00</t>
+          <t>2026-02-25T07:04:26+09:00</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
@@ -48435,7 +48435,7 @@
       </c>
       <c r="M719" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48492,7 +48492,7 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:48+09:00</t>
+          <t>2026-02-25T07:04:26+09:00</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
@@ -48502,7 +48502,7 @@
       </c>
       <c r="M720" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48559,7 +48559,7 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:48+09:00</t>
+          <t>2026-02-25T07:04:26+09:00</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
@@ -48569,7 +48569,7 @@
       </c>
       <c r="M721" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48626,7 +48626,7 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:48+09:00</t>
+          <t>2026-02-25T07:04:26+09:00</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
@@ -48636,7 +48636,7 @@
       </c>
       <c r="M722" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48693,7 +48693,7 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:50+09:00</t>
+          <t>2026-02-25T07:04:27+09:00</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
@@ -48703,7 +48703,7 @@
       </c>
       <c r="M723" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48760,7 +48760,7 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:50+09:00</t>
+          <t>2026-02-25T07:04:27+09:00</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
@@ -48770,7 +48770,7 @@
       </c>
       <c r="M724" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48827,7 +48827,7 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:50+09:00</t>
+          <t>2026-02-25T07:04:27+09:00</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
@@ -48837,7 +48837,7 @@
       </c>
       <c r="M725" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48894,7 +48894,7 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:51+09:00</t>
+          <t>2026-02-25T07:04:28+09:00</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
@@ -48904,7 +48904,7 @@
       </c>
       <c r="M726" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -48961,7 +48961,7 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:52+09:00</t>
+          <t>2026-02-25T07:04:29+09:00</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
@@ -48971,7 +48971,7 @@
       </c>
       <c r="M727" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49028,7 +49028,7 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:52+09:00</t>
+          <t>2026-02-25T07:04:29+09:00</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
@@ -49038,7 +49038,7 @@
       </c>
       <c r="M728" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49095,7 +49095,7 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:52+09:00</t>
+          <t>2026-02-25T07:04:29+09:00</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
@@ -49105,7 +49105,7 @@
       </c>
       <c r="M729" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49162,7 +49162,7 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:52+09:00</t>
+          <t>2026-02-25T07:04:29+09:00</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
@@ -49172,7 +49172,7 @@
       </c>
       <c r="M730" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49229,7 +49229,7 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:52+09:00</t>
+          <t>2026-02-25T07:04:29+09:00</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
@@ -49239,7 +49239,7 @@
       </c>
       <c r="M731" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49296,7 +49296,7 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:52+09:00</t>
+          <t>2026-02-25T07:04:29+09:00</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
@@ -49306,7 +49306,7 @@
       </c>
       <c r="M732" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49363,7 +49363,7 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:52+09:00</t>
+          <t>2026-02-25T07:04:29+09:00</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
@@ -49373,7 +49373,7 @@
       </c>
       <c r="M733" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49430,7 +49430,7 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:52+09:00</t>
+          <t>2026-02-25T07:04:29+09:00</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
@@ -49440,7 +49440,7 @@
       </c>
       <c r="M734" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49497,7 +49497,7 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:52+09:00</t>
+          <t>2026-02-25T07:04:29+09:00</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
@@ -49507,7 +49507,7 @@
       </c>
       <c r="M735" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49564,7 +49564,7 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:53+09:00</t>
+          <t>2026-02-25T07:04:31+09:00</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
@@ -49574,7 +49574,7 @@
       </c>
       <c r="M736" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49631,7 +49631,7 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:53+09:00</t>
+          <t>2026-02-25T07:04:31+09:00</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
@@ -49641,7 +49641,7 @@
       </c>
       <c r="M737" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49698,7 +49698,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:53+09:00</t>
+          <t>2026-02-25T07:04:31+09:00</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
@@ -49708,7 +49708,7 @@
       </c>
       <c r="M738" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49765,7 +49765,7 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:53+09:00</t>
+          <t>2026-02-25T07:04:31+09:00</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
@@ -49775,7 +49775,7 @@
       </c>
       <c r="M739" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49832,7 +49832,7 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:53+09:00</t>
+          <t>2026-02-25T07:04:31+09:00</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
@@ -49842,7 +49842,7 @@
       </c>
       <c r="M740" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49899,7 +49899,7 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:53+09:00</t>
+          <t>2026-02-25T07:04:31+09:00</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
@@ -49909,7 +49909,7 @@
       </c>
       <c r="M741" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -49966,7 +49966,7 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:53+09:00</t>
+          <t>2026-02-25T07:04:31+09:00</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
@@ -49976,7 +49976,7 @@
       </c>
       <c r="M742" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50033,7 +50033,7 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:54+09:00</t>
+          <t>2026-02-25T07:04:32+09:00</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
@@ -50043,7 +50043,7 @@
       </c>
       <c r="M743" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:57+09:00</t>
+          <t>2026-02-25T07:04:35+09:00</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
@@ -50110,7 +50110,7 @@
       </c>
       <c r="M744" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50167,7 +50167,7 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:57+09:00</t>
+          <t>2026-02-25T07:04:35+09:00</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
@@ -50177,7 +50177,7 @@
       </c>
       <c r="M745" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50234,7 +50234,7 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:57+09:00</t>
+          <t>2026-02-25T07:04:35+09:00</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
@@ -50244,7 +50244,7 @@
       </c>
       <c r="M746" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50301,7 +50301,7 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:57+09:00</t>
+          <t>2026-02-25T07:04:35+09:00</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
@@ -50311,7 +50311,7 @@
       </c>
       <c r="M747" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50368,7 +50368,7 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:57+09:00</t>
+          <t>2026-02-25T07:04:35+09:00</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
@@ -50378,7 +50378,7 @@
       </c>
       <c r="M748" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50435,7 +50435,7 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:57+09:00</t>
+          <t>2026-02-25T07:04:35+09:00</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
@@ -50445,7 +50445,7 @@
       </c>
       <c r="M749" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50502,7 +50502,7 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:57+09:00</t>
+          <t>2026-02-25T07:04:35+09:00</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
@@ -50512,7 +50512,7 @@
       </c>
       <c r="M750" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50569,7 +50569,7 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>2026-02-24T23:35:57+09:00</t>
+          <t>2026-02-25T07:04:35+09:00</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
@@ -50579,7 +50579,7 @@
       </c>
       <c r="M751" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50636,7 +50636,7 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
@@ -50646,7 +50646,7 @@
       </c>
       <c r="M752" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50703,7 +50703,7 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
@@ -50713,7 +50713,7 @@
       </c>
       <c r="M753" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50770,7 +50770,7 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
@@ -50780,7 +50780,7 @@
       </c>
       <c r="M754" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50837,7 +50837,7 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
@@ -50847,7 +50847,7 @@
       </c>
       <c r="M755" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50904,7 +50904,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -50914,7 +50914,7 @@
       </c>
       <c r="M756" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -50967,7 +50967,7 @@
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -50977,7 +50977,7 @@
       </c>
       <c r="M757" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51030,7 +51030,7 @@
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
@@ -51040,7 +51040,7 @@
       </c>
       <c r="M758" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51093,7 +51093,7 @@
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
@@ -51103,7 +51103,7 @@
       </c>
       <c r="M759" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51160,7 +51160,7 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
@@ -51170,7 +51170,7 @@
       </c>
       <c r="M760" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51227,7 +51227,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -51237,7 +51237,7 @@
       </c>
       <c r="M761" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51294,7 +51294,7 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
@@ -51304,7 +51304,7 @@
       </c>
       <c r="M762" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51357,7 +51357,7 @@
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
@@ -51367,7 +51367,7 @@
       </c>
       <c r="M763" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51424,7 +51424,7 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
@@ -51434,7 +51434,7 @@
       </c>
       <c r="M764" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51491,7 +51491,7 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
@@ -51501,7 +51501,7 @@
       </c>
       <c r="M765" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51558,7 +51558,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:02+09:00</t>
+          <t>2026-02-25T07:04:39+09:00</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -51568,7 +51568,7 @@
       </c>
       <c r="M766" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51625,7 +51625,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:04+09:00</t>
+          <t>2026-02-25T07:04:41+09:00</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -51635,7 +51635,7 @@
       </c>
       <c r="M767" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51692,7 +51692,7 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:04+09:00</t>
+          <t>2026-02-25T07:04:41+09:00</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
@@ -51702,7 +51702,7 @@
       </c>
       <c r="M768" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51755,7 +51755,7 @@
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:04+09:00</t>
+          <t>2026-02-25T07:04:41+09:00</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
@@ -51765,7 +51765,7 @@
       </c>
       <c r="M769" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51822,7 +51822,7 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:05+09:00</t>
+          <t>2026-02-25T07:04:42+09:00</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
@@ -51832,7 +51832,7 @@
       </c>
       <c r="M770" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51889,7 +51889,7 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:05+09:00</t>
+          <t>2026-02-25T07:04:42+09:00</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
@@ -51899,7 +51899,7 @@
       </c>
       <c r="M771" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -51956,7 +51956,7 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:05+09:00</t>
+          <t>2026-02-25T07:04:42+09:00</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
@@ -51966,7 +51966,7 @@
       </c>
       <c r="M772" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52023,7 +52023,7 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:05+09:00</t>
+          <t>2026-02-25T07:04:42+09:00</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
@@ -52033,7 +52033,7 @@
       </c>
       <c r="M773" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52090,7 +52090,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:05+09:00</t>
+          <t>2026-02-25T07:04:42+09:00</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -52100,7 +52100,7 @@
       </c>
       <c r="M774" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52157,7 +52157,7 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:05+09:00</t>
+          <t>2026-02-25T07:04:42+09:00</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
@@ -52167,7 +52167,7 @@
       </c>
       <c r="M775" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52224,7 +52224,7 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:05+09:00</t>
+          <t>2026-02-25T07:04:42+09:00</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
@@ -52234,7 +52234,7 @@
       </c>
       <c r="M776" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52291,7 +52291,7 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:05+09:00</t>
+          <t>2026-02-25T07:04:42+09:00</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
@@ -52301,7 +52301,7 @@
       </c>
       <c r="M777" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52358,7 +52358,7 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:06+09:00</t>
+          <t>2026-02-25T07:04:43+09:00</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
@@ -52368,7 +52368,7 @@
       </c>
       <c r="M778" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52425,7 +52425,7 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:06+09:00</t>
+          <t>2026-02-25T07:04:43+09:00</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
@@ -52435,7 +52435,7 @@
       </c>
       <c r="M779" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52492,7 +52492,7 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:09+09:00</t>
+          <t>2026-02-25T07:04:46+09:00</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
@@ -52502,7 +52502,7 @@
       </c>
       <c r="M780" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52559,7 +52559,7 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:09+09:00</t>
+          <t>2026-02-25T07:04:46+09:00</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
@@ -52569,7 +52569,7 @@
       </c>
       <c r="M781" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52626,7 +52626,7 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:09+09:00</t>
+          <t>2026-02-25T07:04:46+09:00</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
@@ -52636,7 +52636,7 @@
       </c>
       <c r="M782" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52693,7 +52693,7 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:09+09:00</t>
+          <t>2026-02-25T07:04:46+09:00</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
@@ -52703,7 +52703,7 @@
       </c>
       <c r="M783" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52760,7 +52760,7 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:09+09:00</t>
+          <t>2026-02-25T07:04:46+09:00</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
@@ -52770,7 +52770,7 @@
       </c>
       <c r="M784" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52827,7 +52827,7 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:09+09:00</t>
+          <t>2026-02-25T07:04:46+09:00</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
@@ -52837,7 +52837,7 @@
       </c>
       <c r="M785" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52894,7 +52894,7 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:09+09:00</t>
+          <t>2026-02-25T07:04:46+09:00</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
@@ -52904,7 +52904,7 @@
       </c>
       <c r="M786" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52961,7 +52961,7 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>2026-02-24T23:36:09+09:00</t>
+          <t>2026-02-25T07:04:46+09:00</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
@@ -52971,7 +52971,7 @@
       </c>
       <c r="M787" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
     </row>
@@ -52986,7 +52986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53478,86 +53478,86 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2/23(月)</t>
+          <t>2/24(火)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>休船</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>1～8本</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大109cm</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖40m前後</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>本日は予報悪くお休みとさせて頂きました！</t>
+          <t>終日、横浜沖周辺40m前後を狙い、強風後でしたが所々で反応を確認出来ました！終始、相変わらずの手強さですが、所々でアタリ出て難易度高く針掛かりまでは難しかったが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は一宮町の佐藤様。　他、スソの方お一人(1本ながらも108cmGET!)・その他の方は2～6本GET!(6本は本日最大109cmGET!で鴻巣市の室田様)。　ハマった方は居ませんでしたが皆さん健闘し、お土産確保！お疲れ様でした！ ･･･明日2/25(水)・明後日2/26(木)はタチウオを狙い出船します！　＊明日は雨予報ですが、出船確定です！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/22(日)</t>
+          <t>2/23(月)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2～8本</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>最大121cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>横浜沖40～45m</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
+          <t>本日は予報悪くお休みとさせて頂きました！</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/21(土)</t>
+          <t>2/22(日)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -53567,12 +53567,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2～7本</t>
+          <t>2～8本</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>最大113cm</t>
+          <t>最大121cm</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -53582,42 +53582,79 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
+          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-25 07:06:08</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>2/21(土)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2～7本</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>最大113cm</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>横浜沖40～45m</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-02-25 07:06:08</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>2/20(金)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>定休日</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>・</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>・</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>・</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>本日は定休日でお休みでした！</t>
         </is>

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -44945,7 +44945,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:04+09:00</t>
+          <t>2026-02-25T07:20:59+09:00</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -44955,7 +44955,7 @@
       </c>
       <c r="M667" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45012,7 +45012,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:04+09:00</t>
+          <t>2026-02-25T07:20:59+09:00</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -45022,7 +45022,7 @@
       </c>
       <c r="M668" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45079,7 +45079,7 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:04+09:00</t>
+          <t>2026-02-25T07:20:59+09:00</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
@@ -45089,7 +45089,7 @@
       </c>
       <c r="M669" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45142,7 +45142,7 @@
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:06+09:00</t>
+          <t>2026-02-25T07:21:02+09:00</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -45152,7 +45152,7 @@
       </c>
       <c r="M670" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45209,7 +45209,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -45219,7 +45219,7 @@
       </c>
       <c r="M671" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -45286,7 +45286,7 @@
       </c>
       <c r="M672" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45343,7 +45343,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -45353,7 +45353,7 @@
       </c>
       <c r="M673" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45410,7 +45410,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -45420,7 +45420,7 @@
       </c>
       <c r="M674" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45477,7 +45477,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -45487,7 +45487,7 @@
       </c>
       <c r="M675" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45544,7 +45544,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -45554,7 +45554,7 @@
       </c>
       <c r="M676" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45611,7 +45611,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -45621,7 +45621,7 @@
       </c>
       <c r="M677" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45678,7 +45678,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -45688,7 +45688,7 @@
       </c>
       <c r="M678" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45745,7 +45745,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
@@ -45755,7 +45755,7 @@
       </c>
       <c r="M679" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45812,7 +45812,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
@@ -45822,7 +45822,7 @@
       </c>
       <c r="M680" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45879,7 +45879,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -45889,7 +45889,7 @@
       </c>
       <c r="M681" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -45946,7 +45946,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -45956,7 +45956,7 @@
       </c>
       <c r="M682" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46013,7 +46013,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -46023,7 +46023,7 @@
       </c>
       <c r="M683" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46080,7 +46080,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
@@ -46090,7 +46090,7 @@
       </c>
       <c r="M684" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46147,7 +46147,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:08+09:00</t>
+          <t>2026-02-25T07:21:03+09:00</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
@@ -46157,7 +46157,7 @@
       </c>
       <c r="M685" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46214,7 +46214,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
@@ -46224,7 +46224,7 @@
       </c>
       <c r="M686" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46281,7 +46281,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
@@ -46291,7 +46291,7 @@
       </c>
       <c r="M687" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46348,7 +46348,7 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
@@ -46358,7 +46358,7 @@
       </c>
       <c r="M688" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46415,7 +46415,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
@@ -46425,7 +46425,7 @@
       </c>
       <c r="M689" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46482,7 +46482,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
@@ -46492,7 +46492,7 @@
       </c>
       <c r="M690" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46549,7 +46549,7 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
@@ -46559,7 +46559,7 @@
       </c>
       <c r="M691" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46616,7 +46616,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
@@ -46626,7 +46626,7 @@
       </c>
       <c r="M692" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46683,7 +46683,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
@@ -46693,7 +46693,7 @@
       </c>
       <c r="M693" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46750,7 +46750,7 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
@@ -46760,7 +46760,7 @@
       </c>
       <c r="M694" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46817,7 +46817,7 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
@@ -46827,7 +46827,7 @@
       </c>
       <c r="M695" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46884,7 +46884,7 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
@@ -46894,7 +46894,7 @@
       </c>
       <c r="M696" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -46951,7 +46951,7 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
@@ -46961,7 +46961,7 @@
       </c>
       <c r="M697" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47018,7 +47018,7 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:09+09:00</t>
+          <t>2026-02-25T07:21:05+09:00</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
@@ -47028,7 +47028,7 @@
       </c>
       <c r="M698" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47085,7 +47085,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:11+09:00</t>
+          <t>2026-02-25T07:21:07+09:00</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
@@ -47095,7 +47095,7 @@
       </c>
       <c r="M699" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47152,7 +47152,7 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:12+09:00</t>
+          <t>2026-02-25T07:21:09+09:00</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
@@ -47162,7 +47162,7 @@
       </c>
       <c r="M700" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47219,7 +47219,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:13+09:00</t>
+          <t>2026-02-25T07:21:10+09:00</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
@@ -47229,7 +47229,7 @@
       </c>
       <c r="M701" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47286,7 +47286,7 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:14+09:00</t>
+          <t>2026-02-25T07:21:11+09:00</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
@@ -47296,7 +47296,7 @@
       </c>
       <c r="M702" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47353,7 +47353,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:14+09:00</t>
+          <t>2026-02-25T07:21:11+09:00</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
@@ -47363,7 +47363,7 @@
       </c>
       <c r="M703" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47420,7 +47420,7 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:15+09:00</t>
+          <t>2026-02-25T07:21:12+09:00</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
@@ -47430,7 +47430,7 @@
       </c>
       <c r="M704" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47487,7 +47487,7 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:15+09:00</t>
+          <t>2026-02-25T07:21:12+09:00</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
@@ -47497,7 +47497,7 @@
       </c>
       <c r="M705" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47554,7 +47554,7 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:16+09:00</t>
+          <t>2026-02-25T07:21:14+09:00</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
@@ -47564,7 +47564,7 @@
       </c>
       <c r="M706" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47621,7 +47621,7 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:19+09:00</t>
+          <t>2026-02-25T07:21:16+09:00</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
@@ -47631,7 +47631,7 @@
       </c>
       <c r="M707" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47688,7 +47688,7 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:19+09:00</t>
+          <t>2026-02-25T07:21:16+09:00</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
@@ -47698,7 +47698,7 @@
       </c>
       <c r="M708" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47755,7 +47755,7 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:19+09:00</t>
+          <t>2026-02-25T07:21:16+09:00</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
@@ -47765,7 +47765,7 @@
       </c>
       <c r="M709" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47822,7 +47822,7 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:19+09:00</t>
+          <t>2026-02-25T07:21:16+09:00</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
@@ -47832,7 +47832,7 @@
       </c>
       <c r="M710" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47889,7 +47889,7 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:20+09:00</t>
+          <t>2026-02-25T07:21:17+09:00</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
@@ -47899,7 +47899,7 @@
       </c>
       <c r="M711" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -47956,7 +47956,7 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:21+09:00</t>
+          <t>2026-02-25T07:21:18+09:00</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
@@ -47966,7 +47966,7 @@
       </c>
       <c r="M712" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48023,7 +48023,7 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:22+09:00</t>
+          <t>2026-02-25T07:21:19+09:00</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
@@ -48033,7 +48033,7 @@
       </c>
       <c r="M713" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48090,7 +48090,7 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:22+09:00</t>
+          <t>2026-02-25T07:21:19+09:00</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
@@ -48100,7 +48100,7 @@
       </c>
       <c r="M714" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48157,7 +48157,7 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:25+09:00</t>
+          <t>2026-02-25T07:21:23+09:00</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
@@ -48167,7 +48167,7 @@
       </c>
       <c r="M715" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48224,7 +48224,7 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:25+09:00</t>
+          <t>2026-02-25T07:21:23+09:00</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
@@ -48234,7 +48234,7 @@
       </c>
       <c r="M716" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48291,7 +48291,7 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:25+09:00</t>
+          <t>2026-02-25T07:21:23+09:00</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
@@ -48301,7 +48301,7 @@
       </c>
       <c r="M717" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48358,7 +48358,7 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:26+09:00</t>
+          <t>2026-02-25T07:21:24+09:00</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
@@ -48368,7 +48368,7 @@
       </c>
       <c r="M718" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48425,7 +48425,7 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:26+09:00</t>
+          <t>2026-02-25T07:21:24+09:00</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
@@ -48435,7 +48435,7 @@
       </c>
       <c r="M719" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48492,7 +48492,7 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:26+09:00</t>
+          <t>2026-02-25T07:21:24+09:00</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
@@ -48502,7 +48502,7 @@
       </c>
       <c r="M720" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48559,7 +48559,7 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:26+09:00</t>
+          <t>2026-02-25T07:21:24+09:00</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
@@ -48569,7 +48569,7 @@
       </c>
       <c r="M721" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48626,7 +48626,7 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:26+09:00</t>
+          <t>2026-02-25T07:21:24+09:00</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
@@ -48636,7 +48636,7 @@
       </c>
       <c r="M722" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48693,7 +48693,7 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:27+09:00</t>
+          <t>2026-02-25T07:21:25+09:00</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
@@ -48703,7 +48703,7 @@
       </c>
       <c r="M723" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48760,7 +48760,7 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:27+09:00</t>
+          <t>2026-02-25T07:21:25+09:00</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
@@ -48770,7 +48770,7 @@
       </c>
       <c r="M724" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48827,7 +48827,7 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:27+09:00</t>
+          <t>2026-02-25T07:21:25+09:00</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
@@ -48837,7 +48837,7 @@
       </c>
       <c r="M725" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48894,7 +48894,7 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:28+09:00</t>
+          <t>2026-02-25T07:21:26+09:00</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
@@ -48904,7 +48904,7 @@
       </c>
       <c r="M726" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -48961,7 +48961,7 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:29+09:00</t>
+          <t>2026-02-25T07:21:28+09:00</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
@@ -48971,7 +48971,7 @@
       </c>
       <c r="M727" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49028,7 +49028,7 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:29+09:00</t>
+          <t>2026-02-25T07:21:28+09:00</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
@@ -49038,7 +49038,7 @@
       </c>
       <c r="M728" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49095,7 +49095,7 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:29+09:00</t>
+          <t>2026-02-25T07:21:28+09:00</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
@@ -49105,7 +49105,7 @@
       </c>
       <c r="M729" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49162,7 +49162,7 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:29+09:00</t>
+          <t>2026-02-25T07:21:28+09:00</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
@@ -49172,7 +49172,7 @@
       </c>
       <c r="M730" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49229,7 +49229,7 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:29+09:00</t>
+          <t>2026-02-25T07:21:28+09:00</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
@@ -49239,7 +49239,7 @@
       </c>
       <c r="M731" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49296,7 +49296,7 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:29+09:00</t>
+          <t>2026-02-25T07:21:28+09:00</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
@@ -49306,7 +49306,7 @@
       </c>
       <c r="M732" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49363,7 +49363,7 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:29+09:00</t>
+          <t>2026-02-25T07:21:28+09:00</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
@@ -49373,7 +49373,7 @@
       </c>
       <c r="M733" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49430,7 +49430,7 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:29+09:00</t>
+          <t>2026-02-25T07:21:28+09:00</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
@@ -49440,7 +49440,7 @@
       </c>
       <c r="M734" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49497,7 +49497,7 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:29+09:00</t>
+          <t>2026-02-25T07:21:28+09:00</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
@@ -49507,7 +49507,7 @@
       </c>
       <c r="M735" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49564,7 +49564,7 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:31+09:00</t>
+          <t>2026-02-25T07:21:29+09:00</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
@@ -49574,7 +49574,7 @@
       </c>
       <c r="M736" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49631,7 +49631,7 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:31+09:00</t>
+          <t>2026-02-25T07:21:29+09:00</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
@@ -49641,7 +49641,7 @@
       </c>
       <c r="M737" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49698,7 +49698,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:31+09:00</t>
+          <t>2026-02-25T07:21:29+09:00</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
@@ -49708,7 +49708,7 @@
       </c>
       <c r="M738" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49765,7 +49765,7 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:31+09:00</t>
+          <t>2026-02-25T07:21:29+09:00</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
@@ -49775,7 +49775,7 @@
       </c>
       <c r="M739" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49832,7 +49832,7 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:31+09:00</t>
+          <t>2026-02-25T07:21:29+09:00</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
@@ -49842,7 +49842,7 @@
       </c>
       <c r="M740" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49899,7 +49899,7 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:31+09:00</t>
+          <t>2026-02-25T07:21:29+09:00</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
@@ -49909,7 +49909,7 @@
       </c>
       <c r="M741" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -49966,7 +49966,7 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:31+09:00</t>
+          <t>2026-02-25T07:21:29+09:00</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
@@ -49976,7 +49976,7 @@
       </c>
       <c r="M742" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50033,7 +50033,7 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:32+09:00</t>
+          <t>2026-02-25T07:21:31+09:00</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
@@ -50043,7 +50043,7 @@
       </c>
       <c r="M743" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:35+09:00</t>
+          <t>2026-02-25T07:21:34+09:00</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
@@ -50110,7 +50110,7 @@
       </c>
       <c r="M744" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50167,7 +50167,7 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:35+09:00</t>
+          <t>2026-02-25T07:21:34+09:00</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
@@ -50177,7 +50177,7 @@
       </c>
       <c r="M745" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50234,7 +50234,7 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:35+09:00</t>
+          <t>2026-02-25T07:21:34+09:00</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
@@ -50244,7 +50244,7 @@
       </c>
       <c r="M746" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50301,7 +50301,7 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:35+09:00</t>
+          <t>2026-02-25T07:21:34+09:00</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
@@ -50311,7 +50311,7 @@
       </c>
       <c r="M747" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50368,7 +50368,7 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:35+09:00</t>
+          <t>2026-02-25T07:21:34+09:00</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
@@ -50378,7 +50378,7 @@
       </c>
       <c r="M748" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50435,7 +50435,7 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:35+09:00</t>
+          <t>2026-02-25T07:21:34+09:00</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
@@ -50445,7 +50445,7 @@
       </c>
       <c r="M749" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50502,7 +50502,7 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:35+09:00</t>
+          <t>2026-02-25T07:21:34+09:00</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
@@ -50512,7 +50512,7 @@
       </c>
       <c r="M750" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50569,7 +50569,7 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:35+09:00</t>
+          <t>2026-02-25T07:21:34+09:00</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
@@ -50579,7 +50579,7 @@
       </c>
       <c r="M751" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50636,7 +50636,7 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
@@ -50646,7 +50646,7 @@
       </c>
       <c r="M752" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50703,7 +50703,7 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
@@ -50713,7 +50713,7 @@
       </c>
       <c r="M753" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50770,7 +50770,7 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
@@ -50780,7 +50780,7 @@
       </c>
       <c r="M754" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50837,7 +50837,7 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
@@ -50847,7 +50847,7 @@
       </c>
       <c r="M755" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50904,7 +50904,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -50914,7 +50914,7 @@
       </c>
       <c r="M756" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -50967,7 +50967,7 @@
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -50977,7 +50977,7 @@
       </c>
       <c r="M757" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51030,7 +51030,7 @@
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
@@ -51040,7 +51040,7 @@
       </c>
       <c r="M758" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51093,7 +51093,7 @@
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
@@ -51103,7 +51103,7 @@
       </c>
       <c r="M759" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51160,7 +51160,7 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
@@ -51170,7 +51170,7 @@
       </c>
       <c r="M760" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51227,7 +51227,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -51237,7 +51237,7 @@
       </c>
       <c r="M761" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51294,7 +51294,7 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
@@ -51304,7 +51304,7 @@
       </c>
       <c r="M762" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51357,7 +51357,7 @@
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
@@ -51367,7 +51367,7 @@
       </c>
       <c r="M763" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51424,7 +51424,7 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
@@ -51434,7 +51434,7 @@
       </c>
       <c r="M764" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51491,7 +51491,7 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
@@ -51501,7 +51501,7 @@
       </c>
       <c r="M765" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51558,7 +51558,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:39+09:00</t>
+          <t>2026-02-25T07:21:39+09:00</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -51568,7 +51568,7 @@
       </c>
       <c r="M766" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51625,7 +51625,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:41+09:00</t>
+          <t>2026-02-25T07:21:41+09:00</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -51635,7 +51635,7 @@
       </c>
       <c r="M767" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51692,7 +51692,7 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:41+09:00</t>
+          <t>2026-02-25T07:21:41+09:00</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
@@ -51702,7 +51702,7 @@
       </c>
       <c r="M768" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51755,7 +51755,7 @@
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:41+09:00</t>
+          <t>2026-02-25T07:21:41+09:00</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
@@ -51765,7 +51765,7 @@
       </c>
       <c r="M769" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51822,7 +51822,7 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:42+09:00</t>
+          <t>2026-02-25T07:21:42+09:00</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
@@ -51832,7 +51832,7 @@
       </c>
       <c r="M770" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51889,7 +51889,7 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:42+09:00</t>
+          <t>2026-02-25T07:21:42+09:00</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
@@ -51899,7 +51899,7 @@
       </c>
       <c r="M771" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -51956,7 +51956,7 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:42+09:00</t>
+          <t>2026-02-25T07:21:42+09:00</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
@@ -51966,7 +51966,7 @@
       </c>
       <c r="M772" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52023,7 +52023,7 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:42+09:00</t>
+          <t>2026-02-25T07:21:42+09:00</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
@@ -52033,7 +52033,7 @@
       </c>
       <c r="M773" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52090,7 +52090,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:42+09:00</t>
+          <t>2026-02-25T07:21:42+09:00</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -52100,7 +52100,7 @@
       </c>
       <c r="M774" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52157,7 +52157,7 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:42+09:00</t>
+          <t>2026-02-25T07:21:42+09:00</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
@@ -52167,7 +52167,7 @@
       </c>
       <c r="M775" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52224,7 +52224,7 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:42+09:00</t>
+          <t>2026-02-25T07:21:42+09:00</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
@@ -52234,7 +52234,7 @@
       </c>
       <c r="M776" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52291,7 +52291,7 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:42+09:00</t>
+          <t>2026-02-25T07:21:42+09:00</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
@@ -52301,7 +52301,7 @@
       </c>
       <c r="M777" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52358,7 +52358,7 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:43+09:00</t>
+          <t>2026-02-25T07:21:44+09:00</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
@@ -52368,7 +52368,7 @@
       </c>
       <c r="M778" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52425,7 +52425,7 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:43+09:00</t>
+          <t>2026-02-25T07:21:44+09:00</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
@@ -52435,7 +52435,7 @@
       </c>
       <c r="M779" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52492,7 +52492,7 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:46+09:00</t>
+          <t>2026-02-25T07:21:48+09:00</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
@@ -52502,7 +52502,7 @@
       </c>
       <c r="M780" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52559,7 +52559,7 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:46+09:00</t>
+          <t>2026-02-25T07:21:48+09:00</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
@@ -52569,7 +52569,7 @@
       </c>
       <c r="M781" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52626,7 +52626,7 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:46+09:00</t>
+          <t>2026-02-25T07:21:48+09:00</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
@@ -52636,7 +52636,7 @@
       </c>
       <c r="M782" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52693,7 +52693,7 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:46+09:00</t>
+          <t>2026-02-25T07:21:48+09:00</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
@@ -52703,7 +52703,7 @@
       </c>
       <c r="M783" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52760,7 +52760,7 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:46+09:00</t>
+          <t>2026-02-25T07:21:48+09:00</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
@@ -52770,7 +52770,7 @@
       </c>
       <c r="M784" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52827,7 +52827,7 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:46+09:00</t>
+          <t>2026-02-25T07:21:48+09:00</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
@@ -52837,7 +52837,7 @@
       </c>
       <c r="M785" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52894,7 +52894,7 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:46+09:00</t>
+          <t>2026-02-25T07:21:48+09:00</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
@@ -52904,7 +52904,7 @@
       </c>
       <c r="M786" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -52961,7 +52961,7 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>2026-02-25T07:04:46+09:00</t>
+          <t>2026-02-25T07:21:48+09:00</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
@@ -52971,7 +52971,7 @@
       </c>
       <c r="M787" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
     </row>
@@ -53478,7 +53478,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -53515,7 +53515,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -53552,7 +53552,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -53589,7 +53589,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -53626,7 +53626,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-02-25 07:06:08</t>
+          <t>2026-02-25 07:23:17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -44945,7 +44945,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>2026-02-25T07:20:59+09:00</t>
+          <t>2026-02-25T07:44:03+09:00</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -44955,7 +44955,7 @@
       </c>
       <c r="M667" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45012,7 +45012,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>2026-02-25T07:20:59+09:00</t>
+          <t>2026-02-25T07:44:03+09:00</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -45022,7 +45022,7 @@
       </c>
       <c r="M668" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45079,7 +45079,7 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>2026-02-25T07:20:59+09:00</t>
+          <t>2026-02-25T07:44:03+09:00</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
@@ -45089,7 +45089,7 @@
       </c>
       <c r="M669" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45142,7 +45142,7 @@
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:02+09:00</t>
+          <t>2026-02-25T07:44:05+09:00</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -45152,7 +45152,7 @@
       </c>
       <c r="M670" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45209,7 +45209,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -45219,7 +45219,7 @@
       </c>
       <c r="M671" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -45286,7 +45286,7 @@
       </c>
       <c r="M672" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45343,7 +45343,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -45353,7 +45353,7 @@
       </c>
       <c r="M673" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45410,7 +45410,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -45420,7 +45420,7 @@
       </c>
       <c r="M674" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45477,7 +45477,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -45487,7 +45487,7 @@
       </c>
       <c r="M675" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45544,7 +45544,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -45554,7 +45554,7 @@
       </c>
       <c r="M676" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45611,7 +45611,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -45621,7 +45621,7 @@
       </c>
       <c r="M677" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45678,7 +45678,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -45688,7 +45688,7 @@
       </c>
       <c r="M678" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45745,7 +45745,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
@@ -45755,7 +45755,7 @@
       </c>
       <c r="M679" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45812,7 +45812,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
@@ -45822,7 +45822,7 @@
       </c>
       <c r="M680" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45879,7 +45879,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -45889,7 +45889,7 @@
       </c>
       <c r="M681" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -45946,7 +45946,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -45956,7 +45956,7 @@
       </c>
       <c r="M682" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46013,7 +46013,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -46023,7 +46023,7 @@
       </c>
       <c r="M683" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46080,7 +46080,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
@@ -46090,7 +46090,7 @@
       </c>
       <c r="M684" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46147,7 +46147,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:03+09:00</t>
+          <t>2026-02-25T07:44:06+09:00</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
@@ -46157,7 +46157,7 @@
       </c>
       <c r="M685" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46214,7 +46214,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
@@ -46224,7 +46224,7 @@
       </c>
       <c r="M686" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46281,7 +46281,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
@@ -46291,7 +46291,7 @@
       </c>
       <c r="M687" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46348,7 +46348,7 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
@@ -46358,7 +46358,7 @@
       </c>
       <c r="M688" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46415,7 +46415,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
@@ -46425,7 +46425,7 @@
       </c>
       <c r="M689" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46482,7 +46482,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
@@ -46492,7 +46492,7 @@
       </c>
       <c r="M690" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46549,7 +46549,7 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
@@ -46559,7 +46559,7 @@
       </c>
       <c r="M691" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46616,7 +46616,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
@@ -46626,7 +46626,7 @@
       </c>
       <c r="M692" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46683,7 +46683,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
@@ -46693,7 +46693,7 @@
       </c>
       <c r="M693" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46750,7 +46750,7 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
@@ -46760,7 +46760,7 @@
       </c>
       <c r="M694" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46817,7 +46817,7 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
@@ -46827,7 +46827,7 @@
       </c>
       <c r="M695" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46884,7 +46884,7 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
@@ -46894,7 +46894,7 @@
       </c>
       <c r="M696" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -46951,7 +46951,7 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
@@ -46961,7 +46961,7 @@
       </c>
       <c r="M697" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47018,7 +47018,7 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:05+09:00</t>
+          <t>2026-02-25T07:44:07+09:00</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
@@ -47028,7 +47028,7 @@
       </c>
       <c r="M698" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47085,7 +47085,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:07+09:00</t>
+          <t>2026-02-25T07:44:09+09:00</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
@@ -47095,7 +47095,7 @@
       </c>
       <c r="M699" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47152,7 +47152,7 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:09+09:00</t>
+          <t>2026-02-25T07:44:10+09:00</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
@@ -47162,7 +47162,7 @@
       </c>
       <c r="M700" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47219,7 +47219,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:10+09:00</t>
+          <t>2026-02-25T07:44:11+09:00</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
@@ -47229,7 +47229,7 @@
       </c>
       <c r="M701" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47286,7 +47286,7 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:11+09:00</t>
+          <t>2026-02-25T07:44:12+09:00</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
@@ -47296,7 +47296,7 @@
       </c>
       <c r="M702" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47353,7 +47353,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:11+09:00</t>
+          <t>2026-02-25T07:44:12+09:00</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
@@ -47363,7 +47363,7 @@
       </c>
       <c r="M703" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47420,7 +47420,7 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:12+09:00</t>
+          <t>2026-02-25T07:44:13+09:00</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
@@ -47430,7 +47430,7 @@
       </c>
       <c r="M704" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47487,7 +47487,7 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:12+09:00</t>
+          <t>2026-02-25T07:44:13+09:00</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
@@ -47497,7 +47497,7 @@
       </c>
       <c r="M705" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47554,7 +47554,7 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:14+09:00</t>
+          <t>2026-02-25T07:44:13+09:00</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
@@ -47564,7 +47564,7 @@
       </c>
       <c r="M706" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47621,7 +47621,7 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:16+09:00</t>
+          <t>2026-02-25T07:44:15+09:00</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
@@ -47631,7 +47631,7 @@
       </c>
       <c r="M707" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47688,7 +47688,7 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:16+09:00</t>
+          <t>2026-02-25T07:44:15+09:00</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
@@ -47698,7 +47698,7 @@
       </c>
       <c r="M708" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47755,7 +47755,7 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:16+09:00</t>
+          <t>2026-02-25T07:44:15+09:00</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
@@ -47765,7 +47765,7 @@
       </c>
       <c r="M709" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47822,7 +47822,7 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:16+09:00</t>
+          <t>2026-02-25T07:44:15+09:00</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
@@ -47832,7 +47832,7 @@
       </c>
       <c r="M710" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47889,7 +47889,7 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:17+09:00</t>
+          <t>2026-02-25T07:44:16+09:00</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
@@ -47899,7 +47899,7 @@
       </c>
       <c r="M711" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -47956,7 +47956,7 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:18+09:00</t>
+          <t>2026-02-25T07:44:17+09:00</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
@@ -47966,7 +47966,7 @@
       </c>
       <c r="M712" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48023,7 +48023,7 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:19+09:00</t>
+          <t>2026-02-25T07:44:18+09:00</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
@@ -48033,7 +48033,7 @@
       </c>
       <c r="M713" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48090,7 +48090,7 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:19+09:00</t>
+          <t>2026-02-25T07:44:18+09:00</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
@@ -48100,7 +48100,7 @@
       </c>
       <c r="M714" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48157,7 +48157,7 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:23+09:00</t>
+          <t>2026-02-25T07:44:20+09:00</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
@@ -48167,7 +48167,7 @@
       </c>
       <c r="M715" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48224,7 +48224,7 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:23+09:00</t>
+          <t>2026-02-25T07:44:20+09:00</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
@@ -48234,7 +48234,7 @@
       </c>
       <c r="M716" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48291,7 +48291,7 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:23+09:00</t>
+          <t>2026-02-25T07:44:20+09:00</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
@@ -48301,7 +48301,7 @@
       </c>
       <c r="M717" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48358,7 +48358,7 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:24+09:00</t>
+          <t>2026-02-25T07:44:21+09:00</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
@@ -48368,7 +48368,7 @@
       </c>
       <c r="M718" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48425,7 +48425,7 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:24+09:00</t>
+          <t>2026-02-25T07:44:21+09:00</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
@@ -48435,7 +48435,7 @@
       </c>
       <c r="M719" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48492,7 +48492,7 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:24+09:00</t>
+          <t>2026-02-25T07:44:21+09:00</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
@@ -48502,7 +48502,7 @@
       </c>
       <c r="M720" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48559,7 +48559,7 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:24+09:00</t>
+          <t>2026-02-25T07:44:21+09:00</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
@@ -48569,7 +48569,7 @@
       </c>
       <c r="M721" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48626,7 +48626,7 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:24+09:00</t>
+          <t>2026-02-25T07:44:21+09:00</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
@@ -48636,7 +48636,7 @@
       </c>
       <c r="M722" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48693,7 +48693,7 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:25+09:00</t>
+          <t>2026-02-25T07:44:22+09:00</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
@@ -48703,7 +48703,7 @@
       </c>
       <c r="M723" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48760,7 +48760,7 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:25+09:00</t>
+          <t>2026-02-25T07:44:22+09:00</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
@@ -48770,7 +48770,7 @@
       </c>
       <c r="M724" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48827,7 +48827,7 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:25+09:00</t>
+          <t>2026-02-25T07:44:22+09:00</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
@@ -48837,7 +48837,7 @@
       </c>
       <c r="M725" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48894,7 +48894,7 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:26+09:00</t>
+          <t>2026-02-25T07:44:23+09:00</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
@@ -48904,7 +48904,7 @@
       </c>
       <c r="M726" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -48961,7 +48961,7 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:28+09:00</t>
+          <t>2026-02-25T07:44:24+09:00</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
@@ -48971,7 +48971,7 @@
       </c>
       <c r="M727" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49028,7 +49028,7 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:28+09:00</t>
+          <t>2026-02-25T07:44:24+09:00</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
@@ -49038,7 +49038,7 @@
       </c>
       <c r="M728" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49095,7 +49095,7 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:28+09:00</t>
+          <t>2026-02-25T07:44:24+09:00</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
@@ -49105,7 +49105,7 @@
       </c>
       <c r="M729" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49162,7 +49162,7 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:28+09:00</t>
+          <t>2026-02-25T07:44:24+09:00</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
@@ -49172,7 +49172,7 @@
       </c>
       <c r="M730" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49229,7 +49229,7 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:28+09:00</t>
+          <t>2026-02-25T07:44:24+09:00</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
@@ -49239,7 +49239,7 @@
       </c>
       <c r="M731" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49296,7 +49296,7 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:28+09:00</t>
+          <t>2026-02-25T07:44:24+09:00</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
@@ -49306,7 +49306,7 @@
       </c>
       <c r="M732" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49363,7 +49363,7 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:28+09:00</t>
+          <t>2026-02-25T07:44:24+09:00</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
@@ -49373,7 +49373,7 @@
       </c>
       <c r="M733" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49430,7 +49430,7 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:28+09:00</t>
+          <t>2026-02-25T07:44:24+09:00</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
@@ -49440,7 +49440,7 @@
       </c>
       <c r="M734" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49497,7 +49497,7 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:28+09:00</t>
+          <t>2026-02-25T07:44:24+09:00</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
@@ -49507,7 +49507,7 @@
       </c>
       <c r="M735" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49564,7 +49564,7 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:29+09:00</t>
+          <t>2026-02-25T07:44:25+09:00</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
@@ -49574,7 +49574,7 @@
       </c>
       <c r="M736" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49631,7 +49631,7 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:29+09:00</t>
+          <t>2026-02-25T07:44:25+09:00</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
@@ -49641,7 +49641,7 @@
       </c>
       <c r="M737" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49698,7 +49698,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:29+09:00</t>
+          <t>2026-02-25T07:44:25+09:00</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
@@ -49708,7 +49708,7 @@
       </c>
       <c r="M738" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49765,7 +49765,7 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:29+09:00</t>
+          <t>2026-02-25T07:44:25+09:00</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
@@ -49775,7 +49775,7 @@
       </c>
       <c r="M739" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49832,7 +49832,7 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:29+09:00</t>
+          <t>2026-02-25T07:44:25+09:00</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
@@ -49842,7 +49842,7 @@
       </c>
       <c r="M740" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49899,7 +49899,7 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:29+09:00</t>
+          <t>2026-02-25T07:44:25+09:00</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
@@ -49909,7 +49909,7 @@
       </c>
       <c r="M741" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -49966,7 +49966,7 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:29+09:00</t>
+          <t>2026-02-25T07:44:25+09:00</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
@@ -49976,7 +49976,7 @@
       </c>
       <c r="M742" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50033,7 +50033,7 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:31+09:00</t>
+          <t>2026-02-25T07:44:26+09:00</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
@@ -50043,7 +50043,7 @@
       </c>
       <c r="M743" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:34+09:00</t>
+          <t>2026-02-25T07:44:28+09:00</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
@@ -50110,7 +50110,7 @@
       </c>
       <c r="M744" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50167,7 +50167,7 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:34+09:00</t>
+          <t>2026-02-25T07:44:28+09:00</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
@@ -50177,7 +50177,7 @@
       </c>
       <c r="M745" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50234,7 +50234,7 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:34+09:00</t>
+          <t>2026-02-25T07:44:28+09:00</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
@@ -50244,7 +50244,7 @@
       </c>
       <c r="M746" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50301,7 +50301,7 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:34+09:00</t>
+          <t>2026-02-25T07:44:28+09:00</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
@@ -50311,7 +50311,7 @@
       </c>
       <c r="M747" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50368,7 +50368,7 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:34+09:00</t>
+          <t>2026-02-25T07:44:28+09:00</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
@@ -50378,7 +50378,7 @@
       </c>
       <c r="M748" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50435,7 +50435,7 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:34+09:00</t>
+          <t>2026-02-25T07:44:28+09:00</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
@@ -50445,7 +50445,7 @@
       </c>
       <c r="M749" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50502,7 +50502,7 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:34+09:00</t>
+          <t>2026-02-25T07:44:28+09:00</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
@@ -50512,7 +50512,7 @@
       </c>
       <c r="M750" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50569,7 +50569,7 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:34+09:00</t>
+          <t>2026-02-25T07:44:28+09:00</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
@@ -50579,7 +50579,7 @@
       </c>
       <c r="M751" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50636,7 +50636,7 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
@@ -50646,7 +50646,7 @@
       </c>
       <c r="M752" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50703,7 +50703,7 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
@@ -50713,7 +50713,7 @@
       </c>
       <c r="M753" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50770,7 +50770,7 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
@@ -50780,7 +50780,7 @@
       </c>
       <c r="M754" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50837,7 +50837,7 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
@@ -50847,7 +50847,7 @@
       </c>
       <c r="M755" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50904,7 +50904,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -50914,7 +50914,7 @@
       </c>
       <c r="M756" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -50967,7 +50967,7 @@
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -50977,7 +50977,7 @@
       </c>
       <c r="M757" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51030,7 +51030,7 @@
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
@@ -51040,7 +51040,7 @@
       </c>
       <c r="M758" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51093,7 +51093,7 @@
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
@@ -51103,7 +51103,7 @@
       </c>
       <c r="M759" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51160,7 +51160,7 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
@@ -51170,7 +51170,7 @@
       </c>
       <c r="M760" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51227,7 +51227,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -51237,7 +51237,7 @@
       </c>
       <c r="M761" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51294,7 +51294,7 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
@@ -51304,7 +51304,7 @@
       </c>
       <c r="M762" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51357,7 +51357,7 @@
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
@@ -51367,7 +51367,7 @@
       </c>
       <c r="M763" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51424,7 +51424,7 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
@@ -51434,7 +51434,7 @@
       </c>
       <c r="M764" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51491,7 +51491,7 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
@@ -51501,7 +51501,7 @@
       </c>
       <c r="M765" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51558,7 +51558,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:39+09:00</t>
+          <t>2026-02-25T07:44:32+09:00</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -51568,7 +51568,7 @@
       </c>
       <c r="M766" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51625,7 +51625,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:41+09:00</t>
+          <t>2026-02-25T07:44:33+09:00</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -51635,7 +51635,7 @@
       </c>
       <c r="M767" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51692,7 +51692,7 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:41+09:00</t>
+          <t>2026-02-25T07:44:33+09:00</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
@@ -51702,7 +51702,7 @@
       </c>
       <c r="M768" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51755,7 +51755,7 @@
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:41+09:00</t>
+          <t>2026-02-25T07:44:33+09:00</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
@@ -51765,7 +51765,7 @@
       </c>
       <c r="M769" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51822,7 +51822,7 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:42+09:00</t>
+          <t>2026-02-25T07:44:34+09:00</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
@@ -51832,7 +51832,7 @@
       </c>
       <c r="M770" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51889,7 +51889,7 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:42+09:00</t>
+          <t>2026-02-25T07:44:34+09:00</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
@@ -51899,7 +51899,7 @@
       </c>
       <c r="M771" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -51956,7 +51956,7 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:42+09:00</t>
+          <t>2026-02-25T07:44:34+09:00</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
@@ -51966,7 +51966,7 @@
       </c>
       <c r="M772" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52023,7 +52023,7 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:42+09:00</t>
+          <t>2026-02-25T07:44:34+09:00</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
@@ -52033,7 +52033,7 @@
       </c>
       <c r="M773" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52090,7 +52090,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:42+09:00</t>
+          <t>2026-02-25T07:44:34+09:00</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -52100,7 +52100,7 @@
       </c>
       <c r="M774" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52157,7 +52157,7 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:42+09:00</t>
+          <t>2026-02-25T07:44:34+09:00</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
@@ -52167,7 +52167,7 @@
       </c>
       <c r="M775" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52224,7 +52224,7 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:42+09:00</t>
+          <t>2026-02-25T07:44:34+09:00</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
@@ -52234,7 +52234,7 @@
       </c>
       <c r="M776" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52291,7 +52291,7 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:42+09:00</t>
+          <t>2026-02-25T07:44:34+09:00</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
@@ -52301,7 +52301,7 @@
       </c>
       <c r="M777" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52358,7 +52358,7 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:44+09:00</t>
+          <t>2026-02-25T07:44:35+09:00</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
@@ -52368,7 +52368,7 @@
       </c>
       <c r="M778" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52425,7 +52425,7 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:44+09:00</t>
+          <t>2026-02-25T07:44:35+09:00</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
@@ -52435,7 +52435,7 @@
       </c>
       <c r="M779" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52492,7 +52492,7 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:48+09:00</t>
+          <t>2026-02-25T07:44:38+09:00</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
@@ -52502,7 +52502,7 @@
       </c>
       <c r="M780" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52559,7 +52559,7 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:48+09:00</t>
+          <t>2026-02-25T07:44:38+09:00</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
@@ -52569,7 +52569,7 @@
       </c>
       <c r="M781" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52626,7 +52626,7 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:48+09:00</t>
+          <t>2026-02-25T07:44:38+09:00</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
@@ -52636,7 +52636,7 @@
       </c>
       <c r="M782" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52693,7 +52693,7 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:48+09:00</t>
+          <t>2026-02-25T07:44:38+09:00</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
@@ -52703,7 +52703,7 @@
       </c>
       <c r="M783" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52760,7 +52760,7 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:48+09:00</t>
+          <t>2026-02-25T07:44:38+09:00</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
@@ -52770,7 +52770,7 @@
       </c>
       <c r="M784" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52827,7 +52827,7 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:48+09:00</t>
+          <t>2026-02-25T07:44:38+09:00</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
@@ -52837,7 +52837,7 @@
       </c>
       <c r="M785" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52894,7 +52894,7 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:48+09:00</t>
+          <t>2026-02-25T07:44:38+09:00</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
@@ -52904,7 +52904,7 @@
       </c>
       <c r="M786" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52961,7 +52961,7 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>2026-02-25T07:21:48+09:00</t>
+          <t>2026-02-25T07:44:38+09:00</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
@@ -52971,7 +52971,7 @@
       </c>
       <c r="M787" t="inlineStr">
         <is>
-          <t>2026-02-25 07:23:17</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
     </row>
@@ -52986,7 +52986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53034,12 +53034,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/21(土)</t>
+          <t>2/24(火)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -53049,34 +53049,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2～7本</t>
+          <t>1～8本</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>最大113cm</t>
+          <t>最大109cm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>横浜沖40～45m</t>
+          <t>横浜沖40m前後</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！ ･･･明日2/22(日)はタチウオを狙い出船します！　＊明日も出船確定です！ ･･･明後日2/23(月)は悪天予報なのでお休みかもしれません！ ･･･2/24(火)はタチウオを狙い出船予定です！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ･･･2/20(金)は定休日。 ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
+          <t>終日、横浜沖周辺40m前後を狙い、強風後でしたが所々で反応を確認出来ました！終始、相変わらずの手強さですが、所々でアタリ出て難易度高く針掛かりまでは難しかったが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は一宮町の佐藤様。　他、スソの方お一人(1本ながらも108cmGET!)・その他の方は2～6本GET!(6本は本日最大109cmGET!で鴻巣市の室田様)。　ハマった方は居ませんでしたが皆さん健闘し、お土産確保！お疲れ様でした！ ･･･明日2/25(水)・明後日2/26(木)はタチウオを狙い出船します！　＊明日は雨予報ですが、出船確定です！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/17(火)</t>
+          <t>2/23(月)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -53101,19 +53101,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>本日はお客様揃わずお休みでした！</t>
+          <t>本日は予報悪くお休みとさせて頂きました！</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2/16(月)</t>
+          <t>2/22(日)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -53123,34 +53123,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0～3本</t>
+          <t>2～8本</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>最大106cm</t>
+          <t>最大121cm</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>横浜沖45m前後</t>
+          <t>横浜沖40～45m</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺45m前後を狙い、広範囲に反応は有るものの、まとまった反応が少なく･･･終始、拾い釣りで100cm前後主体に型見れましたが、活性低くアタリが出ても難易度高く掛け損じ目立ち思いのほか数伸び悩み苦戦でした！魚の気配は有るけど活性上がらず･･･　お客様全員にアタリは出ましたが残念ながらバラシに終わったお客様お一人が型見れず･･･惜しかったです！リベンジお待ちしています！　その他の方は数こそ伸び悩みましたが、2～3本と平均に釣れました！　寒さの中、最後まで頑張ってくれました！お疲れ様＆リベンジお待ちしています！</t>
+          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2/15(日)</t>
+          <t>2/21(土)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -53160,96 +53160,96 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0～5本</t>
+          <t>2～7本</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>最大109cm</t>
+          <t>最大113cm</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>横浜沖40～45m前後</t>
+          <t>横浜沖40～45m</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>終日、凪を見せ、横浜沖周辺40～45m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！　前半は所々でアタリが出て単発ながらも、中・良型中心にメーター超級交え型見れましたが･･･後半は魚の機嫌が悪いのか？アタリの出は今ひとつ！数伸び悩み苦戦でした！　･･･皆さん健闘し、トップ5本が3人。　残念ながらオデコの方お一人出てしまい、その他の方は1～4本GET!(4本の方お二人)。　本日最大109cmGET!は木更津市の宮田様。　皆さん最後まで頑張ってくれました！</t>
+          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-25 07:45:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2/14(土)</t>
+          <t>2/20(金)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>定休日</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2～11本</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>最大110cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>横浜沖40m前後</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>終日、凪を見せ、横浜沖40m前後を狙い、広範囲に反応が有り！手強いタチウオ！終始、反応に乗り大流し＆拾い釣り！適当にアタリは出ていましたが、難易度高くハリス切れ数回・掛け損じ・バラシ目立ち、思いのほか数こそ伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･ハマった方は居ませんでしたが皆さん健闘し、トップ11本は市原市の不破様。　他、スソの方お二人・その他の方は3～10本GET!(10本は牛久市の張替様)。　昨日に続き本日最大110cmの方が数人いらっしゃいました！　6本以上の方目立つ！　厳しい寒さの中、最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
+          <t>本日は定休日でお休みでした！</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2/13(金)</t>
+          <t>2/19(木)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>臨時休業</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2～13本</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>最大110cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>横浜沖40m前後</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>終日、横浜沖40m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、難易度高くアタリを出せる方とそうでない方・打率の良い方・そうでない方で釣果に差が出ましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ13本は本日最大110cmGET!で木更津市の永橋様。　他、スソの方お一人・その他の方は3～12本GET!(12本は千葉市の元井様)。　本日最大110cmGET!の方が数人いらっしゃいました！　7本以上の方目立つ！　厳しい寒さの中、皆さん最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
+          <t>本日は都合によりお休みとさせて頂きました！</t>
         </is>
       </c>
     </row>
@@ -53261,7 +53261,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2/22(日)</t>
+          <t>2/18(水)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -53271,182 +53271,182 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2～8本</t>
+          <t>型程度</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>最大121cm</t>
+          <t>最大114cm</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>横浜沖40～45m</t>
+          <t>航路内～横浜沖40～80m前後</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！ ･･･明日2/23(月)は予報悪くお休みとさせて頂きます！ ･･･明後日2/24(火)はタチウオを狙い出船します！　＊お客様揃い次第出船確定とさせて頂きます！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ･･･2/20(金)は定休日。 ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
+          <t>朝一、航路内80mラインを一流し！アタリ遠く早々大きく移動！　その後は沖上がりまで横浜沖周辺40m前後を狙いました！終始、所々で反応に乗り大流し＆拾い釣り！魚の機嫌が悪いのか？アタリの出は今ひとつ！間が空きながらもアタリは出ましたが、数伸び悩み型程度に終わり先日に続き、お客様お一人が残念ながら型見れず･･･ごめんなさい！魚は居るけど、厳しい一日になりました！皆さんお疲れ様＆リベンジお待ちしています！</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-23 06:54:26</t>
+          <t>2026-02-22 15:07:14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2/18(水)</t>
+          <t>2/17(火)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>型程度</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>最大114cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>航路内～横浜沖40～80m前後</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>朝一、航路内80mラインを一流し！アタリ遠く早々大きく移動！　その後は沖上がりまで横浜沖周辺40m前後を狙いました！終始、所々で反応に乗り大流し＆拾い釣り！魚の機嫌が悪いのか？アタリの出は今ひとつ！間が空きながらもアタリは出ましたが、数伸び悩み型程度に終わり先日に続き、お客様お一人が残念ながら型見れず･･･ごめんなさい！魚は居るけど、厳しい一日になりました！皆さんお疲れ様＆リベンジお待ちしています！</t>
+          <t>本日はお客様揃わずお休みでした！</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-23 14:45:38</t>
+          <t>2026-02-22 15:07:14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2/23(月)</t>
+          <t>2/16(月)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>休船</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>0～3本</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大106cm</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖45m前後</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>本日は予報悪くお休みとさせて頂きました！ ･･･明日2/24(火)・明後日2/25(水)はタチウオを狙い出船します！　＊明日はお客様揃い次第出船確定とさせて頂きます！　明後日は雨予報ですが出船確定です！  ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ･･･2/20(金)は定休日。 ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
+          <t>終日、横浜沖周辺45m前後を狙い、広範囲に反応は有るものの、まとまった反応が少なく･･･終始、拾い釣りで100cm前後主体に型見れましたが、活性低くアタリが出ても難易度高く掛け損じ目立ち思いのほか数伸び悩み苦戦でした！魚の気配は有るけど活性上がらず･･･　お客様全員にアタリは出ましたが残念ながらバラシに終わったお客様お一人が型見れず･･･惜しかったです！リベンジお待ちしています！　その他の方は数こそ伸び悩みましたが、2～3本と平均に釣れました！　寒さの中、最後まで頑張ってくれました！お疲れ様＆リベンジお待ちしています！</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-24 14:17:12</t>
+          <t>2026-02-22 15:07:14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2/23(月)</t>
+          <t>2/15(日)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>休船</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>0～5本</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大109cm</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖40～45m前後</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>本日は予報悪くお休みとさせて頂きました！ ･･･明日2/24(火)・明後日2/25(水)はタチウオを狙い出船します！　＊15時20分現在、明日のご予約者は4名・出船確定です！空席多数！　明後日は雨予報ですが出船確定です！  ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
+          <t>終日、凪を見せ、横浜沖周辺40～45m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！　前半は所々でアタリが出て単発ながらも、中・良型中心にメーター超級交え型見れましたが･･･後半は魚の機嫌が悪いのか？アタリの出は今ひとつ！数伸び悩み苦戦でした！　･･･皆さん健闘し、トップ5本が3人。　残念ながらオデコの方お一人出てしまい、その他の方は1～4本GET!(4本の方お二人)。　本日最大109cmGET!は木更津市の宮田様。　皆さん最後まで頑張ってくれました！</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-24 14:17:12</t>
+          <t>2026-02-22 15:07:14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2/19(木)</t>
+          <t>2/14(土)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>臨時休業</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>2～11本</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大110cm</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖40m前後</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>本日は都合によりお休みとさせて頂きました！</t>
+          <t>終日、凪を見せ、横浜沖40m前後を狙い、広範囲に反応が有り！手強いタチウオ！終始、反応に乗り大流し＆拾い釣り！適当にアタリは出ていましたが、難易度高くハリス切れ数回・掛け損じ・バラシ目立ち、思いのほか数こそ伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･ハマった方は居ませんでしたが皆さん健闘し、トップ11本は市原市の不破様。　他、スソの方お二人・その他の方は3～10本GET!(10本は牛久市の張替様)。　昨日に続き本日最大110cmの方が数人いらっしゃいました！　6本以上の方目立つ！　厳しい寒さの中、最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-24 23:37:30</t>
+          <t>2026-02-22 15:07:14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2/24(火)</t>
+          <t>2/13(金)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -53456,12 +53456,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1～8本</t>
+          <t>2～13本</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>最大109cm</t>
+          <t>最大110cm</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -53471,192 +53471,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40m前後を狙い、強風後でしたが所々で反応を確認出来ました！終始、相変わらずの手強さですが、所々でアタリ出て難易度高く針掛かりまでは難しかったが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は一宮町の佐藤様。　他、スソの方お一人(1本ながらも108cmGET!)・その他の方は2～6本GET!(6本は本日最大109cmGET!で鴻巣市の室田様)。　ハマった方は居ませんでしたが皆さん健闘し、お土産確保！お疲れ様でした！ ･･･明日2/25(水)・明後日2/26(木)はタチウオを狙い出船します！　＊明日・明後日は雨予報ですが、出船確定です！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2026-02-25 07:23:17</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2/24(火)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>タチウオ</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1～8本</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>最大109cm</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>横浜沖40m前後</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>終日、横浜沖周辺40m前後を狙い、強風後でしたが所々で反応を確認出来ました！終始、相変わらずの手強さですが、所々でアタリ出て難易度高く針掛かりまでは難しかったが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は一宮町の佐藤様。　他、スソの方お一人(1本ながらも108cmGET!)・その他の方は2～6本GET!(6本は本日最大109cmGET!で鴻巣市の室田様)。　ハマった方は居ませんでしたが皆さん健闘し、お土産確保！お疲れ様でした！ ･･･明日2/25(水)・明後日2/26(木)はタチウオを狙い出船します！　＊明日は雨予報ですが、出船確定です！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2026-02-25 07:23:17</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2/23(月)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>休船</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>・</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>・</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>・</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>本日は予報悪くお休みとさせて頂きました！</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2026-02-25 07:23:17</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2/22(日)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>タチウオ</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2～8本</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>最大121cm</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>横浜沖40～45m</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2026-02-25 07:23:17</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2/21(土)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>タチウオ</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2～7本</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>最大113cm</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>横浜沖40～45m</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2026-02-25 07:23:17</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2/20(金)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>定休日</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>・</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>・</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>・</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>本日は定休日でお休みでした！</t>
+          <t>終日、横浜沖40m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、難易度高くアタリを出せる方とそうでない方・打率の良い方・そうでない方で釣果に差が出ましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ13本は本日最大110cmGET!で木更津市の永橋様。　他、スソの方お一人・その他の方は3～12本GET!(12本は千葉市の元井様)。　本日最大110cmGET!の方が数人いらっしゃいました！　7本以上の方目立つ！　厳しい寒さの中、皆さん最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
         </is>
       </c>
     </row>

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M807"/>
+  <dimension ref="A1:M826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54308,6 +54308,1275 @@
       <c r="M807" t="inlineStr">
         <is>
           <t>2026-02-25 14:20:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>三浦半島 / 大津</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>小川丸船(19.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>10-55 尾</t>
+        </is>
+      </c>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>24-37cm</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>水深80m</t>
+        </is>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J808" t="inlineStr">
+        <is>
+          <t>3.9/4.2/3.9</t>
+        </is>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:05:50+09:00</t>
+        </is>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M808" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>三浦半島 / 走水</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>政信丸船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>16-71 尾</t>
+        </is>
+      </c>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>23-35cm</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J809" t="inlineStr">
+        <is>
+          <t>3.5/3.2/4.0</t>
+        </is>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:05:50+09:00</t>
+        </is>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M809" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>三浦半島 / 走水</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>海福丸船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>25-40 尾</t>
+        </is>
+      </c>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>23-34cm</t>
+        </is>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J810" t="inlineStr">
+        <is>
+          <t>3.3/3.1/3.7</t>
+        </is>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:05:50+09:00</t>
+        </is>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M810" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>三浦半島 / 走水</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>教至丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>20-65 尾</t>
+        </is>
+      </c>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>22-42cm</t>
+        </is>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J811" t="inlineStr">
+        <is>
+          <t>1.7/2.2/1.5</t>
+        </is>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:05:50+09:00</t>
+        </is>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M811" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>房丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>8-1X 尾</t>
+        </is>
+      </c>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J812" t="inlineStr">
+        <is>
+          <t>4.3/3.8/4.2</t>
+        </is>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:05:50+09:00</t>
+        </is>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M812" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>もと明丸船(9.1ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>7-2X 尾</t>
+        </is>
+      </c>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>4.2/3.2/4.5</t>
+        </is>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:05:50+09:00</t>
+        </is>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M813" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>もと明丸船(9.1ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>2X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J814" t="inlineStr">
+        <is>
+          <t>4.2/3.2/4.5</t>
+        </is>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:05:51+09:00</t>
+        </is>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M814" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>ara</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>アラ</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>0.3-1.4kg</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>水深100-200m</t>
+        </is>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J815" t="inlineStr">
+        <is>
+          <t>3.4/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:05:52+09:00</t>
+        </is>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=ara</t>
+        </is>
+      </c>
+      <c r="M815" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>inada</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>イナダ</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>池田丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>0-12 尾</t>
+        </is>
+      </c>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>43-55cm</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>水深60m</t>
+        </is>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J816" t="inlineStr">
+        <is>
+          <t>1.9/2.4/2.4</t>
+        </is>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:05:55+09:00</t>
+        </is>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
+        </is>
+      </c>
+      <c r="M816" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>onikasago</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>オニカサゴ</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>0.3-1.9Xkg</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>水深100-200m100-200m</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J817" t="inlineStr">
+        <is>
+          <t>3.4/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:05:56+09:00</t>
+        </is>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
+        </is>
+      </c>
+      <c r="M817" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>kinme</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>キンメ</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>南房 / 乙浜</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>しまや丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>8-4X 尾</t>
+        </is>
+      </c>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J818" t="inlineStr">
+        <is>
+          <t>3.7/3.6/3.8</t>
+        </is>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:06:00+09:00</t>
+        </is>
+      </c>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+        </is>
+      </c>
+      <c r="M818" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>kinme</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>キンメ</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>東伊豆 / 稲取</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>晃山丸船(14ﾄﾝ,12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>1-1X 尾</t>
+        </is>
+      </c>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>水深300-500m</t>
+        </is>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J819" t="inlineStr">
+        <is>
+          <t>4.1/4.0/4.2</t>
+        </is>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:06:00+09:00</t>
+        </is>
+      </c>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+        </is>
+      </c>
+      <c r="M819" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>X-5 枚</t>
+        </is>
+      </c>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>0.4-1.4kg</t>
+        </is>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>水深15m</t>
+        </is>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J820" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.4</t>
+        </is>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:06:13+09:00</t>
+        </is>
+      </c>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M820" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>X-9 尾</t>
+        </is>
+      </c>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>0.3-1kg</t>
+        </is>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>水深15m40m</t>
+        </is>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J821" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.4</t>
+        </is>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:06:16+09:00</t>
+        </is>
+      </c>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M821" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>梅花丸船(19ﾄﾝ,17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>1-7 尾</t>
+        </is>
+      </c>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>0.50-4.00kg</t>
+        </is>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J822" t="inlineStr">
+        <is>
+          <t>4.1/4.4/4.3</t>
+        </is>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:06:16+09:00</t>
+        </is>
+      </c>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M822" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>伝五郎丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G823" t="inlineStr">
+        <is>
+          <t>0.6X-1.4Xkg</t>
+        </is>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I823" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J823" t="inlineStr">
+        <is>
+          <t>3.4/3.5/2.7</t>
+        </is>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:06:16+09:00</t>
+        </is>
+      </c>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M823" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>正海丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>X-6 尾</t>
+        </is>
+      </c>
+      <c r="G824" t="inlineStr">
+        <is>
+          <t>0.7X-1.8Xkg</t>
+        </is>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:06:16+09:00</t>
+        </is>
+      </c>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M824" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>mahata</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>マハタ</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>6-16 尾</t>
+        </is>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>0.5-2.9kg</t>
+        </is>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>水深15m40m40m</t>
+        </is>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J825" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.4</t>
+        </is>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:06:18+09:00</t>
+        </is>
+      </c>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+        </is>
+      </c>
+      <c r="M825" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>外房 / 勝浦</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>勝丸船(10ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>6-4X 杯</t>
+        </is>
+      </c>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J826" t="inlineStr">
+        <is>
+          <t>4.0/3.3/4.1</t>
+        </is>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>2026-02-25T21:06:22+09:00</t>
+        </is>
+      </c>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M826" t="inlineStr">
+        <is>
+          <t>2026-02-25 21:07:32</t>
         </is>
       </c>
     </row>
@@ -54322,7 +55591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54370,12 +55639,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-25 14:20:48</t>
+          <t>2026-02-25 21:07:32</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/24(火)</t>
+          <t>2/25(水)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -54385,108 +55654,108 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1～8本</t>
+          <t>型程度</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>最大109cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>横浜沖40m前後</t>
+          <t>航路内外50～80m前後</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40m前後を狙い、強風後でしたが所々で反応を確認出来ました！終始、相変わらずの手強さですが、所々でアタリ出て難易度高く針掛かりまでは難しかったが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は一宮町の佐藤様。　他、スソの方お一人(1本ながらも108cmGET!)・その他の方は2～6本GET!(6本は本日最大109cmGET!で鴻巣市の室田様)。　ハマった方は居ませんでしたが皆さん健闘し、お土産確保！お疲れ様でした！ ･･･明日2/25(水)・明後日2/26(木)はタチウオを狙い出船します！　＊明日は雨予報ですが、出船確定です！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
+          <t>連日、横浜周辺に反応は出ていましたが、悪天のせいか？長時間の反応捜索も反応見当たらず･･･その後、沖上がりまで航路内外50～80m前後を狙いアタリ数乏しく＆アタリの出は今ひとつで型程度に終わりました！悪天で早めの沖上がりとなりました！冷たい雨・風の中、皆さんお疲れ様でした！リベンジお待ちしています！ ･･･明日2/26(木)は予報悪く出船中止とさせて頂きます！またのご予約お待ちしています！ ･･･明後日2/27(金)・2/28(土)・3/1(日)はタチウオを狙い出船します！　＊明後日は好転を期待し少人数ながら出船確定です！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-25 14:20:48</t>
+          <t>2026-02-25 21:07:32</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/23(月)</t>
+          <t>2/24(火)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>休船</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>1～8本</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大109cm</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖40m前後</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>本日は予報悪くお休みとさせて頂きました！</t>
+          <t>終日、横浜沖周辺40m前後を狙い、強風後でしたが所々で反応を確認出来ました！終始、相変わらずの手強さですが、所々でアタリ出て難易度高く針掛かりまでは難しかったが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は一宮町の佐藤様。　他、スソの方お一人(1本ながらも108cmGET!)・その他の方は2～6本GET!(6本は本日最大109cmGET!で鴻巣市の室田様)。　ハマった方は居ませんでしたが皆さん健闘し、お土産確保！</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-25 14:20:48</t>
+          <t>2026-02-25 21:07:32</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2/22(日)</t>
+          <t>2/23(月)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2～8本</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>最大121cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>横浜沖40～45m</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
+          <t>本日は予報悪くお休みとさせて頂きました！</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-25 14:20:48</t>
+          <t>2026-02-25 21:07:32</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2/21(土)</t>
+          <t>2/22(日)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -54496,12 +55765,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2～7本</t>
+          <t>2～8本</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>最大113cm</t>
+          <t>最大121cm</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -54511,61 +55780,61 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
+          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-25 14:20:48</t>
+          <t>2026-02-25 21:07:32</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2/20(金)</t>
+          <t>2/21(土)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>定休日</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>2～7本</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大113cm</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖40～45m</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>本日は定休日でお休みでした！</t>
+          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-24 14:17:12</t>
+          <t>2026-02-25 14:20:48</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2/19(木)</t>
+          <t>2/20(金)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>臨時休業</t>
+          <t>定休日</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -54585,81 +55854,81 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>本日は都合によりお休みとさせて頂きました！</t>
+          <t>本日は定休日でお休みでした！</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-23 06:54:26</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2/18(水)</t>
+          <t>2/19(木)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>臨時休業</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>型程度</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>最大114cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>航路内～横浜沖40～80m前後</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>朝一、航路内80mラインを一流し！アタリ遠く早々大きく移動！　その後は沖上がりまで横浜沖周辺40m前後を狙いました！終始、所々で反応に乗り大流し＆拾い釣り！魚の機嫌が悪いのか？アタリの出は今ひとつ！間が空きながらもアタリは出ましたが、数伸び悩み型程度に終わり先日に続き、お客様お一人が残念ながら型見れず･･･ごめんなさい！魚は居るけど、厳しい一日になりました！皆さんお疲れ様＆リベンジお待ちしています！</t>
+          <t>本日は都合によりお休みとさせて頂きました！</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-23 06:54:26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2/17(火)</t>
+          <t>2/18(水)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>休船</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>型程度</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大114cm</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>航路内～横浜沖40～80m前後</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>本日はお客様揃わずお休みでした！</t>
+          <t>朝一、航路内80mラインを一流し！アタリ遠く早々大きく移動！　その後は沖上がりまで横浜沖周辺40m前後を狙いました！終始、所々で反応に乗り大流し＆拾い釣り！魚の機嫌が悪いのか？アタリの出は今ひとつ！間が空きながらもアタリは出ましたが、数伸び悩み型程度に終わり先日に続き、お客様お一人が残念ながら型見れず･･･ごめんなさい！魚は居るけど、厳しい一日になりました！皆さんお疲れ様＆リベンジお待ちしています！</t>
         </is>
       </c>
     </row>
@@ -54671,32 +55940,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2/16(月)</t>
+          <t>2/17(火)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0～3本</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>最大106cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>横浜沖45m前後</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺45m前後を狙い、広範囲に反応は有るものの、まとまった反応が少なく･･･終始、拾い釣りで100cm前後主体に型見れましたが、活性低くアタリが出ても難易度高く掛け損じ目立ち思いのほか数伸び悩み苦戦でした！魚の気配は有るけど活性上がらず･･･　お客様全員にアタリは出ましたが残念ながらバラシに終わったお客様お一人が型見れず･･･惜しかったです！リベンジお待ちしています！　その他の方は数こそ伸び悩みましたが、2～3本と平均に釣れました！　寒さの中、最後まで頑張ってくれました！お疲れ様＆リベンジお待ちしています！</t>
+          <t>本日はお客様揃わずお休みでした！</t>
         </is>
       </c>
     </row>
@@ -54708,7 +55977,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2/15(日)</t>
+          <t>2/16(月)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -54718,22 +55987,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0～5本</t>
+          <t>0～3本</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>最大109cm</t>
+          <t>最大106cm</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>横浜沖40～45m前後</t>
+          <t>横浜沖45m前後</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>終日、凪を見せ、横浜沖周辺40～45m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！　前半は所々でアタリが出て単発ながらも、中・良型中心にメーター超級交え型見れましたが･･･後半は魚の機嫌が悪いのか？アタリの出は今ひとつ！数伸び悩み苦戦でした！　･･･皆さん健闘し、トップ5本が3人。　残念ながらオデコの方お一人出てしまい、その他の方は1～4本GET!(4本の方お二人)。　本日最大109cmGET!は木更津市の宮田様。　皆さん最後まで頑張ってくれました！</t>
+          <t>終日、横浜沖周辺45m前後を狙い、広範囲に反応は有るものの、まとまった反応が少なく･･･終始、拾い釣りで100cm前後主体に型見れましたが、活性低くアタリが出ても難易度高く掛け損じ目立ち思いのほか数伸び悩み苦戦でした！魚の気配は有るけど活性上がらず･･･　お客様全員にアタリは出ましたが残念ながらバラシに終わったお客様お一人が型見れず･･･惜しかったです！リベンジお待ちしています！　その他の方は数こそ伸び悩みましたが、2～3本と平均に釣れました！　寒さの中、最後まで頑張ってくれました！お疲れ様＆リベンジお待ちしています！</t>
         </is>
       </c>
     </row>
@@ -54745,7 +56014,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2/14(土)</t>
+          <t>2/15(日)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -54755,22 +56024,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2～11本</t>
+          <t>0～5本</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>最大110cm</t>
+          <t>最大109cm</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>横浜沖40m前後</t>
+          <t>横浜沖40～45m前後</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>終日、凪を見せ、横浜沖40m前後を狙い、広範囲に反応が有り！手強いタチウオ！終始、反応に乗り大流し＆拾い釣り！適当にアタリは出ていましたが、難易度高くハリス切れ数回・掛け損じ・バラシ目立ち、思いのほか数こそ伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･ハマった方は居ませんでしたが皆さん健闘し、トップ11本は市原市の不破様。　他、スソの方お二人・その他の方は3～10本GET!(10本は牛久市の張替様)。　昨日に続き本日最大110cmの方が数人いらっしゃいました！　6本以上の方目立つ！　厳しい寒さの中、最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
+          <t>終日、凪を見せ、横浜沖周辺40～45m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！　前半は所々でアタリが出て単発ながらも、中・良型中心にメーター超級交え型見れましたが･･･後半は魚の機嫌が悪いのか？アタリの出は今ひとつ！数伸び悩み苦戦でした！　･･･皆さん健闘し、トップ5本が3人。　残念ながらオデコの方お一人出てしまい、その他の方は1～4本GET!(4本の方お二人)。　本日最大109cmGET!は木更津市の宮田様。　皆さん最後まで頑張ってくれました！</t>
         </is>
       </c>
     </row>
@@ -54782,30 +56051,67 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2/14(土)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2～11本</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>最大110cm</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>横浜沖40m前後</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>終日、凪を見せ、横浜沖40m前後を狙い、広範囲に反応が有り！手強いタチウオ！終始、反応に乗り大流し＆拾い釣り！適当にアタリは出ていましたが、難易度高くハリス切れ数回・掛け損じ・バラシ目立ち、思いのほか数こそ伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･ハマった方は居ませんでしたが皆さん健闘し、トップ11本は市原市の不破様。　他、スソの方お二人・その他の方は3～10本GET!(10本は牛久市の張替様)。　昨日に続き本日最大110cmの方が数人いらっしゃいました！　6本以上の方目立つ！　厳しい寒さの中、最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-02-22 15:07:14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>2/13(金)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>タチウオ</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>2～13本</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>最大110cm</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>横浜沖40m前後</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>終日、横浜沖40m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、難易度高くアタリを出せる方とそうでない方・打率の良い方・そうでない方で釣果に差が出ましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ13本は本日最大110cmGET!で木更津市の永橋様。　他、スソの方お一人・その他の方は3～12本GET!(12本は千葉市の元井様)。　本日最大110cmGET!の方が数人いらっしゃいました！　7本以上の方目立つ！　厳しい寒さの中、皆さん最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
         </is>

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M826"/>
+  <dimension ref="A1:M831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54329,37 +54329,37 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>三浦半島 / 大津</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t>小川丸船(19.9ﾄﾝ)</t>
+          <t>もと明丸船(9.1ﾄﾝ)</t>
         </is>
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t>10-55 尾</t>
+          <t>7-2X 尾</t>
         </is>
       </c>
       <c r="G808" t="inlineStr">
         <is>
-          <t>24-37cm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>水深80m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>ぎょさん</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>3.9/4.2/3.9</t>
+          <t>4.2/3.2/4.5</t>
         </is>
       </c>
       <c r="K808" t="inlineStr">
@@ -54386,32 +54386,32 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>三浦半島 / 走水</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>政信丸船(5ﾄﾝ)</t>
+          <t>もと明丸船(9.1ﾄﾝ)</t>
         </is>
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>16-71 尾</t>
+          <t>X-7 尾</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>23-35cm</t>
+          <t>2X-5Xcm</t>
         </is>
       </c>
       <c r="H809" t="inlineStr">
@@ -54421,22 +54421,22 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>ぎょさん</t>
         </is>
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>3.5/3.2/4.0</t>
+          <t>4.2/3.2/4.5</t>
         </is>
       </c>
       <c r="K809" t="inlineStr">
         <is>
-          <t>2026-02-25T21:05:50+09:00</t>
+          <t>2026-02-25T21:05:51+09:00</t>
         </is>
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M809" t="inlineStr">
@@ -54453,32 +54453,32 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>aori</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>アオリイカ</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>三浦半島 / 走水</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>海福丸船(15ﾄﾝ)</t>
+          <t>藤八丸船(4.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>25-40 尾</t>
+          <t>X-5 杯</t>
         </is>
       </c>
       <c r="G810" t="inlineStr">
         <is>
-          <t>23-34cm</t>
+          <t>0.3X-1.2Xkg</t>
         </is>
       </c>
       <c r="H810" t="inlineStr">
@@ -54488,27 +54488,23 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="J810" t="inlineStr">
-        <is>
-          <t>3.3/3.1/3.7</t>
-        </is>
-      </c>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
-          <t>2026-02-25T21:05:50+09:00</t>
+          <t>2026-02-26T07:01:21+09:00</t>
         </is>
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
         </is>
       </c>
       <c r="M810" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -54530,27 +54526,27 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>三浦半島 / 走水</t>
+          <t>三浦半島 / 大津</t>
         </is>
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>教至丸船(12ﾄﾝ)</t>
+          <t>小川丸船(19.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>20-65 尾</t>
+          <t>10-55 尾</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
         <is>
-          <t>22-42cm</t>
+          <t>24-37cm</t>
         </is>
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深80m</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -54560,12 +54556,12 @@
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>1.7/2.2/1.5</t>
+          <t>3.9/4.2/3.9</t>
         </is>
       </c>
       <c r="K811" t="inlineStr">
         <is>
-          <t>2026-02-25T21:05:50+09:00</t>
+          <t>2026-02-26T07:01:25+09:00</t>
         </is>
       </c>
       <c r="L811" t="inlineStr">
@@ -54575,7 +54571,7 @@
       </c>
       <c r="M811" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -54597,22 +54593,22 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>三浦半島 / 鴨居</t>
+          <t>三浦半島 / 走水</t>
         </is>
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>房丸船(14ﾄﾝ)</t>
+          <t>政信丸船(5ﾄﾝ)</t>
         </is>
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>8-1X 尾</t>
+          <t>16-71 尾</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>23-35cm</t>
         </is>
       </c>
       <c r="H812" t="inlineStr">
@@ -54622,17 +54618,17 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>4.3/3.8/4.2</t>
+          <t>3.5/3.2/4.0</t>
         </is>
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>2026-02-25T21:05:50+09:00</t>
+          <t>2026-02-26T07:01:25+09:00</t>
         </is>
       </c>
       <c r="L812" t="inlineStr">
@@ -54642,7 +54638,7 @@
       </c>
       <c r="M812" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -54664,22 +54660,22 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>三浦半島 / 走水</t>
         </is>
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t>もと明丸船(9.1ﾄﾝ)</t>
+          <t>海福丸船(15ﾄﾝ)</t>
         </is>
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>7-2X 尾</t>
+          <t>25-40 尾</t>
         </is>
       </c>
       <c r="G813" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>23-34cm</t>
         </is>
       </c>
       <c r="H813" t="inlineStr">
@@ -54689,17 +54685,17 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>ぎょさん</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>4.2/3.2/4.5</t>
+          <t>3.3/3.1/3.7</t>
         </is>
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>2026-02-25T21:05:50+09:00</t>
+          <t>2026-02-26T07:01:25+09:00</t>
         </is>
       </c>
       <c r="L813" t="inlineStr">
@@ -54709,7 +54705,7 @@
       </c>
       <c r="M813" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -54721,32 +54717,32 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>三浦半島 / 走水</t>
         </is>
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t>もと明丸船(9.1ﾄﾝ)</t>
+          <t>教至丸船(12ﾄﾝ)</t>
         </is>
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t>X-7 尾</t>
+          <t>20-65 尾</t>
         </is>
       </c>
       <c r="G814" t="inlineStr">
         <is>
-          <t>2X-5Xcm</t>
+          <t>22-42cm</t>
         </is>
       </c>
       <c r="H814" t="inlineStr">
@@ -54756,27 +54752,27 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>ぎょさん</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>4.2/3.2/4.5</t>
+          <t>1.7/2.2/1.5</t>
         </is>
       </c>
       <c r="K814" t="inlineStr">
         <is>
-          <t>2026-02-25T21:05:51+09:00</t>
+          <t>2026-02-26T07:01:25+09:00</t>
         </is>
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M814" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -54788,62 +54784,62 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>ara</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>アラ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>三浦半島 / 鴨居</t>
         </is>
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+          <t>房丸船(14ﾄﾝ)</t>
         </is>
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t>X-3 尾</t>
+          <t>8-1X 尾</t>
         </is>
       </c>
       <c r="G815" t="inlineStr">
         <is>
-          <t>0.3-1.4kg</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>水深100-200m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>SANSPO</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>3.4/4.3/4.2</t>
+          <t>4.3/3.8/4.2</t>
         </is>
       </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>2026-02-25T21:05:52+09:00</t>
+          <t>2026-02-26T07:01:25+09:00</t>
         </is>
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=ara</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M815" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -54855,37 +54851,37 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>inada</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>イナダ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>相模湾 / 腰越</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>池田丸船(20ﾄﾝ)</t>
+          <t>庄三郎丸</t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>0-12 尾</t>
+          <t>7-23 尾</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
         <is>
-          <t>43-55cm</t>
+          <t>25-35cm</t>
         </is>
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>水深60m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -54895,22 +54891,22 @@
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>1.9/2.4/2.4</t>
+          <t>2.8/3.2/2.7</t>
         </is>
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>2026-02-25T21:05:55+09:00</t>
+          <t>2026-02-26T07:01:25+09:00</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M816" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -54922,62 +54918,62 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>onikasago</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>オニカサゴ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+          <t>庄三郎丸</t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>X-4 尾</t>
+          <t>6-7 尾</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
         <is>
-          <t>0.3-1.9Xkg</t>
+          <t>22-52cm</t>
         </is>
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>水深100-200m100-200m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>SANSPO</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>3.4/4.3/4.2</t>
+          <t>2.8/3.2/2.7</t>
         </is>
       </c>
       <c r="K817" t="inlineStr">
         <is>
-          <t>2026-02-25T21:05:56+09:00</t>
+          <t>2026-02-26T07:01:26+09:00</t>
         </is>
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M817" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -54989,37 +54985,37 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>kinme</t>
+          <t>ara</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>キンメ</t>
+          <t>アラ</t>
         </is>
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>南房 / 乙浜</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>しまや丸船(13ﾄﾝ)</t>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>8-4X 尾</t>
+          <t>X-3 尾</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>0.3-1.4kg</t>
         </is>
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深100-200m</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -55029,22 +55025,22 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>3.7/3.6/3.8</t>
+          <t>3.4/4.3/4.2</t>
         </is>
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>2026-02-25T21:06:00+09:00</t>
+          <t>2026-02-26T07:01:27+09:00</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+          <t>https://funaduri.jp/fish.cgi?fish=ara</t>
         </is>
       </c>
       <c r="M818" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -55056,62 +55052,62 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>kinme</t>
+          <t>inada</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>キンメ</t>
+          <t>イナダ</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>東伊豆 / 稲取</t>
+          <t>相模湾 / 腰越</t>
         </is>
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>晃山丸船(14ﾄﾝ,12ﾄﾝ)</t>
+          <t>池田丸船(20ﾄﾝ)</t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>1-1X 尾</t>
+          <t>0-12 尾</t>
         </is>
       </c>
       <c r="G819" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>43-55cm</t>
         </is>
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>水深300-500m</t>
+          <t>水深60m</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>SANSPO</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>4.1/4.0/4.2</t>
+          <t>1.9/2.4/2.4</t>
         </is>
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>2026-02-25T21:06:00+09:00</t>
+          <t>2026-02-26T07:01:32+09:00</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
         </is>
       </c>
       <c r="M819" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -55123,62 +55119,62 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>hirame</t>
+          <t>onikasago</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>ヒラメ</t>
+          <t>オニカサゴ</t>
         </is>
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>外房 / 飯岡</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>X-5 枚</t>
+          <t>X-4 尾</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
         <is>
-          <t>0.4-1.4kg</t>
+          <t>0.3-1.9Xkg</t>
         </is>
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>水深15m</t>
+          <t>水深100-200m100-200m</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>3.9/4.6/4.4</t>
+          <t>3.4/4.3/4.2</t>
         </is>
       </c>
       <c r="K820" t="inlineStr">
         <is>
-          <t>2026-02-25T21:06:13+09:00</t>
+          <t>2026-02-26T07:01:34+09:00</t>
         </is>
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
         </is>
       </c>
       <c r="M820" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -55190,62 +55186,62 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>外房 / 飯岡</t>
+          <t>南房 / 乙浜</t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+          <t>しまや丸船(13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>X-9 尾</t>
+          <t>8-4X 尾</t>
         </is>
       </c>
       <c r="G821" t="inlineStr">
         <is>
-          <t>0.3-1kg</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>水深15m40m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>3.9/4.6/4.4</t>
+          <t>3.7/3.6/3.8</t>
         </is>
       </c>
       <c r="K821" t="inlineStr">
         <is>
-          <t>2026-02-25T21:06:16+09:00</t>
+          <t>2026-02-26T07:01:38+09:00</t>
         </is>
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M821" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -55257,62 +55253,62 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>外房 / 飯岡</t>
+          <t>東伊豆 / 稲取</t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>梅花丸船(19ﾄﾝ,17ﾄﾝ)</t>
+          <t>晃山丸船(14ﾄﾝ,12ﾄﾝ)</t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>1-7 尾</t>
+          <t>1-1X 尾</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
         <is>
-          <t>0.50-4.00kg</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深300-500m</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>4.1/4.4/4.3</t>
+          <t>4.1/4.0/4.2</t>
         </is>
       </c>
       <c r="K822" t="inlineStr">
         <is>
-          <t>2026-02-25T21:06:16+09:00</t>
+          <t>2026-02-26T07:01:38+09:00</t>
         </is>
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M822" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -55324,32 +55320,32 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>seabuss</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>シーバス</t>
         </is>
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>三浦半島 / 剣崎松輪</t>
+          <t>東京湾奥 / 行徳</t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>伝五郎丸船(17ﾄﾝ)</t>
+          <t>FriendShip船(4ﾄﾝ)</t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>X-5 尾</t>
+          <t>X-9 尾</t>
         </is>
       </c>
       <c r="G823" t="inlineStr">
         <is>
-          <t>0.6X-1.4Xkg</t>
+          <t>6X-7Xcm</t>
         </is>
       </c>
       <c r="H823" t="inlineStr">
@@ -55362,24 +55358,20 @@
           <t>釣割</t>
         </is>
       </c>
-      <c r="J823" t="inlineStr">
-        <is>
-          <t>3.4/3.5/2.7</t>
-        </is>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
-          <t>2026-02-25T21:06:16+09:00</t>
+          <t>2026-02-26T07:01:44+09:00</t>
         </is>
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
         </is>
       </c>
       <c r="M823" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -55391,12 +55383,12 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>surumeika</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>スルメイカ</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
@@ -55406,17 +55398,17 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>正海丸船(19ｔ)</t>
+          <t>大松丸船(19.9ﾄﾝ,19.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>X-6 尾</t>
+          <t>3-5X 杯</t>
         </is>
       </c>
       <c r="G824" t="inlineStr">
         <is>
-          <t>0.7X-1.8Xkg</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H824" t="inlineStr">
@@ -55429,20 +55421,24 @@
           <t>釣割</t>
         </is>
       </c>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="inlineStr">
+        <is>
+          <t>3.7/4.2/3.8</t>
+        </is>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
-          <t>2026-02-25T21:06:16+09:00</t>
+          <t>2026-02-26T07:01:48+09:00</t>
         </is>
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
         </is>
       </c>
       <c r="M824" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -55454,12 +55450,12 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>mahata</t>
+          <t>hirame</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>マハタ</t>
+          <t>ヒラメ</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -55474,17 +55470,17 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>6-16 尾</t>
+          <t>X-5 枚</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
         <is>
-          <t>0.5-2.9kg</t>
+          <t>0.4-1.4kg</t>
         </is>
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>水深15m40m40m</t>
+          <t>水深15m</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -55499,17 +55495,17 @@
       </c>
       <c r="K825" t="inlineStr">
         <is>
-          <t>2026-02-25T21:06:18+09:00</t>
+          <t>2026-02-26T07:01:54+09:00</t>
         </is>
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
         </is>
       </c>
       <c r="M825" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -55521,62 +55517,393 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>X-9 尾</t>
+        </is>
+      </c>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>0.3-1kg</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>水深15m40m</t>
+        </is>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J826" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.4</t>
+        </is>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>2026-02-26T07:01:58+09:00</t>
+        </is>
+      </c>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M826" t="inlineStr">
+        <is>
+          <t>2026-02-26 07:03:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>梅花丸船(19ﾄﾝ,17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>1-7 尾</t>
+        </is>
+      </c>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>0.50-4.00kg</t>
+        </is>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J827" t="inlineStr">
+        <is>
+          <t>4.1/4.4/4.3</t>
+        </is>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>2026-02-26T07:01:58+09:00</t>
+        </is>
+      </c>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M827" t="inlineStr">
+        <is>
+          <t>2026-02-26 07:03:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>伝五郎丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>0.6X-1.4Xkg</t>
+        </is>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J828" t="inlineStr">
+        <is>
+          <t>3.4/3.5/2.7</t>
+        </is>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>2026-02-26T07:01:58+09:00</t>
+        </is>
+      </c>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M828" t="inlineStr">
+        <is>
+          <t>2026-02-26 07:03:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>正海丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>X-6 尾</t>
+        </is>
+      </c>
+      <c r="G829" t="inlineStr">
+        <is>
+          <t>0.7X-1.8Xkg</t>
+        </is>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>2026-02-26T07:01:58+09:00</t>
+        </is>
+      </c>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M829" t="inlineStr">
+        <is>
+          <t>2026-02-26 07:03:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>mahata</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>マハタ</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>6-16 尾</t>
+        </is>
+      </c>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>0.5-2.9kg</t>
+        </is>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>水深15m40m40m</t>
+        </is>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J830" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.4</t>
+        </is>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>2026-02-26T07:02:00+09:00</t>
+        </is>
+      </c>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+        </is>
+      </c>
+      <c r="M830" t="inlineStr">
+        <is>
+          <t>2026-02-26 07:03:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
           <t>yariika</t>
         </is>
       </c>
-      <c r="C826" t="inlineStr">
+      <c r="C831" t="inlineStr">
         <is>
           <t>ヤリイカ</t>
         </is>
       </c>
-      <c r="D826" t="inlineStr">
+      <c r="D831" t="inlineStr">
         <is>
           <t>外房 / 勝浦</t>
         </is>
       </c>
-      <c r="E826" t="inlineStr">
+      <c r="E831" t="inlineStr">
         <is>
           <t>勝丸船(10ﾄﾝ)</t>
         </is>
       </c>
-      <c r="F826" t="inlineStr">
+      <c r="F831" t="inlineStr">
         <is>
           <t>6-4X 杯</t>
         </is>
       </c>
-      <c r="G826" t="inlineStr">
+      <c r="G831" t="inlineStr">
         <is>
           <t>2X-4Xcm</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="I826" t="inlineStr">
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I831" t="inlineStr">
         <is>
           <t>釣割</t>
         </is>
       </c>
-      <c r="J826" t="inlineStr">
+      <c r="J831" t="inlineStr">
         <is>
           <t>4.0/3.3/4.1</t>
         </is>
       </c>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>2026-02-25T21:06:22+09:00</t>
-        </is>
-      </c>
-      <c r="L826" t="inlineStr">
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>2026-02-26T07:02:05+09:00</t>
+        </is>
+      </c>
+      <c r="L831" t="inlineStr">
         <is>
           <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
         </is>
       </c>
-      <c r="M826" t="inlineStr">
-        <is>
-          <t>2026-02-25 21:07:32</t>
+      <c r="M831" t="inlineStr">
+        <is>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
     </row>
@@ -55639,7 +55966,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -55676,7 +56003,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -55713,7 +56040,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -55750,7 +56077,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -55787,7 +56114,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-25 21:07:32</t>
+          <t>2026-02-26 07:03:32</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M831"/>
+  <dimension ref="A1:M835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54453,32 +54453,32 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>aori</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>アオリイカ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>三浦半島 / 走水</t>
         </is>
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t>藤八丸船(4.9ﾄﾝ)</t>
+          <t>政信丸船(5ﾄﾝ)</t>
         </is>
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>X-5 杯</t>
+          <t>16-71 尾</t>
         </is>
       </c>
       <c r="G810" t="inlineStr">
         <is>
-          <t>0.3X-1.2Xkg</t>
+          <t>23-35cm</t>
         </is>
       </c>
       <c r="H810" t="inlineStr">
@@ -54488,18 +54488,22 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>釣割</t>
-        </is>
-      </c>
-      <c r="J810" t="inlineStr"/>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J810" t="inlineStr">
+        <is>
+          <t>3.5/3.2/4.0</t>
+        </is>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:21+09:00</t>
+          <t>2026-02-26T07:01:25+09:00</t>
         </is>
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M810" t="inlineStr">
@@ -54516,62 +54520,58 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>aori</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>アオリイカ</t>
         </is>
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>三浦半島 / 大津</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>小川丸船(19.9ﾄﾝ)</t>
+          <t>藤八丸船(4.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>10-55 尾</t>
+          <t>X-5 杯</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
         <is>
-          <t>24-37cm</t>
+          <t>0.3X-1.2Xkg</t>
         </is>
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>水深80m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="J811" t="inlineStr">
-        <is>
-          <t>3.9/4.2/3.9</t>
-        </is>
-      </c>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:25+09:00</t>
+          <t>2026-02-26T14:13:58+09:00</t>
         </is>
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
         </is>
       </c>
       <c r="M811" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -54593,22 +54593,22 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>三浦半島 / 走水</t>
+          <t>横浜 / 新山下</t>
         </is>
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t>政信丸船(5ﾄﾝ)</t>
+          <t>打木屋釣船店船(13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>16-71 尾</t>
+          <t>9-3X 尾</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
         <is>
-          <t>23-35cm</t>
+          <t>1X-2Xcm</t>
         </is>
       </c>
       <c r="H812" t="inlineStr">
@@ -54618,17 +54618,17 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>3.5/3.2/4.0</t>
+          <t>2.3/1.8/1.9</t>
         </is>
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:25+09:00</t>
+          <t>2026-02-26T14:14:01+09:00</t>
         </is>
       </c>
       <c r="L812" t="inlineStr">
@@ -54638,7 +54638,7 @@
       </c>
       <c r="M812" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -54660,27 +54660,27 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>三浦半島 / 走水</t>
+          <t>三浦半島 / 大津</t>
         </is>
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t>海福丸船(15ﾄﾝ)</t>
+          <t>小川丸船(19.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>25-40 尾</t>
+          <t>10-55 尾</t>
         </is>
       </c>
       <c r="G813" t="inlineStr">
         <is>
-          <t>23-34cm</t>
+          <t>24-37cm</t>
         </is>
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深80m</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
@@ -54690,12 +54690,12 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>3.3/3.1/3.7</t>
+          <t>3.9/4.2/3.9</t>
         </is>
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:25+09:00</t>
+          <t>2026-02-26T14:14:01+09:00</t>
         </is>
       </c>
       <c r="L813" t="inlineStr">
@@ -54705,7 +54705,7 @@
       </c>
       <c r="M813" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -54732,17 +54732,17 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t>教至丸船(12ﾄﾝ)</t>
+          <t>政信丸船(5ﾄﾝ)</t>
         </is>
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t>20-65 尾</t>
+          <t>1X-7X 尾</t>
         </is>
       </c>
       <c r="G814" t="inlineStr">
         <is>
-          <t>22-42cm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H814" t="inlineStr">
@@ -54752,17 +54752,17 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>1.7/2.2/1.5</t>
+          <t>3.5/3.2/4.0</t>
         </is>
       </c>
       <c r="K814" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:25+09:00</t>
+          <t>2026-02-26T14:14:01+09:00</t>
         </is>
       </c>
       <c r="L814" t="inlineStr">
@@ -54772,7 +54772,7 @@
       </c>
       <c r="M814" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -54794,22 +54794,22 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>三浦半島 / 鴨居</t>
+          <t>三浦半島 / 走水</t>
         </is>
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t>房丸船(14ﾄﾝ)</t>
+          <t>海福丸船(15ﾄﾝ)</t>
         </is>
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t>8-1X 尾</t>
+          <t>25-40 尾</t>
         </is>
       </c>
       <c r="G815" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>23-34cm</t>
         </is>
       </c>
       <c r="H815" t="inlineStr">
@@ -54819,17 +54819,17 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>4.3/3.8/4.2</t>
+          <t>3.3/3.1/3.7</t>
         </is>
       </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:25+09:00</t>
+          <t>2026-02-26T14:14:01+09:00</t>
         </is>
       </c>
       <c r="L815" t="inlineStr">
@@ -54839,7 +54839,7 @@
       </c>
       <c r="M815" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -54861,22 +54861,22 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>相模湾 / 平塚</t>
+          <t>三浦半島 / 走水</t>
         </is>
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>庄三郎丸</t>
+          <t>教至丸船(12ﾄﾝ)</t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>7-23 尾</t>
+          <t>20-65 尾</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
         <is>
-          <t>25-35cm</t>
+          <t>22-42cm</t>
         </is>
       </c>
       <c r="H816" t="inlineStr">
@@ -54891,12 +54891,12 @@
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>2.8/3.2/2.7</t>
+          <t>1.7/2.2/1.5</t>
         </is>
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:25+09:00</t>
+          <t>2026-02-26T14:14:01+09:00</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
@@ -54906,7 +54906,7 @@
       </c>
       <c r="M816" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -54918,32 +54918,32 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>相模湾 / 平塚</t>
+          <t>三浦半島 / 鴨居</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t>庄三郎丸</t>
+          <t>房丸船(14ﾄﾝ)</t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>6-7 尾</t>
+          <t>8-1X 尾</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
         <is>
-          <t>22-52cm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H817" t="inlineStr">
@@ -54953,27 +54953,27 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>2.8/3.2/2.7</t>
+          <t>4.3/3.8/4.2</t>
         </is>
       </c>
       <c r="K817" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:26+09:00</t>
+          <t>2026-02-26T14:14:01+09:00</t>
         </is>
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M817" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -54985,62 +54985,62 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>ara</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>アラ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
+          <t>庄三郎丸</t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>X-3 尾</t>
+          <t>7-23 尾</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
         <is>
-          <t>0.3-1.4kg</t>
+          <t>25-35cm</t>
         </is>
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>水深100-200m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>SANSPO</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>3.4/4.3/4.2</t>
+          <t>2.8/3.2/2.7</t>
         </is>
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:27+09:00</t>
+          <t>2026-02-26T14:14:01+09:00</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=ara</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M818" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55052,37 +55052,37 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>inada</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>イナダ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>相模湾 / 腰越</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>池田丸船(20ﾄﾝ)</t>
+          <t>庄三郎丸</t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>0-12 尾</t>
+          <t>6-7 尾</t>
         </is>
       </c>
       <c r="G819" t="inlineStr">
         <is>
-          <t>43-55cm</t>
+          <t>22-52cm</t>
         </is>
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>水深60m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -55092,22 +55092,22 @@
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>1.9/2.4/2.4</t>
+          <t>2.8/3.2/2.7</t>
         </is>
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:32+09:00</t>
+          <t>2026-02-26T14:14:02+09:00</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M819" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55119,12 +55119,12 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>onikasago</t>
+          <t>ara</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>オニカサゴ</t>
+          <t>アラ</t>
         </is>
       </c>
       <c r="D820" t="inlineStr">
@@ -55139,17 +55139,17 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>X-4 尾</t>
+          <t>X-3 尾</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
         <is>
-          <t>0.3-1.9Xkg</t>
+          <t>0.3-1.4kg</t>
         </is>
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>水深100-200m100-200m</t>
+          <t>水深100-200m</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -55164,17 +55164,17 @@
       </c>
       <c r="K820" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:34+09:00</t>
+          <t>2026-02-26T14:14:03+09:00</t>
         </is>
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
+          <t>https://funaduri.jp/fish.cgi?fish=ara</t>
         </is>
       </c>
       <c r="M820" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55186,62 +55186,62 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>kinme</t>
+          <t>inada</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>キンメ</t>
+          <t>イナダ</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>南房 / 乙浜</t>
+          <t>相模湾 / 腰越</t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>しまや丸船(13ﾄﾝ)</t>
+          <t>池田丸船(20ﾄﾝ)</t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>8-4X 尾</t>
+          <t>0-12 尾</t>
         </is>
       </c>
       <c r="G821" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>43-55cm</t>
         </is>
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深60m</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>SANSPO</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>3.7/3.6/3.8</t>
+          <t>1.9/2.4/2.4</t>
         </is>
       </c>
       <c r="K821" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:38+09:00</t>
+          <t>2026-02-26T14:14:07+09:00</t>
         </is>
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
         </is>
       </c>
       <c r="M821" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55253,37 +55253,37 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>kinme</t>
+          <t>onikasago</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>キンメ</t>
+          <t>オニカサゴ</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>東伊豆 / 稲取</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>晃山丸船(14ﾄﾝ,12ﾄﾝ)</t>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>1-1X 尾</t>
+          <t>X-4 尾</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>0.3-1.9Xkg</t>
         </is>
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>水深300-500m</t>
+          <t>水深100-200m100-200m</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -55293,22 +55293,22 @@
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>4.1/4.0/4.2</t>
+          <t>3.4/4.3/4.2</t>
         </is>
       </c>
       <c r="K822" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:38+09:00</t>
+          <t>2026-02-26T14:14:08+09:00</t>
         </is>
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
         </is>
       </c>
       <c r="M822" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55320,32 +55320,32 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>seabuss</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>シーバス</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>東京湾奥 / 行徳</t>
+          <t>南房 / 乙浜</t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t>FriendShip船(4ﾄﾝ)</t>
+          <t>しまや丸船(13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>X-9 尾</t>
+          <t>8-4X 尾</t>
         </is>
       </c>
       <c r="G823" t="inlineStr">
         <is>
-          <t>6X-7Xcm</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H823" t="inlineStr">
@@ -55355,23 +55355,27 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>釣割</t>
-        </is>
-      </c>
-      <c r="J823" t="inlineStr"/>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J823" t="inlineStr">
+        <is>
+          <t>3.7/3.6/3.8</t>
+        </is>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:44+09:00</t>
+          <t>2026-02-26T14:14:12+09:00</t>
         </is>
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M823" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55383,27 +55387,27 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>surumeika</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>スルメイカ</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>三浦半島 / 剣崎松輪</t>
+          <t>東伊豆 / 稲取</t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t>大松丸船(19.9ﾄﾝ,19.9ﾄﾝ)</t>
+          <t>晃山丸船(14ﾄﾝ,12ﾄﾝ)</t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>3-5X 杯</t>
+          <t>1-1X 尾</t>
         </is>
       </c>
       <c r="G824" t="inlineStr">
@@ -55413,32 +55417,32 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深300-500m</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>3.7/4.2/3.8</t>
+          <t>4.1/4.0/4.2</t>
         </is>
       </c>
       <c r="K824" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:48+09:00</t>
+          <t>2026-02-26T14:14:12+09:00</t>
         </is>
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M824" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55450,62 +55454,58 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>hirame</t>
+          <t>seabuss</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>ヒラメ</t>
+          <t>シーバス</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>外房 / 飯岡</t>
+          <t>東京湾奥 / 行徳</t>
         </is>
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+          <t>FriendShip船(4ﾄﾝ)</t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>X-5 枚</t>
+          <t>X-9 尾</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
         <is>
-          <t>0.4-1.4kg</t>
+          <t>6X-7Xcm</t>
         </is>
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>水深15m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="J825" t="inlineStr">
-        <is>
-          <t>3.9/4.6/4.4</t>
-        </is>
-      </c>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:54+09:00</t>
+          <t>2026-02-26T14:14:16+09:00</t>
         </is>
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
         </is>
       </c>
       <c r="M825" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55517,62 +55517,62 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>surumeika</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>スルメイカ</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>外房 / 飯岡</t>
+          <t>三浦半島 / 剣崎松輪</t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+          <t>大松丸船(19.9ﾄﾝ,19.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>X-9 尾</t>
+          <t>3-5X 杯</t>
         </is>
       </c>
       <c r="G826" t="inlineStr">
         <is>
-          <t>0.3-1kg</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>水深15m40m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>3.9/4.6/4.4</t>
+          <t>3.7/4.2/3.8</t>
         </is>
       </c>
       <c r="K826" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:58+09:00</t>
+          <t>2026-02-26T14:14:19+09:00</t>
         </is>
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
         </is>
       </c>
       <c r="M826" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55584,12 +55584,12 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>hirame</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>ヒラメ</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
@@ -55599,22 +55599,22 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>梅花丸船(19ﾄﾝ,17ﾄﾝ)</t>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>1-7 尾</t>
+          <t>X-5 枚</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
         <is>
-          <t>0.50-4.00kg</t>
+          <t>0.4-1.4kg</t>
         </is>
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深15m</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -55624,22 +55624,22 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>4.1/4.4/4.3</t>
+          <t>3.9/4.6/4.4</t>
         </is>
       </c>
       <c r="K827" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:58+09:00</t>
+          <t>2026-02-26T14:14:24+09:00</t>
         </is>
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
         </is>
       </c>
       <c r="M827" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55661,42 +55661,42 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>三浦半島 / 剣崎松輪</t>
+          <t>外房 / 飯岡</t>
         </is>
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>伝五郎丸船(17ﾄﾝ)</t>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>X-5 尾</t>
+          <t>X-9 尾</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
         <is>
-          <t>0.6X-1.4Xkg</t>
+          <t>0.3-1kg</t>
         </is>
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深15m40m</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>3.4/3.5/2.7</t>
+          <t>3.9/4.6/4.4</t>
         </is>
       </c>
       <c r="K828" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:58+09:00</t>
+          <t>2026-02-26T14:14:27+09:00</t>
         </is>
       </c>
       <c r="L828" t="inlineStr">
@@ -55706,7 +55706,7 @@
       </c>
       <c r="M828" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55728,22 +55728,22 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>三浦半島 / 剣崎松輪</t>
+          <t>外房 / 飯岡</t>
         </is>
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t>正海丸船(19ｔ)</t>
+          <t>梅花丸船(19ﾄﾝ,17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>X-6 尾</t>
+          <t>1-7 尾</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
         <is>
-          <t>0.7X-1.8Xkg</t>
+          <t>0.50-4.00kg</t>
         </is>
       </c>
       <c r="H829" t="inlineStr">
@@ -55753,13 +55753,17 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>釣割</t>
-        </is>
-      </c>
-      <c r="J829" t="inlineStr"/>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J829" t="inlineStr">
+        <is>
+          <t>4.1/4.4/4.3</t>
+        </is>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
-          <t>2026-02-26T07:01:58+09:00</t>
+          <t>2026-02-26T14:14:27+09:00</t>
         </is>
       </c>
       <c r="L829" t="inlineStr">
@@ -55769,7 +55773,7 @@
       </c>
       <c r="M829" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55781,62 +55785,62 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>mahata</t>
+          <t>madai</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>マハタ</t>
+          <t>マダイ</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>外房 / 飯岡</t>
+          <t>三浦半島 / 剣崎松輪</t>
         </is>
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+          <t>伝五郎丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>6-16 尾</t>
+          <t>X-5 尾</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
         <is>
-          <t>0.5-2.9kg</t>
+          <t>0.6X-1.4Xkg</t>
         </is>
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>水深15m40m40m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>3.9/4.6/4.4</t>
+          <t>3.4/3.5/2.7</t>
         </is>
       </c>
       <c r="K830" t="inlineStr">
         <is>
-          <t>2026-02-26T07:02:00+09:00</t>
+          <t>2026-02-26T14:14:27+09:00</t>
         </is>
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
         </is>
       </c>
       <c r="M830" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55848,62 +55852,326 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>正海丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>X-6 尾</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>0.7X-1.8Xkg</t>
+        </is>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>2026-02-26T14:14:27+09:00</t>
+        </is>
+      </c>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M831" t="inlineStr">
+        <is>
+          <t>2026-02-26 14:15:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>mahata</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>マハタ</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>幸丸船(19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>6-16 尾</t>
+        </is>
+      </c>
+      <c r="G832" t="inlineStr">
+        <is>
+          <t>0.5-2.9kg</t>
+        </is>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>水深15m40m40m</t>
+        </is>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J832" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.4</t>
+        </is>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>2026-02-26T14:14:29+09:00</t>
+        </is>
+      </c>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+        </is>
+      </c>
+      <c r="M832" t="inlineStr">
+        <is>
+          <t>2026-02-26 14:15:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>駿河湾 / 沼津静浦</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>幸松丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>35-11X 杯</t>
+        </is>
+      </c>
+      <c r="G833" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J833" t="inlineStr">
+        <is>
+          <t>3.5/3.5/3.5</t>
+        </is>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>2026-02-26T14:14:30+09:00</t>
+        </is>
+      </c>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M833" t="inlineStr">
+        <is>
+          <t>2026-02-26 14:15:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>駿河湾 / 沼津内</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>秀丸</t>
+        </is>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>4X-6X 杯</t>
+        </is>
+      </c>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J834" t="inlineStr">
+        <is>
+          <t>4.8/4.4/4.3</t>
+        </is>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>2026-02-26T14:14:30+09:00</t>
+        </is>
+      </c>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M834" t="inlineStr">
+        <is>
+          <t>2026-02-26 14:15:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
           <t>yariika</t>
         </is>
       </c>
-      <c r="C831" t="inlineStr">
+      <c r="C835" t="inlineStr">
         <is>
           <t>ヤリイカ</t>
         </is>
       </c>
-      <c r="D831" t="inlineStr">
+      <c r="D835" t="inlineStr">
         <is>
           <t>外房 / 勝浦</t>
         </is>
       </c>
-      <c r="E831" t="inlineStr">
+      <c r="E835" t="inlineStr">
         <is>
           <t>勝丸船(10ﾄﾝ)</t>
         </is>
       </c>
-      <c r="F831" t="inlineStr">
+      <c r="F835" t="inlineStr">
         <is>
           <t>6-4X 杯</t>
         </is>
       </c>
-      <c r="G831" t="inlineStr">
+      <c r="G835" t="inlineStr">
         <is>
           <t>2X-4Xcm</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="I831" t="inlineStr">
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I835" t="inlineStr">
         <is>
           <t>釣割</t>
         </is>
       </c>
-      <c r="J831" t="inlineStr">
+      <c r="J835" t="inlineStr">
         <is>
           <t>4.0/3.3/4.1</t>
         </is>
       </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>2026-02-26T07:02:05+09:00</t>
-        </is>
-      </c>
-      <c r="L831" t="inlineStr">
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>2026-02-26T14:14:34+09:00</t>
+        </is>
+      </c>
+      <c r="L835" t="inlineStr">
         <is>
           <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
         </is>
       </c>
-      <c r="M831" t="inlineStr">
-        <is>
-          <t>2026-02-26 07:03:32</t>
+      <c r="M835" t="inlineStr">
+        <is>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
     </row>
@@ -55918,7 +56186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55966,22 +56234,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/25(水)</t>
+          <t>2/26(木)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>型程度</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -55991,24 +56259,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>航路内外50～80m前後</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>連日、横浜周辺に反応は出ていましたが、悪天のせいか？長時間の反応捜索も反応見当たらず･･･その後、沖上がりまで航路内外50～80m前後を狙いアタリ数乏しく＆アタリの出は今ひとつで型程度に終わりました！悪天で早めの沖上がりとなりました！冷たい雨・風の中、皆さんお疲れ様でした！リベンジお待ちしています！ ･･･明日2/26(木)は予報悪く出船中止とさせて頂きます！またのご予約お待ちしています！ ･･･明後日2/27(金)・2/28(土)・3/1(日)はタチウオを狙い出船します！　＊明後日は好転を期待し少人数ながら出船確定です！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
+          <t>本日は予報悪く出船中止とさせて頂きました！ ･･･明日2/27(金)・明後日2/28(土)・3/1(日)はタチウオを狙い出船します！　＊明日は好転を期待し、少人数ながら出船確定です！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/24(火)</t>
+          <t>2/25(水)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -56018,108 +56286,108 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1～8本</t>
+          <t>型程度</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>最大109cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>横浜沖40m前後</t>
+          <t>航路内外50～80m前後</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40m前後を狙い、強風後でしたが所々で反応を確認出来ました！終始、相変わらずの手強さですが、所々でアタリ出て難易度高く針掛かりまでは難しかったが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は一宮町の佐藤様。　他、スソの方お一人(1本ながらも108cmGET!)・その他の方は2～6本GET!(6本は本日最大109cmGET!で鴻巣市の室田様)。　ハマった方は居ませんでしたが皆さん健闘し、お土産確保！</t>
+          <t>連日、横浜周辺に反応は出ていましたが、悪天のせいか？長時間の反応捜索も反応見当たらず･･･その後、沖上がりまで航路内外50～80m前後を狙いアタリ数乏しく＆アタリの出は今ひとつで型程度に終わりました！悪天で早めの沖上がりとなりました！冷たい雨・風の中、皆さんお疲れ様でした！リベンジお待ちしています！</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2/23(月)</t>
+          <t>2/24(火)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>休船</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>1～8本</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大109cm</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖40m前後</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>本日は予報悪くお休みとさせて頂きました！</t>
+          <t>終日、横浜沖周辺40m前後を狙い、強風後でしたが所々で反応を確認出来ました！終始、相変わらずの手強さですが、所々でアタリ出て難易度高く針掛かりまでは難しかったが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は一宮町の佐藤様。　他、スソの方お一人(1本ながらも108cmGET!)・その他の方は2～6本GET!(6本は本日最大109cmGET!で鴻巣市の室田様)。　ハマった方は居ませんでしたが皆さん健闘し、お土産確保！</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2/22(日)</t>
+          <t>2/23(月)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2～8本</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>最大121cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>横浜沖40～45m</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
+          <t>本日は予報悪くお休みとさせて頂きました！</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-26 07:03:32</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2/21(土)</t>
+          <t>2/22(日)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -56129,12 +56397,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2～7本</t>
+          <t>2～8本</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>最大113cm</t>
+          <t>最大121cm</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -56144,61 +56412,61 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
+          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-25 14:20:48</t>
+          <t>2026-02-26 14:15:44</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2/20(金)</t>
+          <t>2/21(土)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>定休日</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>2～7本</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大113cm</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖40～45m</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>本日は定休日でお休みでした！</t>
+          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-24 14:17:12</t>
+          <t>2026-02-25 14:20:48</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2/19(木)</t>
+          <t>2/20(金)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>臨時休業</t>
+          <t>定休日</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -56218,81 +56486,81 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>本日は都合によりお休みとさせて頂きました！</t>
+          <t>本日は定休日でお休みでした！</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-23 06:54:26</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2/18(水)</t>
+          <t>2/19(木)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>臨時休業</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>型程度</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>最大114cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>航路内～横浜沖40～80m前後</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>朝一、航路内80mラインを一流し！アタリ遠く早々大きく移動！　その後は沖上がりまで横浜沖周辺40m前後を狙いました！終始、所々で反応に乗り大流し＆拾い釣り！魚の機嫌が悪いのか？アタリの出は今ひとつ！間が空きながらもアタリは出ましたが、数伸び悩み型程度に終わり先日に続き、お客様お一人が残念ながら型見れず･･･ごめんなさい！魚は居るけど、厳しい一日になりました！皆さんお疲れ様＆リベンジお待ちしています！</t>
+          <t>本日は都合によりお休みとさせて頂きました！</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-23 06:54:26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2/17(火)</t>
+          <t>2/18(水)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>休船</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>型程度</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大114cm</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>航路内～横浜沖40～80m前後</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>本日はお客様揃わずお休みでした！</t>
+          <t>朝一、航路内80mラインを一流し！アタリ遠く早々大きく移動！　その後は沖上がりまで横浜沖周辺40m前後を狙いました！終始、所々で反応に乗り大流し＆拾い釣り！魚の機嫌が悪いのか？アタリの出は今ひとつ！間が空きながらもアタリは出ましたが、数伸び悩み型程度に終わり先日に続き、お客様お一人が残念ながら型見れず･･･ごめんなさい！魚は居るけど、厳しい一日になりました！皆さんお疲れ様＆リベンジお待ちしています！</t>
         </is>
       </c>
     </row>
@@ -56304,32 +56572,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2/16(月)</t>
+          <t>2/17(火)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0～3本</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>最大106cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>横浜沖45m前後</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺45m前後を狙い、広範囲に反応は有るものの、まとまった反応が少なく･･･終始、拾い釣りで100cm前後主体に型見れましたが、活性低くアタリが出ても難易度高く掛け損じ目立ち思いのほか数伸び悩み苦戦でした！魚の気配は有るけど活性上がらず･･･　お客様全員にアタリは出ましたが残念ながらバラシに終わったお客様お一人が型見れず･･･惜しかったです！リベンジお待ちしています！　その他の方は数こそ伸び悩みましたが、2～3本と平均に釣れました！　寒さの中、最後まで頑張ってくれました！お疲れ様＆リベンジお待ちしています！</t>
+          <t>本日はお客様揃わずお休みでした！</t>
         </is>
       </c>
     </row>
@@ -56341,7 +56609,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2/15(日)</t>
+          <t>2/16(月)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -56351,22 +56619,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0～5本</t>
+          <t>0～3本</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>最大109cm</t>
+          <t>最大106cm</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>横浜沖40～45m前後</t>
+          <t>横浜沖45m前後</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>終日、凪を見せ、横浜沖周辺40～45m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！　前半は所々でアタリが出て単発ながらも、中・良型中心にメーター超級交え型見れましたが･･･後半は魚の機嫌が悪いのか？アタリの出は今ひとつ！数伸び悩み苦戦でした！　･･･皆さん健闘し、トップ5本が3人。　残念ながらオデコの方お一人出てしまい、その他の方は1～4本GET!(4本の方お二人)。　本日最大109cmGET!は木更津市の宮田様。　皆さん最後まで頑張ってくれました！</t>
+          <t>終日、横浜沖周辺45m前後を狙い、広範囲に反応は有るものの、まとまった反応が少なく･･･終始、拾い釣りで100cm前後主体に型見れましたが、活性低くアタリが出ても難易度高く掛け損じ目立ち思いのほか数伸び悩み苦戦でした！魚の気配は有るけど活性上がらず･･･　お客様全員にアタリは出ましたが残念ながらバラシに終わったお客様お一人が型見れず･･･惜しかったです！リベンジお待ちしています！　その他の方は数こそ伸び悩みましたが、2～3本と平均に釣れました！　寒さの中、最後まで頑張ってくれました！お疲れ様＆リベンジお待ちしています！</t>
         </is>
       </c>
     </row>
@@ -56378,7 +56646,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2/14(土)</t>
+          <t>2/15(日)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -56388,22 +56656,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2～11本</t>
+          <t>0～5本</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>最大110cm</t>
+          <t>最大109cm</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>横浜沖40m前後</t>
+          <t>横浜沖40～45m前後</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>終日、凪を見せ、横浜沖40m前後を狙い、広範囲に反応が有り！手強いタチウオ！終始、反応に乗り大流し＆拾い釣り！適当にアタリは出ていましたが、難易度高くハリス切れ数回・掛け損じ・バラシ目立ち、思いのほか数こそ伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･ハマった方は居ませんでしたが皆さん健闘し、トップ11本は市原市の不破様。　他、スソの方お二人・その他の方は3～10本GET!(10本は牛久市の張替様)。　昨日に続き本日最大110cmの方が数人いらっしゃいました！　6本以上の方目立つ！　厳しい寒さの中、最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
+          <t>終日、凪を見せ、横浜沖周辺40～45m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！　前半は所々でアタリが出て単発ながらも、中・良型中心にメーター超級交え型見れましたが･･･後半は魚の機嫌が悪いのか？アタリの出は今ひとつ！数伸び悩み苦戦でした！　･･･皆さん健闘し、トップ5本が3人。　残念ながらオデコの方お一人出てしまい、その他の方は1～4本GET!(4本の方お二人)。　本日最大109cmGET!は木更津市の宮田様。　皆さん最後まで頑張ってくれました！</t>
         </is>
       </c>
     </row>
@@ -56415,30 +56683,67 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2/14(土)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2～11本</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>最大110cm</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>横浜沖40m前後</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>終日、凪を見せ、横浜沖40m前後を狙い、広範囲に反応が有り！手強いタチウオ！終始、反応に乗り大流し＆拾い釣り！適当にアタリは出ていましたが、難易度高くハリス切れ数回・掛け損じ・バラシ目立ち、思いのほか数こそ伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･ハマった方は居ませんでしたが皆さん健闘し、トップ11本は市原市の不破様。　他、スソの方お二人・その他の方は3～10本GET!(10本は牛久市の張替様)。　昨日に続き本日最大110cmの方が数人いらっしゃいました！　6本以上の方目立つ！　厳しい寒さの中、最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-02-22 15:07:14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>2/13(金)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>タチウオ</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>2～13本</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>最大110cm</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>横浜沖40m前後</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>終日、横浜沖40m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、難易度高くアタリを出せる方とそうでない方・打率の良い方・そうでない方で釣果に差が出ましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ13本は本日最大110cmGET!で木更津市の永橋様。　他、スソの方お一人・その他の方は3～12本GET!(12本は千葉市の元井様)。　本日最大110cmGET!の方が数人いらっしゃいました！　7本以上の方目立つ！　厳しい寒さの中、皆さん最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
         </is>

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M835"/>
+  <dimension ref="A1:M846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56172,6 +56172,743 @@
       <c r="M835" t="inlineStr">
         <is>
           <t>2026-02-26 14:15:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 羽田</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>かめだや船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>60-109 尾</t>
+        </is>
+      </c>
+      <c r="G836" t="inlineStr">
+        <is>
+          <t>17-30cm</t>
+        </is>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>本牧沖</t>
+        </is>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J836" t="inlineStr">
+        <is>
+          <t>3.3/3.3/3.9</t>
+        </is>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>2026-02-26T23:16:29+09:00</t>
+        </is>
+      </c>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M836" t="inlineStr">
+        <is>
+          <t>2026-02-26 23:18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>まごうの丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F837" t="inlineStr">
+        <is>
+          <t>20-37 尾</t>
+        </is>
+      </c>
+      <c r="G837" t="inlineStr">
+        <is>
+          <t>20-38cm</t>
+        </is>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J837" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.5</t>
+        </is>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>2026-02-26T23:16:29+09:00</t>
+        </is>
+      </c>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M837" t="inlineStr">
+        <is>
+          <t>2026-02-26 23:18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>5-31 尾</t>
+        </is>
+      </c>
+      <c r="G838" t="inlineStr">
+        <is>
+          <t>28-33cm</t>
+        </is>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J838" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>2026-02-26T23:16:29+09:00</t>
+        </is>
+      </c>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M838" t="inlineStr">
+        <is>
+          <t>2026-02-26 23:18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F839" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G839" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J839" t="inlineStr">
+        <is>
+          <t>3.6/3.4/3.4</t>
+        </is>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>2026-02-26T23:16:30+09:00</t>
+        </is>
+      </c>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M839" t="inlineStr">
+        <is>
+          <t>2026-02-26 23:18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>庄三郎丸</t>
+        </is>
+      </c>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>1-7 尾</t>
+        </is>
+      </c>
+      <c r="G840" t="inlineStr">
+        <is>
+          <t>22-36cm</t>
+        </is>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J840" t="inlineStr">
+        <is>
+          <t>2.8/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>2026-02-26T23:16:30+09:00</t>
+        </is>
+      </c>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M840" t="inlineStr">
+        <is>
+          <t>2026-02-26 23:18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>ika</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>イカ</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>3-1X 杯</t>
+        </is>
+      </c>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J841" t="inlineStr">
+        <is>
+          <t>3.6/3.4/3.4</t>
+        </is>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>2026-02-26T23:16:32+09:00</t>
+        </is>
+      </c>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=ika</t>
+        </is>
+      </c>
+      <c r="M841" t="inlineStr">
+        <is>
+          <t>2026-02-26 23:18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>inada</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>イナダ</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>池田丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>1-16 尾</t>
+        </is>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>44-55cm</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>水深60m</t>
+        </is>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J842" t="inlineStr">
+        <is>
+          <t>1.9/2.4/2.4</t>
+        </is>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>2026-02-26T23:16:35+09:00</t>
+        </is>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
+        </is>
+      </c>
+      <c r="M842" t="inlineStr">
+        <is>
+          <t>2026-02-26 23:18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 羽田</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>えさ政釣船店</t>
+        </is>
+      </c>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>0-1 尾</t>
+        </is>
+      </c>
+      <c r="G843" t="inlineStr">
+        <is>
+          <t>0.3-0.6kg</t>
+        </is>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J843" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>2026-02-26T23:16:52+09:00</t>
+        </is>
+      </c>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M843" t="inlineStr">
+        <is>
+          <t>2026-02-26 23:18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F844" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G844" t="inlineStr">
+        <is>
+          <t>0.3-1kg</t>
+        </is>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J844" t="inlineStr">
+        <is>
+          <t>3.6/3.4/3.4</t>
+        </is>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>2026-02-26T23:16:59+09:00</t>
+        </is>
+      </c>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M844" t="inlineStr">
+        <is>
+          <t>2026-02-26 23:18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>madako</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>マダコ</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>茨城 / 那珂湊</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>つれたか丸</t>
+        </is>
+      </c>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>X-4 杯</t>
+        </is>
+      </c>
+      <c r="G845" t="inlineStr">
+        <is>
+          <t>1.0X-4.3Xkg</t>
+        </is>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J845" t="inlineStr">
+        <is>
+          <t>1.9/1.7/2.0</t>
+        </is>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>2026-02-26T23:17:00+09:00</t>
+        </is>
+      </c>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madako</t>
+        </is>
+      </c>
+      <c r="M845" t="inlineStr">
+        <is>
+          <t>2026-02-26 23:18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>40-52 杯</t>
+        </is>
+      </c>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>18-33cm</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J846" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>2026-02-26T23:17:02+09:00</t>
+        </is>
+      </c>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M846" t="inlineStr">
+        <is>
+          <t>2026-02-26 23:18:28</t>
         </is>
       </c>
     </row>
@@ -56234,7 +56971,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-26 14:15:44</t>
+          <t>2026-02-26 23:18:28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -56271,7 +57008,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-26 14:15:44</t>
+          <t>2026-02-26 23:18:28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -56308,7 +57045,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-26 14:15:44</t>
+          <t>2026-02-26 23:18:28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -56345,7 +57082,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-26 14:15:44</t>
+          <t>2026-02-26 23:18:28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -56382,7 +57119,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-26 14:15:44</t>
+          <t>2026-02-26 23:18:28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -56419,7 +57156,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-26 14:15:44</t>
+          <t>2026-02-26 23:18:28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M846"/>
+  <dimension ref="A1:M849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56183,37 +56183,37 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>東京湾奥 / 羽田</t>
+          <t>相模湾 / 茅ヶ崎</t>
         </is>
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t>かめだや船(16ﾄﾝ)</t>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>60-109 尾</t>
+          <t>X-4 尾</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
         <is>
-          <t>17-30cm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>本牧沖</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -56223,17 +56223,17 @@
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>3.3/3.3/3.9</t>
+          <t>3.6/3.4/3.4</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
         <is>
-          <t>2026-02-26T23:16:29+09:00</t>
+          <t>2026-02-26T23:16:30+09:00</t>
         </is>
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M836" t="inlineStr">
@@ -56250,12 +56250,12 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>ika</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>イカ</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
@@ -56265,17 +56265,17 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>まごうの丸船(17ﾄﾝ)</t>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t>20-37 尾</t>
+          <t>3-1X 杯</t>
         </is>
       </c>
       <c r="G837" t="inlineStr">
         <is>
-          <t>20-38cm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H837" t="inlineStr">
@@ -56290,17 +56290,17 @@
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>3.5/3.4/3.5</t>
+          <t>3.6/3.4/3.4</t>
         </is>
       </c>
       <c r="K837" t="inlineStr">
         <is>
-          <t>2026-02-26T23:16:29+09:00</t>
+          <t>2026-02-26T23:16:32+09:00</t>
         </is>
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=ika</t>
         </is>
       </c>
       <c r="M837" t="inlineStr">
@@ -56317,32 +56317,32 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>madai</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>マダイ</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>相模湾 / 平塚</t>
+          <t>相模湾 / 茅ヶ崎</t>
         </is>
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>庄治郎丸船(19ｔ)</t>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>5-31 尾</t>
+          <t>X-4 尾</t>
         </is>
       </c>
       <c r="G838" t="inlineStr">
         <is>
-          <t>28-33cm</t>
+          <t>0.3-1kg</t>
         </is>
       </c>
       <c r="H838" t="inlineStr">
@@ -56357,17 +56357,17 @@
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>3.6/4.0/4.0</t>
+          <t>3.6/3.4/3.4</t>
         </is>
       </c>
       <c r="K838" t="inlineStr">
         <is>
-          <t>2026-02-26T23:16:29+09:00</t>
+          <t>2026-02-26T23:16:59+09:00</t>
         </is>
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
         </is>
       </c>
       <c r="M838" t="inlineStr">
@@ -56384,37 +56384,37 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>相模湾 / 茅ヶ崎</t>
+          <t>東京湾奥 / 羽田</t>
         </is>
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>ちがさき丸船(17ﾄﾝ)</t>
+          <t>かめだや船(16ﾄﾝ)</t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>X-4 尾</t>
+          <t>60-109 尾</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>17-30cm</t>
         </is>
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>本牧沖</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -56424,22 +56424,22 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>3.6/3.4/3.4</t>
+          <t>3.3/3.3/3.9</t>
         </is>
       </c>
       <c r="K839" t="inlineStr">
         <is>
-          <t>2026-02-26T23:16:30+09:00</t>
+          <t>2026-02-27T07:00:57+09:00</t>
         </is>
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M839" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
     </row>
@@ -56451,32 +56451,32 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>相模湾 / 平塚</t>
+          <t>相模湾 / 茅ヶ崎</t>
         </is>
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>庄三郎丸</t>
+          <t>まごうの丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>1-7 尾</t>
+          <t>20-37 尾</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
         <is>
-          <t>22-36cm</t>
+          <t>20-38cm</t>
         </is>
       </c>
       <c r="H840" t="inlineStr">
@@ -56491,22 +56491,22 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>2.8/3.2/2.7</t>
+          <t>3.5/3.4/3.5</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>2026-02-26T23:16:30+09:00</t>
+          <t>2026-02-27T07:00:57+09:00</t>
         </is>
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M840" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
     </row>
@@ -56518,32 +56518,32 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>ika</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>イカ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>相模湾 / 茅ヶ崎</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>ちがさき丸船(17ﾄﾝ)</t>
+          <t>庄治郎丸船(19ｔ)</t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>3-1X 杯</t>
+          <t>5-31 尾</t>
         </is>
       </c>
       <c r="G841" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>28-33cm</t>
         </is>
       </c>
       <c r="H841" t="inlineStr">
@@ -56558,22 +56558,22 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>3.6/3.4/3.4</t>
+          <t>3.6/4.0/4.0</t>
         </is>
       </c>
       <c r="K841" t="inlineStr">
         <is>
-          <t>2026-02-26T23:16:32+09:00</t>
+          <t>2026-02-27T07:00:57+09:00</t>
         </is>
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=ika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M841" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
     </row>
@@ -56585,37 +56585,37 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>inada</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>イナダ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>相模湾 / 腰越</t>
+          <t>相模湾 / 茅ヶ崎</t>
         </is>
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t>池田丸船(20ﾄﾝ)</t>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>1-16 尾</t>
+          <t>0-4 尾</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
         <is>
-          <t>44-55cm</t>
+          <t>26-36cm</t>
         </is>
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>水深60m</t>
+          <t>茅ヶ崎沖</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -56625,22 +56625,22 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>1.9/2.4/2.4</t>
+          <t>3.6/3.4/3.4</t>
         </is>
       </c>
       <c r="K842" t="inlineStr">
         <is>
-          <t>2026-02-26T23:16:35+09:00</t>
+          <t>2026-02-27T07:00:58+09:00</t>
         </is>
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M842" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
     </row>
@@ -56652,32 +56652,32 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>torafugu</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>トラフグ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>東京湾奥 / 羽田</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>えさ政釣船店</t>
+          <t>庄三郎丸</t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>0-1 尾</t>
+          <t>1-7 尾</t>
         </is>
       </c>
       <c r="G843" t="inlineStr">
         <is>
-          <t>0.3-0.6kg</t>
+          <t>22-36cm</t>
         </is>
       </c>
       <c r="H843" t="inlineStr">
@@ -56692,22 +56692,22 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>4.1/3.8/4.0</t>
+          <t>2.8/3.2/2.7</t>
         </is>
       </c>
       <c r="K843" t="inlineStr">
         <is>
-          <t>2026-02-26T23:16:52+09:00</t>
+          <t>2026-02-27T07:00:58+09:00</t>
         </is>
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M843" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
     </row>
@@ -56719,12 +56719,12 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>ika</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>イカ</t>
         </is>
       </c>
       <c r="D844" t="inlineStr">
@@ -56739,17 +56739,17 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>X-4 尾</t>
+          <t>3-11 杯</t>
         </is>
       </c>
       <c r="G844" t="inlineStr">
         <is>
-          <t>0.3-1kg</t>
+          <t>22-35cm</t>
         </is>
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>茅ヶ崎沖</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -56764,17 +56764,17 @@
       </c>
       <c r="K844" t="inlineStr">
         <is>
-          <t>2026-02-26T23:16:59+09:00</t>
+          <t>2026-02-27T07:01:00+09:00</t>
         </is>
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=ika</t>
         </is>
       </c>
       <c r="M844" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
     </row>
@@ -56786,62 +56786,62 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>madako</t>
+          <t>inada</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>マダコ</t>
+          <t>イナダ</t>
         </is>
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>茨城 / 那珂湊</t>
+          <t>相模湾 / 腰越</t>
         </is>
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t>つれたか丸</t>
+          <t>池田丸船(20ﾄﾝ)</t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>X-4 杯</t>
+          <t>1-16 尾</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
         <is>
-          <t>1.0X-4.3Xkg</t>
+          <t>44-55cm</t>
         </is>
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深60m</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>1.9/1.7/2.0</t>
+          <t>1.9/2.4/2.4</t>
         </is>
       </c>
       <c r="K845" t="inlineStr">
         <is>
-          <t>2026-02-26T23:17:00+09:00</t>
+          <t>2026-02-27T07:01:03+09:00</t>
         </is>
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madako</t>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
         </is>
       </c>
       <c r="M845" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
     </row>
@@ -56853,62 +56853,263 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 羽田</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>えさ政釣船店</t>
+        </is>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>0-1 尾</t>
+        </is>
+      </c>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>0.3-0.6kg</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J846" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>2026-02-27T07:01:17+09:00</t>
+        </is>
+      </c>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M846" t="inlineStr">
+        <is>
+          <t>2026-02-27 07:02:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F847" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G847" t="inlineStr">
+        <is>
+          <t>0.3-1.0kg</t>
+        </is>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>茅ヶ崎沖</t>
+        </is>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J847" t="inlineStr">
+        <is>
+          <t>3.6/3.4/3.4</t>
+        </is>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>2026-02-27T07:01:23+09:00</t>
+        </is>
+      </c>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M847" t="inlineStr">
+        <is>
+          <t>2026-02-27 07:02:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>madako</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>マダコ</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>茨城 / 那珂湊</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>つれたか丸</t>
+        </is>
+      </c>
+      <c r="F848" t="inlineStr">
+        <is>
+          <t>X-4 杯</t>
+        </is>
+      </c>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>1.0X-4.3Xkg</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J848" t="inlineStr">
+        <is>
+          <t>1.9/1.7/2.0</t>
+        </is>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>2026-02-27T07:01:23+09:00</t>
+        </is>
+      </c>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madako</t>
+        </is>
+      </c>
+      <c r="M848" t="inlineStr">
+        <is>
+          <t>2026-02-27 07:02:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
           <t>maruika</t>
         </is>
       </c>
-      <c r="C846" t="inlineStr">
+      <c r="C849" t="inlineStr">
         <is>
           <t>マルイカ</t>
         </is>
       </c>
-      <c r="D846" t="inlineStr">
+      <c r="D849" t="inlineStr">
         <is>
           <t>相模湾 / 平塚</t>
         </is>
       </c>
-      <c r="E846" t="inlineStr">
+      <c r="E849" t="inlineStr">
         <is>
           <t>庄治郎丸船(19ｔ)</t>
         </is>
       </c>
-      <c r="F846" t="inlineStr">
+      <c r="F849" t="inlineStr">
         <is>
           <t>40-52 杯</t>
         </is>
       </c>
-      <c r="G846" t="inlineStr">
+      <c r="G849" t="inlineStr">
         <is>
           <t>18-33cm</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="I846" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="J846" t="inlineStr">
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J849" t="inlineStr">
         <is>
           <t>3.6/4.0/4.0</t>
         </is>
       </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>2026-02-26T23:17:02+09:00</t>
-        </is>
-      </c>
-      <c r="L846" t="inlineStr">
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>2026-02-27T07:01:25+09:00</t>
+        </is>
+      </c>
+      <c r="L849" t="inlineStr">
         <is>
           <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
         </is>
       </c>
-      <c r="M846" t="inlineStr">
-        <is>
-          <t>2026-02-26 23:18:28</t>
+      <c r="M849" t="inlineStr">
+        <is>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
     </row>
@@ -56971,7 +57172,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -57008,7 +57209,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -57045,7 +57246,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -57082,7 +57283,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -57119,7 +57320,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -57156,7 +57357,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-26 23:18:28</t>
+          <t>2026-02-27 07:02:37</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M849"/>
+  <dimension ref="A1:M850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56429,7 +56429,7 @@
       </c>
       <c r="K839" t="inlineStr">
         <is>
-          <t>2026-02-27T07:00:57+09:00</t>
+          <t>2026-02-27T14:07:33+09:00</t>
         </is>
       </c>
       <c r="L839" t="inlineStr">
@@ -56439,7 +56439,7 @@
       </c>
       <c r="M839" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
     </row>
@@ -56496,7 +56496,7 @@
       </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>2026-02-27T07:00:57+09:00</t>
+          <t>2026-02-27T14:07:33+09:00</t>
         </is>
       </c>
       <c r="L840" t="inlineStr">
@@ -56506,7 +56506,7 @@
       </c>
       <c r="M840" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
     </row>
@@ -56563,7 +56563,7 @@
       </c>
       <c r="K841" t="inlineStr">
         <is>
-          <t>2026-02-27T07:00:57+09:00</t>
+          <t>2026-02-27T14:07:33+09:00</t>
         </is>
       </c>
       <c r="L841" t="inlineStr">
@@ -56573,7 +56573,7 @@
       </c>
       <c r="M841" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
     </row>
@@ -56630,7 +56630,7 @@
       </c>
       <c r="K842" t="inlineStr">
         <is>
-          <t>2026-02-27T07:00:58+09:00</t>
+          <t>2026-02-27T14:07:34+09:00</t>
         </is>
       </c>
       <c r="L842" t="inlineStr">
@@ -56640,7 +56640,7 @@
       </c>
       <c r="M842" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
     </row>
@@ -56697,7 +56697,7 @@
       </c>
       <c r="K843" t="inlineStr">
         <is>
-          <t>2026-02-27T07:00:58+09:00</t>
+          <t>2026-02-27T14:07:34+09:00</t>
         </is>
       </c>
       <c r="L843" t="inlineStr">
@@ -56707,7 +56707,7 @@
       </c>
       <c r="M843" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
     </row>
@@ -56764,7 +56764,7 @@
       </c>
       <c r="K844" t="inlineStr">
         <is>
-          <t>2026-02-27T07:01:00+09:00</t>
+          <t>2026-02-27T14:07:36+09:00</t>
         </is>
       </c>
       <c r="L844" t="inlineStr">
@@ -56774,7 +56774,7 @@
       </c>
       <c r="M844" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
     </row>
@@ -56831,7 +56831,7 @@
       </c>
       <c r="K845" t="inlineStr">
         <is>
-          <t>2026-02-27T07:01:03+09:00</t>
+          <t>2026-02-27T14:07:38+09:00</t>
         </is>
       </c>
       <c r="L845" t="inlineStr">
@@ -56841,7 +56841,7 @@
       </c>
       <c r="M845" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
     </row>
@@ -56898,7 +56898,7 @@
       </c>
       <c r="K846" t="inlineStr">
         <is>
-          <t>2026-02-27T07:01:17+09:00</t>
+          <t>2026-02-27T14:07:52+09:00</t>
         </is>
       </c>
       <c r="L846" t="inlineStr">
@@ -56908,7 +56908,7 @@
       </c>
       <c r="M846" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
     </row>
@@ -56965,7 +56965,7 @@
       </c>
       <c r="K847" t="inlineStr">
         <is>
-          <t>2026-02-27T07:01:23+09:00</t>
+          <t>2026-02-27T14:07:58+09:00</t>
         </is>
       </c>
       <c r="L847" t="inlineStr">
@@ -56975,7 +56975,7 @@
       </c>
       <c r="M847" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
     </row>
@@ -57032,7 +57032,7 @@
       </c>
       <c r="K848" t="inlineStr">
         <is>
-          <t>2026-02-27T07:01:23+09:00</t>
+          <t>2026-02-27T14:07:58+09:00</t>
         </is>
       </c>
       <c r="L848" t="inlineStr">
@@ -57042,7 +57042,7 @@
       </c>
       <c r="M848" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
     </row>
@@ -57099,7 +57099,7 @@
       </c>
       <c r="K849" t="inlineStr">
         <is>
-          <t>2026-02-27T07:01:25+09:00</t>
+          <t>2026-02-27T14:08:00+09:00</t>
         </is>
       </c>
       <c r="L849" t="inlineStr">
@@ -57109,7 +57109,74 @@
       </c>
       <c r="M849" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>駿河湾 / 沼津静浦</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>幸松丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F850" t="inlineStr">
+        <is>
+          <t>2-4X 杯</t>
+        </is>
+      </c>
+      <c r="G850" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J850" t="inlineStr">
+        <is>
+          <t>3.5/3.5/3.5</t>
+        </is>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>2026-02-27T14:08:00+09:00</t>
+        </is>
+      </c>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M850" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
     </row>
@@ -57172,7 +57239,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -57209,7 +57276,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -57246,7 +57313,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -57283,7 +57350,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -57320,7 +57387,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -57357,7 +57424,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-27 07:02:37</t>
+          <t>2026-02-27 14:09:13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M850"/>
+  <dimension ref="A1:M930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57177,6 +57177,5354 @@
       <c r="M850" t="inlineStr">
         <is>
           <t>2026-02-27 14:09:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>aori</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>アオリイカ</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>きよし丸</t>
+        </is>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>0-0 杯</t>
+        </is>
+      </c>
+      <c r="G851" t="inlineStr">
+        <is>
+          <t>0-0g</t>
+        </is>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I851" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J851" t="inlineStr">
+        <is>
+          <t>3.3/3.3/3.0</t>
+        </is>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:08+09:00</t>
+        </is>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+        </is>
+      </c>
+      <c r="M851" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>aori</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>アオリイカ</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井新宿</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>辰丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>4-1X 杯</t>
+        </is>
+      </c>
+      <c r="G852" t="inlineStr">
+        <is>
+          <t>0.4X-1.9Xkg</t>
+        </is>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I852" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J852" t="inlineStr">
+        <is>
+          <t>3.6/2.6/3.1</t>
+        </is>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:08+09:00</t>
+        </is>
+      </c>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+        </is>
+      </c>
+      <c r="M852" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>内房 / 保田</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>村井丸船(12ﾄﾝ,10ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>6-2X 尾</t>
+        </is>
+      </c>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I853" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J853" t="inlineStr">
+        <is>
+          <t>4.1/3.3/3.5</t>
+        </is>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M853" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>内房 / 金谷</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>光進丸</t>
+        </is>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>2X-4X 尾</t>
+        </is>
+      </c>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J854" t="inlineStr">
+        <is>
+          <t>3.1/2.8/2.7</t>
+        </is>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M854" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>内房 / 金谷</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>勘次郎丸船(8.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F855" t="inlineStr">
+        <is>
+          <t>23-46 尾</t>
+        </is>
+      </c>
+      <c r="G855" t="inlineStr">
+        <is>
+          <t>24-40cm</t>
+        </is>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>金谷沖</t>
+        </is>
+      </c>
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J855" t="inlineStr">
+        <is>
+          <t>2.8/2.7/2.7</t>
+        </is>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M855" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>1X-5X 尾</t>
+        </is>
+      </c>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>水深20m</t>
+        </is>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J856" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M856" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 葛西橋</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>第二泉水</t>
+        </is>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>50-100 尾</t>
+        </is>
+      </c>
+      <c r="G857" t="inlineStr">
+        <is>
+          <t>16-28cm</t>
+        </is>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I857" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J857" t="inlineStr">
+        <is>
+          <t>4.2/3.9/3.8</t>
+        </is>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M857" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>横浜 / 本牧</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>長崎屋船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>40-103 尾</t>
+        </is>
+      </c>
+      <c r="G858" t="inlineStr">
+        <is>
+          <t>17-30cm</t>
+        </is>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I858" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J858" t="inlineStr">
+        <is>
+          <t>4.4/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M858" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢漁港</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>蒲谷丸船(12ﾄﾝ,4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>25-55 尾</t>
+        </is>
+      </c>
+      <c r="G859" t="inlineStr">
+        <is>
+          <t>16-27cm</t>
+        </is>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I859" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J859" t="inlineStr">
+        <is>
+          <t>4.3/3.7/4.3</t>
+        </is>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M859" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>黒川丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>3X-5X 尾</t>
+        </is>
+      </c>
+      <c r="G860" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I860" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J860" t="inlineStr">
+        <is>
+          <t>4.0/3.6/3.9</t>
+        </is>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L860" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M860" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>野毛屋釣船店船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>13-44 尾</t>
+        </is>
+      </c>
+      <c r="G861" t="inlineStr">
+        <is>
+          <t>18-25cm</t>
+        </is>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J861" t="inlineStr">
+        <is>
+          <t>3.5/3.9/4.0</t>
+        </is>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L861" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M861" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>三浦半島 / 大津</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>小川丸船(19.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F862" t="inlineStr">
+        <is>
+          <t>12-72 尾</t>
+        </is>
+      </c>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>24-38cm</t>
+        </is>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J862" t="inlineStr">
+        <is>
+          <t>3.9/4.2/3.9</t>
+        </is>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M862" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>三浦半島 / 走水</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>海福丸船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F863" t="inlineStr">
+        <is>
+          <t>23-60 尾</t>
+        </is>
+      </c>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>22-35cm</t>
+        </is>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I863" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J863" t="inlineStr">
+        <is>
+          <t>3.3/3.1/3.7</t>
+        </is>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L863" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M863" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>三浦半島 / 走水</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>吉明丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F864" t="inlineStr">
+        <is>
+          <t>4X-8X 尾</t>
+        </is>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>観音崎沖90m</t>
+        </is>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>マリネス</t>
+        </is>
+      </c>
+      <c r="J864" t="inlineStr">
+        <is>
+          <t>2.7/3.5/3.4</t>
+        </is>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L864" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M864" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>三浦半島 / 走水</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>教至丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F865" t="inlineStr">
+        <is>
+          <t>23-51 尾</t>
+        </is>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>22-40cm</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J865" t="inlineStr">
+        <is>
+          <t>1.7/2.2/1.5</t>
+        </is>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M865" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>おかだ丸</t>
+        </is>
+      </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>3X-6X 尾</t>
+        </is>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>久里浜沖</t>
+        </is>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>マリネス</t>
+        </is>
+      </c>
+      <c r="J866" t="inlineStr">
+        <is>
+          <t>2.3/2.3/3.4</t>
+        </is>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M866" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>巳之助丸</t>
+        </is>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>30-73 尾</t>
+        </is>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>22-36cm</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>久里浜沖</t>
+        </is>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J867" t="inlineStr">
+        <is>
+          <t>3.0/3.3/3.2</t>
+        </is>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M867" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>33-75 尾</t>
+        </is>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>24-32cm</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J868" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:11+09:00</t>
+        </is>
+      </c>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M868" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>5 尾</t>
+        </is>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>26-34cm</t>
+        </is>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>水深90m</t>
+        </is>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J869" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:12+09:00</t>
+        </is>
+      </c>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M869" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山芝崎</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>五エム丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>5-6 尾</t>
+        </is>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>20-35cm</t>
+        </is>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J870" t="inlineStr">
+        <is>
+          <t>3.5/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:12+09:00</t>
+        </is>
+      </c>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M870" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>島きち丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>2-1X 尾</t>
+        </is>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J871" t="inlineStr">
+        <is>
+          <t>3.6/3.7/3.7</t>
+        </is>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:12+09:00</t>
+        </is>
+      </c>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M871" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>まごうの丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>0-7 尾</t>
+        </is>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>20-45cm</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J872" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.5</t>
+        </is>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:12+09:00</t>
+        </is>
+      </c>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M872" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>かりゆし丸船(6.6ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>X-6 尾</t>
+        </is>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J873" t="inlineStr">
+        <is>
+          <t>4.6/3.4/4.0</t>
+        </is>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:12+09:00</t>
+        </is>
+      </c>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M873" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>0-9 尾</t>
+        </is>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>20-50cm</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J874" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:12+09:00</t>
+        </is>
+      </c>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M874" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>ara</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>アラ</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>相模湾 / 大磯</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>とうふや丸</t>
+        </is>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>X-8 尾</t>
+        </is>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:13+09:00</t>
+        </is>
+      </c>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=ara</t>
+        </is>
+      </c>
+      <c r="M875" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>ika</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>イカ</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>X-7 杯</t>
+        </is>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>0.2-0.6kg</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>水深90m40m</t>
+        </is>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J876" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:14+09:00</t>
+        </is>
+      </c>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=ika</t>
+        </is>
+      </c>
+      <c r="M876" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>isaki</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>イサキ</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>内房 / 保田</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>村井丸船(12ﾄﾝ,10ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>9-4X 尾</t>
+        </is>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>4.1/3.3/3.5</t>
+        </is>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:15+09:00</t>
+        </is>
+      </c>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=isaki</t>
+        </is>
+      </c>
+      <c r="M877" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>inada</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>イナダ</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>池田丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>9-1X 尾</t>
+        </is>
+      </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>4X-6Xcm</t>
+        </is>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J878" t="inlineStr">
+        <is>
+          <t>1.9/2.4/2.4</t>
+        </is>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:17+09:00</t>
+        </is>
+      </c>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
+        </is>
+      </c>
+      <c r="M878" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>onikasago</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>オニカサゴ</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>1-6 尾</t>
+        </is>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>0.4-1.2kg</t>
+        </is>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J879" t="inlineStr">
+        <is>
+          <t>4.3/4.2/4.3</t>
+        </is>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:18+09:00</t>
+        </is>
+      </c>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
+        </is>
+      </c>
+      <c r="M879" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>kasago</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>カサゴ</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>1X-2X 尾</t>
+        </is>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>水深20m30m</t>
+        </is>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J880" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:19+09:00</t>
+        </is>
+      </c>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kasago</t>
+        </is>
+      </c>
+      <c r="M880" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>kasago</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>カサゴ</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>新修丸</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>2X-4X 尾</t>
+        </is>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J881" t="inlineStr">
+        <is>
+          <t>4.7/3.7/4.6</t>
+        </is>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:19+09:00</t>
+        </is>
+      </c>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kasago</t>
+        </is>
+      </c>
+      <c r="M881" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>karei</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>カレイ</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 行徳</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>林遊船船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>X-4 枚</t>
+        </is>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J882" t="inlineStr">
+        <is>
+          <t>4.2/3.4/4.1</t>
+        </is>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:19+09:00</t>
+        </is>
+      </c>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=karei</t>
+        </is>
+      </c>
+      <c r="M882" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>南房 / 洲崎</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>早川丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J883" t="inlineStr">
+        <is>
+          <t>2.6/3.7/3.1</t>
+        </is>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:21+09:00</t>
+        </is>
+      </c>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M883" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>宝生丸船(11ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>5-1X 尾</t>
+        </is>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J884" t="inlineStr">
+        <is>
+          <t>2.8/3.3/2.9</t>
+        </is>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:21+09:00</t>
+        </is>
+      </c>
+      <c r="L884" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M884" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>内房 / 金谷</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>光進丸</t>
+        </is>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>1-1X 尾</t>
+        </is>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J885" t="inlineStr">
+        <is>
+          <t>3.1/2.8/2.7</t>
+        </is>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:21+09:00</t>
+        </is>
+      </c>
+      <c r="L885" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M885" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>3-8 尾</t>
+        </is>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>17-28cm</t>
+        </is>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>水深90m40m下浦・久里浜沖20-30m</t>
+        </is>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J886" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:21+09:00</t>
+        </is>
+      </c>
+      <c r="L886" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M886" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>島きち丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J887" t="inlineStr">
+        <is>
+          <t>3.6/3.7/3.7</t>
+        </is>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:21+09:00</t>
+        </is>
+      </c>
+      <c r="L887" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M887" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>kinme</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>キンメ</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>三浦半島 / 小坪</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>太郎丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>1-12 尾</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>28-40cm</t>
+        </is>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I888" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J888" t="inlineStr">
+        <is>
+          <t>3.9/4.6/4.1</t>
+        </is>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:21+09:00</t>
+        </is>
+      </c>
+      <c r="L888" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+        </is>
+      </c>
+      <c r="M888" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>kinme</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>キンメ</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>平安丸</t>
+        </is>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>2X-3X 尾</t>
+        </is>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J889" t="inlineStr">
+        <is>
+          <t>4.3/3.8/3.8</t>
+        </is>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:21+09:00</t>
+        </is>
+      </c>
+      <c r="L889" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+        </is>
+      </c>
+      <c r="M889" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>kinme</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>キンメ</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>東伊豆 / 宇佐美</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>二階屋丸船(4.8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>1-1X 尾</t>
+        </is>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J890" t="inlineStr">
+        <is>
+          <t>4.0/3.5/3.7</t>
+        </is>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:21+09:00</t>
+        </is>
+      </c>
+      <c r="L890" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+        </is>
+      </c>
+      <c r="M890" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>seabuss</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>シーバス</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>横浜 / 本牧</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>長崎屋船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>1-12 尾</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>36-58cm</t>
+        </is>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>木更津沖</t>
+        </is>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J891" t="inlineStr">
+        <is>
+          <t>4.4/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:25+09:00</t>
+        </is>
+      </c>
+      <c r="L891" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
+        </is>
+      </c>
+      <c r="M891" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>fugu</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>ショウサイフグ</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>野毛屋釣船店船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>0-14 尾</t>
+        </is>
+      </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>21-45cm</t>
+        </is>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J892" t="inlineStr">
+        <is>
+          <t>3.5/3.9/4.0</t>
+        </is>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:26+09:00</t>
+        </is>
+      </c>
+      <c r="L892" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+        </is>
+      </c>
+      <c r="M892" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>simaaji</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>シマアジ</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>駿河湾 / 御前崎</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>増福丸船(7.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>6-1X 尾</t>
+        </is>
+      </c>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:26+09:00</t>
+        </is>
+      </c>
+      <c r="L893" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=simaaji</t>
+        </is>
+      </c>
+      <c r="M893" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>kisu</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>シロギス</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 羽田</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>かめだや船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>1X-7X 尾</t>
+        </is>
+      </c>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I894" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J894" t="inlineStr">
+        <is>
+          <t>3.3/3.3/3.9</t>
+        </is>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:27+09:00</t>
+        </is>
+      </c>
+      <c r="L894" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+        </is>
+      </c>
+      <c r="M894" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>kisu</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>シロギス</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>横浜 / 本牧</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>長崎屋船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>44-154 尾</t>
+        </is>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>14-23cm</t>
+        </is>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>木更津沖</t>
+        </is>
+      </c>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J895" t="inlineStr">
+        <is>
+          <t>4.4/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:27+09:00</t>
+        </is>
+      </c>
+      <c r="L895" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+        </is>
+      </c>
+      <c r="M895" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>sumiika</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>スミイカ</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>X-7 杯</t>
+        </is>
+      </c>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>0.2X-0.6Xkg</t>
+        </is>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>水深90m40m下浦・久里浜沖20-30m40m</t>
+        </is>
+      </c>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>関東沖釣り情報</t>
+        </is>
+      </c>
+      <c r="J896" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:28+09:00</t>
+        </is>
+      </c>
+      <c r="L896" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=sumiika</t>
+        </is>
+      </c>
+      <c r="M896" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>3-20 杯</t>
+        </is>
+      </c>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>25-40cm</t>
+        </is>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I897" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J897" t="inlineStr">
+        <is>
+          <t>4.3/4.2/4.3</t>
+        </is>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:29+09:00</t>
+        </is>
+      </c>
+      <c r="L897" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M897" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>利八丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>6-2X 杯</t>
+        </is>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>3X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J898" t="inlineStr">
+        <is>
+          <t>2.5/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:29+09:00</t>
+        </is>
+      </c>
+      <c r="L898" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M898" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>はら丸</t>
+        </is>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>9-14 杯</t>
+        </is>
+      </c>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>25-38cm</t>
+        </is>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I899" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J899" t="inlineStr">
+        <is>
+          <t>3.7/2.6/3.8</t>
+        </is>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:29+09:00</t>
+        </is>
+      </c>
+      <c r="L899" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M899" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井漆山</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>光三丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>X-7 杯</t>
+        </is>
+      </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J900" t="inlineStr">
+        <is>
+          <t>2.8/3.7/3.6</t>
+        </is>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:29+09:00</t>
+        </is>
+      </c>
+      <c r="L900" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M900" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>長三朗丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>9-40 杯</t>
+        </is>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>20-45cm</t>
+        </is>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J901" t="inlineStr">
+        <is>
+          <t>3.5/3.3/3.6</t>
+        </is>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:29+09:00</t>
+        </is>
+      </c>
+      <c r="L901" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M901" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>飯岡丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>1-5 杯</t>
+        </is>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>26-33cm</t>
+        </is>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>水深165-190m</t>
+        </is>
+      </c>
+      <c r="I902" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J902" t="inlineStr">
+        <is>
+          <t>4.1/3.5/4.3</t>
+        </is>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:29+09:00</t>
+        </is>
+      </c>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M902" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>X-5 本</t>
+        </is>
+      </c>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>80-10Xcm</t>
+        </is>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>水深20m30m30m</t>
+        </is>
+      </c>
+      <c r="I903" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J903" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:30+09:00</t>
+        </is>
+      </c>
+      <c r="L903" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M903" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>吉久船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>6-15 本</t>
+        </is>
+      </c>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>75-113cm</t>
+        </is>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>本牧沖40m</t>
+        </is>
+      </c>
+      <c r="I904" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J904" t="inlineStr">
+        <is>
+          <t>3.2/3.4/3.6</t>
+        </is>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:30+09:00</t>
+        </is>
+      </c>
+      <c r="L904" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M904" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>横浜 / 川崎</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>中山丸</t>
+        </is>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>2-16 本</t>
+        </is>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>85-115cm</t>
+        </is>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I905" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J905" t="inlineStr">
+        <is>
+          <t>4.7/4.5/4.8</t>
+        </is>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:30+09:00</t>
+        </is>
+      </c>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M905" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>2-19 本</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>75-118cm</t>
+        </is>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I906" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J906" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:30+09:00</t>
+        </is>
+      </c>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M906" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>石川丸</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>1-4 本</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>70-108cm</t>
+        </is>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I907" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J907" t="inlineStr">
+        <is>
+          <t>3.1/3.3/3.4</t>
+        </is>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:30+09:00</t>
+        </is>
+      </c>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M907" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>利八丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>0.6X-1.1Xkg</t>
+        </is>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I908" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J908" t="inlineStr">
+        <is>
+          <t>2.5/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:31+09:00</t>
+        </is>
+      </c>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M908" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>X-1 尾</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>0.3-1kg</t>
+        </is>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>水深20m30m30m80m</t>
+        </is>
+      </c>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J909" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:31+09:00</t>
+        </is>
+      </c>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M909" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>吉久船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>26-41cm</t>
+        </is>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>本牧沖40m30m</t>
+        </is>
+      </c>
+      <c r="I910" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J910" t="inlineStr">
+        <is>
+          <t>3.2/3.4/3.6</t>
+        </is>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:31+09:00</t>
+        </is>
+      </c>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M910" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 羽田</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>えさ政釣船店</t>
+        </is>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>0.3-0.8kg</t>
+        </is>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I911" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J911" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:31+09:00</t>
+        </is>
+      </c>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M911" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>横浜 / 川崎</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>中山丸</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>0.7-1.5kg</t>
+        </is>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I912" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J912" t="inlineStr">
+        <is>
+          <t>4.7/4.5/4.8</t>
+        </is>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:31+09:00</t>
+        </is>
+      </c>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M912" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>magoti</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>マゴチ</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>X-8 尾</t>
+        </is>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>3X-6X.5cm</t>
+        </is>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I913" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J913" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:36+09:00</t>
+        </is>
+      </c>
+      <c r="L913" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=magoti</t>
+        </is>
+      </c>
+      <c r="M913" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>せどおと丸船(7.9ﾄﾝ,7.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>X-8 尾</t>
+        </is>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>0.5X-3.0Xkg</t>
+        </is>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I914" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J914" t="inlineStr">
+        <is>
+          <t>4.4/3.6/4.0</t>
+        </is>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:37+09:00</t>
+        </is>
+      </c>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M914" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>大松丸船(19.9ﾄﾝ,19.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>0.8X-1.8Xkg</t>
+        </is>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I915" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J915" t="inlineStr">
+        <is>
+          <t>3.7/4.2/3.8</t>
+        </is>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:37+09:00</t>
+        </is>
+      </c>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M915" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>あまさけや丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>1-3 尾</t>
+        </is>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>0.8-1kg</t>
+        </is>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I916" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J916" t="inlineStr">
+        <is>
+          <t>4.1/3.2/4.1</t>
+        </is>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:37+09:00</t>
+        </is>
+      </c>
+      <c r="L916" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M916" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>伝五郎丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>0.6X-1.7Xkg</t>
+        </is>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I917" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J917" t="inlineStr">
+        <is>
+          <t>3.4/3.5/2.7</t>
+        </is>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:37+09:00</t>
+        </is>
+      </c>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M917" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>成銀丸船(19.9ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>1-1X 尾</t>
+        </is>
+      </c>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>0.5X-5.2Xkg</t>
+        </is>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I918" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J918" t="inlineStr">
+        <is>
+          <t>2.9/3.9/2.6</t>
+        </is>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:37+09:00</t>
+        </is>
+      </c>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M918" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>正海丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>0.7X-1.8Xkg</t>
+        </is>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I919" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:37+09:00</t>
+        </is>
+      </c>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M919" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>駿河湾 / 田子の浦</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>隆眞丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>1-2 尾</t>
+        </is>
+      </c>
+      <c r="G920" t="inlineStr">
+        <is>
+          <t>1.2-3.1kg</t>
+        </is>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I920" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J920" t="inlineStr">
+        <is>
+          <t>4.6/4.2/4.6</t>
+        </is>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:37+09:00</t>
+        </is>
+      </c>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M920" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>madako</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>マダコ</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>茨城 / 那珂湊</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>つれたか丸</t>
+        </is>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>X-4 杯</t>
+        </is>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>1.0X-4.3Xkg</t>
+        </is>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I921" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J921" t="inlineStr">
+        <is>
+          <t>1.9/1.7/2.0</t>
+        </is>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:38+09:00</t>
+        </is>
+      </c>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madako</t>
+        </is>
+      </c>
+      <c r="M921" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>山天丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>1-1X 杯</t>
+        </is>
+      </c>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I922" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J922" t="inlineStr">
+        <is>
+          <t>3.5/3.7/3.9</t>
+        </is>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:40+09:00</t>
+        </is>
+      </c>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M922" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎間口</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>喜平治丸</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>1X-3X 杯</t>
+        </is>
+      </c>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J923" t="inlineStr">
+        <is>
+          <t>3.9/4.5/4.3</t>
+        </is>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:40+09:00</t>
+        </is>
+      </c>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M923" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山芝崎</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>五エム丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>3-26 杯</t>
+        </is>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>17-28cm</t>
+        </is>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J924" t="inlineStr">
+        <is>
+          <t>3.5/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:40+09:00</t>
+        </is>
+      </c>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M924" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>長三朗丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>1-14 杯</t>
+        </is>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>14-28cm</t>
+        </is>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J925" t="inlineStr">
+        <is>
+          <t>3.5/3.3/3.6</t>
+        </is>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:40+09:00</t>
+        </is>
+      </c>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M925" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>多希志丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>1-2X 杯</t>
+        </is>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I926" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J926" t="inlineStr">
+        <is>
+          <t>3.6/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:40+09:00</t>
+        </is>
+      </c>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M926" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>5-41 杯</t>
+        </is>
+      </c>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>18-29cm</t>
+        </is>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J927" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:40+09:00</t>
+        </is>
+      </c>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M927" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>mongou</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>モンゴウイカ</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>吉久船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>0-1 杯</t>
+        </is>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>1.1kg</t>
+        </is>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>本牧沖40m30m竹岡沖25m</t>
+        </is>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J928" t="inlineStr">
+        <is>
+          <t>3.2/3.4/3.6</t>
+        </is>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:43+09:00</t>
+        </is>
+      </c>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mongou</t>
+        </is>
+      </c>
+      <c r="M928" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>外房 / 勝浦</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>勝丸船(10ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>8-2X 杯</t>
+        </is>
+      </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J929" t="inlineStr">
+        <is>
+          <t>4.0/3.3/4.1</t>
+        </is>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>2026-02-27T20:59:44+09:00</t>
+        </is>
+      </c>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M929" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>kanko</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>カンコ</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井漆山</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>長助丸船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>1.5X-4.0Xkg</t>
+        </is>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J930" t="inlineStr">
+        <is>
+          <t>4.6/2.9/4.6</t>
+        </is>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>2026-02-27T21:00:09+09:00</t>
+        </is>
+      </c>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kanko</t>
+        </is>
+      </c>
+      <c r="M930" t="inlineStr">
+        <is>
+          <t>2026-02-27 21:00:54</t>
         </is>
       </c>
     </row>
@@ -57191,7 +62539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57239,59 +62587,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-27 14:09:13</t>
+          <t>2026-02-27 21:00:54</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/26(木)</t>
+          <t>2/27(金)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>休船</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>2～13本</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大110cm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖30m前後</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>本日は予報悪く出船中止とさせて頂きました！ ･･･明日2/27(金)・明後日2/28(土)・3/1(日)はタチウオを狙い出船します！　＊明日は好転を期待し、少人数ながら出船確定です！ ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
+          <t>終日、横浜沖周辺30m前後を狙い、まとまった反応は少なかったが、広範囲に点々と反応が有り拾い釣り！終始、難易度は高かったが適当にアタリ続き、掛け損じ・バラシ数回有りましたが、良型中心にメーター超級交えポツリ・ポツリと型見れました！　･･･トップ13本は最大104cmGET!で木更津市の原様。　2番手10本は最大107cmGET!で千葉市の林様。　3番手9本は本日最大110cmGET!で君津市の高辻様でした！　その他の方は2～8本GET!(8本は本日最大110cmGET!で足立区の箕輪様)。　皆さん最後まで頑張ってくれました！お客様全員GET!でお土産確保！お疲れ様でした！ ･･･明日2/28(土)・明後日3/1(日)はタチウオを狙い出船します！　＊明日はお客様揃い次第出船確定とさせて頂きます！　明後日は少人数ながら出船確定です！空席多数です！  ･･･手強いタチウオですが、魚の機嫌と釣り方合えば量産可能です！魚は沢山居ます！ご予約お待ちしています！ ＊仕掛け・タックルは万全な態勢で臨んで下さい！ ＊仕掛けの予備(仕掛け・テンビン・オモリ)は多めに用意！ ･･･防寒対策は万全に！  ＊新乗船場からの出船となります！ご予約時に確認をお願いします！ ＊ 新乗船場は富津漁港の東側岸壁になります！  ＊ 駐車場は東側岸壁入口の脇に有ります！ ＊　駐車場には反射トラロープで58台分の駐車スペースを作って有りますので、スペースに沿ってお好きな所に駐車して下さい！ 尚、駐車スペース以外は絶対に駐車しないようお願い致します！ ＊乗船場は駐車場より約150m程奥に進んで下さい！船が見えます！ 乗船受付は乗船場前の軽トラックにて行いますので宜しくお願いします！</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-27 14:09:13</t>
+          <t>2026-02-27 21:00:54</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/25(水)</t>
+          <t>2/26(木)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>型程度</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -57301,24 +62649,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>航路内外50～80m前後</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>連日、横浜周辺に反応は出ていましたが、悪天のせいか？長時間の反応捜索も反応見当たらず･･･その後、沖上がりまで航路内外50～80m前後を狙いアタリ数乏しく＆アタリの出は今ひとつで型程度に終わりました！悪天で早めの沖上がりとなりました！冷たい雨・風の中、皆さんお疲れ様でした！リベンジお待ちしています！</t>
+          <t>本日は予報悪く出船中止とさせて頂きました！</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-27 14:09:13</t>
+          <t>2026-02-27 21:00:54</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2/24(火)</t>
+          <t>2/25(水)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -57328,108 +62676,108 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1～8本</t>
+          <t>型程度</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>最大109cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>横浜沖40m前後</t>
+          <t>航路内外50～80m前後</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40m前後を狙い、強風後でしたが所々で反応を確認出来ました！終始、相変わらずの手強さですが、所々でアタリ出て難易度高く針掛かりまでは難しかったが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は一宮町の佐藤様。　他、スソの方お一人(1本ながらも108cmGET!)・その他の方は2～6本GET!(6本は本日最大109cmGET!で鴻巣市の室田様)。　ハマった方は居ませんでしたが皆さん健闘し、お土産確保！</t>
+          <t>連日、横浜周辺に反応は出ていましたが、悪天のせいか？長時間の反応捜索も反応見当たらず･･･その後、沖上がりまで航路内外50～80m前後を狙いアタリ数乏しく＆アタリの出は今ひとつで型程度に終わりました！悪天で早めの沖上がりとなりました！冷たい雨・風の中、皆さんお疲れ様でした！リベンジお待ちしています！</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-27 14:09:13</t>
+          <t>2026-02-27 21:00:54</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2/23(月)</t>
+          <t>2/24(火)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>休船</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>1～8本</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大109cm</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖40m前後</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>本日は予報悪くお休みとさせて頂きました！</t>
+          <t>終日、横浜沖周辺40m前後を狙い、強風後でしたが所々で反応を確認出来ました！終始、相変わらずの手強さですが、所々でアタリ出て難易度高く針掛かりまでは難しかったが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は一宮町の佐藤様。　他、スソの方お一人(1本ながらも108cmGET!)・その他の方は2～6本GET!(6本は本日最大109cmGET!で鴻巣市の室田様)。　ハマった方は居ませんでしたが皆さん健闘し、お土産確保！</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-27 14:09:13</t>
+          <t>2026-02-27 21:00:54</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2/22(日)</t>
+          <t>2/23(月)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2～8本</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>最大121cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>横浜沖40～45m</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
+          <t>本日は予報悪くお休みとさせて頂きました！</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-27 14:09:13</t>
+          <t>2026-02-27 21:00:54</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2/21(土)</t>
+          <t>2/22(日)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -57439,12 +62787,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2～7本</t>
+          <t>2～8本</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>最大113cm</t>
+          <t>最大121cm</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -57454,61 +62802,61 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
+          <t>終日、横浜沖周辺40～45ｍラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、所々でアタリは出ましたが、難易度高く続けて釣り上げた方は居ませんでしたが皆さん健闘し、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ8本は最大112cmGET!で千葉市の金子様と君津市の高辻様のお二人。　他、スソの方4人・その他の方は3～7本GET!(7本は本日最大121cmGET!は木更津市の原様と最大112cmGET!で市川市の西川様と習志野市の清水様と足立区の箕輪様の4人)。　トラフグGET!の方も･･･　お客様全員GET!で皆さんお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-25 14:20:48</t>
+          <t>2026-02-27 21:00:54</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2/20(金)</t>
+          <t>2/21(土)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>定休日</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>2～7本</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大113cm</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>横浜沖40～45m</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>本日は定休日でお休みでした！</t>
+          <t>終日、横浜沖周辺40～45mラインを狙い広範囲に反応が有り、反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、適当にアタリは出ましたが、難易度高く掛け損じ・バラシも有り思いのほか数伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･トップ7本は本日最大113cmGET!は君津市の佐々木様と船橋市の萩本様のお二人。　他、スソの方お二人・その他の方は3～6本GET!(6本は初挑戦で最大107cmGET!で市川市の渋谷様・大健闘！)。　皆さん健闘し、お客様全員GET!でお土産確保！お疲れ様でした！</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-24 14:17:12</t>
+          <t>2026-02-25 14:20:48</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2/19(木)</t>
+          <t>2/20(金)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>臨時休業</t>
+          <t>定休日</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -57528,81 +62876,81 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>本日は都合によりお休みとさせて頂きました！</t>
+          <t>本日は定休日でお休みでした！</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-23 06:54:26</t>
+          <t>2026-02-24 14:17:12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2/18(水)</t>
+          <t>2/19(木)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>臨時休業</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>型程度</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>最大114cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>航路内～横浜沖40～80m前後</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>朝一、航路内80mラインを一流し！アタリ遠く早々大きく移動！　その後は沖上がりまで横浜沖周辺40m前後を狙いました！終始、所々で反応に乗り大流し＆拾い釣り！魚の機嫌が悪いのか？アタリの出は今ひとつ！間が空きながらもアタリは出ましたが、数伸び悩み型程度に終わり先日に続き、お客様お一人が残念ながら型見れず･･･ごめんなさい！魚は居るけど、厳しい一日になりました！皆さんお疲れ様＆リベンジお待ちしています！</t>
+          <t>本日は都合によりお休みとさせて頂きました！</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-22 15:07:14</t>
+          <t>2026-02-23 06:54:26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2/17(火)</t>
+          <t>2/18(水)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>休船</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>型程度</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>最大114cm</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>・</t>
+          <t>航路内～横浜沖40～80m前後</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>本日はお客様揃わずお休みでした！</t>
+          <t>朝一、航路内80mラインを一流し！アタリ遠く早々大きく移動！　その後は沖上がりまで横浜沖周辺40m前後を狙いました！終始、所々で反応に乗り大流し＆拾い釣り！魚の機嫌が悪いのか？アタリの出は今ひとつ！間が空きながらもアタリは出ましたが、数伸び悩み型程度に終わり先日に続き、お客様お一人が残念ながら型見れず･･･ごめんなさい！魚は居るけど、厳しい一日になりました！皆さんお疲れ様＆リベンジお待ちしています！</t>
         </is>
       </c>
     </row>
@@ -57614,32 +62962,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2/16(月)</t>
+          <t>2/17(火)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>休船</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0～3本</t>
+          <t>・</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>最大106cm</t>
+          <t>・</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>横浜沖45m前後</t>
+          <t>・</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>終日、横浜沖周辺45m前後を狙い、広範囲に反応は有るものの、まとまった反応が少なく･･･終始、拾い釣りで100cm前後主体に型見れましたが、活性低くアタリが出ても難易度高く掛け損じ目立ち思いのほか数伸び悩み苦戦でした！魚の気配は有るけど活性上がらず･･･　お客様全員にアタリは出ましたが残念ながらバラシに終わったお客様お一人が型見れず･･･惜しかったです！リベンジお待ちしています！　その他の方は数こそ伸び悩みましたが、2～3本と平均に釣れました！　寒さの中、最後まで頑張ってくれました！お疲れ様＆リベンジお待ちしています！</t>
+          <t>本日はお客様揃わずお休みでした！</t>
         </is>
       </c>
     </row>
@@ -57651,7 +62999,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2/15(日)</t>
+          <t>2/16(月)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -57661,22 +63009,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0～5本</t>
+          <t>0～3本</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>最大109cm</t>
+          <t>最大106cm</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>横浜沖40～45m前後</t>
+          <t>横浜沖45m前後</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>終日、凪を見せ、横浜沖周辺40～45m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！　前半は所々でアタリが出て単発ながらも、中・良型中心にメーター超級交え型見れましたが･･･後半は魚の機嫌が悪いのか？アタリの出は今ひとつ！数伸び悩み苦戦でした！　･･･皆さん健闘し、トップ5本が3人。　残念ながらオデコの方お一人出てしまい、その他の方は1～4本GET!(4本の方お二人)。　本日最大109cmGET!は木更津市の宮田様。　皆さん最後まで頑張ってくれました！</t>
+          <t>終日、横浜沖周辺45m前後を狙い、広範囲に反応は有るものの、まとまった反応が少なく･･･終始、拾い釣りで100cm前後主体に型見れましたが、活性低くアタリが出ても難易度高く掛け損じ目立ち思いのほか数伸び悩み苦戦でした！魚の気配は有るけど活性上がらず･･･　お客様全員にアタリは出ましたが残念ながらバラシに終わったお客様お一人が型見れず･･･惜しかったです！リベンジお待ちしています！　その他の方は数こそ伸び悩みましたが、2～3本と平均に釣れました！　寒さの中、最後まで頑張ってくれました！お疲れ様＆リベンジお待ちしています！</t>
         </is>
       </c>
     </row>
@@ -57688,7 +63036,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2/14(土)</t>
+          <t>2/15(日)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -57698,22 +63046,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2～11本</t>
+          <t>0～5本</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>最大110cm</t>
+          <t>最大109cm</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>横浜沖40m前後</t>
+          <t>横浜沖40～45m前後</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>終日、凪を見せ、横浜沖40m前後を狙い、広範囲に反応が有り！手強いタチウオ！終始、反応に乗り大流し＆拾い釣り！適当にアタリは出ていましたが、難易度高くハリス切れ数回・掛け損じ・バラシ目立ち、思いのほか数こそ伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･ハマった方は居ませんでしたが皆さん健闘し、トップ11本は市原市の不破様。　他、スソの方お二人・その他の方は3～10本GET!(10本は牛久市の張替様)。　昨日に続き本日最大110cmの方が数人いらっしゃいました！　6本以上の方目立つ！　厳しい寒さの中、最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
+          <t>終日、凪を見せ、横浜沖周辺40～45m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！　前半は所々でアタリが出て単発ながらも、中・良型中心にメーター超級交え型見れましたが･･･後半は魚の機嫌が悪いのか？アタリの出は今ひとつ！数伸び悩み苦戦でした！　･･･皆さん健闘し、トップ5本が3人。　残念ながらオデコの方お一人出てしまい、その他の方は1～4本GET!(4本の方お二人)。　本日最大109cmGET!は木更津市の宮田様。　皆さん最後まで頑張ってくれました！</t>
         </is>
       </c>
     </row>
@@ -57725,30 +63073,67 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2/14(土)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2～11本</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>最大110cm</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>横浜沖40m前後</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>終日、凪を見せ、横浜沖40m前後を狙い、広範囲に反応が有り！手強いタチウオ！終始、反応に乗り大流し＆拾い釣り！適当にアタリは出ていましたが、難易度高くハリス切れ数回・掛け損じ・バラシ目立ち、思いのほか数こそ伸び悩みましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　･･･ハマった方は居ませんでしたが皆さん健闘し、トップ11本は市原市の不破様。　他、スソの方お二人・その他の方は3～10本GET!(10本は牛久市の張替様)。　昨日に続き本日最大110cmの方が数人いらっしゃいました！　6本以上の方目立つ！　厳しい寒さの中、最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-02-22 15:07:14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>2/13(金)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>タチウオ</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>2～13本</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>最大110cm</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>横浜沖40m前後</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>終日、横浜沖40m前後を狙い広範囲に反応が有り反応に乗り大流し＆拾い釣り！手強いタチウオ！終始、難易度高くアタリを出せる方とそうでない方・打率の良い方・そうでない方で釣果に差が出ましたが、中・良型中心にメーター超級交えお客様全員が型見れました！　ハリス切れ・掛け損じ・バラシ有り！　･･･トップ13本は本日最大110cmGET!で木更津市の永橋様。　他、スソの方お一人・その他の方は3～12本GET!(12本は千葉市の元井様)。　本日最大110cmGET!の方が数人いらっしゃいました！　7本以上の方目立つ！　厳しい寒さの中、皆さん最後まで頑張ってくれました！お客様全員GET!でお土産確保！</t>
         </is>

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M930"/>
+  <dimension ref="A1:M986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57188,37 +57188,37 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>aori</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>アオリイカ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>三浦半島 / 鴨居</t>
+          <t>東京湾奥 / 浦安</t>
         </is>
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>きよし丸</t>
+          <t>吉野屋船(8ﾄﾝ)</t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>0-0 杯</t>
+          <t>1X-5X 尾</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
         <is>
-          <t>0-0g</t>
+          <t>1X-2Xcm</t>
         </is>
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深20m</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -57228,17 +57228,17 @@
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>3.3/3.3/3.0</t>
+          <t>4.0/4.2/4.0</t>
         </is>
       </c>
       <c r="K851" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:08+09:00</t>
+          <t>2026-02-27T20:59:11+09:00</t>
         </is>
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M851" t="inlineStr">
@@ -57255,32 +57255,32 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>aori</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>アオリイカ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t>三浦半島 / 長井新宿</t>
+          <t>横浜 / 金沢漁港</t>
         </is>
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t>辰丸船(14ﾄﾝ)</t>
+          <t>蒲谷丸船(12ﾄﾝ,4.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>4-1X 杯</t>
+          <t>25-55 尾</t>
         </is>
       </c>
       <c r="G852" t="inlineStr">
         <is>
-          <t>0.4X-1.9Xkg</t>
+          <t>16-27cm</t>
         </is>
       </c>
       <c r="H852" t="inlineStr">
@@ -57290,22 +57290,22 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>3.6/2.6/3.1</t>
+          <t>4.3/3.7/4.3</t>
         </is>
       </c>
       <c r="K852" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:08+09:00</t>
+          <t>2026-02-27T20:59:11+09:00</t>
         </is>
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M852" t="inlineStr">
@@ -57332,22 +57332,22 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>内房 / 保田</t>
+          <t>三浦半島 / 大津</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t>村井丸船(12ﾄﾝ,10ﾄﾝ)</t>
+          <t>小川丸船(19.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>6-2X 尾</t>
+          <t>12-72 尾</t>
         </is>
       </c>
       <c r="G853" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>24-38cm</t>
         </is>
       </c>
       <c r="H853" t="inlineStr">
@@ -57362,7 +57362,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>4.1/3.3/3.5</t>
+          <t>3.9/4.2/3.9</t>
         </is>
       </c>
       <c r="K853" t="inlineStr">
@@ -57399,17 +57399,17 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>内房 / 金谷</t>
+          <t>三浦半島 / 走水</t>
         </is>
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t>光進丸</t>
+          <t>吉明丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>2X-4X 尾</t>
+          <t>4X-8X 尾</t>
         </is>
       </c>
       <c r="G854" t="inlineStr">
@@ -57419,17 +57419,17 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>観音崎沖90m</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>マリネス</t>
         </is>
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>3.1/2.8/2.7</t>
+          <t>2.7/3.5/3.4</t>
         </is>
       </c>
       <c r="K854" t="inlineStr">
@@ -57466,37 +57466,37 @@
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t>内房 / 金谷</t>
+          <t>三浦半島 / 鴨居</t>
         </is>
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t>勘次郎丸船(8.5ﾄﾝ)</t>
+          <t>おかだ丸</t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>23-46 尾</t>
+          <t>3X-6X 尾</t>
         </is>
       </c>
       <c r="G855" t="inlineStr">
         <is>
-          <t>24-40cm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>金谷沖</t>
+          <t>久里浜沖</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>マリネス</t>
         </is>
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>2.8/2.7/2.7</t>
+          <t>2.3/2.3/3.4</t>
         </is>
       </c>
       <c r="K855" t="inlineStr">
@@ -57523,57 +57523,57 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>inada</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>イナダ</t>
         </is>
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t>東京湾奥 / 浦安</t>
+          <t>相模湾 / 腰越</t>
         </is>
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t>吉野屋船(8ﾄﾝ)</t>
+          <t>池田丸船(20ﾄﾝ)</t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>1X-5X 尾</t>
+          <t>9-1X 尾</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
         <is>
-          <t>1X-2Xcm</t>
+          <t>4X-6Xcm</t>
         </is>
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>水深20m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>4.0/4.2/4.0</t>
+          <t>1.9/2.4/2.4</t>
         </is>
       </c>
       <c r="K856" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:17+09:00</t>
         </is>
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
         </is>
       </c>
       <c r="M856" t="inlineStr">
@@ -57590,37 +57590,37 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>kasago</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>カサゴ</t>
         </is>
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>東京湾奥 / 葛西橋</t>
+          <t>東京湾奥 / 浦安</t>
         </is>
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t>第二泉水</t>
+          <t>吉野屋船(8ﾄﾝ)</t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>50-100 尾</t>
+          <t>1X-2X 尾</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
         <is>
-          <t>16-28cm</t>
+          <t>1X-2Xcm</t>
         </is>
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深20m30m</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -57630,17 +57630,17 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>4.2/3.9/3.8</t>
+          <t>4.0/4.2/4.0</t>
         </is>
       </c>
       <c r="K857" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:19+09:00</t>
         </is>
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kasago</t>
         </is>
       </c>
       <c r="M857" t="inlineStr">
@@ -57657,32 +57657,32 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>kasago</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>カサゴ</t>
         </is>
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t>横浜 / 本牧</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t>長崎屋船(15ﾄﾝ)</t>
+          <t>新修丸</t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>40-103 尾</t>
+          <t>2X-4X 尾</t>
         </is>
       </c>
       <c r="G858" t="inlineStr">
         <is>
-          <t>17-30cm</t>
+          <t>1X-2Xcm</t>
         </is>
       </c>
       <c r="H858" t="inlineStr">
@@ -57697,17 +57697,17 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>4.4/4.4/4.6</t>
+          <t>4.7/3.7/4.6</t>
         </is>
       </c>
       <c r="K858" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:19+09:00</t>
         </is>
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kasago</t>
         </is>
       </c>
       <c r="M858" t="inlineStr">
@@ -57724,32 +57724,32 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>kawahagi</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>カワハギ</t>
         </is>
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>横浜 / 金沢漁港</t>
+          <t>南房 / 洲崎</t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t>蒲谷丸船(12ﾄﾝ,4.9ﾄﾝ)</t>
+          <t>早川丸船(18ﾄﾝ)</t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>25-55 尾</t>
+          <t>X-7 尾</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
         <is>
-          <t>16-27cm</t>
+          <t>1X-2Xcm</t>
         </is>
       </c>
       <c r="H859" t="inlineStr">
@@ -57759,22 +57759,22 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>4.3/3.7/4.3</t>
+          <t>2.6/3.7/3.1</t>
         </is>
       </c>
       <c r="K859" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:21+09:00</t>
         </is>
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
         </is>
       </c>
       <c r="M859" t="inlineStr">
@@ -57791,32 +57791,32 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>東伊豆 / 宇佐美</t>
         </is>
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t>黒川丸船(12ﾄﾝ)</t>
+          <t>二階屋丸船(4.8ﾄﾝ)</t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>3X-5X 尾</t>
+          <t>1-1X 尾</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
         <is>
-          <t>1X-2Xcm</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H860" t="inlineStr">
@@ -57826,22 +57826,22 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>ぎょさん</t>
         </is>
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>4.0/3.6/3.9</t>
+          <t>4.0/3.5/3.7</t>
         </is>
       </c>
       <c r="K860" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:21+09:00</t>
         </is>
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M860" t="inlineStr">
@@ -57858,37 +57858,37 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>seabuss</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>シーバス</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>横浜 / 本牧</t>
         </is>
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t>野毛屋釣船店船(16ﾄﾝ)</t>
+          <t>長崎屋船(15ﾄﾝ)</t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>13-44 尾</t>
+          <t>1-12 尾</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
         <is>
-          <t>18-25cm</t>
+          <t>36-58cm</t>
         </is>
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>木更津沖</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -57898,17 +57898,17 @@
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>3.5/3.9/4.0</t>
+          <t>4.4/4.4/4.6</t>
         </is>
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:25+09:00</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
         </is>
       </c>
       <c r="M861" t="inlineStr">
@@ -57925,32 +57925,32 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>kisu</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>シロギス</t>
         </is>
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>三浦半島 / 大津</t>
+          <t>東京湾奥 / 羽田</t>
         </is>
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t>小川丸船(19.9ﾄﾝ)</t>
+          <t>かめだや船(16ﾄﾝ)</t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>12-72 尾</t>
+          <t>1X-7X 尾</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
         <is>
-          <t>24-38cm</t>
+          <t>1X-2Xcm</t>
         </is>
       </c>
       <c r="H862" t="inlineStr">
@@ -57965,17 +57965,17 @@
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>3.9/4.2/3.9</t>
+          <t>3.3/3.3/3.9</t>
         </is>
       </c>
       <c r="K862" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:27+09:00</t>
         </is>
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
         </is>
       </c>
       <c r="M862" t="inlineStr">
@@ -57992,37 +57992,37 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>kisu</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>シロギス</t>
         </is>
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>三浦半島 / 走水</t>
+          <t>横浜 / 本牧</t>
         </is>
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t>海福丸船(15ﾄﾝ)</t>
+          <t>長崎屋船(15ﾄﾝ)</t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>23-60 尾</t>
+          <t>44-154 尾</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
         <is>
-          <t>22-35cm</t>
+          <t>14-23cm</t>
         </is>
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>木更津沖</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -58032,17 +58032,17 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>3.3/3.1/3.7</t>
+          <t>4.4/4.4/4.6</t>
         </is>
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:27+09:00</t>
         </is>
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
         </is>
       </c>
       <c r="M863" t="inlineStr">
@@ -58059,57 +58059,57 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>surumeika</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>スルメイカ</t>
         </is>
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t>三浦半島 / 走水</t>
+          <t>内房 / 勝山</t>
         </is>
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t>吉明丸船(17ﾄﾝ)</t>
+          <t>利八丸船(19ﾄﾝ)</t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>4X-8X 尾</t>
+          <t>6-2X 杯</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>3X-4Xcm</t>
         </is>
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>観音崎沖90m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>マリネス</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>2.7/3.5/3.4</t>
+          <t>2.5/3.2/2.7</t>
         </is>
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:29+09:00</t>
         </is>
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
         </is>
       </c>
       <c r="M864" t="inlineStr">
@@ -58126,37 +58126,37 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>surumeika</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>スルメイカ</t>
         </is>
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>三浦半島 / 走水</t>
+          <t>相模湾 / 腰越</t>
         </is>
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t>教至丸船(12ﾄﾝ)</t>
+          <t>飯岡丸船(13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>23-51 尾</t>
+          <t>1-5 杯</t>
         </is>
       </c>
       <c r="G865" t="inlineStr">
         <is>
-          <t>22-40cm</t>
+          <t>26-33cm</t>
         </is>
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深165-190m</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
@@ -58166,17 +58166,17 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>1.7/2.2/1.5</t>
+          <t>4.1/3.5/4.3</t>
         </is>
       </c>
       <c r="K865" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:29+09:00</t>
         </is>
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
         </is>
       </c>
       <c r="M865" t="inlineStr">
@@ -58193,57 +58193,57 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>tatiuo</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>タチウオ</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>三浦半島 / 鴨居</t>
+          <t>東京湾奥 / 浦安</t>
         </is>
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>おかだ丸</t>
+          <t>吉野屋船(8ﾄﾝ)</t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>3X-6X 尾</t>
+          <t>X-5 本</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>80-10Xcm</t>
         </is>
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>久里浜沖</t>
+          <t>水深20m30m30m</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>マリネス</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>2.3/2.3/3.4</t>
+          <t>4.0/4.2/4.0</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:30+09:00</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
         </is>
       </c>
       <c r="M866" t="inlineStr">
@@ -58260,37 +58260,37 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>torafugu</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>トラフグ</t>
         </is>
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>三浦半島 / 久比里</t>
+          <t>東京湾奥 / 浦安</t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>巳之助丸</t>
+          <t>吉野屋船(8ﾄﾝ)</t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>30-73 尾</t>
+          <t>X-1 尾</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>22-36cm</t>
+          <t>0.3-1kg</t>
         </is>
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>久里浜沖</t>
+          <t>水深20m30m30m80m</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -58300,17 +58300,17 @@
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>3.0/3.3/3.2</t>
+          <t>4.0/4.2/4.0</t>
         </is>
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:31+09:00</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
         </is>
       </c>
       <c r="M867" t="inlineStr">
@@ -58327,32 +58327,32 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>aji</t>
+          <t>madai</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>アジ</t>
+          <t>マダイ</t>
         </is>
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t>相模湾 / 平塚</t>
+          <t>三浦半島 / 剣崎松輪</t>
         </is>
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>庄治郎丸船(19ｔ)</t>
+          <t>大松丸船(19.9ﾄﾝ,19.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>33-75 尾</t>
+          <t>X-7 尾</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
         <is>
-          <t>24-32cm</t>
+          <t>0.8X-1.8Xkg</t>
         </is>
       </c>
       <c r="H868" t="inlineStr">
@@ -58362,22 +58362,22 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>3.6/4.0/4.0</t>
+          <t>3.7/4.2/3.8</t>
         </is>
       </c>
       <c r="K868" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:11+09:00</t>
+          <t>2026-02-27T20:59:37+09:00</t>
         </is>
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
         </is>
       </c>
       <c r="M868" t="inlineStr">
@@ -58394,37 +58394,37 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>madai</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>マダイ</t>
         </is>
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>三浦半島 / 久比里</t>
+          <t>三浦半島 / 剣崎松輪</t>
         </is>
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t>山下丸船(19ﾄﾝ)</t>
+          <t>あまさけや丸船(13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>5 尾</t>
+          <t>1-3 尾</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
         <is>
-          <t>26-34cm</t>
+          <t>0.8-1kg</t>
         </is>
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>水深90m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -58434,17 +58434,17 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>4.1/3.8/4.0</t>
+          <t>4.1/3.2/4.1</t>
         </is>
       </c>
       <c r="K869" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:12+09:00</t>
+          <t>2026-02-27T20:59:37+09:00</t>
         </is>
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
         </is>
       </c>
       <c r="M869" t="inlineStr">
@@ -58461,32 +58461,32 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>maruika</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>マルイカ</t>
         </is>
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>三浦半島 / 葉山芝崎</t>
+          <t>三浦半島 / 久比里</t>
         </is>
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t>五エム丸船(19ｔ)</t>
+          <t>山天丸船(19ﾄﾝ)</t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>5-6 尾</t>
+          <t>1-1X 杯</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>20-35cm</t>
+          <t>1X-3Xcm</t>
         </is>
       </c>
       <c r="H870" t="inlineStr">
@@ -58501,17 +58501,17 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>3.5/3.8/4.0</t>
+          <t>3.5/3.7/3.9</t>
         </is>
       </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:12+09:00</t>
+          <t>2026-02-27T20:59:40+09:00</t>
         </is>
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
         </is>
       </c>
       <c r="M870" t="inlineStr">
@@ -58528,32 +58528,32 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>aori</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>アオリイカ</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>相模湾 / 湘南片瀬</t>
+          <t>南房 / 洲崎</t>
         </is>
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t>島きち丸船(19ﾄﾝ)</t>
+          <t>赤沼丸船(4.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>2-1X 尾</t>
+          <t>X-5 杯</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>0.4X-1.1Xkg</t>
         </is>
       </c>
       <c r="H871" t="inlineStr">
@@ -58568,22 +58568,22 @@
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>3.6/3.7/3.7</t>
+          <t>3.8/3.5/4.5</t>
         </is>
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:12+09:00</t>
+          <t>2026-02-28T06:54:57+09:00</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
         </is>
       </c>
       <c r="M871" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -58595,32 +58595,32 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>aori</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>アオリイカ</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>相模湾 / 茅ヶ崎</t>
+          <t>三浦半島 / 鴨居</t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t>まごうの丸船(17ﾄﾝ)</t>
+          <t>きよし丸</t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>0-7 尾</t>
+          <t>0-0 杯</t>
         </is>
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>20-45cm</t>
+          <t>0-0g</t>
         </is>
       </c>
       <c r="H872" t="inlineStr">
@@ -58635,22 +58635,22 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>3.5/3.4/3.5</t>
+          <t>3.3/3.3/3.0</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:12+09:00</t>
+          <t>2026-02-28T06:54:57+09:00</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
         </is>
       </c>
       <c r="M872" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -58662,32 +58662,32 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>aori</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>アオリイカ</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>相模湾 / 平塚</t>
+          <t>三浦半島 / 長井荒崎</t>
         </is>
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t>かりゆし丸船(6.6ﾄﾝ)</t>
+          <t>道乗丸船(9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>X-6 尾</t>
+          <t>X-2 杯</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>0.3X-0.9Xkg</t>
         </is>
       </c>
       <c r="H873" t="inlineStr">
@@ -58702,22 +58702,22 @@
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>4.6/3.4/4.0</t>
+          <t>4.2/2.2/3.2</t>
         </is>
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:12+09:00</t>
+          <t>2026-02-28T06:54:57+09:00</t>
         </is>
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
         </is>
       </c>
       <c r="M873" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -58729,32 +58729,32 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>amadai</t>
+          <t>aori</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>アマダイ</t>
+          <t>アオリイカ</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>相模湾 / 平塚</t>
+          <t>三浦半島 / 長井新宿</t>
         </is>
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t>庄治郎丸船(19ｔ)</t>
+          <t>辰丸船(14ﾄﾝ)</t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>0-9 尾</t>
+          <t>4-1X 杯</t>
         </is>
       </c>
       <c r="G874" t="inlineStr">
         <is>
-          <t>20-50cm</t>
+          <t>0.4X-1.9Xkg</t>
         </is>
       </c>
       <c r="H874" t="inlineStr">
@@ -58764,27 +58764,27 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>3.6/4.0/4.0</t>
+          <t>3.6/2.6/3.1</t>
         </is>
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:12+09:00</t>
+          <t>2026-02-28T06:54:57+09:00</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
         </is>
       </c>
       <c r="M874" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -58796,27 +58796,27 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>ara</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>アラ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>相模湾 / 大磯</t>
+          <t>内房 / 保田</t>
         </is>
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t>とうふや丸</t>
+          <t>村井丸船(12ﾄﾝ,10ﾄﾝ)</t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>X-8 尾</t>
+          <t>6-2X 尾</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -58834,20 +58834,24 @@
           <t>－</t>
         </is>
       </c>
-      <c r="J875" t="inlineStr"/>
+      <c r="J875" t="inlineStr">
+        <is>
+          <t>4.1/3.3/3.5</t>
+        </is>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:13+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=ara</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M875" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -58859,37 +58863,37 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>ika</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>イカ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>三浦半島 / 久比里</t>
+          <t>内房 / 金谷</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>山下丸船(19ﾄﾝ)</t>
+          <t>光進丸</t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>X-7 杯</t>
+          <t>2X-4X 尾</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>0.2-0.6kg</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>水深90m40m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -58899,22 +58903,22 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>4.1/3.8/4.0</t>
+          <t>3.1/2.8/2.7</t>
         </is>
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:14+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=ika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M876" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -58926,37 +58930,37 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>isaki</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>イサキ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>内房 / 保田</t>
+          <t>内房 / 金谷</t>
         </is>
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t>村井丸船(12ﾄﾝ,10ﾄﾝ)</t>
+          <t>勘次郎丸船(8.5ﾄﾝ)</t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>9-4X 尾</t>
+          <t>23-46 尾</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>24-40cm</t>
         </is>
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>金谷沖</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
@@ -58966,22 +58970,22 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>4.1/3.3/3.5</t>
+          <t>2.8/2.7/2.7</t>
         </is>
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:15+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=isaki</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M877" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -58993,62 +58997,62 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>inada</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>イナダ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>相模湾 / 腰越</t>
+          <t>東京湾奥 / 行徳</t>
         </is>
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t>池田丸船(20ﾄﾝ)</t>
+          <t>伊藤遊船船(20m)</t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>9-1X 尾</t>
+          <t>51-10X 尾</t>
         </is>
       </c>
       <c r="G878" t="inlineStr">
         <is>
-          <t>4X-6Xcm</t>
+          <t>1X-2Xcm</t>
         </is>
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深25m</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>1.9/2.4/2.4</t>
+          <t>4.1/3.6/4.3</t>
         </is>
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:17+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M878" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59060,37 +59064,37 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>onikasago</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>オニカサゴ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>内房 / 勝山</t>
+          <t>東京湾奥 / 浦安</t>
         </is>
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+          <t>吉野屋船(8ﾄﾝ)</t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>1-6 尾</t>
+          <t>10-50 尾</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
         <is>
-          <t>0.4-1.2kg</t>
+          <t>15-25cm</t>
         </is>
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>木更津沖20m</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -59100,22 +59104,22 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>4.3/4.2/4.3</t>
+          <t>4.0/4.2/4.0</t>
         </is>
       </c>
       <c r="K879" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:18+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M879" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59127,37 +59131,37 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>kasago</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>カサゴ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>東京湾奥 / 浦安</t>
+          <t>東京湾奥 / 葛西橋</t>
         </is>
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t>吉野屋船(8ﾄﾝ)</t>
+          <t>第二泉水</t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>1X-2X 尾</t>
+          <t>50-100 尾</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
         <is>
-          <t>1X-2Xcm</t>
+          <t>16-28cm</t>
         </is>
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>水深20m30m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -59167,22 +59171,22 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>4.0/4.2/4.0</t>
+          <t>4.2/3.9/3.8</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:19+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kasago</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M880" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59194,27 +59198,27 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>kasago</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>カサゴ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>東京湾奥 / 深川</t>
         </is>
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t>新修丸</t>
+          <t>深川 吉野屋船(14ｔ)</t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>2X-4X 尾</t>
+          <t>3X-9X 尾</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
@@ -59229,27 +59233,27 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>4.7/3.7/4.6</t>
+          <t>3.9/4.2/4.2</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:19+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kasago</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M881" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59261,32 +59265,32 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>karei</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>カレイ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>東京湾奥 / 行徳</t>
+          <t>横浜 / 本牧</t>
         </is>
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t>林遊船船(5ﾄﾝ)</t>
+          <t>長崎屋船(15ﾄﾝ)</t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>X-4 枚</t>
+          <t>40-103 尾</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>17-30cm</t>
         </is>
       </c>
       <c r="H882" t="inlineStr">
@@ -59296,27 +59300,27 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>4.2/3.4/4.1</t>
+          <t>4.4/4.4/4.6</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:19+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=karei</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M882" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59328,62 +59332,62 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>kawahagi</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>カワハギ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>南房 / 洲崎</t>
+          <t>横浜 / 金沢漁港</t>
         </is>
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t>早川丸船(18ﾄﾝ)</t>
+          <t>蒲谷丸船(12ﾄﾝ,4.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>X-7 尾</t>
+          <t>25-55 尾</t>
         </is>
       </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>1X-2Xcm</t>
+          <t>16-28cm</t>
         </is>
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深30m</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>2.6/3.7/3.1</t>
+          <t>4.3/3.7/4.3</t>
         </is>
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:21+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M883" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59395,27 +59399,27 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>kawahagi</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>カワハギ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>内房 / 勝山</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t>宝生丸船(11ﾄﾝ)</t>
+          <t>黒川丸船(12ﾄﾝ)</t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>5-1X 尾</t>
+          <t>3X-5X 尾</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
@@ -59435,22 +59439,22 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>2.8/3.3/2.9</t>
+          <t>4.0/3.6/3.9</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:21+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M884" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59462,32 +59466,32 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>kawahagi</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>カワハギ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>内房 / 金谷</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t>光進丸</t>
+          <t>野毛屋釣船店船(16ﾄﾝ)</t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>1-1X 尾</t>
+          <t>13-44 尾</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
         <is>
-          <t>1X-2Xcm</t>
+          <t>18-25cm</t>
         </is>
       </c>
       <c r="H885" t="inlineStr">
@@ -59502,22 +59506,22 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>3.1/2.8/2.7</t>
+          <t>3.5/3.9/4.0</t>
         </is>
       </c>
       <c r="K885" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:21+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M885" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59529,37 +59533,37 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>kawahagi</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>カワハギ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>三浦半島 / 久比里</t>
+          <t>三浦半島 / 大津</t>
         </is>
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t>山下丸船(19ﾄﾝ)</t>
+          <t>小川丸船(19.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>3-8 尾</t>
+          <t>12-72 尾</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
         <is>
-          <t>17-28cm</t>
+          <t>24-38cm</t>
         </is>
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>水深90m40m下浦・久里浜沖20-30m</t>
+          <t>水深80m</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -59569,22 +59573,22 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>4.1/3.8/4.0</t>
+          <t>3.9/4.2/3.9</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:21+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M886" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59596,32 +59600,32 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>kawahagi</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>カワハギ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>相模湾 / 湘南片瀬</t>
+          <t>三浦半島 / 走水</t>
         </is>
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t>島きち丸船(19ﾄﾝ)</t>
+          <t>政信丸船(5ﾄﾝ)</t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>X-4 尾</t>
+          <t>1X-4X 尾</t>
         </is>
       </c>
       <c r="G887" t="inlineStr">
         <is>
-          <t>1X-2Xcm</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H887" t="inlineStr">
@@ -59636,22 +59640,22 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>3.6/3.7/3.7</t>
+          <t>3.5/3.2/4.0</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:21+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M887" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59663,32 +59667,32 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>kinme</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>キンメ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>三浦半島 / 小坪</t>
+          <t>三浦半島 / 走水</t>
         </is>
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t>太郎丸船(17ﾄﾝ)</t>
+          <t>海福丸船(15ﾄﾝ)</t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>1-12 尾</t>
+          <t>23-60 尾</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
         <is>
-          <t>28-40cm</t>
+          <t>22-35cm</t>
         </is>
       </c>
       <c r="H888" t="inlineStr">
@@ -59703,22 +59707,22 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>3.9/4.6/4.1</t>
+          <t>3.3/3.1/3.7</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:21+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M888" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59730,32 +59734,32 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>kinme</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>キンメ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t>相模湾 / 小田原</t>
+          <t>三浦半島 / 走水</t>
         </is>
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t>平安丸</t>
+          <t>教至丸船(12ﾄﾝ)</t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>2X-3X 尾</t>
+          <t>23-51 尾</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>22-40cm</t>
         </is>
       </c>
       <c r="H889" t="inlineStr">
@@ -59770,22 +59774,22 @@
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>4.3/3.8/3.8</t>
+          <t>1.7/2.2/1.5</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:21+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M889" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59797,62 +59801,62 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>kinme</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>キンメ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>東伊豆 / 宇佐美</t>
+          <t>三浦半島 / 久比里</t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t>二階屋丸船(4.8ﾄﾝ)</t>
+          <t>巳之助丸</t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>1-1X 尾</t>
+          <t>30-73 尾</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>22-36cm</t>
         </is>
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>久里浜沖</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>ぎょさん</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>4.0/3.5/3.7</t>
+          <t>3.0/3.3/3.2</t>
         </is>
       </c>
       <c r="K890" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:21+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M890" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59864,62 +59868,62 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>seabuss</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>シーバス</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>横浜 / 本牧</t>
+          <t>三浦半島 / 葉山あぶずり</t>
         </is>
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t>長崎屋船(15ﾄﾝ)</t>
+          <t>愛正丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>1-12 尾</t>
+          <t>1X-2X 尾</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
         <is>
-          <t>36-58cm</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>木更津沖</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>4.4/4.4/4.6</t>
+          <t>4.2/3.5/4.1</t>
         </is>
       </c>
       <c r="K891" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:25+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M891" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59931,32 +59935,32 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>fugu</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>ショウサイフグ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>野毛屋釣船店船(16ﾄﾝ)</t>
+          <t>庄治郎丸船(19ｔ)</t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>0-14 尾</t>
+          <t>33-75 尾</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
         <is>
-          <t>21-45cm</t>
+          <t>24-32cm</t>
         </is>
       </c>
       <c r="H892" t="inlineStr">
@@ -59971,22 +59975,22 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>3.5/3.9/4.0</t>
+          <t>3.6/4.0/4.0</t>
         </is>
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:26+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M892" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -59998,32 +60002,32 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>simaaji</t>
+          <t>aji</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>シマアジ</t>
+          <t>アジ</t>
         </is>
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>駿河湾 / 御前崎</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>増福丸船(7.9ﾄﾝ)</t>
+          <t>庄三郎丸</t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>6-1X 尾</t>
+          <t>3-12 尾</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>25-35cm</t>
         </is>
       </c>
       <c r="H893" t="inlineStr">
@@ -60036,20 +60040,24 @@
           <t>－</t>
         </is>
       </c>
-      <c r="J893" t="inlineStr"/>
+      <c r="J893" t="inlineStr">
+        <is>
+          <t>2.8/3.2/2.7</t>
+        </is>
+      </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:26+09:00</t>
+          <t>2026-02-28T06:55:02+09:00</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=simaaji</t>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
         </is>
       </c>
       <c r="M893" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60061,37 +60069,37 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>kisu</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>シロギス</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>東京湾奥 / 羽田</t>
+          <t>三浦半島 / 久比里</t>
         </is>
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>かめだや船(16ﾄﾝ)</t>
+          <t>山下丸船(19ﾄﾝ)</t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>1X-7X 尾</t>
+          <t>5 尾</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
         <is>
-          <t>1X-2Xcm</t>
+          <t>26-34cm</t>
         </is>
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深90m</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -60101,22 +60109,22 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>3.3/3.3/3.9</t>
+          <t>4.1/3.8/4.0</t>
         </is>
       </c>
       <c r="K894" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:27+09:00</t>
+          <t>2026-02-28T06:55:03+09:00</t>
         </is>
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M894" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60128,37 +60136,37 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>kisu</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>シロギス</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>横浜 / 本牧</t>
+          <t>三浦半島 / 葉山芝崎</t>
         </is>
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>長崎屋船(15ﾄﾝ)</t>
+          <t>五エム丸船(19ｔ)</t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>44-154 尾</t>
+          <t>5-6 尾</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>14-23cm</t>
+          <t>20-35cm</t>
         </is>
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>木更津沖</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -60168,22 +60176,22 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>4.4/4.4/4.6</t>
+          <t>3.5/3.8/4.0</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:27+09:00</t>
+          <t>2026-02-28T06:55:03+09:00</t>
         </is>
       </c>
       <c r="L895" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M895" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60195,62 +60203,62 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>sumiika</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>スミイカ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>三浦半島 / 久比里</t>
+          <t>相模湾 / 腰越</t>
         </is>
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>山下丸船(19ﾄﾝ)</t>
+          <t>孝太郎丸船(8.5ﾄﾝ)</t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>X-7 杯</t>
+          <t>3-4 尾</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>0.2X-0.6Xkg</t>
+          <t>26-41cm</t>
         </is>
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>水深90m40m下浦・久里浜沖20-30m40m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>関東沖釣り情報</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>4.1/3.8/4.0</t>
+          <t>2.8/2.4/3.5</t>
         </is>
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:28+09:00</t>
+          <t>2026-02-28T06:55:03+09:00</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=sumiika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M896" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60262,32 +60270,32 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>surumeika</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>スルメイカ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>内房 / 勝山</t>
+          <t>相模湾 / 湘南片瀬</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+          <t>島きち丸船(19ﾄﾝ)</t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>3-20 杯</t>
+          <t>2-1X 尾</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>25-40cm</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H897" t="inlineStr">
@@ -60297,27 +60305,27 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>4.3/4.2/4.3</t>
+          <t>3.6/3.7/3.7</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:29+09:00</t>
+          <t>2026-02-28T06:55:03+09:00</t>
         </is>
       </c>
       <c r="L897" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M897" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60329,32 +60337,32 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>surumeika</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>スルメイカ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>内房 / 勝山</t>
+          <t>相模湾 / 湘南片瀬</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>利八丸船(19ﾄﾝ)</t>
+          <t>ゆうせい丸船(13.8ﾄﾝ)</t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>6-2X 杯</t>
+          <t>1-4 尾</t>
         </is>
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>3X-4Xcm</t>
+          <t>20-37cm</t>
         </is>
       </c>
       <c r="H898" t="inlineStr">
@@ -60364,27 +60372,27 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>2.5/3.2/2.7</t>
+          <t>2.9/2.9/2.9</t>
         </is>
       </c>
       <c r="K898" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:29+09:00</t>
+          <t>2026-02-28T06:55:03+09:00</t>
         </is>
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M898" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60396,37 +60404,37 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>surumeika</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>スルメイカ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>三浦半島 / 長井</t>
+          <t>相模湾 / 茅ヶ崎</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>はら丸</t>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>9-14 杯</t>
+          <t>0-6 尾</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
         <is>
-          <t>25-38cm</t>
+          <t>26-38cm</t>
         </is>
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>茅ヶ崎沖</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -60436,22 +60444,22 @@
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>3.7/2.6/3.8</t>
+          <t>3.6/3.4/3.4</t>
         </is>
       </c>
       <c r="K899" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:29+09:00</t>
+          <t>2026-02-28T06:55:03+09:00</t>
         </is>
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M899" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60463,32 +60471,32 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>surumeika</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>スルメイカ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>三浦半島 / 長井漆山</t>
+          <t>相模湾 / 茅ヶ崎</t>
         </is>
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>光三丸船(13ﾄﾝ)</t>
+          <t>まごうの丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>X-7 杯</t>
+          <t>0-7 尾</t>
         </is>
       </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>2X-3Xcm</t>
+          <t>20-45cm</t>
         </is>
       </c>
       <c r="H900" t="inlineStr">
@@ -60498,27 +60506,27 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>2.8/3.7/3.6</t>
+          <t>3.5/3.4/3.5</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:29+09:00</t>
+          <t>2026-02-28T06:55:03+09:00</t>
         </is>
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M900" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60530,32 +60538,32 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>surumeika</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>スルメイカ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>三浦半島 / 葉山あぶずり</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>長三朗丸船(14ﾄﾝ)</t>
+          <t>かりゆし丸船(6.6ﾄﾝ)</t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>9-40 杯</t>
+          <t>X-6 尾</t>
         </is>
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t>20-45cm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H901" t="inlineStr">
@@ -60565,27 +60573,27 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>3.5/3.3/3.6</t>
+          <t>4.6/3.4/4.0</t>
         </is>
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:29+09:00</t>
+          <t>2026-02-28T06:55:03+09:00</t>
         </is>
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M901" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60597,37 +60605,37 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>surumeika</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>スルメイカ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>相模湾 / 腰越</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>飯岡丸船(13ﾄﾝ)</t>
+          <t>庄治郎丸船(19ｔ)</t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>1-5 杯</t>
+          <t>0-9 尾</t>
         </is>
       </c>
       <c r="G902" t="inlineStr">
         <is>
-          <t>26-33cm</t>
+          <t>20-50cm</t>
         </is>
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>水深165-190m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -60637,22 +60645,22 @@
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>4.1/3.5/4.3</t>
+          <t>3.6/4.0/4.0</t>
         </is>
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:29+09:00</t>
+          <t>2026-02-28T06:55:03+09:00</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M902" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60664,37 +60672,37 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>tatiuo</t>
+          <t>amadai</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>アマダイ</t>
         </is>
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>東京湾奥 / 浦安</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>吉野屋船(8ﾄﾝ)</t>
+          <t>庄三郎丸</t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>X-5 本</t>
+          <t>1-8 尾</t>
         </is>
       </c>
       <c r="G903" t="inlineStr">
         <is>
-          <t>80-10Xcm</t>
+          <t>22-51cm</t>
         </is>
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>水深20m30m30m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -60704,22 +60712,22 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>4.0/4.2/4.0</t>
+          <t>2.8/3.2/2.7</t>
         </is>
       </c>
       <c r="K903" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:30+09:00</t>
+          <t>2026-02-28T06:55:03+09:00</t>
         </is>
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
         </is>
       </c>
       <c r="M903" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60731,37 +60739,37 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>tatiuo</t>
+          <t>ara</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>アラ</t>
         </is>
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>東京湾奥 / 浦安</t>
+          <t>相模湾 / 大磯</t>
         </is>
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>吉久船(19ﾄﾝ)</t>
+          <t>とうふや丸</t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>6-15 本</t>
+          <t>X-8 尾</t>
         </is>
       </c>
       <c r="G904" t="inlineStr">
         <is>
-          <t>75-113cm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>本牧沖40m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -60769,24 +60777,20 @@
           <t>－</t>
         </is>
       </c>
-      <c r="J904" t="inlineStr">
-        <is>
-          <t>3.2/3.4/3.6</t>
-        </is>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:30+09:00</t>
+          <t>2026-02-28T06:55:04+09:00</t>
         </is>
       </c>
       <c r="L904" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+          <t>https://funaduri.jp/fish.cgi?fish=ara</t>
         </is>
       </c>
       <c r="M904" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60798,37 +60802,37 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>tatiuo</t>
+          <t>ika</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>イカ</t>
         </is>
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>横浜 / 川崎</t>
+          <t>三浦半島 / 久比里</t>
         </is>
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>中山丸</t>
+          <t>山下丸船(19ﾄﾝ)</t>
         </is>
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>2-16 本</t>
+          <t>X-7 杯</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
         <is>
-          <t>85-115cm</t>
+          <t>0.2-0.6kg</t>
         </is>
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深90m40m</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -60838,22 +60842,22 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>4.7/4.5/4.8</t>
+          <t>4.1/3.8/4.0</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:30+09:00</t>
+          <t>2026-02-28T06:55:06+09:00</t>
         </is>
       </c>
       <c r="L905" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+          <t>https://funaduri.jp/fish.cgi?fish=ika</t>
         </is>
       </c>
       <c r="M905" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60865,37 +60869,37 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>tatiuo</t>
+          <t>ika</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>イカ</t>
         </is>
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>相模湾 / 茅ヶ崎</t>
         </is>
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>一之瀬丸船(13ﾄﾝ)</t>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>2-19 本</t>
+          <t>4-21 杯</t>
         </is>
       </c>
       <c r="G906" t="inlineStr">
         <is>
-          <t>75-118cm</t>
+          <t>22-36cm</t>
         </is>
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>茅ヶ崎沖</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -60905,22 +60909,22 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>2.8/3.2/3.1</t>
+          <t>3.6/3.4/3.4</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:30+09:00</t>
+          <t>2026-02-28T06:55:06+09:00</t>
         </is>
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+          <t>https://funaduri.jp/fish.cgi?fish=ika</t>
         </is>
       </c>
       <c r="M906" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60932,32 +60936,32 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>tatiuo</t>
+          <t>isaki</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>タチウオ</t>
+          <t>イサキ</t>
         </is>
       </c>
       <c r="D907" t="inlineStr">
         <is>
-          <t>三浦半島 / 鴨居</t>
+          <t>内房 / 保田</t>
         </is>
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>石川丸</t>
+          <t>村井丸船(12ﾄﾝ,10ﾄﾝ)</t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>1-4 本</t>
+          <t>9-4X 尾</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
         <is>
-          <t>70-108cm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H907" t="inlineStr">
@@ -60972,22 +60976,22 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>3.1/3.3/3.4</t>
+          <t>4.1/3.3/3.5</t>
         </is>
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:30+09:00</t>
+          <t>2026-02-28T06:55:07+09:00</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+          <t>https://funaduri.jp/fish.cgi?fish=isaki</t>
         </is>
       </c>
       <c r="M907" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -60999,32 +61003,32 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>torafugu</t>
+          <t>inada</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>トラフグ</t>
+          <t>イナダ</t>
         </is>
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>内房 / 勝山</t>
+          <t>三浦半島 / 佐島</t>
         </is>
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>利八丸船(19ﾄﾝ)</t>
+          <t>志平丸船(16ﾄﾝ,13ﾄﾝ)</t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>X-3 尾</t>
+          <t>X-2 尾</t>
         </is>
       </c>
       <c r="G908" t="inlineStr">
         <is>
-          <t>0.6X-1.1Xkg</t>
+          <t>4X-5Xcm</t>
         </is>
       </c>
       <c r="H908" t="inlineStr">
@@ -61034,27 +61038,27 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>海釣り情報</t>
         </is>
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>2.5/3.2/2.7</t>
+          <t>3.3/3.0/4.0</t>
         </is>
       </c>
       <c r="K908" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:31+09:00</t>
+          <t>2026-02-28T06:55:09+09:00</t>
         </is>
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
         </is>
       </c>
       <c r="M908" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61066,37 +61070,37 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>torafugu</t>
+          <t>inada</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>トラフグ</t>
+          <t>イナダ</t>
         </is>
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>東京湾奥 / 浦安</t>
+          <t>相模湾 / 腰越</t>
         </is>
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>吉野屋船(8ﾄﾝ)</t>
+          <t>池田丸船(20ﾄﾝ)</t>
         </is>
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>X-1 尾</t>
+          <t>9-16 尾</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
         <is>
-          <t>0.3-1kg</t>
+          <t>43-65cm</t>
         </is>
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>水深20m30m30m80m</t>
+          <t>水深60m</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -61106,22 +61110,22 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>4.0/4.2/4.0</t>
+          <t>1.9/2.4/2.4</t>
         </is>
       </c>
       <c r="K909" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:31+09:00</t>
+          <t>2026-02-28T06:55:09+09:00</t>
         </is>
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
         </is>
       </c>
       <c r="M909" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61133,37 +61137,37 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>torafugu</t>
+          <t>onikasago</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>トラフグ</t>
+          <t>オニカサゴ</t>
         </is>
       </c>
       <c r="D910" t="inlineStr">
         <is>
-          <t>東京湾奥 / 浦安</t>
+          <t>内房 / 勝山</t>
         </is>
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>吉久船(19ﾄﾝ)</t>
+          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
         </is>
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>0-4 尾</t>
+          <t>1-6 尾</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>26-41cm</t>
+          <t>0.4-1.2kg</t>
         </is>
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>本牧沖40m30m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -61173,22 +61177,22 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>3.2/3.4/3.6</t>
+          <t>4.3/4.2/4.3</t>
         </is>
       </c>
       <c r="K910" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:31+09:00</t>
+          <t>2026-02-28T06:55:10+09:00</t>
         </is>
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
         </is>
       </c>
       <c r="M910" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61200,32 +61204,32 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>torafugu</t>
+          <t>onikasago</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>トラフグ</t>
+          <t>オニカサゴ</t>
         </is>
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>東京湾奥 / 羽田</t>
+          <t>相模湾 / 平塚</t>
         </is>
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t>えさ政釣船店</t>
+          <t>庄三郎丸</t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>0-3 尾</t>
+          <t>0-2 尾</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>0.3-0.8kg</t>
+          <t>25-38cm</t>
         </is>
       </c>
       <c r="H911" t="inlineStr">
@@ -61240,22 +61244,22 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>4.1/3.8/4.0</t>
+          <t>2.8/3.2/2.7</t>
         </is>
       </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:31+09:00</t>
+          <t>2026-02-28T06:55:10+09:00</t>
         </is>
       </c>
       <c r="L911" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
         </is>
       </c>
       <c r="M911" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61267,62 +61271,62 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>torafugu</t>
+          <t>onikasago</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>トラフグ</t>
+          <t>オニカサゴ</t>
         </is>
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>横浜 / 川崎</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t>中山丸</t>
+          <t>坂口丸船(19ﾄﾝ,13ﾄﾝ,11ﾄﾝ)</t>
         </is>
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>0-3 尾</t>
+          <t>X-4 尾</t>
         </is>
       </c>
       <c r="G912" t="inlineStr">
         <is>
-          <t>0.7-1.5kg</t>
+          <t>0.3-1.6kg</t>
         </is>
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深100-180m</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>4.7/4.5/4.8</t>
+          <t>3.4/4.3/4.2</t>
         </is>
       </c>
       <c r="K912" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:31+09:00</t>
+          <t>2026-02-28T06:55:10+09:00</t>
         </is>
       </c>
       <c r="L912" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
         </is>
       </c>
       <c r="M912" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61334,62 +61338,62 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>magoti</t>
+          <t>kasago</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>マゴチ</t>
+          <t>カサゴ</t>
         </is>
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>横浜 / 金沢八景</t>
+          <t>東京湾奥 / 浦安</t>
         </is>
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t>一之瀬丸船(13ﾄﾝ)</t>
+          <t>吉野屋船(8ﾄﾝ)</t>
         </is>
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>X-8 尾</t>
+          <t>12-28 尾</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t>3X-6X.5cm</t>
+          <t>12-28cm</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>木更津沖20m本牧沖30m</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>ぎょさん</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>2.8/3.2/3.1</t>
+          <t>4.0/4.2/4.0</t>
         </is>
       </c>
       <c r="K913" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:36+09:00</t>
+          <t>2026-02-28T06:55:11+09:00</t>
         </is>
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=magoti</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kasago</t>
         </is>
       </c>
       <c r="M913" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61401,62 +61405,62 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>kasago</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>カサゴ</t>
         </is>
       </c>
       <c r="D914" t="inlineStr">
         <is>
-          <t>三浦半島 / 剣崎松輪</t>
+          <t>横浜 / 金沢八景</t>
         </is>
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t>せどおと丸船(7.9ﾄﾝ,7.9ﾄﾝ)</t>
+          <t>新修丸</t>
         </is>
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>X-8 尾</t>
+          <t>21-43 尾</t>
         </is>
       </c>
       <c r="G914" t="inlineStr">
         <is>
-          <t>0.5X-3.0Xkg</t>
+          <t>13-25cm</t>
         </is>
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>猿島沖15-35m</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>4.4/3.6/4.0</t>
+          <t>4.7/3.7/4.6</t>
         </is>
       </c>
       <c r="K914" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:37+09:00</t>
+          <t>2026-02-28T06:55:11+09:00</t>
         </is>
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kasago</t>
         </is>
       </c>
       <c r="M914" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61468,32 +61472,32 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>karei</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>カレイ</t>
         </is>
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>三浦半島 / 剣崎松輪</t>
+          <t>東京湾奥 / 行徳</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t>大松丸船(19.9ﾄﾝ,19.9ﾄﾝ)</t>
+          <t>林遊船船(5ﾄﾝ)</t>
         </is>
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>X-7 尾</t>
+          <t>X-4 枚</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
         <is>
-          <t>0.8X-1.8Xkg</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H915" t="inlineStr">
@@ -61508,22 +61512,22 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>3.7/4.2/3.8</t>
+          <t>4.2/3.4/4.1</t>
         </is>
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:37+09:00</t>
+          <t>2026-02-28T06:55:12+09:00</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=karei</t>
         </is>
       </c>
       <c r="M915" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61535,32 +61539,32 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>kawahagi</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>カワハギ</t>
         </is>
       </c>
       <c r="D916" t="inlineStr">
         <is>
-          <t>三浦半島 / 剣崎松輪</t>
+          <t>南房 / 洲崎</t>
         </is>
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t>あまさけや丸船(13ﾄﾝ)</t>
+          <t>早川丸船(18ﾄﾝ)</t>
         </is>
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>1-3 尾</t>
+          <t>5-7 尾</t>
         </is>
       </c>
       <c r="G916" t="inlineStr">
         <is>
-          <t>0.8-1kg</t>
+          <t>18-26cm</t>
         </is>
       </c>
       <c r="H916" t="inlineStr">
@@ -61575,22 +61579,22 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>4.1/3.2/4.1</t>
+          <t>2.6/3.7/3.1</t>
         </is>
       </c>
       <c r="K916" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:37+09:00</t>
+          <t>2026-02-28T06:55:14+09:00</t>
         </is>
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
         </is>
       </c>
       <c r="M916" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61602,32 +61606,32 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>kawahagi</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>カワハギ</t>
         </is>
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>三浦半島 / 剣崎松輪</t>
+          <t>内房 / 勝山</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t>伝五郎丸船(17ﾄﾝ)</t>
+          <t>宝生丸船(11ﾄﾝ)</t>
         </is>
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>X-4 尾</t>
+          <t>5-1X 尾</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>0.6X-1.7Xkg</t>
+          <t>1X-2Xcm</t>
         </is>
       </c>
       <c r="H917" t="inlineStr">
@@ -61642,22 +61646,22 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>3.4/3.5/2.7</t>
+          <t>2.8/3.3/2.9</t>
         </is>
       </c>
       <c r="K917" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:37+09:00</t>
+          <t>2026-02-28T06:55:14+09:00</t>
         </is>
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
         </is>
       </c>
       <c r="M917" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61669,22 +61673,22 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>kawahagi</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>カワハギ</t>
         </is>
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t>三浦半島 / 剣崎松輪</t>
+          <t>内房 / 金谷</t>
         </is>
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t>成銀丸船(19.9ﾄﾝ,19ﾄﾝ)</t>
+          <t>光進丸</t>
         </is>
       </c>
       <c r="F918" t="inlineStr">
@@ -61694,7 +61698,7 @@
       </c>
       <c r="G918" t="inlineStr">
         <is>
-          <t>0.5X-5.2Xkg</t>
+          <t>1X-2Xcm</t>
         </is>
       </c>
       <c r="H918" t="inlineStr">
@@ -61704,27 +61708,27 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>2.9/3.9/2.6</t>
+          <t>3.1/2.8/2.7</t>
         </is>
       </c>
       <c r="K918" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:37+09:00</t>
+          <t>2026-02-28T06:55:14+09:00</t>
         </is>
       </c>
       <c r="L918" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
         </is>
       </c>
       <c r="M918" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61736,58 +61740,62 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>kawahagi</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>カワハギ</t>
         </is>
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t>三浦半島 / 剣崎松輪</t>
+          <t>三浦半島 / 久比里</t>
         </is>
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t>正海丸船(19ｔ)</t>
+          <t>山下丸船(19ﾄﾝ)</t>
         </is>
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>X-5 尾</t>
+          <t>3-8 尾</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>0.7X-1.8Xkg</t>
+          <t>17-28cm</t>
         </is>
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>水深90m40m下浦・久里浜沖20-30m</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>釣割</t>
-        </is>
-      </c>
-      <c r="J919" t="inlineStr"/>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J919" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:37+09:00</t>
+          <t>2026-02-28T06:55:14+09:00</t>
         </is>
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
         </is>
       </c>
       <c r="M919" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61799,32 +61807,32 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>madai</t>
+          <t>kawahagi</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>マダイ</t>
+          <t>カワハギ</t>
         </is>
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>駿河湾 / 田子の浦</t>
+          <t>相模湾 / 湘南片瀬</t>
         </is>
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>隆眞丸船(4.9ﾄﾝ)</t>
+          <t>島きち丸船(19ﾄﾝ)</t>
         </is>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>1-2 尾</t>
+          <t>X-4 尾</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>1.2-3.1kg</t>
+          <t>1X-2Xcm</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
@@ -61834,27 +61842,27 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>4.6/4.2/4.6</t>
+          <t>3.6/3.7/3.7</t>
         </is>
       </c>
       <c r="K920" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:37+09:00</t>
+          <t>2026-02-28T06:55:14+09:00</t>
         </is>
       </c>
       <c r="L920" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
         </is>
       </c>
       <c r="M920" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61866,32 +61874,32 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>madako</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>マダコ</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>茨城 / 那珂湊</t>
+          <t>三浦半島 / 小坪</t>
         </is>
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t>つれたか丸</t>
+          <t>太郎丸船(17ﾄﾝ)</t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>X-4 杯</t>
+          <t>1-12 尾</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
         <is>
-          <t>1.0X-4.3Xkg</t>
+          <t>28-40cm</t>
         </is>
       </c>
       <c r="H921" t="inlineStr">
@@ -61901,27 +61909,27 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>1.9/1.7/2.0</t>
+          <t>3.9/4.6/4.1</t>
         </is>
       </c>
       <c r="K921" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:38+09:00</t>
+          <t>2026-02-28T06:55:15+09:00</t>
         </is>
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=madako</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M921" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -61933,32 +61941,32 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>maruika</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>マルイカ</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>三浦半島 / 久比里</t>
+          <t>相模湾 / 小田原</t>
         </is>
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>山天丸船(19ﾄﾝ)</t>
+          <t>平安丸</t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>1-1X 杯</t>
+          <t>2X-3X 尾</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
         <is>
-          <t>1X-3Xcm</t>
+          <t>2X-3Xcm</t>
         </is>
       </c>
       <c r="H922" t="inlineStr">
@@ -61973,22 +61981,22 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>3.5/3.7/3.9</t>
+          <t>4.3/3.8/3.8</t>
         </is>
       </c>
       <c r="K922" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:40+09:00</t>
+          <t>2026-02-28T06:55:15+09:00</t>
         </is>
       </c>
       <c r="L922" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M922" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -62000,32 +62008,32 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>maruika</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>マルイカ</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>三浦半島 / 剣崎間口</t>
+          <t>相模湾 / 福浦</t>
         </is>
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>喜平治丸</t>
+          <t>よしひさ丸</t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>1X-3X 杯</t>
+          <t>6-11 尾</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>1X-3Xcm</t>
+          <t>25-33cm</t>
         </is>
       </c>
       <c r="H923" t="inlineStr">
@@ -62040,22 +62048,22 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>3.9/4.5/4.3</t>
+          <t>3.7/3.4/3.7</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:40+09:00</t>
+          <t>2026-02-28T06:55:15+09:00</t>
         </is>
       </c>
       <c r="L923" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M923" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -62067,32 +62075,32 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>maruika</t>
+          <t>kinme</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>マルイカ</t>
+          <t>キンメ</t>
         </is>
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>三浦半島 / 葉山芝崎</t>
+          <t>東伊豆 / 稲取</t>
         </is>
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t>五エム丸船(19ｔ)</t>
+          <t>晃山丸船(14ﾄﾝ,12ﾄﾝ)</t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>3-26 杯</t>
+          <t>X-9 尾</t>
         </is>
       </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>17-28cm</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
@@ -62102,27 +62110,27 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>3.5/3.8/4.0</t>
+          <t>4.1/4.0/4.2</t>
         </is>
       </c>
       <c r="K924" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:40+09:00</t>
+          <t>2026-02-28T06:55:15+09:00</t>
         </is>
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
         </is>
       </c>
       <c r="M924" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -62134,32 +62142,32 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>maruika</t>
+          <t>kurodai</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>マルイカ</t>
+          <t>クロダイ</t>
         </is>
       </c>
       <c r="D925" t="inlineStr">
         <is>
-          <t>三浦半島 / 葉山あぶずり</t>
+          <t>東京湾奥 / 千葉寒川</t>
         </is>
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t>長三朗丸船(14ﾄﾝ)</t>
+          <t>守山丸船(16ﾄﾝ)</t>
         </is>
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>1-14 杯</t>
+          <t>X-6 尾</t>
         </is>
       </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>14-28cm</t>
+          <t>3X-5Xcm</t>
         </is>
       </c>
       <c r="H925" t="inlineStr">
@@ -62169,27 +62177,27 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>3.5/3.3/3.6</t>
+          <t>4.7/4.2/4.7</t>
         </is>
       </c>
       <c r="K925" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:40+09:00</t>
+          <t>2026-02-28T06:55:16+09:00</t>
         </is>
       </c>
       <c r="L925" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kurodai</t>
         </is>
       </c>
       <c r="M925" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -62201,32 +62209,32 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>maruika</t>
+          <t>kuromutu</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>マルイカ</t>
+          <t>クロムツ</t>
         </is>
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>相模湾 / 腰越</t>
+          <t>三浦半島 / 剣崎間口</t>
         </is>
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t>多希志丸船(16ﾄﾝ)</t>
+          <t>丸又丸船(4.9ﾄﾝ)</t>
         </is>
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>1-2X 杯</t>
+          <t>4-1X 尾</t>
         </is>
       </c>
       <c r="G926" t="inlineStr">
         <is>
-          <t>1X-2Xcm</t>
+          <t>1X-4Xcm</t>
         </is>
       </c>
       <c r="H926" t="inlineStr">
@@ -62236,27 +62244,23 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>釣割</t>
-        </is>
-      </c>
-      <c r="J926" t="inlineStr">
-        <is>
-          <t>3.6/4.3/4.2</t>
-        </is>
-      </c>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:40+09:00</t>
+          <t>2026-02-28T06:55:18+09:00</t>
         </is>
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
         </is>
       </c>
       <c r="M926" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -62268,32 +62272,32 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>maruika</t>
+          <t>kuromutu</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>マルイカ</t>
+          <t>クロムツ</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>相模湾 / 平塚</t>
+          <t>相模湾 / 福浦</t>
         </is>
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>庄治郎丸船(19ｔ)</t>
+          <t>恵一丸船(15ﾄﾝ)</t>
         </is>
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>5-41 杯</t>
+          <t>X-4 尾</t>
         </is>
       </c>
       <c r="G927" t="inlineStr">
         <is>
-          <t>18-29cm</t>
+          <t>2X-4Xcm</t>
         </is>
       </c>
       <c r="H927" t="inlineStr">
@@ -62303,27 +62307,27 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>釣割</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>3.6/4.0/4.0</t>
+          <t>3.9/4.2/3.6</t>
         </is>
       </c>
       <c r="K927" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:40+09:00</t>
+          <t>2026-02-28T06:55:18+09:00</t>
         </is>
       </c>
       <c r="L927" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
         </is>
       </c>
       <c r="M927" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -62335,62 +62339,62 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>mongou</t>
+          <t>seabuss</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>モンゴウイカ</t>
+          <t>シーバス</t>
         </is>
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>東京湾奥 / 浦安</t>
+          <t>東京湾奥 / 千葉寒川</t>
         </is>
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t>吉久船(19ﾄﾝ)</t>
+          <t>守山丸船(16ﾄﾝ)</t>
         </is>
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>0-1 杯</t>
+          <t>2 尾</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
         <is>
-          <t>1.1kg</t>
+          <t>6X-7Xcm</t>
         </is>
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>本牧沖40m30m竹岡沖25m</t>
+          <t>－</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>－</t>
+          <t>SANSPO</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>3.2/3.4/3.6</t>
+          <t>4.7/4.2/4.7</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:43+09:00</t>
+          <t>2026-02-28T06:55:20+09:00</t>
         </is>
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=mongou</t>
+          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
         </is>
       </c>
       <c r="M928" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -62402,32 +62406,32 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>yariika</t>
+          <t>seabuss</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>ヤリイカ</t>
+          <t>シーバス</t>
         </is>
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>外房 / 勝浦</t>
+          <t>横浜 / 本牧</t>
         </is>
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>勝丸船(10ﾄﾝ)</t>
+          <t>長崎屋船(15ﾄﾝ)</t>
         </is>
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>8-2X 杯</t>
+          <t>1-12 尾</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
         <is>
-          <t>2X-4Xcm</t>
+          <t>36-58cm</t>
         </is>
       </c>
       <c r="H929" t="inlineStr">
@@ -62437,27 +62441,27 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>釣割</t>
+          <t>－</t>
         </is>
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>4.0/3.3/4.1</t>
+          <t>4.4/4.4/4.6</t>
         </is>
       </c>
       <c r="K929" t="inlineStr">
         <is>
-          <t>2026-02-27T20:59:44+09:00</t>
+          <t>2026-02-28T06:55:20+09:00</t>
         </is>
       </c>
       <c r="L929" t="inlineStr">
         <is>
-          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
         </is>
       </c>
       <c r="M929" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -62469,62 +62473,3806 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
+          <t>fugu</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>ショウサイフグ</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>野毛屋釣船店船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>0-14 尾</t>
+        </is>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>21-45cm</t>
+        </is>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J930" t="inlineStr">
+        <is>
+          <t>3.5/3.9/4.0</t>
+        </is>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:21+09:00</t>
+        </is>
+      </c>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+        </is>
+      </c>
+      <c r="M930" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>simaaji</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>シマアジ</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>駿河湾 / 御前崎</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>増福丸船(7.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>6-1X 尾</t>
+        </is>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:22+09:00</t>
+        </is>
+      </c>
+      <c r="L931" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=simaaji</t>
+        </is>
+      </c>
+      <c r="M931" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>kisu</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>シロギス</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 羽田</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>かめだや船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>14-72 尾</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>14-24cm</t>
+        </is>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>中ノ瀬沖</t>
+        </is>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J932" t="inlineStr">
+        <is>
+          <t>3.3/3.3/3.9</t>
+        </is>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:23+09:00</t>
+        </is>
+      </c>
+      <c r="L932" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+        </is>
+      </c>
+      <c r="M932" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>kisu</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>シロギス</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>横浜 / 本牧</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>長崎屋船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>44-154 尾</t>
+        </is>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>14-23cm</t>
+        </is>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J933" t="inlineStr">
+        <is>
+          <t>4.4/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:23+09:00</t>
+        </is>
+      </c>
+      <c r="L933" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+        </is>
+      </c>
+      <c r="M933" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>sumiika</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>スミイカ</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>X-7 杯</t>
+        </is>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>0.2X-0.6Xkg</t>
+        </is>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>水深90m40m下浦・久里浜沖20-30m40m</t>
+        </is>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>関東沖釣り情報</t>
+        </is>
+      </c>
+      <c r="J934" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:25+09:00</t>
+        </is>
+      </c>
+      <c r="L934" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=sumiika</t>
+        </is>
+      </c>
+      <c r="M934" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>3-20 杯</t>
+        </is>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>25-40cm</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J935" t="inlineStr">
+        <is>
+          <t>4.3/4.2/4.3</t>
+        </is>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:26+09:00</t>
+        </is>
+      </c>
+      <c r="L935" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M935" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>利八丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>1X-3X 杯</t>
+        </is>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J936" t="inlineStr">
+        <is>
+          <t>2.5/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:26+09:00</t>
+        </is>
+      </c>
+      <c r="L936" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M936" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>はら丸</t>
+        </is>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>9-14 杯</t>
+        </is>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>25-38cm</t>
+        </is>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J937" t="inlineStr">
+        <is>
+          <t>3.7/2.6/3.8</t>
+        </is>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:26+09:00</t>
+        </is>
+      </c>
+      <c r="L937" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M937" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井漆山</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>光三丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>X-7 杯</t>
+        </is>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J938" t="inlineStr">
+        <is>
+          <t>2.8/3.7/3.6</t>
+        </is>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:26+09:00</t>
+        </is>
+      </c>
+      <c r="L938" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M938" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>長三朗丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>9-40 杯</t>
+        </is>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>20-45cm</t>
+        </is>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J939" t="inlineStr">
+        <is>
+          <t>3.5/3.3/3.6</t>
+        </is>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:26+09:00</t>
+        </is>
+      </c>
+      <c r="L939" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M939" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>飯岡丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>1-5 杯</t>
+        </is>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>26-33cm</t>
+        </is>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J940" t="inlineStr">
+        <is>
+          <t>4.1/3.5/4.3</t>
+        </is>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:26+09:00</t>
+        </is>
+      </c>
+      <c r="L940" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M940" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>X-5 本</t>
+        </is>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>80-10Xcm</t>
+        </is>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>木更津沖20m本牧沖30m30m</t>
+        </is>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J941" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:27+09:00</t>
+        </is>
+      </c>
+      <c r="L941" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M941" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>吉久船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t>6-15 本</t>
+        </is>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>75-113cm</t>
+        </is>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>本牧沖40m</t>
+        </is>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J942" t="inlineStr">
+        <is>
+          <t>3.2/3.4/3.6</t>
+        </is>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:27+09:00</t>
+        </is>
+      </c>
+      <c r="L942" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M942" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 深川</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>深川 吉野屋船(14ｔ)</t>
+        </is>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t>2-2X 本</t>
+        </is>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>75-11Xcm</t>
+        </is>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J943" t="inlineStr">
+        <is>
+          <t>3.9/4.2/4.2</t>
+        </is>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:27+09:00</t>
+        </is>
+      </c>
+      <c r="L943" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M943" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>横浜 / 川崎</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>中山丸</t>
+        </is>
+      </c>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>2-16 本</t>
+        </is>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>85-115cm</t>
+        </is>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J944" t="inlineStr">
+        <is>
+          <t>4.7/4.5/4.8</t>
+        </is>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:27+09:00</t>
+        </is>
+      </c>
+      <c r="L944" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M944" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>太田屋船(12ﾄﾝ,12ﾄﾝ,12ﾄﾝ,11ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F945" t="inlineStr">
+        <is>
+          <t>8-2X 本</t>
+        </is>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>75-11Xcm</t>
+        </is>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>海釣り情報</t>
+        </is>
+      </c>
+      <c r="J945" t="inlineStr">
+        <is>
+          <t>4.3/3.9/4.4</t>
+        </is>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:27+09:00</t>
+        </is>
+      </c>
+      <c r="L945" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M945" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr">
+        <is>
+          <t>2-19 本</t>
+        </is>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>75-118cm</t>
+        </is>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J946" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:27+09:00</t>
+        </is>
+      </c>
+      <c r="L946" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M946" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>石川丸</t>
+        </is>
+      </c>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>1-4 本</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>70-108cm</t>
+        </is>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J947" t="inlineStr">
+        <is>
+          <t>3.1/3.3/3.4</t>
+        </is>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:27+09:00</t>
+        </is>
+      </c>
+      <c r="L947" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M947" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>利八丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>0.6X-1.1Xkg</t>
+        </is>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J948" t="inlineStr">
+        <is>
+          <t>2.5/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:29+09:00</t>
+        </is>
+      </c>
+      <c r="L948" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M948" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>X-1 尾</t>
+        </is>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>0.3-1kg</t>
+        </is>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>木更津沖20m本牧沖30m30m80m</t>
+        </is>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J949" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:29+09:00</t>
+        </is>
+      </c>
+      <c r="L949" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M949" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>吉久船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>26-41cm</t>
+        </is>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>本牧沖40m30m</t>
+        </is>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J950" t="inlineStr">
+        <is>
+          <t>3.2/3.4/3.6</t>
+        </is>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:29+09:00</t>
+        </is>
+      </c>
+      <c r="L950" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M950" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 羽田</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>えさ政釣船店</t>
+        </is>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>0.3-0.8kg</t>
+        </is>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J951" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:29+09:00</t>
+        </is>
+      </c>
+      <c r="L951" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M951" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>横浜 / 川崎</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>中山丸</t>
+        </is>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>0.7-1.5kg</t>
+        </is>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J952" t="inlineStr">
+        <is>
+          <t>4.7/4.5/4.8</t>
+        </is>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:29+09:00</t>
+        </is>
+      </c>
+      <c r="L952" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M952" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>南房 / 太海</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>幸昌丸船(10ｔ)</t>
+        </is>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>-4 枚</t>
+        </is>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>-1.8Xkg</t>
+        </is>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J953" t="inlineStr">
+        <is>
+          <t>3.0/3.0/3.0</t>
+        </is>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:32+09:00</t>
+        </is>
+      </c>
+      <c r="L953" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M953" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>三浦半島 / 佐島</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>志平丸船(16ﾄﾝ,13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>X-2 枚</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>0.7-2.8kg</t>
+        </is>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>海釣り情報</t>
+        </is>
+      </c>
+      <c r="J954" t="inlineStr">
+        <is>
+          <t>3.3/3.0/4.0</t>
+        </is>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:32+09:00</t>
+        </is>
+      </c>
+      <c r="L954" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M954" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>ゆうせい丸船(13.8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>1-2 枚</t>
+        </is>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>0.72-1.23kg</t>
+        </is>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J955" t="inlineStr">
+        <is>
+          <t>2.9/2.9/2.9</t>
+        </is>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:32+09:00</t>
+        </is>
+      </c>
+      <c r="L955" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M955" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>magoti</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>マゴチ</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>X-8 尾</t>
+        </is>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>3X-6X.5cm</t>
+        </is>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J956" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:35+09:00</t>
+        </is>
+      </c>
+      <c r="L956" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=magoti</t>
+        </is>
+      </c>
+      <c r="M956" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>せどおと丸船(7.9ﾄﾝ,7.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>X-8 尾</t>
+        </is>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>0.5X-3.0Xkg</t>
+        </is>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J957" t="inlineStr">
+        <is>
+          <t>4.4/3.6/4.0</t>
+        </is>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L957" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M957" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>大松丸船(19.9ﾄﾝ,19.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>1-7 尾</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>0.80-1.80kg</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J958" t="inlineStr">
+        <is>
+          <t>3.7/4.2/3.8</t>
+        </is>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L958" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M958" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>あまさけや丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>1-3 尾</t>
+        </is>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>0.60-1.00kg</t>
+        </is>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J959" t="inlineStr">
+        <is>
+          <t>4.1/3.2/4.1</t>
+        </is>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M959" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>伝五郎丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F960" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>0.6X-1.7Xkg</t>
+        </is>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J960" t="inlineStr">
+        <is>
+          <t>3.4/3.5/2.7</t>
+        </is>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M960" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>成銀丸船(19.9ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F961" t="inlineStr">
+        <is>
+          <t>1-1X 尾</t>
+        </is>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>0.5X-5.2Xkg</t>
+        </is>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J961" t="inlineStr">
+        <is>
+          <t>2.9/3.9/2.6</t>
+        </is>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M961" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>正海丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F962" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>0.7X-1.8Xkg</t>
+        </is>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M962" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>孝太郎丸船(8.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F963" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>0.3-0.8kg</t>
+        </is>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J963" t="inlineStr">
+        <is>
+          <t>2.8/2.4/3.5</t>
+        </is>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M963" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>池田丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F964" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>0.3-1.2kg</t>
+        </is>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>水深60m60m</t>
+        </is>
+      </c>
+      <c r="I964" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J964" t="inlineStr">
+        <is>
+          <t>1.9/2.4/2.4</t>
+        </is>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M964" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>ゆうせい丸船(13.8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F965" t="inlineStr">
+        <is>
+          <t>1-5 尾</t>
+        </is>
+      </c>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>0.4-2.1kg</t>
+        </is>
+      </c>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I965" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J965" t="inlineStr">
+        <is>
+          <t>2.9/2.9/2.9</t>
+        </is>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L965" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M965" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F966" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>0.6-1.0kg</t>
+        </is>
+      </c>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>茅ヶ崎沖</t>
+        </is>
+      </c>
+      <c r="I966" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J966" t="inlineStr">
+        <is>
+          <t>3.6/3.4/3.4</t>
+        </is>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L966" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M966" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>相模湾 / 福浦</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>よしひさ丸</t>
+        </is>
+      </c>
+      <c r="F967" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>0.8-1.2kg</t>
+        </is>
+      </c>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I967" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J967" t="inlineStr">
+        <is>
+          <t>3.7/3.4/3.7</t>
+        </is>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L967" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M967" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>駿河湾 / 田子の浦</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>隆眞丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F968" t="inlineStr">
+        <is>
+          <t>1-2 尾</t>
+        </is>
+      </c>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>1.2-3.1kg</t>
+        </is>
+      </c>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I968" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J968" t="inlineStr">
+        <is>
+          <t>4.6/4.2/4.6</t>
+        </is>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:36+09:00</t>
+        </is>
+      </c>
+      <c r="L968" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M968" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>madako</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>マダコ</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>茨城 / 那珂湊</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>つれたか丸</t>
+        </is>
+      </c>
+      <c r="F969" t="inlineStr">
+        <is>
+          <t>X-4 杯</t>
+        </is>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>1.0X-4.3Xkg</t>
+        </is>
+      </c>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I969" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J969" t="inlineStr">
+        <is>
+          <t>1.9/1.7/2.0</t>
+        </is>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:37+09:00</t>
+        </is>
+      </c>
+      <c r="L969" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madako</t>
+        </is>
+      </c>
+      <c r="M969" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>南房 / 天津小湊</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>寿々木丸船(9.7ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F970" t="inlineStr">
+        <is>
+          <t>6-2X 杯</t>
+        </is>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>水深80-100m</t>
+        </is>
+      </c>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J970" t="inlineStr">
+        <is>
+          <t>3.9/3.9/4.0</t>
+        </is>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:39+09:00</t>
+        </is>
+      </c>
+      <c r="L970" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M970" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>山天丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>1-13 杯</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>15-30cm</t>
+        </is>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>剣崎・富浦沖</t>
+        </is>
+      </c>
+      <c r="I971" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J971" t="inlineStr">
+        <is>
+          <t>3.5/3.7/3.9</t>
+        </is>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:39+09:00</t>
+        </is>
+      </c>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M971" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎間口</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>喜平治丸</t>
+        </is>
+      </c>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>1X-3X 杯</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J972" t="inlineStr">
+        <is>
+          <t>3.9/4.5/4.3</t>
+        </is>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:39+09:00</t>
+        </is>
+      </c>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M972" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山芝崎</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>五エム丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F973" t="inlineStr">
+        <is>
+          <t>3-26 杯</t>
+        </is>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>17-28cm</t>
+        </is>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J973" t="inlineStr">
+        <is>
+          <t>3.5/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:39+09:00</t>
+        </is>
+      </c>
+      <c r="L973" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M973" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>長三朗丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F974" t="inlineStr">
+        <is>
+          <t>1-14 杯</t>
+        </is>
+      </c>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>14-28cm</t>
+        </is>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J974" t="inlineStr">
+        <is>
+          <t>3.5/3.3/3.6</t>
+        </is>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:39+09:00</t>
+        </is>
+      </c>
+      <c r="L974" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M974" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>多希志丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F975" t="inlineStr">
+        <is>
+          <t>1-2X 杯</t>
+        </is>
+      </c>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I975" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J975" t="inlineStr">
+        <is>
+          <t>3.6/4.3/4.2</t>
+        </is>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:39+09:00</t>
+        </is>
+      </c>
+      <c r="L975" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M975" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>まごうの丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F976" t="inlineStr">
+        <is>
+          <t>2-19 杯</t>
+        </is>
+      </c>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>16-28cm</t>
+        </is>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I976" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J976" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.5</t>
+        </is>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:39+09:00</t>
+        </is>
+      </c>
+      <c r="L976" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M976" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F977" t="inlineStr">
+        <is>
+          <t>5-41 杯</t>
+        </is>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>18-29cm</t>
+        </is>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J977" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:39+09:00</t>
+        </is>
+      </c>
+      <c r="L977" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M977" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>駿河湾 / 沼津静浦</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>勘栄丸</t>
+        </is>
+      </c>
+      <c r="F978" t="inlineStr">
+        <is>
+          <t>9-65 杯</t>
+        </is>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>15-25cm</t>
+        </is>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J978" t="inlineStr">
+        <is>
+          <t>3.1/3.6/3.4</t>
+        </is>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:39+09:00</t>
+        </is>
+      </c>
+      <c r="L978" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M978" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>medai</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>メダイ</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>東伊豆 / 伊東</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>加納丸</t>
+        </is>
+      </c>
+      <c r="F979" t="inlineStr">
+        <is>
+          <t>3-5 尾</t>
+        </is>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>1.8-3.0kg</t>
+        </is>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J979" t="inlineStr">
+        <is>
+          <t>4.1/3.6/4.1</t>
+        </is>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:41+09:00</t>
+        </is>
+      </c>
+      <c r="L979" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=medai</t>
+        </is>
+      </c>
+      <c r="M979" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>medai</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>メダイ</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>南伊豆 / 下田須崎</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>爪木丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F980" t="inlineStr">
+        <is>
+          <t>3 尾</t>
+        </is>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>2.6-3.5kg</t>
+        </is>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J980" t="inlineStr">
+        <is>
+          <t>3.8/4.0/3.6</t>
+        </is>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:41+09:00</t>
+        </is>
+      </c>
+      <c r="L980" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=medai</t>
+        </is>
+      </c>
+      <c r="M980" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>mongou</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>モンゴウイカ</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>吉久船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>0-1 杯</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>1.1kg</t>
+        </is>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>本牧沖40m30m竹岡沖25m</t>
+        </is>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J981" t="inlineStr">
+        <is>
+          <t>3.2/3.4/3.6</t>
+        </is>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:43+09:00</t>
+        </is>
+      </c>
+      <c r="L981" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mongou</t>
+        </is>
+      </c>
+      <c r="M981" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>外房 / 勝浦</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>勝丸船(10ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>8-2X 杯</t>
+        </is>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J982" t="inlineStr">
+        <is>
+          <t>4.0/3.3/4.1</t>
+        </is>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:44+09:00</t>
+        </is>
+      </c>
+      <c r="L982" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M982" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>南房 / 鴨川</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>第三新生合同丸船(17ｔ)</t>
+        </is>
+      </c>
+      <c r="F983" t="inlineStr">
+        <is>
+          <t>X-7 杯</t>
+        </is>
+      </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>水深160-190m160-190m</t>
+        </is>
+      </c>
+      <c r="I983" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J983" t="inlineStr">
+        <is>
+          <t>4.6/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:44+09:00</t>
+        </is>
+      </c>
+      <c r="L983" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M983" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>成銀丸船(19.9ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F984" t="inlineStr">
+        <is>
+          <t>2-1X 杯</t>
+        </is>
+      </c>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J984" t="inlineStr">
+        <is>
+          <t>2.9/3.9/2.6</t>
+        </is>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:55:44+09:00</t>
+        </is>
+      </c>
+      <c r="L984" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M984" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
           <t>kanko</t>
         </is>
       </c>
-      <c r="C930" t="inlineStr">
+      <c r="C985" t="inlineStr">
         <is>
           <t>カンコ</t>
         </is>
       </c>
-      <c r="D930" t="inlineStr">
+      <c r="D985" t="inlineStr">
         <is>
           <t>三浦半島 / 長井漆山</t>
         </is>
       </c>
-      <c r="E930" t="inlineStr">
+      <c r="E985" t="inlineStr">
         <is>
           <t>長助丸船(5ﾄﾝ)</t>
         </is>
       </c>
-      <c r="F930" t="inlineStr">
+      <c r="F985" t="inlineStr">
         <is>
           <t>X-4 尾</t>
         </is>
       </c>
-      <c r="G930" t="inlineStr">
+      <c r="G985" t="inlineStr">
         <is>
           <t>1.5X-4.0Xkg</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="I930" t="inlineStr">
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I985" t="inlineStr">
         <is>
           <t>釣割</t>
         </is>
       </c>
-      <c r="J930" t="inlineStr">
+      <c r="J985" t="inlineStr">
         <is>
           <t>4.6/2.9/4.6</t>
         </is>
       </c>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>2026-02-27T21:00:09+09:00</t>
-        </is>
-      </c>
-      <c r="L930" t="inlineStr">
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:56:16+09:00</t>
+        </is>
+      </c>
+      <c r="L985" t="inlineStr">
         <is>
           <t>https://funaduri.jp/fish.cgi?fish=kanko</t>
         </is>
       </c>
-      <c r="M930" t="inlineStr">
-        <is>
-          <t>2026-02-27 21:00:54</t>
+      <c r="M985" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>saba</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>サバ</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>南房 / 鴨川</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>第三新生合同丸船(17ｔ)</t>
+        </is>
+      </c>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>X-6 尾</t>
+        </is>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>水深160-190m</t>
+        </is>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>SANSPO</t>
+        </is>
+      </c>
+      <c r="J986" t="inlineStr">
+        <is>
+          <t>4.6/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>2026-02-28T06:56:28+09:00</t>
+        </is>
+      </c>
+      <c r="L986" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=saba</t>
+        </is>
+      </c>
+      <c r="M986" t="inlineStr">
+        <is>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
     </row>
@@ -62587,7 +66335,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -62624,7 +66372,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -62661,7 +66409,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -62698,7 +66446,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -62735,7 +66483,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -62772,7 +66520,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -62809,7 +66557,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-27 21:00:54</t>
+          <t>2026-02-28 06:57:10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1002"/>
+  <dimension ref="A1:M1150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67333,6 +67333,9894 @@
       <c r="M1002" t="inlineStr">
         <is>
           <t>2026-02-28 13:39:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>aori</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>アオリイカ</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1003" t="inlineStr">
+        <is>
+          <t>X-3 杯</t>
+        </is>
+      </c>
+      <c r="G1003" t="inlineStr">
+        <is>
+          <t>0.2-2kg</t>
+        </is>
+      </c>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1003" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1003" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:02+09:00</t>
+        </is>
+      </c>
+      <c r="L1003" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+        </is>
+      </c>
+      <c r="M1003" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>aori</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>アオリイカ</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>きよし丸</t>
+        </is>
+      </c>
+      <c r="F1004" t="inlineStr">
+        <is>
+          <t>0-0 杯</t>
+        </is>
+      </c>
+      <c r="G1004" t="inlineStr">
+        <is>
+          <t>0-0g</t>
+        </is>
+      </c>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1004" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1004" t="inlineStr">
+        <is>
+          <t>3.3/3.3/3.0</t>
+        </is>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:02+09:00</t>
+        </is>
+      </c>
+      <c r="L1004" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+        </is>
+      </c>
+      <c r="M1004" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>aori</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>アオリイカ</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>三浦半島 / 鴨居</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>純丸</t>
+        </is>
+      </c>
+      <c r="F1005" t="inlineStr">
+        <is>
+          <t>0-1 杯</t>
+        </is>
+      </c>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>0-1.8kg</t>
+        </is>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:02+09:00</t>
+        </is>
+      </c>
+      <c r="L1005" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aori</t>
+        </is>
+      </c>
+      <c r="M1005" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>akou</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>アコウ</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1006" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>0.3-2.5kg</t>
+        </is>
+      </c>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1006" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J1006" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:04+09:00</t>
+        </is>
+      </c>
+      <c r="L1006" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=akou</t>
+        </is>
+      </c>
+      <c r="M1006" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 行徳</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>林遊船船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>28-10X 尾</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1007" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1007" t="inlineStr">
+        <is>
+          <t>4.2/3.4/4.1</t>
+        </is>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1007" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1007" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>2X-8X 尾</t>
+        </is>
+      </c>
+      <c r="G1008" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>水深25m</t>
+        </is>
+      </c>
+      <c r="I1008" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1008" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1008" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1008" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 東葛西</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>須原屋船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>10-60 尾</t>
+        </is>
+      </c>
+      <c r="G1009" t="inlineStr">
+        <is>
+          <t>16-25cm</t>
+        </is>
+      </c>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>横浜沖20m</t>
+        </is>
+      </c>
+      <c r="I1009" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1009" t="inlineStr">
+        <is>
+          <t>4.1/4.5/4.1</t>
+        </is>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1009" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1009" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 葛西橋</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>第二泉水</t>
+        </is>
+      </c>
+      <c r="F1010" t="inlineStr">
+        <is>
+          <t>40-100 尾</t>
+        </is>
+      </c>
+      <c r="G1010" t="inlineStr">
+        <is>
+          <t>16-29cm</t>
+        </is>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1010" t="inlineStr">
+        <is>
+          <t>4.2/3.9/3.8</t>
+        </is>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1010" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1010" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 羽田</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>かめだや船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1011" t="inlineStr">
+        <is>
+          <t>2X-6X 尾</t>
+        </is>
+      </c>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1011" t="inlineStr">
+        <is>
+          <t>3.3/3.3/3.9</t>
+        </is>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1011" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1011" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>横浜 / 川崎</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>中山丸</t>
+        </is>
+      </c>
+      <c r="F1012" t="inlineStr">
+        <is>
+          <t>20-65 尾</t>
+        </is>
+      </c>
+      <c r="G1012" t="inlineStr">
+        <is>
+          <t>17-25cm</t>
+        </is>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1012" t="inlineStr">
+        <is>
+          <t>4.7/4.5/4.8</t>
+        </is>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1012" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1012" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>横浜 / 新山下</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>渡辺釣船店</t>
+        </is>
+      </c>
+      <c r="F1013" t="inlineStr">
+        <is>
+          <t>16-40 尾</t>
+        </is>
+      </c>
+      <c r="G1013" t="inlineStr">
+        <is>
+          <t>18-28cm</t>
+        </is>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>横浜沖15m</t>
+        </is>
+      </c>
+      <c r="I1013" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1013" t="inlineStr">
+        <is>
+          <t>2.5/3.0/2.9</t>
+        </is>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1013" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1013" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>横浜 / 新山下</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>粂丸</t>
+        </is>
+      </c>
+      <c r="F1014" t="inlineStr">
+        <is>
+          <t>20-120 尾</t>
+        </is>
+      </c>
+      <c r="G1014" t="inlineStr">
+        <is>
+          <t>15-32cm</t>
+        </is>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1014" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1014" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>横浜 / 本牧</t>
+        </is>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>長崎屋船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1015" t="inlineStr">
+        <is>
+          <t>29-97 尾</t>
+        </is>
+      </c>
+      <c r="G1015" t="inlineStr">
+        <is>
+          <t>17-26cm</t>
+        </is>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1015" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1015" t="inlineStr">
+        <is>
+          <t>4.4/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1015" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1015" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢漁港</t>
+        </is>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>仁丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1016" t="inlineStr">
+        <is>
+          <t>23-12X 尾</t>
+        </is>
+      </c>
+      <c r="G1016" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1016" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1016" t="inlineStr">
+        <is>
+          <t>3.2/3.6/3.9</t>
+        </is>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1016" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1016" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>米元釣船店船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1017" t="inlineStr">
+        <is>
+          <t>1-42 尾</t>
+        </is>
+      </c>
+      <c r="G1017" t="inlineStr">
+        <is>
+          <t>17-28cm</t>
+        </is>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>赤灯沖25m</t>
+        </is>
+      </c>
+      <c r="I1017" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1017" t="inlineStr">
+        <is>
+          <t>4.6/3.5/4.4</t>
+        </is>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1017" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1017" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>黒川丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>1X-6X 尾</t>
+        </is>
+      </c>
+      <c r="G1018" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1018" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1018" t="inlineStr">
+        <is>
+          <t>4.0/3.6/3.9</t>
+        </is>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1018" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1018" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>三浦半島 / 大津</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>小川丸船(19.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>20-100 尾</t>
+        </is>
+      </c>
+      <c r="G1019" t="inlineStr">
+        <is>
+          <t>23-38cm</t>
+        </is>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1019" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1019" t="inlineStr">
+        <is>
+          <t>3.9/4.2/3.9</t>
+        </is>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1019" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1019" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>三浦半島 / 走水</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>海福丸船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>12-69 尾</t>
+        </is>
+      </c>
+      <c r="G1020" t="inlineStr">
+        <is>
+          <t>22-38cm</t>
+        </is>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1020" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1020" t="inlineStr">
+        <is>
+          <t>3.3/3.1/3.7</t>
+        </is>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1020" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1020" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>三浦半島 / 走水</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>健洋丸船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>7-1X 尾</t>
+        </is>
+      </c>
+      <c r="G1021" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1021" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1021" t="inlineStr">
+        <is>
+          <t>2.7/3.0/3.2</t>
+        </is>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1021" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1021" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>三浦半島 / 走水</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>教至丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>19-61 尾</t>
+        </is>
+      </c>
+      <c r="G1022" t="inlineStr">
+        <is>
+          <t>22-36cm</t>
+        </is>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1022" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1022" t="inlineStr">
+        <is>
+          <t>1.7/2.2/1.5</t>
+        </is>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1022" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1022" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>巳之助丸</t>
+        </is>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>30-76 尾</t>
+        </is>
+      </c>
+      <c r="G1023" t="inlineStr">
+        <is>
+          <t>26-36cm</t>
+        </is>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>久里浜沖</t>
+        </is>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1023" t="inlineStr">
+        <is>
+          <t>3.0/3.3/3.2</t>
+        </is>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1023" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1023" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>湘南 海成丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1024" t="inlineStr">
+        <is>
+          <t>26-47 尾</t>
+        </is>
+      </c>
+      <c r="G1024" t="inlineStr">
+        <is>
+          <t>23-38cm</t>
+        </is>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1024" t="inlineStr">
+        <is>
+          <t>2.3/2.5/2.4</t>
+        </is>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1024" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1024" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>25-50 尾</t>
+        </is>
+      </c>
+      <c r="G1025" t="inlineStr">
+        <is>
+          <t>17-30cm</t>
+        </is>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1025" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1025" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1025" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>aji</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>アジ</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>庄三郎丸</t>
+        </is>
+      </c>
+      <c r="F1026" t="inlineStr">
+        <is>
+          <t>10-27 尾</t>
+        </is>
+      </c>
+      <c r="G1026" t="inlineStr">
+        <is>
+          <t>25-35cm</t>
+        </is>
+      </c>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1026" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1026" t="inlineStr">
+        <is>
+          <t>2.8/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:05+09:00</t>
+        </is>
+      </c>
+      <c r="L1026" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=aji</t>
+        </is>
+      </c>
+      <c r="M1026" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>北茨城 / 久慈</t>
+        </is>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>大貫丸船(18ﾄﾝ,5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1027" t="inlineStr">
+        <is>
+          <t>X-2 尾</t>
+        </is>
+      </c>
+      <c r="G1027" t="inlineStr">
+        <is>
+          <t>3X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1027" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1027" t="inlineStr">
+        <is>
+          <t>4.6/3.7/4.6</t>
+        </is>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1027" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1027" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>利八丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1028" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G1028" t="inlineStr">
+        <is>
+          <t>0.40-0.70kg</t>
+        </is>
+      </c>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1028" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1028" t="inlineStr">
+        <is>
+          <t>2.5/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1028" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1028" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 羽田</t>
+        </is>
+      </c>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>かみや</t>
+        </is>
+      </c>
+      <c r="F1029" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G1029" t="inlineStr">
+        <is>
+          <t>28-39cm</t>
+        </is>
+      </c>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1029" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1029" t="inlineStr">
+        <is>
+          <t>3.7/3.5/4.4</t>
+        </is>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1029" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1029" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E1030" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1030" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G1030" t="inlineStr">
+        <is>
+          <t>2X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1030" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1030" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1030" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1030" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>巳之助丸</t>
+        </is>
+      </c>
+      <c r="F1031" t="inlineStr">
+        <is>
+          <t>1-5 尾</t>
+        </is>
+      </c>
+      <c r="G1031" t="inlineStr">
+        <is>
+          <t>20-38cm</t>
+        </is>
+      </c>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>久里浜沖剣崎・富浦沖</t>
+        </is>
+      </c>
+      <c r="I1031" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1031" t="inlineStr">
+        <is>
+          <t>3.0/3.3/3.2</t>
+        </is>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1031" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1031" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E1032" t="inlineStr">
+        <is>
+          <t>あまさけや丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1032" t="inlineStr">
+        <is>
+          <t>X-5 尾</t>
+        </is>
+      </c>
+      <c r="G1032" t="inlineStr">
+        <is>
+          <t>1X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1032" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J1032" t="inlineStr">
+        <is>
+          <t>4.1/3.2/4.1</t>
+        </is>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1032" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1032" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山芝崎</t>
+        </is>
+      </c>
+      <c r="E1033" t="inlineStr">
+        <is>
+          <t>五エム丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F1033" t="inlineStr">
+        <is>
+          <t>3-11 尾</t>
+        </is>
+      </c>
+      <c r="G1033" t="inlineStr">
+        <is>
+          <t>25-46cm</t>
+        </is>
+      </c>
+      <c r="H1033" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1033" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1033" t="inlineStr">
+        <is>
+          <t>3.5/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1033" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1033" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E1034" t="inlineStr">
+        <is>
+          <t>愛正丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1034" t="inlineStr">
+        <is>
+          <t>1-1X 尾</t>
+        </is>
+      </c>
+      <c r="G1034" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1034" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1034" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1034" t="inlineStr">
+        <is>
+          <t>4.2/3.5/4.1</t>
+        </is>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1034" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1034" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E1035" t="inlineStr">
+        <is>
+          <t>飯岡丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1035" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G1035" t="inlineStr">
+        <is>
+          <t>27-34cm</t>
+        </is>
+      </c>
+      <c r="H1035" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1035" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1035" t="inlineStr">
+        <is>
+          <t>4.1/3.5/4.3</t>
+        </is>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1035" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1035" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E1036" t="inlineStr">
+        <is>
+          <t>島きち丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1036" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G1036" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1036" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1036" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1036" t="inlineStr">
+        <is>
+          <t>3.6/3.7/3.7</t>
+        </is>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1036" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1036" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>ゆうせい丸船(13.8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1037" t="inlineStr">
+        <is>
+          <t>0-6 尾</t>
+        </is>
+      </c>
+      <c r="G1037" t="inlineStr">
+        <is>
+          <t>20-46cm</t>
+        </is>
+      </c>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1037" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1037" t="inlineStr">
+        <is>
+          <t>2.9/2.9/2.9</t>
+        </is>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1037" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1037" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E1038" t="inlineStr">
+        <is>
+          <t>かりゆし丸船(6.6ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1038" t="inlineStr">
+        <is>
+          <t>3-1X 尾</t>
+        </is>
+      </c>
+      <c r="G1038" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1038" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1038" t="inlineStr">
+        <is>
+          <t>4.6/3.4/4.0</t>
+        </is>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1038" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1038" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F1039" t="inlineStr">
+        <is>
+          <t>0-9 尾</t>
+        </is>
+      </c>
+      <c r="G1039" t="inlineStr">
+        <is>
+          <t>20-50cm</t>
+        </is>
+      </c>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1039" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1039" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1039" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1039" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>庄三郎丸</t>
+        </is>
+      </c>
+      <c r="F1040" t="inlineStr">
+        <is>
+          <t>2-8 尾</t>
+        </is>
+      </c>
+      <c r="G1040" t="inlineStr">
+        <is>
+          <t>22-35cm</t>
+        </is>
+      </c>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1040" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1040" t="inlineStr">
+        <is>
+          <t>2.8/3.2/2.7</t>
+        </is>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1040" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1040" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>相模湾 / 大磯</t>
+        </is>
+      </c>
+      <c r="E1041" t="inlineStr">
+        <is>
+          <t>とうふや丸</t>
+        </is>
+      </c>
+      <c r="F1041" t="inlineStr">
+        <is>
+          <t>5-1X 尾</t>
+        </is>
+      </c>
+      <c r="G1041" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1041" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1041" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1041" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>amadai</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>アマダイ</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>駿河湾 / 清水</t>
+        </is>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>山大丸船(3.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1042" t="inlineStr">
+        <is>
+          <t>X-6 尾</t>
+        </is>
+      </c>
+      <c r="G1042" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1042" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1042" t="inlineStr">
+        <is>
+          <t>3.5/3.0/4.8</t>
+        </is>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:07+09:00</t>
+        </is>
+      </c>
+      <c r="L1042" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=amadai</t>
+        </is>
+      </c>
+      <c r="M1042" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>ika</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>イカ</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1043" t="inlineStr">
+        <is>
+          <t>X-4 杯</t>
+        </is>
+      </c>
+      <c r="G1043" t="inlineStr">
+        <is>
+          <t>0.3X-0.6kg</t>
+        </is>
+      </c>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>水深40m</t>
+        </is>
+      </c>
+      <c r="I1043" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1043" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:09+09:00</t>
+        </is>
+      </c>
+      <c r="L1043" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=ika</t>
+        </is>
+      </c>
+      <c r="M1043" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>isimoti</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>イシモチ</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>小柴丸</t>
+        </is>
+      </c>
+      <c r="F1044" t="inlineStr">
+        <is>
+          <t>2X-3X 尾</t>
+        </is>
+      </c>
+      <c r="G1044" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>水深20m</t>
+        </is>
+      </c>
+      <c r="I1044" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1044" t="inlineStr">
+        <is>
+          <t>4.1/3.6/4.8</t>
+        </is>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:11+09:00</t>
+        </is>
+      </c>
+      <c r="L1044" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=isimoti</t>
+        </is>
+      </c>
+      <c r="M1044" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>inada</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>イナダ</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>池田丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1045" t="inlineStr">
+        <is>
+          <t>2-1X 尾</t>
+        </is>
+      </c>
+      <c r="G1045" t="inlineStr">
+        <is>
+          <t>4X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1045" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1045" t="inlineStr">
+        <is>
+          <t>1.9/2.4/2.4</t>
+        </is>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:12+09:00</t>
+        </is>
+      </c>
+      <c r="L1045" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=inada</t>
+        </is>
+      </c>
+      <c r="M1045" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>onikasago</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>オニカサゴ</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1046" t="inlineStr">
+        <is>
+          <t>0-8 尾</t>
+        </is>
+      </c>
+      <c r="G1046" t="inlineStr">
+        <is>
+          <t>0.4-2.1kg</t>
+        </is>
+      </c>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1046" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1046" t="inlineStr">
+        <is>
+          <t>4.3/4.2/4.3</t>
+        </is>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:13+09:00</t>
+        </is>
+      </c>
+      <c r="L1046" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
+        </is>
+      </c>
+      <c r="M1046" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>onikasago</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>オニカサゴ</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>吉久船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1047" t="inlineStr">
+        <is>
+          <t>0-7 尾</t>
+        </is>
+      </c>
+      <c r="G1047" t="inlineStr">
+        <is>
+          <t>28-42cm</t>
+        </is>
+      </c>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>水深80m</t>
+        </is>
+      </c>
+      <c r="I1047" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1047" t="inlineStr">
+        <is>
+          <t>3.2/3.4/3.6</t>
+        </is>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:13+09:00</t>
+        </is>
+      </c>
+      <c r="L1047" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=onikasago</t>
+        </is>
+      </c>
+      <c r="M1047" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>kasago</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>カサゴ</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1048" t="inlineStr">
+        <is>
+          <t>8-1X 尾</t>
+        </is>
+      </c>
+      <c r="G1048" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>水深25m30m</t>
+        </is>
+      </c>
+      <c r="I1048" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1048" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:14+09:00</t>
+        </is>
+      </c>
+      <c r="L1048" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kasago</t>
+        </is>
+      </c>
+      <c r="M1048" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>karei</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>カレイ</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 行徳</t>
+        </is>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>林遊船船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1049" t="inlineStr">
+        <is>
+          <t>X-3 枚</t>
+        </is>
+      </c>
+      <c r="G1049" t="inlineStr">
+        <is>
+          <t>3X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1049" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1049" t="inlineStr">
+        <is>
+          <t>4.2/3.4/4.1</t>
+        </is>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:15+09:00</t>
+        </is>
+      </c>
+      <c r="L1049" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=karei</t>
+        </is>
+      </c>
+      <c r="M1049" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>南房 / 洲崎</t>
+        </is>
+      </c>
+      <c r="E1050" t="inlineStr">
+        <is>
+          <t>早川丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1050" t="inlineStr">
+        <is>
+          <t>3-1X 尾</t>
+        </is>
+      </c>
+      <c r="G1050" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1050" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1050" t="inlineStr">
+        <is>
+          <t>2.6/3.7/3.1</t>
+        </is>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:16+09:00</t>
+        </is>
+      </c>
+      <c r="L1050" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M1050" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E1051" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1051" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G1051" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1051" t="inlineStr">
+        <is>
+          <t>水深25m30m</t>
+        </is>
+      </c>
+      <c r="I1051" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1051" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:16+09:00</t>
+        </is>
+      </c>
+      <c r="L1051" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M1051" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E1052" t="inlineStr">
+        <is>
+          <t>山下丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1052" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G1052" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>水深40m</t>
+        </is>
+      </c>
+      <c r="I1052" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1052" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:16+09:00</t>
+        </is>
+      </c>
+      <c r="L1052" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M1052" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久比里</t>
+        </is>
+      </c>
+      <c r="E1053" t="inlineStr">
+        <is>
+          <t>巳之助丸</t>
+        </is>
+      </c>
+      <c r="F1053" t="inlineStr">
+        <is>
+          <t>X-8 尾</t>
+        </is>
+      </c>
+      <c r="G1053" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1053" t="inlineStr">
+        <is>
+          <t>久里浜沖剣崎・富浦沖</t>
+        </is>
+      </c>
+      <c r="I1053" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1053" t="inlineStr">
+        <is>
+          <t>3.0/3.3/3.2</t>
+        </is>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:16+09:00</t>
+        </is>
+      </c>
+      <c r="L1053" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M1053" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>kawahagi</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>カワハギ</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>島きち丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1054" t="inlineStr">
+        <is>
+          <t>X-2 尾</t>
+        </is>
+      </c>
+      <c r="G1054" t="inlineStr">
+        <is>
+          <t>2X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1054" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1054" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1054" t="inlineStr">
+        <is>
+          <t>3.6/3.7/3.7</t>
+        </is>
+      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:16+09:00</t>
+        </is>
+      </c>
+      <c r="L1054" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kawahagi</t>
+        </is>
+      </c>
+      <c r="M1054" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>kinme</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>キンメ</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E1055" t="inlineStr">
+        <is>
+          <t>平安丸</t>
+        </is>
+      </c>
+      <c r="F1055" t="inlineStr">
+        <is>
+          <t>5-1X 尾</t>
+        </is>
+      </c>
+      <c r="G1055" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1055" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1055" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1055" t="inlineStr">
+        <is>
+          <t>4.3/3.8/3.8</t>
+        </is>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:16+09:00</t>
+        </is>
+      </c>
+      <c r="L1055" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kinme</t>
+        </is>
+      </c>
+      <c r="M1055" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>kurodai</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>クロダイ</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 行徳</t>
+        </is>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>林遊船船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1056" t="inlineStr">
+        <is>
+          <t>2-14 尾</t>
+        </is>
+      </c>
+      <c r="G1056" t="inlineStr">
+        <is>
+          <t>30-45cm</t>
+        </is>
+      </c>
+      <c r="H1056" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1056" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1056" t="inlineStr">
+        <is>
+          <t>4.2/3.4/4.1</t>
+        </is>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:17+09:00</t>
+        </is>
+      </c>
+      <c r="L1056" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kurodai</t>
+        </is>
+      </c>
+      <c r="M1056" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>南房 / 天津小湊</t>
+        </is>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>第八鶴丸船(4.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1057" t="inlineStr">
+        <is>
+          <t>X-1 尾</t>
+        </is>
+      </c>
+      <c r="G1057" t="inlineStr">
+        <is>
+          <t>5Xcm</t>
+        </is>
+      </c>
+      <c r="H1057" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1057" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1057" t="inlineStr">
+        <is>
+          <t>2.7/2.2/1.8</t>
+        </is>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:18+09:00</t>
+        </is>
+      </c>
+      <c r="L1057" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M1057" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎間口</t>
+        </is>
+      </c>
+      <c r="E1058" t="inlineStr">
+        <is>
+          <t>勇丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1058" t="inlineStr">
+        <is>
+          <t>X-9 尾</t>
+        </is>
+      </c>
+      <c r="G1058" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1058" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:18+09:00</t>
+        </is>
+      </c>
+      <c r="L1058" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M1058" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E1059" t="inlineStr">
+        <is>
+          <t>秀吉丸</t>
+        </is>
+      </c>
+      <c r="F1059" t="inlineStr">
+        <is>
+          <t>9-18 尾</t>
+        </is>
+      </c>
+      <c r="G1059" t="inlineStr">
+        <is>
+          <t>20-34cm</t>
+        </is>
+      </c>
+      <c r="H1059" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1059" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1059" t="inlineStr">
+        <is>
+          <t>4.0/3.8/4.1</t>
+        </is>
+      </c>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:18+09:00</t>
+        </is>
+      </c>
+      <c r="L1059" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M1059" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E1060" t="inlineStr">
+        <is>
+          <t>ゆうせい丸船(13.8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1060" t="inlineStr">
+        <is>
+          <t>11-19 尾</t>
+        </is>
+      </c>
+      <c r="G1060" t="inlineStr">
+        <is>
+          <t>25-36cm</t>
+        </is>
+      </c>
+      <c r="H1060" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1060" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1060" t="inlineStr">
+        <is>
+          <t>2.9/2.9/2.9</t>
+        </is>
+      </c>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:18+09:00</t>
+        </is>
+      </c>
+      <c r="L1060" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M1060" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1061" t="inlineStr">
+        <is>
+          <t>X-6 尾</t>
+        </is>
+      </c>
+      <c r="G1061" t="inlineStr">
+        <is>
+          <t>3X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1061" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1061" t="inlineStr">
+        <is>
+          <t>3.6/3.4/3.4</t>
+        </is>
+      </c>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:18+09:00</t>
+        </is>
+      </c>
+      <c r="L1061" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M1061" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>kuromutu</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>クロムツ</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E1062" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F1062" t="inlineStr">
+        <is>
+          <t>5-12 尾</t>
+        </is>
+      </c>
+      <c r="G1062" t="inlineStr">
+        <is>
+          <t>25-38cm</t>
+        </is>
+      </c>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1062" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1062" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:18+09:00</t>
+        </is>
+      </c>
+      <c r="L1062" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kuromutu</t>
+        </is>
+      </c>
+      <c r="M1062" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>saba</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>サバ</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>外房 / 勝浦</t>
+        </is>
+      </c>
+      <c r="E1063" t="inlineStr">
+        <is>
+          <t>勝丸船(10ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1063" t="inlineStr">
+        <is>
+          <t>1X-3X 尾</t>
+        </is>
+      </c>
+      <c r="G1063" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1063" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1063" t="inlineStr">
+        <is>
+          <t>4.0/3.3/4.1</t>
+        </is>
+      </c>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:19+09:00</t>
+        </is>
+      </c>
+      <c r="L1063" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=saba</t>
+        </is>
+      </c>
+      <c r="M1063" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>seabuss</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>シーバス</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>横浜 / 本牧</t>
+        </is>
+      </c>
+      <c r="E1064" t="inlineStr">
+        <is>
+          <t>長崎屋船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1064" t="inlineStr">
+        <is>
+          <t>0-6 尾</t>
+        </is>
+      </c>
+      <c r="G1064" t="inlineStr">
+        <is>
+          <t>36-68cm</t>
+        </is>
+      </c>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1064" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1064" t="inlineStr">
+        <is>
+          <t>4.4/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:21+09:00</t>
+        </is>
+      </c>
+      <c r="L1064" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=seabuss</t>
+        </is>
+      </c>
+      <c r="M1064" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>fugu</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>ショウサイフグ</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>内房 / 富津</t>
+        </is>
+      </c>
+      <c r="E1065" t="inlineStr">
+        <is>
+          <t>浜新丸</t>
+        </is>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>7-2X 尾</t>
+        </is>
+      </c>
+      <c r="G1065" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>水深10m</t>
+        </is>
+      </c>
+      <c r="I1065" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1065" t="inlineStr">
+        <is>
+          <t>3.4/2.9/3.8</t>
+        </is>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:22+09:00</t>
+        </is>
+      </c>
+      <c r="L1065" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=fugu</t>
+        </is>
+      </c>
+      <c r="M1065" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>kisu</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>シロギス</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 東葛西</t>
+        </is>
+      </c>
+      <c r="E1066" t="inlineStr">
+        <is>
+          <t>須原屋船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>22-12X 尾</t>
+        </is>
+      </c>
+      <c r="G1066" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>横浜沖20m18m</t>
+        </is>
+      </c>
+      <c r="I1066" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1066" t="inlineStr">
+        <is>
+          <t>4.1/4.5/4.1</t>
+        </is>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:23+09:00</t>
+        </is>
+      </c>
+      <c r="L1066" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+        </is>
+      </c>
+      <c r="M1066" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>kisu</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>シロギス</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 葛西橋</t>
+        </is>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>第二泉水</t>
+        </is>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>30-138 尾</t>
+        </is>
+      </c>
+      <c r="G1067" t="inlineStr">
+        <is>
+          <t>14-23cm</t>
+        </is>
+      </c>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1067" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1067" t="inlineStr">
+        <is>
+          <t>4.2/3.9/3.8</t>
+        </is>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:23+09:00</t>
+        </is>
+      </c>
+      <c r="L1067" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+        </is>
+      </c>
+      <c r="M1067" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>kisu</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>シロギス</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>横浜 / 本牧</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>長崎屋船(15ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>30-141 尾</t>
+        </is>
+      </c>
+      <c r="G1068" t="inlineStr">
+        <is>
+          <t>14-23cm</t>
+        </is>
+      </c>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1068" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1068" t="inlineStr">
+        <is>
+          <t>4.4/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:23+09:00</t>
+        </is>
+      </c>
+      <c r="L1068" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=kisu</t>
+        </is>
+      </c>
+      <c r="M1068" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>0-11 杯</t>
+        </is>
+      </c>
+      <c r="G1069" t="inlineStr">
+        <is>
+          <t>25-40cm</t>
+        </is>
+      </c>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>水深200m</t>
+        </is>
+      </c>
+      <c r="I1069" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1069" t="inlineStr">
+        <is>
+          <t>4.3/4.2/4.3</t>
+        </is>
+      </c>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:25+09:00</t>
+        </is>
+      </c>
+      <c r="L1069" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M1069" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎間口</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
+          <t>喜平治丸</t>
+        </is>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>5-2X 杯</t>
+        </is>
+      </c>
+      <c r="G1070" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1070" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1070" t="inlineStr">
+        <is>
+          <t>3.9/4.5/4.3</t>
+        </is>
+      </c>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:25+09:00</t>
+        </is>
+      </c>
+      <c r="L1070" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M1070" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>はら丸</t>
+        </is>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>0-7 杯</t>
+        </is>
+      </c>
+      <c r="G1071" t="inlineStr">
+        <is>
+          <t>28-35cm</t>
+        </is>
+      </c>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>長井沖</t>
+        </is>
+      </c>
+      <c r="I1071" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1071" t="inlineStr">
+        <is>
+          <t>3.7/2.6/3.8</t>
+        </is>
+      </c>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:25+09:00</t>
+        </is>
+      </c>
+      <c r="L1071" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M1071" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井漆山</t>
+        </is>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>春盛丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1072" t="inlineStr">
+        <is>
+          <t>X-8 杯</t>
+        </is>
+      </c>
+      <c r="G1072" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1072" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1072" t="inlineStr">
+        <is>
+          <t>3.8/3.5/3.9</t>
+        </is>
+      </c>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:25+09:00</t>
+        </is>
+      </c>
+      <c r="L1072" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M1072" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井漆山</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>光三丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1073" t="inlineStr">
+        <is>
+          <t>X-9 杯</t>
+        </is>
+      </c>
+      <c r="G1073" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1073" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1073" t="inlineStr">
+        <is>
+          <t>2.8/3.7/3.6</t>
+        </is>
+      </c>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:25+09:00</t>
+        </is>
+      </c>
+      <c r="L1073" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M1073" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>長三朗丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1074" t="inlineStr">
+        <is>
+          <t>0-10 杯</t>
+        </is>
+      </c>
+      <c r="G1074" t="inlineStr">
+        <is>
+          <t>20-45cm</t>
+        </is>
+      </c>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1074" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1074" t="inlineStr">
+        <is>
+          <t>3.5/3.3/3.6</t>
+        </is>
+      </c>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:25+09:00</t>
+        </is>
+      </c>
+      <c r="L1074" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M1074" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>相模湾 / 腰越</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>飯岡丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>1-16 杯</t>
+        </is>
+      </c>
+      <c r="G1075" t="inlineStr">
+        <is>
+          <t>28-40cm</t>
+        </is>
+      </c>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1075" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1075" t="inlineStr">
+        <is>
+          <t>4.1/3.5/4.3</t>
+        </is>
+      </c>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:25+09:00</t>
+        </is>
+      </c>
+      <c r="L1075" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M1075" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>島きち丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>1-1X 杯</t>
+        </is>
+      </c>
+      <c r="G1076" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1076" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1076" t="inlineStr">
+        <is>
+          <t>3.6/3.7/3.7</t>
+        </is>
+      </c>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:25+09:00</t>
+        </is>
+      </c>
+      <c r="L1076" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M1076" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>まごうの丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>2-10 杯</t>
+        </is>
+      </c>
+      <c r="G1077" t="inlineStr">
+        <is>
+          <t>26-35cm</t>
+        </is>
+      </c>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1077" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1077" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.5</t>
+        </is>
+      </c>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:25+09:00</t>
+        </is>
+      </c>
+      <c r="L1077" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M1077" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>平安丸</t>
+        </is>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>X-7 杯</t>
+        </is>
+      </c>
+      <c r="G1078" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1078" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1078" t="inlineStr">
+        <is>
+          <t>4.3/3.8/3.8</t>
+        </is>
+      </c>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:25+09:00</t>
+        </is>
+      </c>
+      <c r="L1078" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M1078" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>surumeika</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>スルメイカ</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>相模湾 / 真鶴</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>誠いち丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>6-1X 杯</t>
+        </is>
+      </c>
+      <c r="G1079" t="inlineStr">
+        <is>
+          <t>2X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1079" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1079" t="inlineStr">
+        <is>
+          <t>4.3/4.3/4.1</t>
+        </is>
+      </c>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:25+09:00</t>
+        </is>
+      </c>
+      <c r="L1079" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=surumeika</t>
+        </is>
+      </c>
+      <c r="M1079" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>内房 / 富津</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>ひらの丸</t>
+        </is>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
+          <t>0-11 本</t>
+        </is>
+      </c>
+      <c r="G1080" t="inlineStr">
+        <is>
+          <t>75-113cm</t>
+        </is>
+      </c>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1080" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1080" t="inlineStr">
+        <is>
+          <t>4.3/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:26+09:00</t>
+        </is>
+      </c>
+      <c r="L1080" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M1080" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>X-1 本</t>
+        </is>
+      </c>
+      <c r="G1081" t="inlineStr">
+        <is>
+          <t>80-10Xcm</t>
+        </is>
+      </c>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>水深25m30m30m</t>
+        </is>
+      </c>
+      <c r="I1081" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1081" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:26+09:00</t>
+        </is>
+      </c>
+      <c r="L1081" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M1081" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>吉久船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>0-5 本</t>
+        </is>
+      </c>
+      <c r="G1082" t="inlineStr">
+        <is>
+          <t>80-110cm</t>
+        </is>
+      </c>
+      <c r="H1082" t="inlineStr">
+        <is>
+          <t>水深80m横浜沖40m</t>
+        </is>
+      </c>
+      <c r="I1082" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1082" t="inlineStr">
+        <is>
+          <t>3.2/3.4/3.6</t>
+        </is>
+      </c>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:26+09:00</t>
+        </is>
+      </c>
+      <c r="L1082" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M1082" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 羽田</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>かめだや船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>X-2 本</t>
+        </is>
+      </c>
+      <c r="G1083" t="inlineStr">
+        <is>
+          <t>80-11Xcm</t>
+        </is>
+      </c>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>水深30m</t>
+        </is>
+      </c>
+      <c r="I1083" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1083" t="inlineStr">
+        <is>
+          <t>3.3/3.3/3.9</t>
+        </is>
+      </c>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:26+09:00</t>
+        </is>
+      </c>
+      <c r="L1083" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M1083" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>横浜 / 川崎</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>中山丸</t>
+        </is>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>0-7 本</t>
+        </is>
+      </c>
+      <c r="G1084" t="inlineStr">
+        <is>
+          <t>70-108cm</t>
+        </is>
+      </c>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1084" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1084" t="inlineStr">
+        <is>
+          <t>4.7/4.5/4.8</t>
+        </is>
+      </c>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:26+09:00</t>
+        </is>
+      </c>
+      <c r="L1084" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M1084" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>横浜 / 新山下</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>渡辺釣船店</t>
+        </is>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>0-1X 本</t>
+        </is>
+      </c>
+      <c r="G1085" t="inlineStr">
+        <is>
+          <t>75-11Xcm</t>
+        </is>
+      </c>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>横浜沖15m30m</t>
+        </is>
+      </c>
+      <c r="I1085" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1085" t="inlineStr">
+        <is>
+          <t>2.5/3.0/2.9</t>
+        </is>
+      </c>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:26+09:00</t>
+        </is>
+      </c>
+      <c r="L1085" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M1085" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢漁港</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>黒一丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>X-3 本</t>
+        </is>
+      </c>
+      <c r="G1086" t="inlineStr">
+        <is>
+          <t>60-10Xcm</t>
+        </is>
+      </c>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1086" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1086" t="inlineStr">
+        <is>
+          <t>4.3/4.0/4.1</t>
+        </is>
+      </c>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:26+09:00</t>
+        </is>
+      </c>
+      <c r="L1086" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M1086" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>米元釣船店船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>X-4 本</t>
+        </is>
+      </c>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>70-10Xcm</t>
+        </is>
+      </c>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>赤灯沖25m30m</t>
+        </is>
+      </c>
+      <c r="I1087" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1087" t="inlineStr">
+        <is>
+          <t>4.6/3.5/4.4</t>
+        </is>
+      </c>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:26+09:00</t>
+        </is>
+      </c>
+      <c r="L1087" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M1087" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>0-16 本</t>
+        </is>
+      </c>
+      <c r="G1088" t="inlineStr">
+        <is>
+          <t>70-110cm</t>
+        </is>
+      </c>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1088" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1088" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:26+09:00</t>
+        </is>
+      </c>
+      <c r="L1088" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M1088" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>tatiuo</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>タチウオ</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>三浦半島 / 新安浦</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>こうゆう丸船(19ﾄﾝ,16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1089" t="inlineStr">
+        <is>
+          <t>0-5 本</t>
+        </is>
+      </c>
+      <c r="G1089" t="inlineStr">
+        <is>
+          <t>75-105cm</t>
+        </is>
+      </c>
+      <c r="H1089" t="inlineStr">
+        <is>
+          <t>横浜沖30m</t>
+        </is>
+      </c>
+      <c r="I1089" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1089" t="inlineStr">
+        <is>
+          <t>2.0/2.7/2.7</t>
+        </is>
+      </c>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:26+09:00</t>
+        </is>
+      </c>
+      <c r="L1089" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=tatiuo</t>
+        </is>
+      </c>
+      <c r="M1089" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr">
+        <is>
+          <t>萬栄丸船(19ﾄﾝ,19ﾄﾝ,20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1090" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G1090" t="inlineStr">
+        <is>
+          <t>0.7-2.4kg</t>
+        </is>
+      </c>
+      <c r="H1090" t="inlineStr">
+        <is>
+          <t>水深200m</t>
+        </is>
+      </c>
+      <c r="I1090" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1090" t="inlineStr">
+        <is>
+          <t>4.3/4.2/4.3</t>
+        </is>
+      </c>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:27+09:00</t>
+        </is>
+      </c>
+      <c r="L1090" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M1090" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>内房 / 勝山</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>宝生丸船(11ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G1091" t="inlineStr">
+        <is>
+          <t>0.5X-2.8Xkg</t>
+        </is>
+      </c>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1091" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1091" t="inlineStr">
+        <is>
+          <t>2.8/3.3/2.9</t>
+        </is>
+      </c>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:27+09:00</t>
+        </is>
+      </c>
+      <c r="L1091" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M1091" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>内房 / 富津</t>
+        </is>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>ひらの丸</t>
+        </is>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G1092" t="inlineStr">
+        <is>
+          <t>0.6-2.4kg</t>
+        </is>
+      </c>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1092" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1092" t="inlineStr">
+        <is>
+          <t>4.3/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:27+09:00</t>
+        </is>
+      </c>
+      <c r="L1092" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M1092" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>吉野屋船(8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G1093" t="inlineStr">
+        <is>
+          <t>0.3-0.8kg</t>
+        </is>
+      </c>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>水深25m30m30m</t>
+        </is>
+      </c>
+      <c r="I1093" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1093" t="inlineStr">
+        <is>
+          <t>4.0/4.2/4.0</t>
+        </is>
+      </c>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:27+09:00</t>
+        </is>
+      </c>
+      <c r="L1093" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M1093" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 浦安</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>吉久船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G1094" t="inlineStr">
+        <is>
+          <t>26-43cm</t>
+        </is>
+      </c>
+      <c r="H1094" t="inlineStr">
+        <is>
+          <t>水深80m横浜沖40m30m</t>
+        </is>
+      </c>
+      <c r="I1094" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1094" t="inlineStr">
+        <is>
+          <t>3.2/3.4/3.6</t>
+        </is>
+      </c>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:27+09:00</t>
+        </is>
+      </c>
+      <c r="L1094" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M1094" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 品川</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>ひらい丸船(17.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>0-3 尾</t>
+        </is>
+      </c>
+      <c r="G1095" t="inlineStr">
+        <is>
+          <t>0.60-1.00kg</t>
+        </is>
+      </c>
+      <c r="H1095" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1095" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1095" t="inlineStr">
+        <is>
+          <t>5.0/5.0/5.0</t>
+        </is>
+      </c>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:27+09:00</t>
+        </is>
+      </c>
+      <c r="L1095" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M1095" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>東京湾奥 / 羽田</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t>えさ政釣船店</t>
+        </is>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>0.3-1.4kg</t>
+        </is>
+      </c>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>水深20m</t>
+        </is>
+      </c>
+      <c r="I1096" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1096" t="inlineStr">
+        <is>
+          <t>4.1/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:27+09:00</t>
+        </is>
+      </c>
+      <c r="L1096" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M1096" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>横浜 / 川崎</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>中山丸</t>
+        </is>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G1097" t="inlineStr">
+        <is>
+          <t>0.5-1.5kg</t>
+        </is>
+      </c>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1097" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1097" t="inlineStr">
+        <is>
+          <t>4.7/4.5/4.8</t>
+        </is>
+      </c>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:27+09:00</t>
+        </is>
+      </c>
+      <c r="L1097" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M1097" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>torafugu</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>トラフグ</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G1098" t="inlineStr">
+        <is>
+          <t>0.5-5.2kg</t>
+        </is>
+      </c>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1098" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J1098" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:27+09:00</t>
+        </is>
+      </c>
+      <c r="L1098" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=torafugu</t>
+        </is>
+      </c>
+      <c r="M1098" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t>幸栄丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>0-1 枚</t>
+        </is>
+      </c>
+      <c r="G1099" t="inlineStr">
+        <is>
+          <t>0.3-1.6kg</t>
+        </is>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1099" t="inlineStr">
+        <is>
+          <t>2.5/3.8/2.2</t>
+        </is>
+      </c>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1099" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1099" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>隆正丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>0-2 枚</t>
+        </is>
+      </c>
+      <c r="G1100" t="inlineStr">
+        <is>
+          <t>0.5-1.5kg</t>
+        </is>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1100" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1100" t="inlineStr">
+        <is>
+          <t>3.2/3.5/3.6</t>
+        </is>
+      </c>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1100" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1100" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr">
+        <is>
+          <t>優光丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>0-3 枚</t>
+        </is>
+      </c>
+      <c r="G1101" t="inlineStr">
+        <is>
+          <t>0.4-2.0kg</t>
+        </is>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1101" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1101" t="inlineStr">
+        <is>
+          <t>3.8/3.3/3.1</t>
+        </is>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1101" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1101" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E1102" t="inlineStr">
+        <is>
+          <t>三次郎丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>1-2 枚</t>
+        </is>
+      </c>
+      <c r="G1102" t="inlineStr">
+        <is>
+          <t>0.30-1.90kg</t>
+        </is>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>飯岡沖15m</t>
+        </is>
+      </c>
+      <c r="I1102" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1102" t="inlineStr">
+        <is>
+          <t>2.7/3.4/3.2</t>
+        </is>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1102" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1102" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E1103" t="inlineStr">
+        <is>
+          <t>富久丸船(10ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1103" t="inlineStr">
+        <is>
+          <t>X-2 枚</t>
+        </is>
+      </c>
+      <c r="G1103" t="inlineStr">
+        <is>
+          <t>1.7X-3.3Xkg</t>
+        </is>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1103" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1103" t="inlineStr">
+        <is>
+          <t>5.0/4.6/4.9</t>
+        </is>
+      </c>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1103" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1103" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>加幸丸船(8.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>X-1 枚</t>
+        </is>
+      </c>
+      <c r="G1104" t="inlineStr">
+        <is>
+          <t>1.3X-2.2Xkg</t>
+        </is>
+      </c>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1104" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1104" t="inlineStr">
+        <is>
+          <t>3.9/2.3/3.9</t>
+        </is>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1104" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1104" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>外房 / 大原</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
+          <t>春栄丸船(19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>0-4 枚</t>
+        </is>
+      </c>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>0.40-3.19kg</t>
+        </is>
+      </c>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1105" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1105" t="inlineStr">
+        <is>
+          <t>2.7/3.3/2.8</t>
+        </is>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1105" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1105" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>外房 / 御宿岩和田</t>
+        </is>
+      </c>
+      <c r="E1106" t="inlineStr">
+        <is>
+          <t>明広丸</t>
+        </is>
+      </c>
+      <c r="F1106" t="inlineStr">
+        <is>
+          <t>X-1 枚</t>
+        </is>
+      </c>
+      <c r="G1106" t="inlineStr">
+        <is>
+          <t>0.5-1.6kg</t>
+        </is>
+      </c>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1106" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1106" t="inlineStr">
+        <is>
+          <t>4.5/4.5/4.5</t>
+        </is>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1106" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1106" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>三浦半島 / 佐島</t>
+        </is>
+      </c>
+      <c r="E1107" t="inlineStr">
+        <is>
+          <t>深田家船(10ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1107" t="inlineStr">
+        <is>
+          <t>0-1 枚</t>
+        </is>
+      </c>
+      <c r="G1107" t="inlineStr">
+        <is>
+          <t>1.2-2.6kg</t>
+        </is>
+      </c>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1107" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1107" t="inlineStr">
+        <is>
+          <t>2.9/2.1/3.1</t>
+        </is>
+      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1107" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1107" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山芝崎</t>
+        </is>
+      </c>
+      <c r="E1108" t="inlineStr">
+        <is>
+          <t>五エム丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F1108" t="inlineStr">
+        <is>
+          <t>0-1 枚</t>
+        </is>
+      </c>
+      <c r="G1108" t="inlineStr">
+        <is>
+          <t>0.4-1.3kg</t>
+        </is>
+      </c>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1108" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1108" t="inlineStr">
+        <is>
+          <t>3.5/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1108" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1108" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山あぶずり</t>
+        </is>
+      </c>
+      <c r="E1109" t="inlineStr">
+        <is>
+          <t>秀吉丸</t>
+        </is>
+      </c>
+      <c r="F1109" t="inlineStr">
+        <is>
+          <t>0-1 枚</t>
+        </is>
+      </c>
+      <c r="G1109" t="inlineStr">
+        <is>
+          <t>0.5-1.0kg</t>
+        </is>
+      </c>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1109" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1109" t="inlineStr">
+        <is>
+          <t>4.0/3.8/4.1</t>
+        </is>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1109" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1109" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>hirame</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>ヒラメ</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E1110" t="inlineStr">
+        <is>
+          <t>ゆうせい丸船(13.8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1110" t="inlineStr">
+        <is>
+          <t>0-1 枚</t>
+        </is>
+      </c>
+      <c r="G1110" t="inlineStr">
+        <is>
+          <t>0.7-1.3kg</t>
+        </is>
+      </c>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1110" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1110" t="inlineStr">
+        <is>
+          <t>2.9/2.9/2.9</t>
+        </is>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:29+09:00</t>
+        </is>
+      </c>
+      <c r="L1110" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=hirame</t>
+        </is>
+      </c>
+      <c r="M1110" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>magoti</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>マゴチ</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E1111" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1111" t="inlineStr">
+        <is>
+          <t>X-6 尾</t>
+        </is>
+      </c>
+      <c r="G1111" t="inlineStr">
+        <is>
+          <t>3X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1111" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J1111" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:33+09:00</t>
+        </is>
+      </c>
+      <c r="L1111" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=magoti</t>
+        </is>
+      </c>
+      <c r="M1111" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>北茨城 / 会瀬</t>
+        </is>
+      </c>
+      <c r="E1112" t="inlineStr">
+        <is>
+          <t>ことぶき丸船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1112" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G1112" t="inlineStr">
+        <is>
+          <t>0.3X-1.2Xkg</t>
+        </is>
+      </c>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1112" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1112" t="inlineStr">
+        <is>
+          <t>2.3/1.7/2.0</t>
+        </is>
+      </c>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1112" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1112" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>北茨城 / 久慈</t>
+        </is>
+      </c>
+      <c r="E1113" t="inlineStr">
+        <is>
+          <t>大貫丸船(18ﾄﾝ,5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1113" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G1113" t="inlineStr">
+        <is>
+          <t>0.30-1.00kg</t>
+        </is>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1113" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1113" t="inlineStr">
+        <is>
+          <t>4.6/3.7/4.6</t>
+        </is>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1113" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1113" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>北茨城 / 久慈</t>
+        </is>
+      </c>
+      <c r="E1114" t="inlineStr">
+        <is>
+          <t>弘漁丸船(19ﾄﾝ,4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1114" t="inlineStr">
+        <is>
+          <t>0-8 尾</t>
+        </is>
+      </c>
+      <c r="G1114" t="inlineStr">
+        <is>
+          <t>0.3-1.6kg</t>
+        </is>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>日立沖</t>
+        </is>
+      </c>
+      <c r="I1114" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1114" t="inlineStr">
+        <is>
+          <t>3.3/3.5/3.4</t>
+        </is>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1114" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1114" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>北茨城 / 久慈</t>
+        </is>
+      </c>
+      <c r="E1115" t="inlineStr">
+        <is>
+          <t>宮田丸船(5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1115" t="inlineStr">
+        <is>
+          <t>1-7 尾</t>
+        </is>
+      </c>
+      <c r="G1115" t="inlineStr">
+        <is>
+          <t>0.20-1.50kg</t>
+        </is>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1115" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1115" t="inlineStr">
+        <is>
+          <t>4.0/2.3/3.9</t>
+        </is>
+      </c>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1115" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1115" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr">
+        <is>
+          <t>梅花丸船(19ﾄﾝ,17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1116" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G1116" t="inlineStr">
+        <is>
+          <t>0.50-3.30kg</t>
+        </is>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1116" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1116" t="inlineStr">
+        <is>
+          <t>4.1/4.4/4.3</t>
+        </is>
+      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1116" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1116" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E1117" t="inlineStr">
+        <is>
+          <t>優光丸船(16ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>0-7 尾</t>
+        </is>
+      </c>
+      <c r="G1117" t="inlineStr">
+        <is>
+          <t>0.3-0.8kg</t>
+        </is>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1117" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1117" t="inlineStr">
+        <is>
+          <t>3.8/3.3/3.1</t>
+        </is>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1117" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1117" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>外房 / 飯岡</t>
+        </is>
+      </c>
+      <c r="E1118" t="inlineStr">
+        <is>
+          <t>三次郎丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G1118" t="inlineStr">
+        <is>
+          <t>0.60-1.10kg</t>
+        </is>
+      </c>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>飯岡沖15m40m</t>
+        </is>
+      </c>
+      <c r="I1118" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1118" t="inlineStr">
+        <is>
+          <t>2.7/3.4/3.2</t>
+        </is>
+      </c>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1118" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1118" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E1119" t="inlineStr">
+        <is>
+          <t>米元釣船店船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1119" t="inlineStr">
+        <is>
+          <t>X-4 尾</t>
+        </is>
+      </c>
+      <c r="G1119" t="inlineStr">
+        <is>
+          <t>0.4-0.8kg</t>
+        </is>
+      </c>
+      <c r="H1119" t="inlineStr">
+        <is>
+          <t>赤灯沖25m30m40m</t>
+        </is>
+      </c>
+      <c r="I1119" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1119" t="inlineStr">
+        <is>
+          <t>4.6/3.5/4.4</t>
+        </is>
+      </c>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1119" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1119" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E1120" t="inlineStr">
+        <is>
+          <t>一之瀬丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1120" t="inlineStr">
+        <is>
+          <t>X-2 尾</t>
+        </is>
+      </c>
+      <c r="G1120" t="inlineStr">
+        <is>
+          <t>0.4-1.2kg</t>
+        </is>
+      </c>
+      <c r="H1120" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1120" t="inlineStr">
+        <is>
+          <t>ぎょさん</t>
+        </is>
+      </c>
+      <c r="J1120" t="inlineStr">
+        <is>
+          <t>2.8/3.2/3.1</t>
+        </is>
+      </c>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1120" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1120" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>横浜 / 金沢八景</t>
+        </is>
+      </c>
+      <c r="E1121" t="inlineStr">
+        <is>
+          <t>村本海事船(15m)</t>
+        </is>
+      </c>
+      <c r="F1121" t="inlineStr">
+        <is>
+          <t>1 尾</t>
+        </is>
+      </c>
+      <c r="G1121" t="inlineStr">
+        <is>
+          <t>2.8Xkg</t>
+        </is>
+      </c>
+      <c r="H1121" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1121" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1121" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1121" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>三浦半島 / 久里浜</t>
+        </is>
+      </c>
+      <c r="E1122" t="inlineStr">
+        <is>
+          <t>大正丸</t>
+        </is>
+      </c>
+      <c r="F1122" t="inlineStr">
+        <is>
+          <t>5-7 尾</t>
+        </is>
+      </c>
+      <c r="G1122" t="inlineStr">
+        <is>
+          <t>0.5-1.2kg</t>
+        </is>
+      </c>
+      <c r="H1122" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1122" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1122" t="inlineStr">
+        <is>
+          <t>3.4/3.5/4.0</t>
+        </is>
+      </c>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1122" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1122" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>三浦半島 / 金田</t>
+        </is>
+      </c>
+      <c r="E1123" t="inlineStr">
+        <is>
+          <t>岩伊丸船(3.6ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1123" t="inlineStr">
+        <is>
+          <t>X-2 尾</t>
+        </is>
+      </c>
+      <c r="G1123" t="inlineStr">
+        <is>
+          <t>0.3X-2.2Xkg</t>
+        </is>
+      </c>
+      <c r="H1123" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1123" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1123" t="inlineStr">
+        <is>
+          <t>5.0/2.4/4.3</t>
+        </is>
+      </c>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1123" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1123" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E1124" t="inlineStr">
+        <is>
+          <t>大松丸船(19.9ﾄﾝ,19.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1124" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G1124" t="inlineStr">
+        <is>
+          <t>0.8X-1.8Xkg</t>
+        </is>
+      </c>
+      <c r="H1124" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1124" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1124" t="inlineStr">
+        <is>
+          <t>3.7/4.2/3.8</t>
+        </is>
+      </c>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1124" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1124" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>伝五郎丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1125" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>0.5X-1.3Xkg</t>
+        </is>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1125" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1125" t="inlineStr">
+        <is>
+          <t>3.4/3.5/2.7</t>
+        </is>
+      </c>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1125" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1125" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>成銀丸船(19.9ﾄﾝ,19ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1126" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G1126" t="inlineStr">
+        <is>
+          <t>0.5X-1.8Xkg</t>
+        </is>
+      </c>
+      <c r="H1126" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1126" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1126" t="inlineStr">
+        <is>
+          <t>2.9/3.9/2.6</t>
+        </is>
+      </c>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1126" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1126" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎松輪</t>
+        </is>
+      </c>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>正海丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F1127" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>0.6X-1.8Xkg</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1127" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1127" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1127" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E1128" t="inlineStr">
+        <is>
+          <t>はじめ丸船(4.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1128" t="inlineStr">
+        <is>
+          <t>1 尾</t>
+        </is>
+      </c>
+      <c r="G1128" t="inlineStr">
+        <is>
+          <t>3.3Xkg</t>
+        </is>
+      </c>
+      <c r="H1128" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1128" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1128" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1128" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>三浦半島 / 佐島</t>
+        </is>
+      </c>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>つね丸船(19ﾄﾝ,9.9ﾄﾝ,9.7ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1129" t="inlineStr">
+        <is>
+          <t>X-2 尾</t>
+        </is>
+      </c>
+      <c r="G1129" t="inlineStr">
+        <is>
+          <t>0.5X-2.2Xkg</t>
+        </is>
+      </c>
+      <c r="H1129" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1129" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1129" t="inlineStr">
+        <is>
+          <t>3.1/3.7/3.3</t>
+        </is>
+      </c>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1129" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1129" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>相模湾 / 湘南片瀬</t>
+        </is>
+      </c>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>ゆうせい丸船(13.8ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1130" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>0.4-0.6kg</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1130" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1130" t="inlineStr">
+        <is>
+          <t>2.9/2.9/2.9</t>
+        </is>
+      </c>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1130" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1130" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E1131" t="inlineStr">
+        <is>
+          <t>ちがさき丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1131" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>0.6-2kg</t>
+        </is>
+      </c>
+      <c r="H1131" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1131" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1131" t="inlineStr">
+        <is>
+          <t>3.6/3.4/3.4</t>
+        </is>
+      </c>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1131" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1131" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>madai</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>マダイ</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>相模湾 / 小田原</t>
+        </is>
+      </c>
+      <c r="E1132" t="inlineStr">
+        <is>
+          <t>平安丸</t>
+        </is>
+      </c>
+      <c r="F1132" t="inlineStr">
+        <is>
+          <t>X-3 尾</t>
+        </is>
+      </c>
+      <c r="G1132" t="inlineStr">
+        <is>
+          <t>0.7-1.6kg</t>
+        </is>
+      </c>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1132" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1132" t="inlineStr">
+        <is>
+          <t>4.3/3.8/3.8</t>
+        </is>
+      </c>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:34+09:00</t>
+        </is>
+      </c>
+      <c r="L1132" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madai</t>
+        </is>
+      </c>
+      <c r="M1132" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>madako</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>マダコ</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>茨城 / 那珂湊</t>
+        </is>
+      </c>
+      <c r="E1133" t="inlineStr">
+        <is>
+          <t>つれたか丸</t>
+        </is>
+      </c>
+      <c r="F1133" t="inlineStr">
+        <is>
+          <t>X-4 杯</t>
+        </is>
+      </c>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>1.0X-4.3Xkg</t>
+        </is>
+      </c>
+      <c r="H1133" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1133" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1133" t="inlineStr">
+        <is>
+          <t>1.9/1.7/2.0</t>
+        </is>
+      </c>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:35+09:00</t>
+        </is>
+      </c>
+      <c r="L1133" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=madako</t>
+        </is>
+      </c>
+      <c r="M1133" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>mahata</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>マハタ</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E1134" t="inlineStr">
+        <is>
+          <t>幸栄丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1134" t="inlineStr">
+        <is>
+          <t>0-2 尾</t>
+        </is>
+      </c>
+      <c r="G1134" t="inlineStr">
+        <is>
+          <t>0.40-2.10kg</t>
+        </is>
+      </c>
+      <c r="H1134" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1134" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1134" t="inlineStr">
+        <is>
+          <t>2.5/3.8/2.2</t>
+        </is>
+      </c>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:36+09:00</t>
+        </is>
+      </c>
+      <c r="L1134" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+        </is>
+      </c>
+      <c r="M1134" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>mahata</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>マハタ</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>南房 / 千倉</t>
+        </is>
+      </c>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>千鯛丸船(7.3ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1135" t="inlineStr">
+        <is>
+          <t>0-4 尾</t>
+        </is>
+      </c>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>0.80-1.50kg</t>
+        </is>
+      </c>
+      <c r="H1135" t="inlineStr">
+        <is>
+          <t>千倉沖</t>
+        </is>
+      </c>
+      <c r="I1135" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1135" t="inlineStr">
+        <is>
+          <t>3.7/2.7/3.4</t>
+        </is>
+      </c>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:36+09:00</t>
+        </is>
+      </c>
+      <c r="L1135" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=mahata</t>
+        </is>
+      </c>
+      <c r="M1135" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>三浦半島 / 剣崎間口</t>
+        </is>
+      </c>
+      <c r="E1136" t="inlineStr">
+        <is>
+          <t>喜平治丸</t>
+        </is>
+      </c>
+      <c r="F1136" t="inlineStr">
+        <is>
+          <t>2-3X 杯</t>
+        </is>
+      </c>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1136" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1136" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1136" t="inlineStr">
+        <is>
+          <t>3.9/4.5/4.3</t>
+        </is>
+      </c>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:37+09:00</t>
+        </is>
+      </c>
+      <c r="L1136" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M1136" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>三浦半島 / 三崎</t>
+        </is>
+      </c>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>佐円丸船(18.9ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1137" t="inlineStr">
+        <is>
+          <t>X-9 杯</t>
+        </is>
+      </c>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1137" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1137" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1137" t="inlineStr">
+        <is>
+          <t>2.7/3.4/3.4</t>
+        </is>
+      </c>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:37+09:00</t>
+        </is>
+      </c>
+      <c r="L1137" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M1137" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>三浦半島 / 小網代</t>
+        </is>
+      </c>
+      <c r="E1138" t="inlineStr">
+        <is>
+          <t>大和丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1138" t="inlineStr">
+        <is>
+          <t>0-1X 杯</t>
+        </is>
+      </c>
+      <c r="G1138" t="inlineStr">
+        <is>
+          <t>1X-2Xcm</t>
+        </is>
+      </c>
+      <c r="H1138" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1138" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1138" t="inlineStr">
+        <is>
+          <t>4.9/4.5/4.8</t>
+        </is>
+      </c>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:37+09:00</t>
+        </is>
+      </c>
+      <c r="L1138" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M1138" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>三浦半島 / 小網代</t>
+        </is>
+      </c>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>翔太丸船(13.5ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1139" t="inlineStr">
+        <is>
+          <t>2-1X 杯</t>
+        </is>
+      </c>
+      <c r="G1139" t="inlineStr">
+        <is>
+          <t>1X-3Xcm</t>
+        </is>
+      </c>
+      <c r="H1139" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1139" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1139" t="inlineStr">
+        <is>
+          <t>4.4/4.3/4.4</t>
+        </is>
+      </c>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:37+09:00</t>
+        </is>
+      </c>
+      <c r="L1139" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M1139" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>三浦半島 / 長井</t>
+        </is>
+      </c>
+      <c r="E1140" t="inlineStr">
+        <is>
+          <t>はら丸</t>
+        </is>
+      </c>
+      <c r="F1140" t="inlineStr">
+        <is>
+          <t>2-10 杯</t>
+        </is>
+      </c>
+      <c r="G1140" t="inlineStr">
+        <is>
+          <t>14-28cm</t>
+        </is>
+      </c>
+      <c r="H1140" t="inlineStr">
+        <is>
+          <t>長井沖城ヶ島沖</t>
+        </is>
+      </c>
+      <c r="I1140" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1140" t="inlineStr">
+        <is>
+          <t>3.7/2.6/3.8</t>
+        </is>
+      </c>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:37+09:00</t>
+        </is>
+      </c>
+      <c r="L1140" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M1140" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>三浦半島 / 葉山芝崎</t>
+        </is>
+      </c>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>五エム丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F1141" t="inlineStr">
+        <is>
+          <t>2-18 杯</t>
+        </is>
+      </c>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>17-30cm</t>
+        </is>
+      </c>
+      <c r="H1141" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1141" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1141" t="inlineStr">
+        <is>
+          <t>3.5/3.8/4.0</t>
+        </is>
+      </c>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:37+09:00</t>
+        </is>
+      </c>
+      <c r="L1141" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M1141" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>相模湾 / 茅ヶ崎</t>
+        </is>
+      </c>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>まごうの丸船(17ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1142" t="inlineStr">
+        <is>
+          <t>0-17 杯</t>
+        </is>
+      </c>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>16-28cm</t>
+        </is>
+      </c>
+      <c r="H1142" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1142" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1142" t="inlineStr">
+        <is>
+          <t>3.5/3.4/3.5</t>
+        </is>
+      </c>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:37+09:00</t>
+        </is>
+      </c>
+      <c r="L1142" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M1142" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>相模湾 / 平塚</t>
+        </is>
+      </c>
+      <c r="E1143" t="inlineStr">
+        <is>
+          <t>庄治郎丸船(19ｔ)</t>
+        </is>
+      </c>
+      <c r="F1143" t="inlineStr">
+        <is>
+          <t>3-38 杯</t>
+        </is>
+      </c>
+      <c r="G1143" t="inlineStr">
+        <is>
+          <t>18-27cm</t>
+        </is>
+      </c>
+      <c r="H1143" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1143" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1143" t="inlineStr">
+        <is>
+          <t>3.6/4.0/4.0</t>
+        </is>
+      </c>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:37+09:00</t>
+        </is>
+      </c>
+      <c r="L1143" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M1143" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>maruika</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>マルイカ</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>駿河湾 / 沼津静浦</t>
+        </is>
+      </c>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>勘栄丸</t>
+        </is>
+      </c>
+      <c r="F1144" t="inlineStr">
+        <is>
+          <t>11-50 杯</t>
+        </is>
+      </c>
+      <c r="G1144" t="inlineStr">
+        <is>
+          <t>15-25cm</t>
+        </is>
+      </c>
+      <c r="H1144" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1144" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1144" t="inlineStr">
+        <is>
+          <t>3.1/3.6/3.4</t>
+        </is>
+      </c>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:37+09:00</t>
+        </is>
+      </c>
+      <c r="L1144" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=maruika</t>
+        </is>
+      </c>
+      <c r="M1144" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>medai</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>メダイ</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>南伊豆 / 下田須崎</t>
+        </is>
+      </c>
+      <c r="E1145" t="inlineStr">
+        <is>
+          <t>久寿丸船(13ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1145" t="inlineStr">
+        <is>
+          <t>X-7 尾</t>
+        </is>
+      </c>
+      <c r="G1145" t="inlineStr">
+        <is>
+          <t>2.0X-4.2Xkg</t>
+        </is>
+      </c>
+      <c r="H1145" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1145" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1145" t="inlineStr">
+        <is>
+          <t>4.8/4.4/4.6</t>
+        </is>
+      </c>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:38+09:00</t>
+        </is>
+      </c>
+      <c r="L1145" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=medai</t>
+        </is>
+      </c>
+      <c r="M1145" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E1146" t="inlineStr">
+        <is>
+          <t>長岡丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1146" t="inlineStr">
+        <is>
+          <t>X-6 杯</t>
+        </is>
+      </c>
+      <c r="G1146" t="inlineStr">
+        <is>
+          <t>2X-5Xcm</t>
+        </is>
+      </c>
+      <c r="H1146" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1146" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1146" t="inlineStr">
+        <is>
+          <t>3.5/3.5/3.7</t>
+        </is>
+      </c>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:41+09:00</t>
+        </is>
+      </c>
+      <c r="L1146" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M1146" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>茨城 / 鹿島</t>
+        </is>
+      </c>
+      <c r="E1147" t="inlineStr">
+        <is>
+          <t>幸栄丸船(20ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1147" t="inlineStr">
+        <is>
+          <t>0-3 杯</t>
+        </is>
+      </c>
+      <c r="G1147" t="inlineStr">
+        <is>
+          <t>15-45cm</t>
+        </is>
+      </c>
+      <c r="H1147" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1147" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1147" t="inlineStr">
+        <is>
+          <t>2.5/3.8/2.2</t>
+        </is>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:41+09:00</t>
+        </is>
+      </c>
+      <c r="L1147" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M1147" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>外房 / 川津</t>
+        </is>
+      </c>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>不動丸船(14ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1148" t="inlineStr">
+        <is>
+          <t>0-10 杯</t>
+        </is>
+      </c>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>25-40cm</t>
+        </is>
+      </c>
+      <c r="H1148" t="inlineStr">
+        <is>
+          <t>勝浦沖</t>
+        </is>
+      </c>
+      <c r="I1148" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="J1148" t="inlineStr">
+        <is>
+          <t>3.6/3.7/3.4</t>
+        </is>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:41+09:00</t>
+        </is>
+      </c>
+      <c r="L1148" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M1148" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>南房 / 白間津</t>
+        </is>
+      </c>
+      <c r="E1149" t="inlineStr">
+        <is>
+          <t>甚四郎丸船(12ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>0-1X 杯</t>
+        </is>
+      </c>
+      <c r="G1149" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1149" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1149" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1149" t="inlineStr">
+        <is>
+          <t>4.6/4.0/4.8</t>
+        </is>
+      </c>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:41+09:00</t>
+        </is>
+      </c>
+      <c r="L1149" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M1149" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>yariika</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>ヤリイカ</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>南房 / 洲崎</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>早川丸船(18ﾄﾝ)</t>
+        </is>
+      </c>
+      <c r="F1150" t="inlineStr">
+        <is>
+          <t>X-7 杯</t>
+        </is>
+      </c>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>2X-4Xcm</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="I1150" t="inlineStr">
+        <is>
+          <t>釣割</t>
+        </is>
+      </c>
+      <c r="J1150" t="inlineStr">
+        <is>
+          <t>2.6/3.7/3.1</t>
+        </is>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>2026-02-28T18:39:41+09:00</t>
+        </is>
+      </c>
+      <c r="L1150" t="inlineStr">
+        <is>
+          <t>https://funaduri.jp/fish.cgi?fish=yariika</t>
+        </is>
+      </c>
+      <c r="M1150" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:40:54</t>
         </is>
       </c>
     </row>
@@ -67395,7 +77283,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-28 13:39:06</t>
+          <t>2026-02-28 18:40:54</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -67432,7 +77320,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-28 13:39:06</t>
+          <t>2026-02-28 18:40:54</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -67469,7 +77357,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-28 13:39:06</t>
+          <t>2026-02-28 18:40:54</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -67506,7 +77394,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-28 13:39:06</t>
+          <t>2026-02-28 18:40:54</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -67543,7 +77431,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-28 13:39:06</t>
+          <t>2026-02-28 18:40:54</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -67580,7 +77468,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-28 13:39:06</t>
+          <t>2026-02-28 18:40:54</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -67617,7 +77505,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-28 13:39:06</t>
+          <t>2026-02-28 18:40:54</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">

--- a/data/funaduri_daily.xlsx
+++ b/data/funaduri_daily.xlsx
@@ -70534,7 +70534,7 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:21+09:00</t>
+          <t>2026-03-01T06:39:45+09:00</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
@@ -70544,7 +70544,7 @@
       </c>
       <c r="M1050" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -70601,7 +70601,7 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:21+09:00</t>
+          <t>2026-03-01T06:39:45+09:00</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
@@ -70611,7 +70611,7 @@
       </c>
       <c r="M1051" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -70664,7 +70664,7 @@
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:21+09:00</t>
+          <t>2026-03-01T06:39:45+09:00</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
@@ -70674,7 +70674,7 @@
       </c>
       <c r="M1052" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -70731,7 +70731,7 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:22+09:00</t>
+          <t>2026-03-01T06:39:46+09:00</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
@@ -70741,7 +70741,7 @@
       </c>
       <c r="M1053" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -70798,7 +70798,7 @@
       </c>
       <c r="K1054" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:23+09:00</t>
+          <t>2026-03-01T06:39:47+09:00</t>
         </is>
       </c>
       <c r="L1054" t="inlineStr">
@@ -70808,7 +70808,7 @@
       </c>
       <c r="M1054" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -70865,7 +70865,7 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
@@ -70875,7 +70875,7 @@
       </c>
       <c r="M1055" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -70932,7 +70932,7 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
@@ -70942,7 +70942,7 @@
       </c>
       <c r="M1056" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -70999,7 +70999,7 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
@@ -71009,7 +71009,7 @@
       </c>
       <c r="M1057" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71066,7 +71066,7 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
@@ -71076,7 +71076,7 @@
       </c>
       <c r="M1058" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71133,7 +71133,7 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
@@ -71143,7 +71143,7 @@
       </c>
       <c r="M1059" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71200,7 +71200,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -71210,7 +71210,7 @@
       </c>
       <c r="M1060" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71267,7 +71267,7 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
@@ -71277,7 +71277,7 @@
       </c>
       <c r="M1061" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71334,7 +71334,7 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
@@ -71344,7 +71344,7 @@
       </c>
       <c r="M1062" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71401,7 +71401,7 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
@@ -71411,7 +71411,7 @@
       </c>
       <c r="M1063" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71468,7 +71468,7 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
@@ -71478,7 +71478,7 @@
       </c>
       <c r="M1064" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71535,7 +71535,7 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
@@ -71545,7 +71545,7 @@
       </c>
       <c r="M1065" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71598,7 +71598,7 @@
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
@@ -71608,7 +71608,7 @@
       </c>
       <c r="M1066" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71665,7 +71665,7 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
@@ -71675,7 +71675,7 @@
       </c>
       <c r="M1067" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71732,7 +71732,7 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
@@ -71742,7 +71742,7 @@
       </c>
       <c r="M1068" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71799,7 +71799,7 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
@@ -71809,7 +71809,7 @@
       </c>
       <c r="M1069" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71866,7 +71866,7 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
@@ -71876,7 +71876,7 @@
       </c>
       <c r="M1070" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -71933,7 +71933,7 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
@@ -71943,7 +71943,7 @@
       </c>
       <c r="M1071" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72000,7 +72000,7 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
@@ -72010,7 +72010,7 @@
       </c>
       <c r="M1072" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72067,7 +72067,7 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
@@ -72077,7 +72077,7 @@
       </c>
       <c r="M1073" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72134,7 +72134,7 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
@@ -72144,7 +72144,7 @@
       </c>
       <c r="M1074" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72201,7 +72201,7 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1075" t="inlineStr">
@@ -72211,7 +72211,7 @@
       </c>
       <c r="M1075" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72268,7 +72268,7 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
@@ -72278,7 +72278,7 @@
       </c>
       <c r="M1076" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72335,7 +72335,7 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
@@ -72345,7 +72345,7 @@
       </c>
       <c r="M1077" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72402,7 +72402,7 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
@@ -72412,7 +72412,7 @@
       </c>
       <c r="M1078" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72469,7 +72469,7 @@
       </c>
       <c r="K1079" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1079" t="inlineStr">
@@ -72479,7 +72479,7 @@
       </c>
       <c r="M1079" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72536,7 +72536,7 @@
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1080" t="inlineStr">
@@ -72546,7 +72546,7 @@
       </c>
       <c r="M1080" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72603,7 +72603,7 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
@@ -72613,7 +72613,7 @@
       </c>
       <c r="M1081" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72670,7 +72670,7 @@
       </c>
       <c r="K1082" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1082" t="inlineStr">
@@ -72680,7 +72680,7 @@
       </c>
       <c r="M1082" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72737,7 +72737,7 @@
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1083" t="inlineStr">
@@ -72747,7 +72747,7 @@
       </c>
       <c r="M1083" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72804,7 +72804,7 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
@@ -72814,7 +72814,7 @@
       </c>
       <c r="M1084" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72871,7 +72871,7 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
@@ -72881,7 +72881,7 @@
       </c>
       <c r="M1085" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -72938,7 +72938,7 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
@@ -72948,7 +72948,7 @@
       </c>
       <c r="M1086" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73005,7 +73005,7 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
@@ -73015,7 +73015,7 @@
       </c>
       <c r="M1087" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73072,7 +73072,7 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
@@ -73082,7 +73082,7 @@
       </c>
       <c r="M1088" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73139,7 +73139,7 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
@@ -73149,7 +73149,7 @@
       </c>
       <c r="M1089" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73206,7 +73206,7 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
@@ -73216,7 +73216,7 @@
       </c>
       <c r="M1090" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73273,7 +73273,7 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:24+09:00</t>
+          <t>2026-03-01T06:39:48+09:00</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
@@ -73283,7 +73283,7 @@
       </c>
       <c r="M1091" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73340,7 +73340,7 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
@@ -73350,7 +73350,7 @@
       </c>
       <c r="M1092" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73407,7 +73407,7 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
@@ -73417,7 +73417,7 @@
       </c>
       <c r="M1093" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73474,7 +73474,7 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
@@ -73484,7 +73484,7 @@
       </c>
       <c r="M1094" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73541,7 +73541,7 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
@@ -73551,7 +73551,7 @@
       </c>
       <c r="M1095" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73608,7 +73608,7 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1096" t="inlineStr">
@@ -73618,7 +73618,7 @@
       </c>
       <c r="M1096" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73675,7 +73675,7 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1097" t="inlineStr">
@@ -73685,7 +73685,7 @@
       </c>
       <c r="M1097" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73742,7 +73742,7 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
@@ -73752,7 +73752,7 @@
       </c>
       <c r="M1098" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73809,7 +73809,7 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
@@ -73819,7 +73819,7 @@
       </c>
       <c r="M1099" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73876,7 +73876,7 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
@@ -73886,7 +73886,7 @@
       </c>
       <c r="M1100" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -73943,7 +73943,7 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
@@ -73953,7 +73953,7 @@
       </c>
       <c r="M1101" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74010,7 +74010,7 @@
       </c>
       <c r="K1102" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1102" t="inlineStr">
@@ -74020,7 +74020,7 @@
       </c>
       <c r="M1102" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74077,7 +74077,7 @@
       </c>
       <c r="K1103" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1103" t="inlineStr">
@@ -74087,7 +74087,7 @@
       </c>
       <c r="M1103" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74144,7 +74144,7 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1104" t="inlineStr">
@@ -74154,7 +74154,7 @@
       </c>
       <c r="M1104" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74211,7 +74211,7 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1105" t="inlineStr">
@@ -74221,7 +74221,7 @@
       </c>
       <c r="M1105" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74278,7 +74278,7 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
@@ -74288,7 +74288,7 @@
       </c>
       <c r="M1106" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74345,7 +74345,7 @@
       </c>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1107" t="inlineStr">
@@ -74355,7 +74355,7 @@
       </c>
       <c r="M1107" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74412,7 +74412,7 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
@@ -74422,7 +74422,7 @@
       </c>
       <c r="M1108" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74479,7 +74479,7 @@
       </c>
       <c r="K1109" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1109" t="inlineStr">
@@ -74489,7 +74489,7 @@
       </c>
       <c r="M1109" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74546,7 +74546,7 @@
       </c>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1110" t="inlineStr">
@@ -74556,7 +74556,7 @@
       </c>
       <c r="M1110" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74613,7 +74613,7 @@
       </c>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1111" t="inlineStr">
@@ -74623,7 +74623,7 @@
       </c>
       <c r="M1111" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74680,7 +74680,7 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
@@ -74690,7 +74690,7 @@
       </c>
       <c r="M1112" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74747,7 +74747,7 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
@@ -74757,7 +74757,7 @@
       </c>
       <c r="M1113" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74814,7 +74814,7 @@
       </c>
       <c r="K1114" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1114" t="inlineStr">
@@ -74824,7 +74824,7 @@
       </c>
       <c r="M1114" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74881,7 +74881,7 @@
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1115" t="inlineStr">
@@ -74891,7 +74891,7 @@
       </c>
       <c r="M1115" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -74944,7 +74944,7 @@
       <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1116" t="inlineStr">
@@ -74954,7 +74954,7 @@
       </c>
       <c r="M1116" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75011,7 +75011,7 @@
       </c>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1117" t="inlineStr">
@@ -75021,7 +75021,7 @@
       </c>
       <c r="M1117" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75078,7 +75078,7 @@
       </c>
       <c r="K1118" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:26+09:00</t>
+          <t>2026-03-01T06:39:49+09:00</t>
         </is>
       </c>
       <c r="L1118" t="inlineStr">
@@ -75088,7 +75088,7 @@
       </c>
       <c r="M1118" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75145,7 +75145,7 @@
       </c>
       <c r="K1119" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:28+09:00</t>
+          <t>2026-03-01T06:39:51+09:00</t>
         </is>
       </c>
       <c r="L1119" t="inlineStr">
@@ -75155,7 +75155,7 @@
       </c>
       <c r="M1119" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75212,7 +75212,7 @@
       </c>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:30+09:00</t>
+          <t>2026-03-01T06:39:53+09:00</t>
         </is>
       </c>
       <c r="L1120" t="inlineStr">
@@ -75222,7 +75222,7 @@
       </c>
       <c r="M1120" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75275,7 +75275,7 @@
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:30+09:00</t>
+          <t>2026-03-01T06:39:54+09:00</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
@@ -75285,7 +75285,7 @@
       </c>
       <c r="M1121" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75342,7 +75342,7 @@
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:30+09:00</t>
+          <t>2026-03-01T06:39:54+09:00</t>
         </is>
       </c>
       <c r="L1122" t="inlineStr">
@@ -75352,7 +75352,7 @@
       </c>
       <c r="M1122" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75409,7 +75409,7 @@
       </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:30+09:00</t>
+          <t>2026-03-01T06:39:54+09:00</t>
         </is>
       </c>
       <c r="L1123" t="inlineStr">
@@ -75419,7 +75419,7 @@
       </c>
       <c r="M1123" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75476,7 +75476,7 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:30+09:00</t>
+          <t>2026-03-01T06:39:54+09:00</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
@@ -75486,7 +75486,7 @@
       </c>
       <c r="M1124" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75543,7 +75543,7 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:32+09:00</t>
+          <t>2026-03-01T06:39:55+09:00</t>
         </is>
       </c>
       <c r="L1125" t="inlineStr">
@@ -75553,7 +75553,7 @@
       </c>
       <c r="M1125" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75610,7 +75610,7 @@
       </c>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:32+09:00</t>
+          <t>2026-03-01T06:39:55+09:00</t>
         </is>
       </c>
       <c r="L1126" t="inlineStr">
@@ -75620,7 +75620,7 @@
       </c>
       <c r="M1126" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75677,7 +75677,7 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:32+09:00</t>
+          <t>2026-03-01T06:39:55+09:00</t>
         </is>
       </c>
       <c r="L1127" t="inlineStr">
@@ -75687,7 +75687,7 @@
       </c>
       <c r="M1127" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75744,7 +75744,7 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:32+09:00</t>
+          <t>2026-03-01T06:39:55+09:00</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
@@ -75754,7 +75754,7 @@
       </c>
       <c r="M1128" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75811,7 +75811,7 @@
       </c>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:32+09:00</t>
+          <t>2026-03-01T06:39:55+09:00</t>
         </is>
       </c>
       <c r="L1129" t="inlineStr">
@@ -75821,7 +75821,7 @@
       </c>
       <c r="M1129" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75878,7 +75878,7 @@
       </c>
       <c r="K1130" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:33+09:00</t>
+          <t>2026-03-01T06:39:56+09:00</t>
         </is>
       </c>
       <c r="L1130" t="inlineStr">
@@ -75888,7 +75888,7 @@
       </c>
       <c r="M1130" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -75945,7 +75945,7 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:33+09:00</t>
+          <t>2026-03-01T06:39:56+09:00</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
@@ -75955,7 +75955,7 @@
       </c>
       <c r="M1131" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76012,7 +76012,7 @@
       </c>
       <c r="K1132" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:33+09:00</t>
+          <t>2026-03-01T06:39:56+09:00</t>
         </is>
       </c>
       <c r="L1132" t="inlineStr">
@@ -76022,7 +76022,7 @@
       </c>
       <c r="M1132" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76079,7 +76079,7 @@
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:33+09:00</t>
+          <t>2026-03-01T06:39:56+09:00</t>
         </is>
       </c>
       <c r="L1133" t="inlineStr">
@@ -76089,7 +76089,7 @@
       </c>
       <c r="M1133" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76146,7 +76146,7 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:34+09:00</t>
+          <t>2026-03-01T06:39:57+09:00</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
@@ -76156,7 +76156,7 @@
       </c>
       <c r="M1134" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76213,7 +76213,7 @@
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:35+09:00</t>
+          <t>2026-03-01T06:39:58+09:00</t>
         </is>
       </c>
       <c r="L1135" t="inlineStr">
@@ -76223,7 +76223,7 @@
       </c>
       <c r="M1135" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76280,7 +76280,7 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:35+09:00</t>
+          <t>2026-03-01T06:39:58+09:00</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
@@ -76290,7 +76290,7 @@
       </c>
       <c r="M1136" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76347,7 +76347,7 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:35+09:00</t>
+          <t>2026-03-01T06:39:58+09:00</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
@@ -76357,7 +76357,7 @@
       </c>
       <c r="M1137" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76414,7 +76414,7 @@
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:35+09:00</t>
+          <t>2026-03-01T06:39:58+09:00</t>
         </is>
       </c>
       <c r="L1138" t="inlineStr">
@@ -76424,7 +76424,7 @@
       </c>
       <c r="M1138" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76481,7 +76481,7 @@
       </c>
       <c r="K1139" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:35+09:00</t>
+          <t>2026-03-01T06:39:58+09:00</t>
         </is>
       </c>
       <c r="L1139" t="inlineStr">
@@ -76491,7 +76491,7 @@
       </c>
       <c r="M1139" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76548,7 +76548,7 @@
       </c>
       <c r="K1140" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:35+09:00</t>
+          <t>2026-03-01T06:39:58+09:00</t>
         </is>
       </c>
       <c r="L1140" t="inlineStr">
@@ -76558,7 +76558,7 @@
       </c>
       <c r="M1140" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76615,7 +76615,7 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:35+09:00</t>
+          <t>2026-03-01T06:39:58+09:00</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
@@ -76625,7 +76625,7 @@
       </c>
       <c r="M1141" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76682,7 +76682,7 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:35+09:00</t>
+          <t>2026-03-01T06:39:58+09:00</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
@@ -76692,7 +76692,7 @@
       </c>
       <c r="M1142" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76749,7 +76749,7 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:35+09:00</t>
+          <t>2026-03-01T06:39:58+09:00</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
@@ -76759,7 +76759,7 @@
       </c>
       <c r="M1143" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76816,7 +76816,7 @@
       </c>
       <c r="K1144" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:36+09:00</t>
+          <t>2026-03-01T06:39:59+09:00</t>
         </is>
       </c>
       <c r="L1144" t="inlineStr">
@@ -76826,7 +76826,7 @@
       </c>
       <c r="M1144" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76883,7 +76883,7 @@
       </c>
       <c r="K1145" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:36+09:00</t>
+          <t>2026-03-01T06:39:59+09:00</t>
         </is>
       </c>
       <c r="L1145" t="inlineStr">
@@ -76893,7 +76893,7 @@
       </c>
       <c r="M1145" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -76950,7 +76950,7 @@
       </c>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:36+09:00</t>
+          <t>2026-03-01T06:39:59+09:00</t>
         </is>
       </c>
       <c r="L1146" t="inlineStr">
@@ -76960,7 +76960,7 @@
       </c>
       <c r="M1146" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77017,7 +77017,7 @@
       </c>
       <c r="K1147" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:36+09:00</t>
+          <t>2026-03-01T06:39:59+09:00</t>
         </is>
       </c>
       <c r="L1147" t="inlineStr">
@@ -77027,7 +77027,7 @@
       </c>
       <c r="M1147" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77084,7 +77084,7 @@
       </c>
       <c r="K1148" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:37+09:00</t>
+          <t>2026-03-01T06:40:00+09:00</t>
         </is>
       </c>
       <c r="L1148" t="inlineStr">
@@ -77094,7 +77094,7 @@
       </c>
       <c r="M1148" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77151,7 +77151,7 @@
       </c>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:37+09:00</t>
+          <t>2026-03-01T06:40:00+09:00</t>
         </is>
       </c>
       <c r="L1149" t="inlineStr">
@@ -77161,7 +77161,7 @@
       </c>
       <c r="M1149" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77218,7 +77218,7 @@
       </c>
       <c r="K1150" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:38+09:00</t>
+          <t>2026-03-01T06:40:01+09:00</t>
         </is>
       </c>
       <c r="L1150" t="inlineStr">
@@ -77228,7 +77228,7 @@
       </c>
       <c r="M1150" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77281,7 +77281,7 @@
       <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:38+09:00</t>
+          <t>2026-03-01T06:40:01+09:00</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
@@ -77291,7 +77291,7 @@
       </c>
       <c r="M1151" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77344,7 +77344,7 @@
       <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:38+09:00</t>
+          <t>2026-03-01T06:40:01+09:00</t>
         </is>
       </c>
       <c r="L1152" t="inlineStr">
@@ -77354,7 +77354,7 @@
       </c>
       <c r="M1152" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77411,7 +77411,7 @@
       </c>
       <c r="K1153" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:38+09:00</t>
+          <t>2026-03-01T06:40:01+09:00</t>
         </is>
       </c>
       <c r="L1153" t="inlineStr">
@@ -77421,7 +77421,7 @@
       </c>
       <c r="M1153" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77478,7 +77478,7 @@
       </c>
       <c r="K1154" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:38+09:00</t>
+          <t>2026-03-01T06:40:01+09:00</t>
         </is>
       </c>
       <c r="L1154" t="inlineStr">
@@ -77488,7 +77488,7 @@
       </c>
       <c r="M1154" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77545,7 +77545,7 @@
       </c>
       <c r="K1155" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:38+09:00</t>
+          <t>2026-03-01T06:40:01+09:00</t>
         </is>
       </c>
       <c r="L1155" t="inlineStr">
@@ -77555,7 +77555,7 @@
       </c>
       <c r="M1155" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77612,7 +77612,7 @@
       </c>
       <c r="K1156" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:38+09:00</t>
+          <t>2026-03-01T06:40:01+09:00</t>
         </is>
       </c>
       <c r="L1156" t="inlineStr">
@@ -77622,7 +77622,7 @@
       </c>
       <c r="M1156" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77679,7 +77679,7 @@
       </c>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:38+09:00</t>
+          <t>2026-03-01T06:40:01+09:00</t>
         </is>
       </c>
       <c r="L1157" t="inlineStr">
@@ -77689,7 +77689,7 @@
       </c>
       <c r="M1157" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77746,7 +77746,7 @@
       </c>
       <c r="K1158" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:39+09:00</t>
+          <t>2026-03-01T06:40:02+09:00</t>
         </is>
       </c>
       <c r="L1158" t="inlineStr">
@@ -77756,7 +77756,7 @@
       </c>
       <c r="M1158" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77809,7 +77809,7 @@
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:40+09:00</t>
+          <t>2026-03-01T06:40:02+09:00</t>
         </is>
       </c>
       <c r="L1159" t="inlineStr">
@@ -77819,7 +77819,7 @@
       </c>
       <c r="M1159" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77876,7 +77876,7 @@
       </c>
       <c r="K1160" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:41+09:00</t>
+          <t>2026-03-01T06:40:03+09:00</t>
         </is>
       </c>
       <c r="L1160" t="inlineStr">
@@ -77886,7 +77886,7 @@
       </c>
       <c r="M1160" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -77943,7 +77943,7 @@
       </c>
       <c r="K1161" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:42+09:00</t>
+          <t>2026-03-01T06:40:04+09:00</t>
         </is>
       </c>
       <c r="L1161" t="inlineStr">
@@ -77953,7 +77953,7 @@
       </c>
       <c r="M1161" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78010,7 +78010,7 @@
       </c>
       <c r="K1162" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:42+09:00</t>
+          <t>2026-03-01T06:40:04+09:00</t>
         </is>
       </c>
       <c r="L1162" t="inlineStr">
@@ -78020,7 +78020,7 @@
       </c>
       <c r="M1162" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78077,7 +78077,7 @@
       </c>
       <c r="K1163" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:42+09:00</t>
+          <t>2026-03-01T06:40:04+09:00</t>
         </is>
       </c>
       <c r="L1163" t="inlineStr">
@@ -78087,7 +78087,7 @@
       </c>
       <c r="M1163" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78144,7 +78144,7 @@
       </c>
       <c r="K1164" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:43+09:00</t>
+          <t>2026-03-01T06:40:05+09:00</t>
         </is>
       </c>
       <c r="L1164" t="inlineStr">
@@ -78154,7 +78154,7 @@
       </c>
       <c r="M1164" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78211,7 +78211,7 @@
       </c>
       <c r="K1165" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:43+09:00</t>
+          <t>2026-03-01T06:40:05+09:00</t>
         </is>
       </c>
       <c r="L1165" t="inlineStr">
@@ -78221,7 +78221,7 @@
       </c>
       <c r="M1165" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78278,7 +78278,7 @@
       </c>
       <c r="K1166" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:43+09:00</t>
+          <t>2026-03-01T06:40:05+09:00</t>
         </is>
       </c>
       <c r="L1166" t="inlineStr">
@@ -78288,7 +78288,7 @@
       </c>
       <c r="M1166" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78345,7 +78345,7 @@
       </c>
       <c r="K1167" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:43+09:00</t>
+          <t>2026-03-01T06:40:05+09:00</t>
         </is>
       </c>
       <c r="L1167" t="inlineStr">
@@ -78355,7 +78355,7 @@
       </c>
       <c r="M1167" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78412,7 +78412,7 @@
       </c>
       <c r="K1168" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:43+09:00</t>
+          <t>2026-03-01T06:40:05+09:00</t>
         </is>
       </c>
       <c r="L1168" t="inlineStr">
@@ -78422,7 +78422,7 @@
       </c>
       <c r="M1168" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78479,7 +78479,7 @@
       </c>
       <c r="K1169" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:43+09:00</t>
+          <t>2026-03-01T06:40:05+09:00</t>
         </is>
       </c>
       <c r="L1169" t="inlineStr">
@@ -78489,7 +78489,7 @@
       </c>
       <c r="M1169" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78546,7 +78546,7 @@
       </c>
       <c r="K1170" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:44+09:00</t>
+          <t>2026-03-01T06:40:06+09:00</t>
         </is>
       </c>
       <c r="L1170" t="inlineStr">
@@ -78556,7 +78556,7 @@
       </c>
       <c r="M1170" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78613,7 +78613,7 @@
       </c>
       <c r="K1171" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1171" t="inlineStr">
@@ -78623,7 +78623,7 @@
       </c>
       <c r="M1171" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78680,7 +78680,7 @@
       </c>
       <c r="K1172" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1172" t="inlineStr">
@@ -78690,7 +78690,7 @@
       </c>
       <c r="M1172" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78747,7 +78747,7 @@
       </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1173" t="inlineStr">
@@ -78757,7 +78757,7 @@
       </c>
       <c r="M1173" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78814,7 +78814,7 @@
       </c>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1174" t="inlineStr">
@@ -78824,7 +78824,7 @@
       </c>
       <c r="M1174" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78881,7 +78881,7 @@
       </c>
       <c r="K1175" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1175" t="inlineStr">
@@ -78891,7 +78891,7 @@
       </c>
       <c r="M1175" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -78948,7 +78948,7 @@
       </c>
       <c r="K1176" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1176" t="inlineStr">
@@ -78958,7 +78958,7 @@
       </c>
       <c r="M1176" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79015,7 +79015,7 @@
       </c>
       <c r="K1177" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1177" t="inlineStr">
@@ -79025,7 +79025,7 @@
       </c>
       <c r="M1177" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79082,7 +79082,7 @@
       </c>
       <c r="K1178" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1178" t="inlineStr">
@@ -79092,7 +79092,7 @@
       </c>
       <c r="M1178" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79149,7 +79149,7 @@
       </c>
       <c r="K1179" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1179" t="inlineStr">
@@ -79159,7 +79159,7 @@
       </c>
       <c r="M1179" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79216,7 +79216,7 @@
       </c>
       <c r="K1180" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1180" t="inlineStr">
@@ -79226,7 +79226,7 @@
       </c>
       <c r="M1180" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79283,7 +79283,7 @@
       </c>
       <c r="K1181" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1181" t="inlineStr">
@@ -79293,7 +79293,7 @@
       </c>
       <c r="M1181" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79350,7 +79350,7 @@
       </c>
       <c r="K1182" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1182" t="inlineStr">
@@ -79360,7 +79360,7 @@
       </c>
       <c r="M1182" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79417,7 +79417,7 @@
       </c>
       <c r="K1183" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:45+09:00</t>
+          <t>2026-03-01T06:40:07+09:00</t>
         </is>
       </c>
       <c r="L1183" t="inlineStr">
@@ -79427,7 +79427,7 @@
       </c>
       <c r="M1183" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79484,7 +79484,7 @@
       </c>
       <c r="K1184" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1184" t="inlineStr">
@@ -79494,7 +79494,7 @@
       </c>
       <c r="M1184" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79551,7 +79551,7 @@
       </c>
       <c r="K1185" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1185" t="inlineStr">
@@ -79561,7 +79561,7 @@
       </c>
       <c r="M1185" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79618,7 +79618,7 @@
       </c>
       <c r="K1186" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1186" t="inlineStr">
@@ -79628,7 +79628,7 @@
       </c>
       <c r="M1186" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79685,7 +79685,7 @@
       </c>
       <c r="K1187" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1187" t="inlineStr">
@@ -79695,7 +79695,7 @@
       </c>
       <c r="M1187" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79752,7 +79752,7 @@
       </c>
       <c r="K1188" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1188" t="inlineStr">
@@ -79762,7 +79762,7 @@
       </c>
       <c r="M1188" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79819,7 +79819,7 @@
       </c>
       <c r="K1189" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1189" t="inlineStr">
@@ -79829,7 +79829,7 @@
       </c>
       <c r="M1189" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79886,7 +79886,7 @@
       </c>
       <c r="K1190" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1190" t="inlineStr">
@@ -79896,7 +79896,7 @@
       </c>
       <c r="M1190" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -79953,7 +79953,7 @@
       </c>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1191" t="inlineStr">
@@ -79963,7 +79963,7 @@
       </c>
       <c r="M1191" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80020,7 +80020,7 @@
       </c>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1192" t="inlineStr">
@@ -80030,7 +80030,7 @@
       </c>
       <c r="M1192" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80087,7 +80087,7 @@
       </c>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1193" t="inlineStr">
@@ -80097,7 +80097,7 @@
       </c>
       <c r="M1193" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80154,7 +80154,7 @@
       </c>
       <c r="K1194" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1194" t="inlineStr">
@@ -80164,7 +80164,7 @@
       </c>
       <c r="M1194" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80221,7 +80221,7 @@
       </c>
       <c r="K1195" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1195" t="inlineStr">
@@ -80231,7 +80231,7 @@
       </c>
       <c r="M1195" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80288,7 +80288,7 @@
       </c>
       <c r="K1196" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1196" t="inlineStr">
@@ -80298,7 +80298,7 @@
       </c>
       <c r="M1196" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80355,7 +80355,7 @@
       </c>
       <c r="K1197" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1197" t="inlineStr">
@@ -80365,7 +80365,7 @@
       </c>
       <c r="M1197" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80422,7 +80422,7 @@
       </c>
       <c r="K1198" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1198" t="inlineStr">
@@ -80432,7 +80432,7 @@
       </c>
       <c r="M1198" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80489,7 +80489,7 @@
       </c>
       <c r="K1199" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1199" t="inlineStr">
@@ -80499,7 +80499,7 @@
       </c>
       <c r="M1199" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80556,7 +80556,7 @@
       </c>
       <c r="K1200" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1200" t="inlineStr">
@@ -80566,7 +80566,7 @@
       </c>
       <c r="M1200" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80623,7 +80623,7 @@
       </c>
       <c r="K1201" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1201" t="inlineStr">
@@ -80633,7 +80633,7 @@
       </c>
       <c r="M1201" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80690,7 +80690,7 @@
       </c>
       <c r="K1202" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:47+09:00</t>
+          <t>2026-03-01T06:40:08+09:00</t>
         </is>
       </c>
       <c r="L1202" t="inlineStr">
@@ -80700,7 +80700,7 @@
       </c>
       <c r="M1202" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80757,7 +80757,7 @@
       </c>
       <c r="K1203" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:48+09:00</t>
+          <t>2026-03-01T06:40:09+09:00</t>
         </is>
       </c>
       <c r="L1203" t="inlineStr">
@@ -80767,7 +80767,7 @@
       </c>
       <c r="M1203" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80824,7 +80824,7 @@
       </c>
       <c r="K1204" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:48+09:00</t>
+          <t>2026-03-01T06:40:09+09:00</t>
         </is>
       </c>
       <c r="L1204" t="inlineStr">
@@ -80834,7 +80834,7 @@
       </c>
       <c r="M1204" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80891,7 +80891,7 @@
       </c>
       <c r="K1205" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:48+09:00</t>
+          <t>2026-03-01T06:40:09+09:00</t>
         </is>
       </c>
       <c r="L1205" t="inlineStr">
@@ -80901,7 +80901,7 @@
       </c>
       <c r="M1205" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -80958,7 +80958,7 @@
       </c>
       <c r="K1206" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:48+09:00</t>
+          <t>2026-03-01T06:40:09+09:00</t>
         </is>
       </c>
       <c r="L1206" t="inlineStr">
@@ -80968,7 +80968,7 @@
       </c>
       <c r="M1206" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81025,7 +81025,7 @@
       </c>
       <c r="K1207" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:48+09:00</t>
+          <t>2026-03-01T06:40:09+09:00</t>
         </is>
       </c>
       <c r="L1207" t="inlineStr">
@@ -81035,7 +81035,7 @@
       </c>
       <c r="M1207" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81092,7 +81092,7 @@
       </c>
       <c r="K1208" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:48+09:00</t>
+          <t>2026-03-01T06:40:09+09:00</t>
         </is>
       </c>
       <c r="L1208" t="inlineStr">
@@ -81102,7 +81102,7 @@
       </c>
       <c r="M1208" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81159,7 +81159,7 @@
       </c>
       <c r="K1209" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:48+09:00</t>
+          <t>2026-03-01T06:40:09+09:00</t>
         </is>
       </c>
       <c r="L1209" t="inlineStr">
@@ -81169,7 +81169,7 @@
       </c>
       <c r="M1209" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81226,7 +81226,7 @@
       </c>
       <c r="K1210" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:48+09:00</t>
+          <t>2026-03-01T06:40:09+09:00</t>
         </is>
       </c>
       <c r="L1210" t="inlineStr">
@@ -81236,7 +81236,7 @@
       </c>
       <c r="M1210" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81293,7 +81293,7 @@
       </c>
       <c r="K1211" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:48+09:00</t>
+          <t>2026-03-01T06:40:09+09:00</t>
         </is>
       </c>
       <c r="L1211" t="inlineStr">
@@ -81303,7 +81303,7 @@
       </c>
       <c r="M1211" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81360,7 +81360,7 @@
       </c>
       <c r="K1212" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:48+09:00</t>
+          <t>2026-03-01T06:40:09+09:00</t>
         </is>
       </c>
       <c r="L1212" t="inlineStr">
@@ -81370,7 +81370,7 @@
       </c>
       <c r="M1212" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81427,7 +81427,7 @@
       </c>
       <c r="K1213" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1213" t="inlineStr">
@@ -81437,7 +81437,7 @@
       </c>
       <c r="M1213" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81494,7 +81494,7 @@
       </c>
       <c r="K1214" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1214" t="inlineStr">
@@ -81504,7 +81504,7 @@
       </c>
       <c r="M1214" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81561,7 +81561,7 @@
       </c>
       <c r="K1215" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1215" t="inlineStr">
@@ -81571,7 +81571,7 @@
       </c>
       <c r="M1215" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81628,7 +81628,7 @@
       </c>
       <c r="K1216" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1216" t="inlineStr">
@@ -81638,7 +81638,7 @@
       </c>
       <c r="M1216" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81695,7 +81695,7 @@
       </c>
       <c r="K1217" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1217" t="inlineStr">
@@ -81705,7 +81705,7 @@
       </c>
       <c r="M1217" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81762,7 +81762,7 @@
       </c>
       <c r="K1218" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1218" t="inlineStr">
@@ -81772,7 +81772,7 @@
       </c>
       <c r="M1218" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81829,7 +81829,7 @@
       </c>
       <c r="K1219" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1219" t="inlineStr">
@@ -81839,7 +81839,7 @@
       </c>
       <c r="M1219" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81896,7 +81896,7 @@
       </c>
       <c r="K1220" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1220" t="inlineStr">
@@ -81906,7 +81906,7 @@
       </c>
       <c r="M1220" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -81963,7 +81963,7 @@
       </c>
       <c r="K1221" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1221" t="inlineStr">
@@ -81973,7 +81973,7 @@
       </c>
       <c r="M1221" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82030,7 +82030,7 @@
       </c>
       <c r="K1222" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1222" t="inlineStr">
@@ -82040,7 +82040,7 @@
       </c>
       <c r="M1222" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82097,7 +82097,7 @@
       </c>
       <c r="K1223" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1223" t="inlineStr">
@@ -82107,7 +82107,7 @@
       </c>
       <c r="M1223" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82164,7 +82164,7 @@
       </c>
       <c r="K1224" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1224" t="inlineStr">
@@ -82174,7 +82174,7 @@
       </c>
       <c r="M1224" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82231,7 +82231,7 @@
       </c>
       <c r="K1225" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1225" t="inlineStr">
@@ -82241,7 +82241,7 @@
       </c>
       <c r="M1225" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82298,7 +82298,7 @@
       </c>
       <c r="K1226" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1226" t="inlineStr">
@@ -82308,7 +82308,7 @@
       </c>
       <c r="M1226" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82365,7 +82365,7 @@
       </c>
       <c r="K1227" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1227" t="inlineStr">
@@ -82375,7 +82375,7 @@
       </c>
       <c r="M1227" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82428,7 +82428,7 @@
       <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1228" t="inlineStr">
@@ -82438,7 +82438,7 @@
       </c>
       <c r="M1228" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82495,7 +82495,7 @@
       </c>
       <c r="K1229" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1229" t="inlineStr">
@@ -82505,7 +82505,7 @@
       </c>
       <c r="M1229" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82562,7 +82562,7 @@
       </c>
       <c r="K1230" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1230" t="inlineStr">
@@ -82572,7 +82572,7 @@
       </c>
       <c r="M1230" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82629,7 +82629,7 @@
       </c>
       <c r="K1231" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1231" t="inlineStr">
@@ -82639,7 +82639,7 @@
       </c>
       <c r="M1231" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82696,7 +82696,7 @@
       </c>
       <c r="K1232" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1232" t="inlineStr">
@@ -82706,7 +82706,7 @@
       </c>
       <c r="M1232" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82763,7 +82763,7 @@
       </c>
       <c r="K1233" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1233" t="inlineStr">
@@ -82773,7 +82773,7 @@
       </c>
       <c r="M1233" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82830,7 +82830,7 @@
       </c>
       <c r="K1234" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:51+09:00</t>
+          <t>2026-03-01T06:40:12+09:00</t>
         </is>
       </c>
       <c r="L1234" t="inlineStr">
@@ -82840,7 +82840,7 @@
       </c>
       <c r="M1234" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82897,7 +82897,7 @@
       </c>
       <c r="K1235" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:52+09:00</t>
+          <t>2026-03-01T06:40:13+09:00</t>
         </is>
       </c>
       <c r="L1235" t="inlineStr">
@@ -82907,7 +82907,7 @@
       </c>
       <c r="M1235" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -82964,7 +82964,7 @@
       </c>
       <c r="K1236" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:54+09:00</t>
+          <t>2026-03-01T06:40:14+09:00</t>
         </is>
       </c>
       <c r="L1236" t="inlineStr">
@@ -82974,7 +82974,7 @@
       </c>
       <c r="M1236" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83031,7 +83031,7 @@
       </c>
       <c r="K1237" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:54+09:00</t>
+          <t>2026-03-01T06:40:14+09:00</t>
         </is>
       </c>
       <c r="L1237" t="inlineStr">
@@ -83041,7 +83041,7 @@
       </c>
       <c r="M1237" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83098,7 +83098,7 @@
       </c>
       <c r="K1238" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1238" t="inlineStr">
@@ -83108,7 +83108,7 @@
       </c>
       <c r="M1238" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83165,7 +83165,7 @@
       </c>
       <c r="K1239" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1239" t="inlineStr">
@@ -83175,7 +83175,7 @@
       </c>
       <c r="M1239" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83232,7 +83232,7 @@
       </c>
       <c r="K1240" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1240" t="inlineStr">
@@ -83242,7 +83242,7 @@
       </c>
       <c r="M1240" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83299,7 +83299,7 @@
       </c>
       <c r="K1241" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1241" t="inlineStr">
@@ -83309,7 +83309,7 @@
       </c>
       <c r="M1241" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83366,7 +83366,7 @@
       </c>
       <c r="K1242" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1242" t="inlineStr">
@@ -83376,7 +83376,7 @@
       </c>
       <c r="M1242" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83433,7 +83433,7 @@
       </c>
       <c r="K1243" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1243" t="inlineStr">
@@ -83443,7 +83443,7 @@
       </c>
       <c r="M1243" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83500,7 +83500,7 @@
       </c>
       <c r="K1244" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1244" t="inlineStr">
@@ -83510,7 +83510,7 @@
       </c>
       <c r="M1244" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83567,7 +83567,7 @@
       </c>
       <c r="K1245" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1245" t="inlineStr">
@@ -83577,7 +83577,7 @@
       </c>
       <c r="M1245" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83634,7 +83634,7 @@
       </c>
       <c r="K1246" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1246" t="inlineStr">
@@ -83644,7 +83644,7 @@
       </c>
       <c r="M1246" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83701,7 +83701,7 @@
       </c>
       <c r="K1247" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1247" t="inlineStr">
@@ -83711,7 +83711,7 @@
       </c>
       <c r="M1247" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83768,7 +83768,7 @@
       </c>
       <c r="K1248" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1248" t="inlineStr">
@@ -83778,7 +83778,7 @@
       </c>
       <c r="M1248" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83835,7 +83835,7 @@
       </c>
       <c r="K1249" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1249" t="inlineStr">
@@ -83845,7 +83845,7 @@
       </c>
       <c r="M1249" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83902,7 +83902,7 @@
       </c>
       <c r="K1250" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1250" t="inlineStr">
@@ -83912,7 +83912,7 @@
       </c>
       <c r="M1250" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -83969,7 +83969,7 @@
       </c>
       <c r="K1251" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1251" t="inlineStr">
@@ -83979,7 +83979,7 @@
       </c>
       <c r="M1251" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84036,7 +84036,7 @@
       </c>
       <c r="K1252" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1252" t="inlineStr">
@@ -84046,7 +84046,7 @@
       </c>
       <c r="M1252" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84099,7 +84099,7 @@
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1253" t="inlineStr">
@@ -84109,7 +84109,7 @@
       </c>
       <c r="M1253" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84166,7 +84166,7 @@
       </c>
       <c r="K1254" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1254" t="inlineStr">
@@ -84176,7 +84176,7 @@
       </c>
       <c r="M1254" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84233,7 +84233,7 @@
       </c>
       <c r="K1255" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1255" t="inlineStr">
@@ -84243,7 +84243,7 @@
       </c>
       <c r="M1255" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84300,7 +84300,7 @@
       </c>
       <c r="K1256" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1256" t="inlineStr">
@@ -84310,7 +84310,7 @@
       </c>
       <c r="M1256" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84367,7 +84367,7 @@
       </c>
       <c r="K1257" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1257" t="inlineStr">
@@ -84377,7 +84377,7 @@
       </c>
       <c r="M1257" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84434,7 +84434,7 @@
       </c>
       <c r="K1258" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1258" t="inlineStr">
@@ -84444,7 +84444,7 @@
       </c>
       <c r="M1258" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84501,7 +84501,7 @@
       </c>
       <c r="K1259" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1259" t="inlineStr">
@@ -84511,7 +84511,7 @@
       </c>
       <c r="M1259" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84568,7 +84568,7 @@
       </c>
       <c r="K1260" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1260" t="inlineStr">
@@ -84578,7 +84578,7 @@
       </c>
       <c r="M1260" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84631,7 +84631,7 @@
       <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1261" t="inlineStr">
@@ -84641,7 +84641,7 @@
       </c>
       <c r="M1261" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84694,7 +84694,7 @@
       <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1262" t="inlineStr">
@@ -84704,7 +84704,7 @@
       </c>
       <c r="M1262" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84761,7 +84761,7 @@
       </c>
       <c r="K1263" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1263" t="inlineStr">
@@ -84771,7 +84771,7 @@
       </c>
       <c r="M1263" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84828,7 +84828,7 @@
       </c>
       <c r="K1264" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1264" t="inlineStr">
@@ -84838,7 +84838,7 @@
       </c>
       <c r="M1264" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84895,7 +84895,7 @@
       </c>
       <c r="K1265" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1265" t="inlineStr">
@@ -84905,7 +84905,7 @@
       </c>
       <c r="M1265" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -84962,7 +84962,7 @@
       </c>
       <c r="K1266" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1266" t="inlineStr">
@@ -84972,7 +84972,7 @@
       </c>
       <c r="M1266" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85029,7 +85029,7 @@
       </c>
       <c r="K1267" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1267" t="inlineStr">
@@ -85039,7 +85039,7 @@
       </c>
       <c r="M1267" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85096,7 +85096,7 @@
       </c>
       <c r="K1268" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:55+09:00</t>
+          <t>2026-03-01T06:40:15+09:00</t>
         </is>
       </c>
       <c r="L1268" t="inlineStr">
@@ -85106,7 +85106,7 @@
       </c>
       <c r="M1268" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85163,7 +85163,7 @@
       </c>
       <c r="K1269" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:56+09:00</t>
+          <t>2026-03-01T06:40:16+09:00</t>
         </is>
       </c>
       <c r="L1269" t="inlineStr">
@@ -85173,7 +85173,7 @@
       </c>
       <c r="M1269" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85230,7 +85230,7 @@
       </c>
       <c r="K1270" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:57+09:00</t>
+          <t>2026-03-01T06:40:17+09:00</t>
         </is>
       </c>
       <c r="L1270" t="inlineStr">
@@ -85240,7 +85240,7 @@
       </c>
       <c r="M1270" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85297,7 +85297,7 @@
       </c>
       <c r="K1271" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:57+09:00</t>
+          <t>2026-03-01T06:40:17+09:00</t>
         </is>
       </c>
       <c r="L1271" t="inlineStr">
@@ -85307,7 +85307,7 @@
       </c>
       <c r="M1271" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85364,7 +85364,7 @@
       </c>
       <c r="K1272" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:57+09:00</t>
+          <t>2026-03-01T06:40:17+09:00</t>
         </is>
       </c>
       <c r="L1272" t="inlineStr">
@@ -85374,7 +85374,7 @@
       </c>
       <c r="M1272" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85431,7 +85431,7 @@
       </c>
       <c r="K1273" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1273" t="inlineStr">
@@ -85441,7 +85441,7 @@
       </c>
       <c r="M1273" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85498,7 +85498,7 @@
       </c>
       <c r="K1274" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1274" t="inlineStr">
@@ -85508,7 +85508,7 @@
       </c>
       <c r="M1274" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85565,7 +85565,7 @@
       </c>
       <c r="K1275" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1275" t="inlineStr">
@@ -85575,7 +85575,7 @@
       </c>
       <c r="M1275" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85632,7 +85632,7 @@
       </c>
       <c r="K1276" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1276" t="inlineStr">
@@ -85642,7 +85642,7 @@
       </c>
       <c r="M1276" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85699,7 +85699,7 @@
       </c>
       <c r="K1277" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1277" t="inlineStr">
@@ -85709,7 +85709,7 @@
       </c>
       <c r="M1277" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85766,7 +85766,7 @@
       </c>
       <c r="K1278" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1278" t="inlineStr">
@@ -85776,7 +85776,7 @@
       </c>
       <c r="M1278" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85833,7 +85833,7 @@
       </c>
       <c r="K1279" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1279" t="inlineStr">
@@ -85843,7 +85843,7 @@
       </c>
       <c r="M1279" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85900,7 +85900,7 @@
       </c>
       <c r="K1280" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1280" t="inlineStr">
@@ -85910,7 +85910,7 @@
       </c>
       <c r="M1280" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -85967,7 +85967,7 @@
       </c>
       <c r="K1281" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1281" t="inlineStr">
@@ -85977,7 +85977,7 @@
       </c>
       <c r="M1281" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86034,7 +86034,7 @@
       </c>
       <c r="K1282" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1282" t="inlineStr">
@@ -86044,7 +86044,7 @@
       </c>
       <c r="M1282" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86101,7 +86101,7 @@
       </c>
       <c r="K1283" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1283" t="inlineStr">
@@ -86111,7 +86111,7 @@
       </c>
       <c r="M1283" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86168,7 +86168,7 @@
       </c>
       <c r="K1284" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1284" t="inlineStr">
@@ -86178,7 +86178,7 @@
       </c>
       <c r="M1284" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86235,7 +86235,7 @@
       </c>
       <c r="K1285" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1285" t="inlineStr">
@@ -86245,7 +86245,7 @@
       </c>
       <c r="M1285" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86302,7 +86302,7 @@
       </c>
       <c r="K1286" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1286" t="inlineStr">
@@ -86312,7 +86312,7 @@
       </c>
       <c r="M1286" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86369,7 +86369,7 @@
       </c>
       <c r="K1287" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:58+09:00</t>
+          <t>2026-03-01T06:40:18+09:00</t>
         </is>
       </c>
       <c r="L1287" t="inlineStr">
@@ -86379,7 +86379,7 @@
       </c>
       <c r="M1287" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86436,7 +86436,7 @@
       </c>
       <c r="K1288" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:59+09:00</t>
+          <t>2026-03-01T06:40:19+09:00</t>
         </is>
       </c>
       <c r="L1288" t="inlineStr">
@@ -86446,7 +86446,7 @@
       </c>
       <c r="M1288" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86503,7 +86503,7 @@
       </c>
       <c r="K1289" t="inlineStr">
         <is>
-          <t>2026-03-01T05:37:59+09:00</t>
+          <t>2026-03-01T06:40:19+09:00</t>
         </is>
       </c>
       <c r="L1289" t="inlineStr">
@@ -86513,7 +86513,7 @@
       </c>
       <c r="M1289" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86570,7 +86570,7 @@
       </c>
       <c r="K1290" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:02+09:00</t>
+          <t>2026-03-01T06:40:22+09:00</t>
         </is>
       </c>
       <c r="L1290" t="inlineStr">
@@ -86580,7 +86580,7 @@
       </c>
       <c r="M1290" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86637,7 +86637,7 @@
       </c>
       <c r="K1291" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:02+09:00</t>
+          <t>2026-03-01T06:40:22+09:00</t>
         </is>
       </c>
       <c r="L1291" t="inlineStr">
@@ -86647,7 +86647,7 @@
       </c>
       <c r="M1291" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86704,7 +86704,7 @@
       </c>
       <c r="K1292" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:02+09:00</t>
+          <t>2026-03-01T06:40:22+09:00</t>
         </is>
       </c>
       <c r="L1292" t="inlineStr">
@@ -86714,7 +86714,7 @@
       </c>
       <c r="M1292" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86771,7 +86771,7 @@
       </c>
       <c r="K1293" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:02+09:00</t>
+          <t>2026-03-01T06:40:22+09:00</t>
         </is>
       </c>
       <c r="L1293" t="inlineStr">
@@ -86781,7 +86781,7 @@
       </c>
       <c r="M1293" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86838,7 +86838,7 @@
       </c>
       <c r="K1294" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:02+09:00</t>
+          <t>2026-03-01T06:40:22+09:00</t>
         </is>
       </c>
       <c r="L1294" t="inlineStr">
@@ -86848,7 +86848,7 @@
       </c>
       <c r="M1294" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86905,7 +86905,7 @@
       </c>
       <c r="K1295" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:02+09:00</t>
+          <t>2026-03-01T06:40:22+09:00</t>
         </is>
       </c>
       <c r="L1295" t="inlineStr">
@@ -86915,7 +86915,7 @@
       </c>
       <c r="M1295" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -86972,7 +86972,7 @@
       </c>
       <c r="K1296" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:02+09:00</t>
+          <t>2026-03-01T06:40:22+09:00</t>
         </is>
       </c>
       <c r="L1296" t="inlineStr">
@@ -86982,7 +86982,7 @@
       </c>
       <c r="M1296" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -87039,7 +87039,7 @@
       </c>
       <c r="K1297" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:02+09:00</t>
+          <t>2026-03-01T06:40:22+09:00</t>
         </is>
       </c>
       <c r="L1297" t="inlineStr">
@@ -87049,7 +87049,7 @@
       </c>
       <c r="M1297" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -87106,7 +87106,7 @@
       </c>
       <c r="K1298" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:02+09:00</t>
+          <t>2026-03-01T06:40:22+09:00</t>
         </is>
       </c>
       <c r="L1298" t="inlineStr">
@@ -87116,7 +87116,7 @@
       </c>
       <c r="M1298" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -87173,7 +87173,7 @@
       </c>
       <c r="K1299" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:02+09:00</t>
+          <t>2026-03-01T06:40:22+09:00</t>
         </is>
       </c>
       <c r="L1299" t="inlineStr">
@@ -87183,7 +87183,7 @@
       </c>
       <c r="M1299" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -87236,7 +87236,7 @@
       <c r="J1300" t="inlineStr"/>
       <c r="K1300" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:03+09:00</t>
+          <t>2026-03-01T06:40:23+09:00</t>
         </is>
       </c>
       <c r="L1300" t="inlineStr">
@@ -87246,7 +87246,7 @@
       </c>
       <c r="M1300" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -87299,7 +87299,7 @@
       <c r="J1301" t="inlineStr"/>
       <c r="K1301" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:03+09:00</t>
+          <t>2026-03-01T06:40:23+09:00</t>
         </is>
       </c>
       <c r="L1301" t="inlineStr">
@@ -87309,7 +87309,7 @@
       </c>
       <c r="M1301" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -87366,7 +87366,7 @@
       </c>
       <c r="K1302" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:27+09:00</t>
+          <t>2026-03-01T06:40:47+09:00</t>
         </is>
       </c>
       <c r="L1302" t="inlineStr">
@@ -87376,7 +87376,7 @@
       </c>
       <c r="M1302" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -87429,7 +87429,7 @@
       <c r="J1303" t="inlineStr"/>
       <c r="K1303" t="inlineStr">
         <is>
-          <t>2026-03-01T05:38:29+09:00</t>
+          <t>2026-03-01T06:40:48+09:00</t>
         </is>
       </c>
       <c r="L1303" t="inlineStr">
@@ -87439,7 +87439,7 @@
       </c>
       <c r="M1303" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
     </row>
@@ -87502,7 +87502,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -87539,7 +87539,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -87576,7 +87576,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -87613,7 +87613,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -87650,7 +87650,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -87687,7 +87687,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -87724,7 +87724,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-03-01 05:39:23</t>
+          <t>2026-03-01 06:41:37</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
